--- a/Projects/CCKR_SAND/Data/CC Korea - Availability KPI_120718.xlsx
+++ b/Projects/CCKR_SAND/Data/CC Korea - Availability KPI_120718.xlsx
@@ -14,8 +14,9 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet4!$A$1:$E$54</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet4!$A$1:$E$54</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet4!$A$1:$E$53</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet4!$A$1:$E$53</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Sheet4!$A$1:$E$53</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="58">
   <si>
     <t xml:space="preserve">Kpi Display Text (SKU Name)</t>
   </si>
@@ -44,15 +45,13 @@
     <t xml:space="preserve">Kpi Weight</t>
   </si>
   <si>
-    <t xml:space="preserve">PED Adult Senior 1.2kg X 15</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">조지아 스위트 아메리카노 </t>
     </r>
@@ -72,6 +71,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">캔</t>
     </r>
@@ -86,6 +86,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">글라소 파워씨 </t>
     </r>
@@ -105,6 +106,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">페트</t>
     </r>
@@ -116,6 +118,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">미닛메이드 알로에 </t>
     </r>
@@ -135,6 +138,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">페트</t>
     </r>
@@ -146,6 +150,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">미닛메이드 오리지널 오렌지</t>
     </r>
@@ -165,6 +170,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">페트</t>
     </r>
@@ -176,6 +182,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">미닛메이드 오리지널 오렌지</t>
     </r>
@@ -195,6 +202,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">페트</t>
     </r>
@@ -206,6 +214,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">미닛메이드 오리지널 토마토 </t>
     </r>
@@ -225,6 +234,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">페트</t>
     </r>
@@ -236,6 +246,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">미닛메이드 오리지널 포도</t>
     </r>
@@ -255,6 +266,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">페트</t>
     </r>
@@ -266,6 +278,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">미닛메이드 제주감귤 </t>
     </r>
@@ -285,6 +298,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">페트</t>
     </r>
@@ -296,6 +310,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">미닛메이드 홈스타일 오렌지</t>
     </r>
@@ -315,6 +330,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">페트</t>
     </r>
@@ -326,6 +342,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">스프라이트 </t>
     </r>
@@ -345,6 +362,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">페트</t>
     </r>
@@ -356,6 +374,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">스프라이트 </t>
     </r>
@@ -375,6 +394,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">캔</t>
     </r>
@@ -386,6 +406,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">스프라이트 </t>
     </r>
@@ -405,6 +426,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">페트</t>
     </r>
@@ -416,6 +438,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">씨그램 레몬 </t>
     </r>
@@ -435,6 +458,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">페트</t>
     </r>
@@ -446,6 +470,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">씨그램라임 </t>
     </r>
@@ -465,6 +490,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">페트</t>
     </r>
@@ -476,6 +502,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">씨그램플레인 </t>
     </r>
@@ -495,6 +522,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">페트</t>
     </r>
@@ -506,6 +534,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">암바사 </t>
     </r>
@@ -525,6 +554,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">페트</t>
     </r>
@@ -536,6 +566,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">암바사 </t>
     </r>
@@ -555,6 +586,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">캔</t>
     </r>
@@ -566,6 +598,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">암바사 </t>
     </r>
@@ -585,6 +618,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">페트</t>
     </r>
@@ -596,6 +630,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">조지아 고티카 아로마 라떼 </t>
     </r>
@@ -615,6 +650,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">보틀캔</t>
     </r>
@@ -626,6 +662,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">조지아 고티카 아로마 블랙 </t>
     </r>
@@ -645,6 +682,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">보틀캔</t>
     </r>
@@ -656,6 +694,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">조지아 고티카 아메리카노 </t>
     </r>
@@ -675,6 +714,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">보틀캔</t>
     </r>
@@ -686,6 +726,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">조지아 오리지널 </t>
     </r>
@@ -705,6 +746,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">캔</t>
     </r>
@@ -716,6 +758,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">미닛메이드 홈스타일 청포도 </t>
     </r>
@@ -735,6 +778,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">페트</t>
     </r>
@@ -746,6 +790,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">조지아 카페라떼 </t>
     </r>
@@ -765,6 +810,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">캔</t>
     </r>
@@ -776,6 +822,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">코카콜라 제로 </t>
     </r>
@@ -795,6 +842,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">페트</t>
     </r>
@@ -806,6 +854,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">코카콜라 제로 </t>
     </r>
@@ -825,6 +874,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">캔</t>
     </r>
@@ -836,6 +886,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">코카콜라 제로 </t>
     </r>
@@ -855,6 +906,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">페트</t>
     </r>
@@ -866,6 +918,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">태양의마테차 </t>
     </r>
@@ -885,6 +938,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">페트</t>
     </r>
@@ -896,6 +950,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">파워에이드 마운틴블라스트 </t>
     </r>
@@ -915,6 +970,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">페트</t>
     </r>
@@ -926,6 +982,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">파워에이드 마운틴블라스트 </t>
     </r>
@@ -945,6 +1002,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">캔</t>
     </r>
@@ -956,6 +1014,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">파워에이드 마운틴블라스트 </t>
     </r>
@@ -975,6 +1034,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">페트</t>
     </r>
@@ -986,6 +1046,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">환타 오렌지 </t>
     </r>
@@ -1005,6 +1066,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">페트</t>
     </r>
@@ -1016,6 +1078,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">환타 오렌지 </t>
     </r>
@@ -1035,6 +1098,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">캔</t>
     </r>
@@ -1046,6 +1110,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">환타 오렌지 </t>
     </r>
@@ -1065,6 +1130,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">페트</t>
     </r>
@@ -1076,6 +1142,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">환타 파인애플 </t>
     </r>
@@ -1095,6 +1162,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">페트</t>
     </r>
@@ -1106,6 +1174,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">환타 파인애플 </t>
     </r>
@@ -1125,6 +1194,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">캔</t>
     </r>
@@ -1136,6 +1206,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">환타 파인애플 </t>
     </r>
@@ -1155,6 +1226,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">페트</t>
     </r>
@@ -1166,6 +1238,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">휘오 순수 </t>
     </r>
@@ -1187,6 +1260,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">휘오 순수 </t>
     </r>
@@ -1208,6 +1282,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">토레타 </t>
     </r>
@@ -1227,6 +1302,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">캔</t>
     </r>
@@ -1238,6 +1314,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">토레타 </t>
     </r>
@@ -1257,6 +1334,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">페트</t>
     </r>
@@ -1268,6 +1346,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">토레타 </t>
     </r>
@@ -1287,6 +1366,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">페트</t>
     </r>
@@ -1298,6 +1378,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">몬스터 그린 </t>
     </r>
@@ -1317,6 +1398,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">캔</t>
     </r>
@@ -1328,6 +1410,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">몬스터 울트라 </t>
     </r>
@@ -1347,6 +1430,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">캔</t>
     </r>
@@ -1358,6 +1442,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">코카콜라 </t>
     </r>
@@ -1377,6 +1462,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">캔</t>
     </r>
@@ -1388,6 +1474,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">미닛메이드쿠우 오렌지 </t>
     </r>
@@ -1407,6 +1494,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">페트</t>
     </r>
@@ -1418,6 +1506,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">미닛메이드 스파클링 청포도 </t>
     </r>
@@ -1437,6 +1526,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">캔</t>
     </r>
@@ -1448,6 +1538,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">미닛메이드 스파클링 사과 </t>
     </r>
@@ -1467,6 +1558,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">캔</t>
     </r>
@@ -1478,6 +1570,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">조지아 고티카 콜드브루 아메리카노 </t>
     </r>
@@ -1497,6 +1590,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">보틀캔</t>
     </r>
@@ -1508,6 +1602,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">조지아 고티카 콜드브루 카페라떼 </t>
     </r>
@@ -1527,6 +1622,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">보틀캔</t>
     </r>
@@ -1538,6 +1634,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">골드피크 오리지널 </t>
     </r>
@@ -1557,6 +1654,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">페트</t>
     </r>
@@ -1568,6 +1666,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">미닛메이드 알로에 </t>
     </r>
@@ -1587,6 +1686,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">페트</t>
     </r>
@@ -1599,7 +1699,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1633,14 +1733,9 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Noto Sans CJK SC Regular"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1698,7 +1793,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1707,11 +1802,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1799,8 +1890,843 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="UTF-8" standalone="yes"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"><externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"><sheetNames><sheetName val="Sheet1"/><sheetName val="Container Type"/><sheetName val="Trax Categories"/></sheetNames><sheetDataSet><sheetData sheetId="0"><row r="3"><cell r="C3" t="str"><v>General Empty</v></cell></row><row r="4"><cell r="C4" t="str"><v>17차 1.5L페트</v></cell><cell r="D4" t="str"><v>8801069174037</v></cell></row><row r="5"><cell r="C5" t="str"><v>17차 500ml페트</v></cell><cell r="D5" t="str"><v>8801069174020</v></cell></row><row r="6"><cell r="C6" t="str"><v>17차 340ml페트</v></cell><cell r="D6" t="str"><v>8801069173986</v></cell></row><row r="7"><cell r="C7" t="str"><v>2%부족할때 1.5L페트</v></cell><cell r="D7" t="str"><v>8801056002749</v></cell></row><row r="8"><cell r="C8" t="str"><v>2%부족할때 240ml캔</v></cell><cell r="D8" t="str"><v>8801056002701</v></cell></row><row r="9"><cell r="C9" t="str"><v>2%부족할때 350ml 페트</v></cell><cell r="D9" t="str"><v>8801056017583</v></cell></row><row r="10"><cell r="C10" t="str"><v>아침햇살 180ml병</v></cell><cell r="D10" t="str"><v>8801382124504</v></cell></row><row r="11"><cell r="C11" t="str"><v>아침햇살 선물세트 180ml병*12</v></cell><cell r="D11" t="str"><v>8801382123354</v></cell></row><row r="12"><cell r="C12" t="str"><v>아침햇살 1.5L 페트</v></cell><cell r="D12" t="str"><v>8801382123446</v></cell></row><row r="13"><cell r="C13" t="str"><v>아침햇살 500ml 페트</v></cell><cell r="D13" t="str"><v>8801382124528</v></cell></row><row r="14"><cell r="C14" t="str"><v>오늘의차 아침헛개 500ml페트</v></cell><cell r="D14" t="str"><v>8801056051099</v></cell></row><row r="15"><cell r="C15" t="str"><v>아침에 사과 200ml컵</v></cell><cell r="D15" t="str"><v>8801115336778</v></cell></row><row r="16"><cell r="C16" t="str"><v>아쿠아파나 750ml병</v></cell><cell r="D16" t="str"><v>8002270018237</v></cell></row><row r="17"><cell r="C17" t="str"><v>아마존시크릿 아사이베리 500ml페트</v></cell><cell r="D17" t="str"><v>8801056066048</v></cell></row><row r="18"><cell r="C18" t="str"><v>암바사 1.5L페트</v></cell><cell r="D18" t="str"><v>8801094252403</v></cell></row><row r="19"><cell r="C19" t="str"><v>암바사 250ml캔</v></cell><cell r="D19" t="str"><v>8801094253004</v></cell></row><row r="20"><cell r="C20" t="str"><v>암바사 300ml페트</v></cell><cell r="D20" t="str"><v>8801094252106</v></cell></row><row r="21"><cell r="C21" t="str"><v>암바사 500ml페트</v></cell><cell r="D21" t="str"><v>8801094252601</v></cell></row><row r="22"><cell r="C22" t="str"><v>엔제리너스 카페라떼 250ml병</v></cell><cell r="D22" t="str"><v>8801056031565</v></cell></row><row r="23"><cell r="C23" t="str"><v>엔제리너스 카페모카 250ml병</v></cell><cell r="D23" t="str"><v>8801056031527</v></cell></row><row r="24"><cell r="C24" t="str"><v>엔제리너스 카페라떼 200ml컵</v></cell><cell r="D24" t="str"><v>8801056031589</v></cell></row><row r="25"><cell r="C25" t="str"><v>엔제리너스 카라멜마키아토 250ml병</v></cell><cell r="D25" t="str"><v>8801056031541</v></cell></row><row r="26"><cell r="C26" t="str"><v>앵그리버드사과 240ml페트</v></cell><cell r="D26" t="str"><v>8809111694014</v></cell></row><row r="27"><cell r="C27" t="str"><v>앵그리버드사과블루베리 100ml파우치</v></cell><cell r="D27" t="str"><v>8809111694243</v></cell></row><row r="28"><cell r="C28" t="str"><v>앵그리버드포도 240ml페트</v></cell><cell r="D28" t="str"><v>8809111694090</v></cell></row><row r="29"><cell r="C29" t="str"><v>앵그리버드복숭아딸기 100ml파우치</v></cell><cell r="D29" t="str"><v>8809111694229</v></cell></row><row r="30"><cell r="C30" t="str"><v>앵그리버드파인애플 240ml페트</v></cell><cell r="D30" t="str"><v>8809111694021</v></cell></row><row r="31"><cell r="C31" t="str"><v>앵그리버드딸기 240ml페트</v></cell><cell r="D31" t="str"><v>8809111694007</v></cell></row><row r="32"><cell r="C32" t="str"><v>아쿠아리우스 1.5L페트</v></cell><cell r="D32" t="str"><v>8801094302405</v></cell></row><row r="33"><cell r="C33" t="str"><v>아쿠아리우스 240ml캔</v></cell><cell r="D33" t="str"><v>8801094303006</v></cell></row><row r="34"><cell r="C34" t="str"><v>아쿠아리우스 500ml페트</v></cell><cell r="D34" t="str"><v>8801094302603</v></cell></row><row r="35"><cell r="C35" t="str"><v>아리조나 그린티 진생허니 680ml캔</v></cell><cell r="D35" t="str"><v>613008715267</v></cell></row><row r="36"><cell r="C36" t="str"><v>아리조나 아이스티 레몬 680ml캔</v></cell><cell r="D36" t="str"><v>613008735159</v></cell></row><row r="37"><cell r="C37" t="str"><v>아리조나 아이스티 라즈베리 680ml캔</v></cell><cell r="D37" t="str"><v>613008735470</v></cell></row><row r="38"><cell r="C38" t="str"><v>앳홈 사과100 1.5L</v></cell><cell r="D38" t="str"><v>8801069178202</v></cell></row><row r="39"><cell r="C39" t="str"><v>앳홈 복숭아속살 1.5L페트</v></cell><cell r="D39" t="str"><v>8801069174235</v></cell></row><row r="40"><cell r="C40" t="str"><v>블랙빈티 340ml페트</v></cell><cell r="D40" t="str"><v>8801097224025</v></cell></row><row r="41"><cell r="C41" t="str"><v>바바 아메리카노클래식 270ml병</v></cell><cell r="D41" t="str"><v>8801382136118</v></cell></row><row r="42"><cell r="C42" t="str"><v>바바 카페모카클래식 270ml병</v></cell><cell r="D42" t="str"><v>8801382136125</v></cell></row><row r="43"><cell r="C43" t="str"><v>바바 카라멜아포카토 290ml페트</v></cell><cell r="D43" t="str"><v>8801382140733</v></cell></row><row r="44"><cell r="C44" t="str"><v>바바 프리미엄라떼 200ml캔</v></cell><cell r="D44" t="str"><v>8801382136064</v></cell></row><row r="45"><cell r="C45" t="str"><v>바바 에스프레소 스윗 아메리카노 275ml보틀캔</v></cell><cell r="D45" t="str"><v>8801382143048</v></cell></row><row r="46"><cell r="C46" t="str"><v>바바 스윗아메리카노 200ml캔</v></cell><cell r="D46" t="str"><v>8801382136057</v></cell></row><row r="47"><cell r="C47" t="str"><v>바바 에스프레소 프리미엄 라떼 275ml보틀캔</v></cell><cell r="D47" t="str"><v>8801382143055</v></cell></row><row r="48"><cell r="C48" t="str"><v>바바 아이스카페라떼 190ml파우치</v></cell><cell r="D48" t="str"><v>8801382142881</v></cell></row><row r="49"><cell r="C49" t="str"><v>바바 아이스카라멜마끼아또 190ml파우치</v></cell><cell r="D49" t="str"><v>8801382142898</v></cell></row><row r="50"><cell r="C50" t="str"><v>백두산 하늘샘 500ml페트</v></cell><cell r="D50" t="str"><v>8801056055349</v></cell></row><row r="51"><cell r="C51" t="str"><v>백산수 600ml페트</v></cell><cell r="D51" t="str"><v>8801043020459</v></cell></row><row r="52"><cell r="C52" t="str"><v>백산수 2L페트</v></cell><cell r="D52" t="str"><v>8801043020473</v></cell></row><row r="53"><cell r="C53" t="str"><v>바리스타 커피 에스프레소 라떼 250ml컵</v></cell><cell r="D53" t="str"><v>8801121106792</v></cell></row><row r="54"><cell r="C54" t="str"><v>바리스타 커피 모카프레소 250ml컵</v></cell><cell r="D54" t="str"><v>8801121107942</v></cell></row><row r="55"><cell r="C55" t="str"><v>바리스타 커피 스모키 로스팅 라떼 250ml컵</v></cell><cell r="D55" t="str"><v>8801121107935</v></cell></row><row r="56"><cell r="C56" t="str"><v>뽕나무하늘소 오디웰빙주스 180ml병</v></cell><cell r="D56" t="str"><v>8809060156007</v></cell></row><row r="57"><cell r="C57" t="str"><v>뽀로로보리차 220ml페트</v></cell><cell r="D57" t="str"><v>8809296885009</v></cell></row><row r="58"><cell r="C58" t="str"><v>MM벌꿀유자 280병</v></cell><cell r="D58" t="str"><v>8011094442101</v></cell></row><row r="59"><cell r="C59" t="str"><v>비락식혜 1.8L페트</v></cell><cell r="D59" t="str"><v>8801128943406</v></cell></row><row r="60"><cell r="C60" t="str"><v>비락식혜 238ml캔</v></cell><cell r="D60" t="str"><v>8801128900201</v></cell></row><row r="61"><cell r="C61" t="str"><v>비락식혜 250ml컵</v></cell><cell r="D61" t="str"><v>8809296885443</v></cell></row><row r="62"><cell r="C62" t="str"><v>비락 수정과 238ml캔</v></cell><cell r="D62" t="str"><v>8800128900232</v></cell></row><row r="63"><cell r="C63" t="str"><v>비락수정과 1.8L페트</v></cell><cell r="D63" t="str"><v>8801128945172</v></cell></row><row r="64"><cell r="C64" t="str"><v>비락수정과 238ml캔</v></cell><cell r="D64" t="str"><v>8801128900232</v></cell></row><row r="65"><cell r="C65" t="str"><v>이마트 블루 2L페트</v></cell><cell r="D65" t="str"><v>8803186200200</v></cell></row><row r="66"><cell r="C66" t="str"><v>블루 500ml페트</v></cell><cell r="D66" t="str"><v>8801047288381</v></cell></row><row r="67"><cell r="C67" t="str"><v>델몬트 복분자 180ml병</v></cell><cell r="D67" t="str"><v>8801056015299</v></cell></row><row r="68"><cell r="C68" t="str"><v>본카페커피팝 330ml캔</v></cell><cell r="D68" t="str"><v>8888089402531</v></cell></row><row r="69"><cell r="C69" t="str"><v>포도 봉봉 240ml캔</v></cell><cell r="D69" t="str"><v>8801105909951</v></cell></row><row r="70"><cell r="C70" t="str"><v>봉봉오렌지 180ml캔</v></cell><cell r="D70" t="str"><v>8801105906226</v></cell></row><row r="71"><cell r="C71" t="str"><v>파인애플 봉봉 240ml캔</v></cell><cell r="D71" t="str"><v>8801105912975</v></cell></row><row r="72"><cell r="C72" t="str"><v>봉평샘물 500페트*20입</v></cell><cell r="D72" t="str"><v>8801105909142</v></cell></row><row r="73"><cell r="C73" t="str"><v>미닛메이드 벌꿀유자 240ml캔</v></cell><cell r="D73" t="str"><v>8801094443009</v></cell></row><row r="74"><cell r="C74" t="str"><v>번인텐스 250ml캔</v></cell><cell r="D74" t="str"><v>8801094803001</v></cell></row><row r="75"><cell r="C75" t="str"><v>번인텐스 250ml캔*6팩</v></cell><cell r="D75" t="str"><v>8801094803032</v></cell></row><row r="76"><cell r="C76" t="str"><v>번인텐스 350ml페트</v></cell><cell r="D76" t="str"><v>8801094802202</v></cell></row><row r="77"><cell r="C77" t="str"><v>카페베네 카페라떼 200ml컵</v></cell><cell r="D77" t="str"><v>8806371304264</v></cell></row><row r="78"><cell r="C78" t="str"><v>카페베네 카페모카 200ml컵</v></cell><cell r="D78" t="str"><v>8806371304271</v></cell></row><row r="79"><cell r="C79" t="str"><v>카페드롭탑 카페라떼 200ml캔</v></cell><cell r="D79" t="str"><v>8806002011387</v></cell></row><row r="80"><cell r="C80" t="str"><v>카페드롭탑 카페라떼 275ml보틀캔</v></cell><cell r="D80" t="str"><v>8806002011424</v></cell></row><row r="81"><cell r="C81" t="str"><v>카페드롭탑 스위트아메리카노 200ml캔</v></cell><cell r="D81" t="str"><v>8806002011363</v></cell></row><row r="82"><cell r="C82" t="str"><v>카페드롭탑 스위트아메리카노 275ml보틀캔</v></cell><cell r="D82" t="str"><v>8806002011400</v></cell></row><row r="83"><cell r="C83" t="str"><v>카페레몬트리 카페모카 250ml컵</v></cell><cell r="D83" t="str"><v>8809350883149</v></cell></row><row r="84"><cell r="C84" t="str"><v>카페리얼 아메리카노 170ml파우치</v></cell><cell r="D84" t="str"><v>8808024017460</v></cell></row><row r="85"><cell r="C85" t="str"><v>카페리얼 카푸치노 170ml파우치</v></cell><cell r="D85" t="str"><v>8808024017477</v></cell></row><row r="86"><cell r="C86" t="str"><v>카페리얼 캐러멜마끼아또 170ml파우치</v></cell><cell r="D86" t="str"><v>8808024017835</v></cell></row><row r="87"><cell r="C87" t="str"><v>카페리얼 헤이즐넛 170ml파우치</v></cell><cell r="D87" t="str"><v>8808024017453</v></cell></row><row r="88"><cell r="C88" t="str"><v>카페리얼 복숭아아이스티 170ml파우치</v></cell><cell r="D88" t="str"><v>8808024017484</v></cell></row><row r="89"><cell r="C89" t="str"><v>캠벨 토마토 주스 1L병</v></cell><cell r="D89" t="str"><v>8801043650526</v></cell></row><row r="90"><cell r="C90" t="str"><v>카나다드라이 클럽소다 250ml캔</v></cell><cell r="D90" t="str"><v>8801094973001</v></cell></row><row r="91"><cell r="C91" t="str"><v>카나다드라이 진저엘 250ml캔</v></cell><cell r="D91" t="str"><v>8801094983000</v></cell></row><row r="92"><cell r="C92" t="str"><v>카나다드라이 토닉워터 250ml캔</v></cell><cell r="D92" t="str"><v>8801094953003</v></cell></row><row r="93"><cell r="C93" t="str"><v>카나다드라이 토닉워터 250ml캔*6팩</v></cell><cell r="D93" t="str"><v>8801094953034</v></cell></row><row r="94"><cell r="C94" t="str"><v>칸타타 아메리카노 스위트블랙 275ml보틀캔</v></cell><cell r="D94" t="str"><v>8801056018900</v></cell></row><row r="95"><cell r="C95" t="str"><v>칸타타 아메리카노 900ml 페트</v></cell><cell r="D95" t="str"><v>8801056022907</v></cell></row><row r="96"><cell r="C96" t="str"><v>칸타타 카라멜 마키아토 275ml - 보틀캔</v></cell><cell r="D96" t="str"><v>8801056051921</v></cell></row><row r="97"><cell r="C97" t="str"><v>칸타타 원두커피 더치블랙 275ml 보틀캔</v></cell><cell r="D97" t="str"><v>8801056032159</v></cell></row><row r="98"><cell r="C98" t="str"><v>칸타타 아이스블랙 190ml파우치</v></cell><cell r="D98" t="str"><v>8801056060190</v></cell></row><row r="99"><cell r="C99" t="str"><v>칸타타 아이스카라멜마키아토 190ml - Pouch</v></cell><cell r="D99" t="str"><v>8801056046576</v></cell></row><row r="100"><cell r="C100" t="str"><v>칸타타 아이스헤이즐넛 190ml - Pouch</v></cell><cell r="D100" t="str"><v>8801056046590</v></cell></row><row r="101"><cell r="C101" t="str"><v>칸타타 오리지널 블렌드 아메리카노 175ml캔</v></cell><cell r="D101" t="str"><v>8801056018887</v></cell></row><row r="102"><cell r="C102" t="str"><v>칸타타 프리미엄 라떼 275ml - bottle can</v></cell><cell r="D102" t="str"><v>8801056018948</v></cell></row><row r="103"><cell r="C103" t="str"><v>칸타타 프리미엄라떼 900ml 페트</v></cell><cell r="D103" t="str"><v>8801056022884</v></cell></row><row r="104"><cell r="C104" t="str"><v>카프리썬 알래스카아이스티 200ml파우치</v></cell><cell r="D104" t="str"><v>8801043650205</v></cell></row><row r="105"><cell r="C105" t="str"><v>카프리썬 알래스카아이스티 200ml파우치*10팩</v></cell><cell r="D105" t="str"><v>8801043900034</v></cell></row><row r="106"><cell r="C106" t="str"><v>카프리썬 애플&블랙커런트 330ml파우치</v></cell><cell r="D106" t="str"><v>5449000084705</v></cell></row><row r="107"><cell r="C107" t="str"><v>카프리썬 사과 200ml파우치</v></cell><cell r="D107" t="str"><v>8801043650700</v></cell></row><row r="108"><cell r="C108" t="str"><v>카프리썬 사과 200ml파우치*10팩</v></cell><cell r="D108" t="str"><v>8801043900508</v></cell></row><row r="109"><cell r="C109" t="str"><v>카프리썬 오렌지&트로피칼 330ml파우치</v></cell><cell r="D109" t="str"><v>5449000073440</v></cell></row><row r="110"><cell r="C110" t="str"><v>카프리썬 오렌지 200ml파우치</v></cell><cell r="D110" t="str"><v>8801043650182</v></cell></row><row r="111"><cell r="C111" t="str"><v>카프리썬 오렌지 200ml파우치*10팩</v></cell><cell r="D111" t="str"><v>8801043900010</v></cell></row><row r="112"><cell r="C112" t="str"><v>카프리썬 오렌지망고 200ml파우치</v></cell><cell r="D112" t="str"><v>8801043650311</v></cell></row><row r="113"><cell r="C113" t="str"><v>카프리썬 오렌지망고 200ml파우치*10팩</v></cell><cell r="D113" t="str"><v>8801043900096</v></cell></row><row r="114"><cell r="C114" t="str"><v>카프리썬 사파리 200ml파우치</v></cell><cell r="D114" t="str"><v>8801043650199</v></cell></row><row r="115"><cell r="C115" t="str"><v>카프리썬 사파리 200ml파우치*10팩</v></cell><cell r="D115" t="str"><v>8801043900027</v></cell></row><row r="116"><cell r="C116" t="str"><v>카프리썬 딸기키위 200ml파우치</v></cell><cell r="D116" t="str"><v>8801043650236</v></cell></row><row r="117"><cell r="C117" t="str"><v>카프리썬 딸기키위 200ml파우치*10팩</v></cell><cell r="D117" t="str"><v>8801043900065</v></cell></row><row r="118"><cell r="C118" t="str"><v>세레스 100%주스 사과 1L병</v></cell><cell r="D118" t="str"><v>6001240100011</v></cell></row><row r="119"><cell r="C119" t="str"><v>세레스 100%주스 사과 200ml팩*6팩</v></cell><cell r="D119" t="str"><v>6001240206010</v></cell></row><row r="120"><cell r="C120" t="str"><v>세레스 100%주스 망고 200ml팩</v></cell><cell r="D120" t="str"><v>6001240200254</v></cell></row><row r="121"><cell r="C121" t="str"><v>세레스 100%주스 오렌지 1L병</v></cell><cell r="D121" t="str"><v>6001240100417</v></cell></row><row r="122"><cell r="C122" t="str"><v>세레스 100%주스 오렌지 200ml팩</v></cell><cell r="D122" t="str"><v>6001240200056</v></cell></row><row r="123"><cell r="C123" t="str"><v>쎄레스100%주스 선물세트 200ml팩*12</v></cell><cell r="D123" t="str"><v>8809400390009</v></cell></row><row r="124"><cell r="C124" t="str"><v>세레스 100%주스 적포도 200ml팩</v></cell><cell r="D124" t="str"><v>6001240200070</v></cell></row><row r="125"><cell r="C125" t="str"><v>세레스 100%주스 적포도 200ml팩*6팩</v></cell><cell r="D125" t="str"><v>6001240227305</v></cell></row><row r="126"><cell r="C126" t="str"><v>세레스 100%주스 루비자몽 1L병</v></cell><cell r="D126" t="str"><v>6001240100059</v></cell></row><row r="127"><cell r="C127" t="str"><v>세레스 스파클링 사과주스 275ml병</v></cell><cell r="D127" t="str"><v>6001240222676</v></cell></row><row r="128"><cell r="C128" t="str"><v>세레스 스파클링 적포도 275ml병</v></cell><cell r="D128" t="str"><v>6001240222737</v></cell></row><row r="129"><cell r="C129" t="str"><v>세레스 주니어 주스 사과 포도 200ml팩*6팩</v></cell><cell r="D129" t="str"><v>6001240766088</v></cell></row><row r="130"><cell r="C130" t="str"><v>세레스 주니어 주스 포도 라즈베리 200ml팩*6팩</v></cell><cell r="D130" t="str"><v>6001240766729</v></cell></row><row r="131"><cell r="C131" t="str"><v>세레스 주니어주스 사과 포도 200ml팩*6팩</v></cell><cell r="D131" t="str"><v>6001240229477</v></cell></row><row r="132"><cell r="C132" t="str"><v>실론티 240ml캔</v></cell><cell r="D132" t="str"><v>8801056297015</v></cell></row><row r="133"><cell r="C133" t="str"><v>실론티 350ml페트</v></cell><cell r="D133" t="str"><v>8801056043674</v></cell></row><row r="134"><cell r="C134" t="str"><v>자연은 사과 340ml페트</v></cell><cell r="D134" t="str"><v>8801382140320</v></cell></row><row r="135"><cell r="C135" t="str"><v>자연은 제주감귤 1.5L페트</v></cell><cell r="D135" t="str"><v>8801582127963</v></cell></row><row r="136"><cell r="C136" t="str"><v>자연은오렌지 340ml페트</v></cell><cell r="D136" t="str"><v>8801362140306</v></cell></row><row r="137"><cell r="C137" t="str"><v>천연사이다 1.5L페트</v></cell><cell r="D137" t="str"><v>8801223104306</v></cell></row><row r="138"><cell r="C138" t="str"><v>천연사이다 250ml캔</v></cell><cell r="D138" t="str"><v>8801223104207</v></cell></row><row r="139"><cell r="C139" t="str"><v>천연사이다 250ml캔*6팩</v></cell><cell r="D139" t="str"><v>8801223104559</v></cell></row><row r="140"><cell r="C140" t="str"><v>천연사이다 500ml페트</v></cell><cell r="D140" t="str"><v>8801223104504</v></cell></row><row r="141"><cell r="C141" t="str"><v>칠성사이다 제로 1.5L페트</v></cell><cell r="D141" t="str"><v>8801056050054</v></cell></row><row r="142"><cell r="C142" t="str"><v>칠성사이다 제로 500ml페트</v></cell><cell r="D142" t="str"><v>8801056050023</v></cell></row><row r="143"><cell r="C143" t="str"><v>칠성사이다 1.5L페트</v></cell><cell r="D143" t="str"><v>8801056190019</v></cell></row><row r="144"><cell r="C144" t="str"><v>칠성사이다 250ml캔</v></cell><cell r="D144" t="str"><v>8801056143015</v></cell></row><row r="145"><cell r="C145" t="str"><v>칠성사이다 300ml페트</v></cell><cell r="D145" t="str"><v>8801056048310</v></cell></row><row r="146"><cell r="C146" t="str"><v>칠성사이다 500ml페트</v></cell><cell r="D146" t="str"><v>8801056192013</v></cell></row><row r="147"><cell r="C147" t="str"><v>칠성사이다 190ml캔*6팩</v></cell><cell r="D147" t="str"><v>8801056066918</v></cell></row><row r="148"><cell r="C148" t="str"><v>칠성사이다 제로 250ml캔</v></cell><cell r="D148" t="str"><v>8801056049997</v></cell></row><row r="149"><cell r="C149" t="str"><v>초이스엘 콜라 190ml캔</v></cell><cell r="D149" t="str"><v>8801223103989</v></cell></row><row r="150"><cell r="C150" t="str"><v>빛이 고운 옥수수수염차 1.5L페트</v></cell><cell r="D150" t="str"><v>8801056050610</v></cell></row><row r="151"><cell r="C151" t="str"><v>빛이 고운 옥수수수염차 340ml페트</v></cell><cell r="D151" t="str"><v>8801056050597</v></cell></row><row r="152"><cell r="C152" t="str"><v>초정탄산수 1.5L페트</v></cell><cell r="D152" t="str"><v>8801223100223</v></cell></row><row r="153"><cell r="C153" t="str"><v>초정탄산수 500ml페트</v></cell><cell r="D153" t="str"><v>8801223100179</v></cell></row><row r="154"><cell r="C154" t="str"><v>초록매실 1.5L페트</v></cell><cell r="D154" t="str"><v>8801382126515</v></cell></row><row r="155"><cell r="C155" t="str"><v>초록매실 180ml병</v></cell><cell r="D155" t="str"><v>8801382126539</v></cell></row><row r="156"><cell r="C156" t="str"><v>사이다 1.5L페트</v></cell><cell r="D156" t="str"><v>8801105910438</v></cell></row><row r="157"><cell r="C157" t="str"><v>코카콜라 1.5L페트</v></cell><cell r="D157" t="str"><v>8801094012403</v></cell></row><row r="158"><cell r="C158" t="str"><v>코카콜라 1.8L페트</v></cell><cell r="D158" t="str"><v>8801094012007</v></cell></row><row r="159"><cell r="C159" t="str"><v>코카콜라 185ml캔</v></cell><cell r="D159" t="str"><v>8801094013905</v></cell></row><row r="160"><cell r="C160" t="str"><v>코카콜라 1L페트</v></cell><cell r="D160" t="str"><v>8801094012700</v></cell></row><row r="161"><cell r="C161" t="str"><v>코카콜라 250ml보틀캔</v></cell><cell r="D161" t="str"><v>8801094017002</v></cell></row><row r="162"><cell r="C162" t="str"><v>코카콜라 300ml페트</v></cell><cell r="D162" t="str"><v>8801094017101</v></cell></row><row r="163"><cell r="C163" t="str"><v>코카콜라 350ml페트(크리스마스볼)</v></cell><cell r="D163" t="str"><v>8801094017224</v></cell></row><row r="164"><cell r="C164" t="str"><v>코카콜라 355ml캔</v></cell><cell r="D164" t="str"><v>8801094013202</v></cell></row><row r="165"><cell r="C165" t="str"><v>코카콜라 500ml페트</v></cell><cell r="D165" t="str"><v>8801094017606</v></cell></row><row r="166"><cell r="C166" t="str"><v>코카콜라 500ml보틀캔</v></cell><cell r="D166" t="str"><v>8801094016609</v></cell></row><row r="167"><cell r="C167" t="str"><v>코카콜라 체리 250ml캔</v></cell><cell r="D167" t="str"><v>8801094073008</v></cell></row><row r="168"><cell r="C168" t="str"><v>코카콜라 체리 355ml캔</v></cell><cell r="D168" t="str"><v>8801094073206</v></cell></row><row r="169"><cell r="C169" t="str"><v>코카콜라 체리 500ml페트</v></cell><cell r="D169" t="str"><v>8801094072605</v></cell></row><row r="170"><cell r="C170" t="str"><v>코카콜라 환타오렌지 1.25L페트*2번들</v></cell><cell r="D170" t="str"><v>8801094692391</v></cell></row><row r="171"><cell r="C171" t="str"><v>코카콜라 스프라이트 1.25L페트*3번들</v></cell><cell r="D171" t="str"><v>8801094693398</v></cell></row><row r="172"><cell r="C172" t="str"><v>코카콜라 185ml캔*6팩</v></cell><cell r="D172" t="str"><v>8801094013936</v></cell></row><row r="173"><cell r="C173" t="str"><v>코카콜라 2L페트</v></cell><cell r="D173" t="str"><v>8801094012502</v></cell></row><row r="174"><cell r="C174" t="str"><v>코카콜라 250ml캔</v></cell><cell r="D174" t="str"><v>8801094013004</v></cell></row><row r="175"><cell r="C175" t="str"><v>코카콜라 250ml캔*6팩</v></cell><cell r="D175" t="str"><v>8801094013035</v></cell></row><row r="176"><cell r="C176" t="str"><v>코카콜라 355ml캔*6팩</v></cell><cell r="D176" t="str"><v>8801094012106</v></cell></row><row r="177"><cell r="C177" t="str"><v>코카콜라 500ml캔</v></cell><cell r="D177" t="str"><v>8801094014605</v></cell></row><row r="178"><cell r="C178" t="str"><v>코카콜라 스프라이트 300ml페트*4팩</v></cell><cell r="D178" t="str"><v>8801094692124</v></cell></row><row r="179"><cell r="C179" t="str"><v>코크라이트 250ml캔</v></cell><cell r="D179" t="str"><v>8801094033002</v></cell></row><row r="180"><cell r="C180" t="str"><v>코크라이트 500ml페트</v></cell><cell r="D180" t="str"><v>8801094032609</v></cell></row><row r="181"><cell r="C181" t="str"><v>코크라이트 장폴고티에 250ml병*4팩</v></cell><cell r="D181" t="str"><v>8801094670122</v></cell></row><row r="182"><cell r="C182" t="str"><v>코카콜라 제로 1.5L페트</v></cell><cell r="D182" t="str"><v>8801094082406</v></cell></row><row r="183"><cell r="C183" t="str"><v>코카콜라 제로 250ml캔</v></cell><cell r="D183" t="str"><v>8801094083007</v></cell></row><row r="184"><cell r="C184" t="str"><v>코카콜라 제로 250ml캔*6팩</v></cell><cell r="D184" t="str"><v>8801094083038</v></cell></row><row r="185"><cell r="C185" t="str"><v>코카콜라 제로 300ml페트</v></cell><cell r="D185" t="str"><v>8801094082208</v></cell></row><row r="186"><cell r="C186" t="str"><v>코카콜라 제로 500ml페트</v></cell><cell r="D186" t="str"><v>8801094082604</v></cell></row><row r="187"><cell r="C187" t="str"><v>코코몽(사과,포도,딸기) 200ml페트*3번들</v></cell><cell r="D187" t="str"><v>8801382143208</v></cell></row><row r="188"><cell r="C188" t="str"><v>코코팜포도 1.5L페트</v></cell><cell r="D188" t="str"><v>8801105912821</v></cell></row><row r="189"><cell r="C189" t="str"><v>코코팜 포도 238ml캔</v></cell><cell r="D189" t="str"><v>8801105117578</v></cell></row><row r="190"><cell r="C190" t="str"><v>코코팜 포도 300ml 페트</v></cell><cell r="D190" t="str"><v>8801105913026</v></cell></row><row r="191"><cell r="C191" t="str"><v>코코팜 피치핑크복숭아 240ml캔</v></cell><cell r="D191" t="str"><v>8801105910575</v></cell></row><row r="192"><cell r="C192" t="str"><v>코코팜 피치핑크복숭아 300ml페트</v></cell><cell r="D192" t="str"><v>8801105912258</v></cell></row><row r="193"><cell r="C193" t="str"><v>코코팜 화이트요구르트 240ml캔</v></cell><cell r="D193" t="str"><v>8801105908787</v></cell></row><row r="194"><cell r="C194" t="str"><v>코크라이트 1.5L페트</v></cell><cell r="D194" t="str"><v>8801094032401</v></cell></row><row r="195"><cell r="C195" t="str"><v>컨디션 헛개수 340ml페트</v></cell><cell r="D195" t="str"><v>8801007171234</v></cell></row><row r="196"><cell r="C196" t="str"><v>컨피던스 230ml병</v></cell><cell r="D196" t="str"><v>8801087271005</v></cell></row><row r="197"><cell r="C197" t="str"><v>폴짝폴짝콩콩콩 청포도 210ml페트</v></cell><cell r="D197" t="str"><v>8801150910698</v></cell></row><row r="198"><cell r="C198" t="str"><v>폴짝폴짝콩콩콩 복숭아 210ml페트</v></cell><cell r="D198" t="str"><v>8801150910681</v></cell></row><row r="199"><cell r="C199" t="str"><v>오늘의차 옥수수수염차 1.5L페트</v></cell><cell r="D199" t="str"><v>8801056021993</v></cell></row><row r="200"><cell r="C200" t="str"><v>오늘의차 옥수수수염차 350ml페트</v></cell><cell r="D200" t="str"><v>8801056057343</v></cell></row><row r="201"><cell r="C201" t="str"><v>오늘의차 옥수수수염차 500ml페트</v></cell><cell r="D201" t="str"><v>88010560511_1</v></cell></row><row r="202"><cell r="C202" t="str"><v>크리미 소다 1.5L페트</v></cell><cell r="D202" t="str"><v>8801105114546</v></cell></row><row r="203"><cell r="C203" t="str"><v>크리미 소다 250ml캔</v></cell><cell r="D203" t="str"><v>8801105114256</v></cell></row><row r="204"><cell r="C204" t="str"><v>데일리파워 맛있는포도당 290ml페트</v></cell><cell r="D204" t="str"><v>8806057912806</v></cell></row><row r="205"><cell r="C205" t="str"><v>데일리씨 액티브라이프 500ml페트</v></cell><cell r="D205" t="str"><v>8801056061692</v></cell></row><row r="206"><cell r="C206" t="str"><v>데일리씨 베이비페이스 500ml페트</v></cell><cell r="D206" t="str"><v>8801056061739</v></cell></row><row r="207"><cell r="C207" t="str"><v>데일리씨 마인드요가 500ml페트</v></cell><cell r="D207" t="str"><v>8801056053680</v></cell></row><row r="208"><cell r="C208" t="str"><v>데일리씨 스킨글로우 500ml페트</v></cell><cell r="D208" t="str"><v>8801056048006</v></cell></row><row r="209"><cell r="C209" t="str"><v>데일리씨 바이탈브이 500ml페트</v></cell><cell r="D209" t="str"><v>8801056048020</v></cell></row><row r="210"><cell r="C210" t="str"><v>델몬트 아사이베리&블루베리 1.5L페트</v></cell><cell r="D210" t="str"><v>8801056065829</v></cell></row><row r="211"><cell r="C211" t="str"><v>델몬트 아사이베리&블루베리 180ml병</v></cell><cell r="D211" t="str"><v>8801056065843</v></cell></row><row r="212"><cell r="C212" t="str"><v>델몬트 아사이베리&블루베리 선물세트 180ml병*12</v></cell><cell r="D212" t="str"><v>8801056065867</v></cell></row><row r="213"><cell r="C213" t="str"><v>델몬트 알로에 1.5L페트</v></cell><cell r="D213" t="str"><v>8801056022150</v></cell></row><row r="214"><cell r="C214" t="str"><v>델몬트 알로에 오리지널 180ml병</v></cell><cell r="D214" t="str"><v>8801056022082</v></cell></row><row r="215"><cell r="C215" t="str"><v>델몬트 사과 드링크 190ml팩</v></cell><cell r="D215" t="str"><v>8801056020415</v></cell></row><row r="216"><cell r="C216" t="str"><v>델몬트 사과드링크 190ml팩*4팩</v></cell><cell r="D216" t="str"><v>8801056020415X4</v></cell></row><row r="217"><cell r="C217" t="str"><v>델몬트 사과스퀴즈 240ml캔</v></cell><cell r="D217" t="str"><v>8801056020026</v></cell></row><row r="218"><cell r="C218" t="str"><v>콜드 포도 1.89L팩</v></cell><cell r="D218" t="str"><v>8801056000516</v></cell></row><row r="219"><cell r="C219" t="str"><v>콜드 포도100 235ml테트라탑</v></cell><cell r="D219" t="str"><v>8801056624019</v></cell></row><row r="220"><cell r="C220" t="str"><v>콜드 포도100 950ml테트라탑</v></cell><cell r="D220" t="str"><v>8801056731014</v></cell></row><row r="221"><cell r="C221" t="str"><v>콜드 제주감귤 950ml테트라탑</v></cell><cell r="D221" t="str"><v>8801056040963</v></cell></row><row r="222"><cell r="C222" t="str"><v>콜드 오렌지 1.89L팩</v></cell><cell r="D222" t="str"><v>8801056001735</v></cell></row><row r="223"><cell r="C223" t="str"><v>콜드 오렌지100 235ml테트라탑</v></cell><cell r="D223" t="str"><v>8801056623012</v></cell></row><row r="224"><cell r="C224" t="str"><v>콜드 오렌지100 950ml테트라탑</v></cell><cell r="D224" t="str"><v>8801056692018</v></cell></row><row r="225"><cell r="C225" t="str"><v>콜드 비타민플러스 포도100 210ml페트</v></cell><cell r="D225" t="str"><v>8801056059069</v></cell></row><row r="226"><cell r="C226" t="str"><v>콜드 비타민플러스 오렌지100 210ml페트</v></cell><cell r="D226" t="str"><v>8801056054021</v></cell></row><row r="227"><cell r="C227" t="str"><v>Del Monte Cold Vitamin Plus Grape 100 950ml</v></cell><cell r="D227" t="str"><v>8801056054083</v></cell></row><row r="228"><cell r="C228" t="str"><v>콜드 비타민플러스 오렌지100 950ml테트라탑</v></cell><cell r="D228" t="str"><v>8801056054045</v></cell></row><row r="229"><cell r="C229" t="str"><v>델몬트 크랜베리&스트로베리 1.5L페트</v></cell><cell r="D229" t="str"><v>8801056065768</v></cell></row><row r="230"><cell r="C230" t="str"><v>델몬트 크랜베리&스트로베리 180ml병</v></cell><cell r="D230" t="str"><v>8801056065782</v></cell></row><row r="231"><cell r="C231" t="str"><v>델몬트 크랜베리&스트로베리 선물세트 180ml병*12</v></cell><cell r="D231" t="str"><v>8801056066031</v></cell></row><row r="232"><cell r="C232" t="str"><v>델몬트 혼합선물세트(오렌지100+프리미엄포도100) 180ml병*12</v></cell><cell r="D232" t="str"><v>8801056858124</v></cell></row><row r="233"><cell r="C233" t="str"><v>델몬트 포도 100 1.5L페트</v></cell><cell r="D233" t="str"><v>8801056475017</v></cell></row><row r="234"><cell r="C234" t="str"><v>델몬트 포도100 1.5L페트</v></cell><cell r="D234" t="str"><v>8801056064426</v></cell></row><row r="235"><cell r="C235" t="str"><v>델모트 포도100 300ml페트</v></cell><cell r="D235" t="str"><v>8801056046873</v></cell></row><row r="236"><cell r="C236" t="str"><v>델몬트 포도드링크 190ml팩</v></cell><cell r="D236" t="str"><v>8801056996017</v></cell></row><row r="237"><cell r="C237" t="str"><v>델몬트 포도 드링크 190ml팩*4팩</v></cell><cell r="D237" t="str"><v>8801056996017X4</v></cell></row><row r="238"><cell r="C238" t="str"><v>델몬트 망고 1.5L페트</v></cell><cell r="D238" t="str"><v>8801056002060</v></cell></row><row r="239"><cell r="C239" t="str"><v>델몬트 망고 드링크 190ml팩</v></cell><cell r="D239" t="str"><v>8801056003463</v></cell></row><row r="240"><cell r="C240" t="str"><v>델몬트 망고드링크 190ml팩*4팩</v></cell><cell r="D240" t="str"><v>8801056003463X4</v></cell></row><row r="241"><cell r="C241" t="str"><v>델몬트 오렌지 100 1.5L페트</v></cell><cell r="D241" t="str"><v>8801056005481</v></cell></row><row r="242"><cell r="C242" t="str"><v>델몬트 오렌지 100 1.8L페트</v></cell><cell r="D242" t="str"><v>8801056064136</v></cell></row><row r="243"><cell r="C243" t="str"><v>델모트 오렌지100 300ml페트</v></cell><cell r="D243" t="str"><v>8801056046835</v></cell></row><row r="244"><cell r="C244" t="str"><v>델몬트 오렌지드링크 190ml팩</v></cell><cell r="D244" t="str"><v>8801056995010</v></cell></row><row r="245"><cell r="C245" t="str"><v>델몬트 오렌지 드링크 190ml팩*4팩</v></cell><cell r="D245" t="str"><v>8801056995010X4</v></cell></row><row r="246"><cell r="C246" t="str"><v>델몬트 오렌지주스100 180ml병</v></cell><cell r="D246" t="str"><v>8801056260019</v></cell></row><row r="247"><cell r="C247" t="str"><v>델몬트 오렌지스퀴즈 240ml캔</v></cell><cell r="D247" t="str"><v>8801056019952</v></cell></row><row r="248"><cell r="C248" t="str"><v>델몬트 파인애플 드링크 190ml팩</v></cell><cell r="D248" t="str"><v>8801056020378</v></cell></row><row r="249"><cell r="C249" t="str"><v>델몬트 파인애플드링크 190ml팩*4팩</v></cell><cell r="D249" t="str"><v>8801056020378X4</v></cell></row><row r="250"><cell r="C250" t="str"><v>델몬트 파인애플스퀴즈 240ml캔</v></cell><cell r="D250" t="str"><v>8801056019990</v></cell></row><row r="251"><cell r="C251" t="str"><v>델몬트 매실 오리지널 1.5L페트</v></cell><cell r="D251" t="str"><v>8801056022242</v></cell></row><row r="252"><cell r="C252" t="str"><v>델몬트 매실 오리지널 180ml병</v></cell><cell r="D252" t="str"><v>8801056022174</v></cell></row><row r="253"><cell r="C253" t="str"><v>델몬트 프리미엄 사과주스 100 1L\병</v></cell><cell r="D253" t="str"><v>8801056033941</v></cell></row><row r="254"><cell r="C254" t="str"><v>델몬트 프리미엄 사과주스 100 180ml병</v></cell><cell r="D254" t="str"><v>8801056022563</v></cell></row><row r="255"><cell r="C255" t="str"><v>델몬트 프리미엄 포도주스 100 1L병</v></cell><cell r="D255" t="str"><v>8801056033927</v></cell></row><row r="256"><cell r="C256" t="str"><v>델몬트 프리미엄 포도주스 100 180ml</v></cell><cell r="D256" t="str"><v>8801056015954</v></cell></row><row r="257"><cell r="C257" t="str"><v>델몬트 프리미엄 오렌지주스 100 1L병</v></cell><cell r="D257" t="str"><v>8801056033903</v></cell></row><row r="258"><cell r="C258" t="str"><v>델몬트 프리미엄 오렌지주스100 180ml병</v></cell><cell r="D258" t="str"><v>8801056267018</v></cell></row><row r="259"><cell r="C259" t="str"><v>델몬트 프리미엄 헬스 오렌지 1.5L페트</v></cell><cell r="D259" t="str"><v>8801056001179</v></cell></row><row r="260"><cell r="C260" t="str"><v>델몬트 스카시오렌지 1.5L페트</v></cell><cell r="D260" t="str"><v>8801056465018</v></cell></row><row r="261"><cell r="C261" t="str"><v>델몬트 스카시플러스 포도주스 100 1.5L페트</v></cell><cell r="D261" t="str"><v>8801056011642</v></cell></row><row r="262"><cell r="C262" t="str"><v>델몬트 스카시플러스 100 파인애플주스 1.5L 페트</v></cell><cell r="D262" t="str"><v>8801056464011</v></cell></row><row r="263"><cell r="C263" t="str"><v>델몬트 토마토오리지널 1.5페트</v></cell><cell r="D263" t="str"><v>8801056717018</v></cell></row><row r="264"><cell r="C264" t="str"><v>델몬트 토마토오리지널 180ml병</v></cell><cell r="D264" t="str"><v>8801056715014</v></cell></row><row r="265"><cell r="C265" t="str"><v>델몬트 웰빙선물세트 180ml병*12</v></cell><cell r="D265" t="str"><v>8801056008666</v></cell></row><row r="266"><cell r="C266" t="str"><v>델몬트 포도 스퀴즈 240ml캔</v></cell><cell r="D266" t="str"><v>8801056019976</v></cell></row><row r="267"><cell r="C267" t="str"><v>델몬트 오리지널 망고 180ml병</v></cell><cell r="D267" t="str"><v>8801056002350</v></cell></row><row r="268"><cell r="C268" t="str"><v>데미소다 애플 1.5L페트</v></cell><cell r="D268" t="str"><v>8801097260023</v></cell></row><row r="269"><cell r="C269" t="str"><v>데미소다 애플 250ml캔</v></cell><cell r="D269" t="str"><v>8801097160064</v></cell></row><row r="270"><cell r="C270" t="str"><v>데미소다 애플 410ml페트</v></cell><cell r="D270" t="str"><v>8801097261310</v></cell></row><row r="271"><cell r="C271" t="str"><v>데미소다 오렌지 1.5L페트</v></cell><cell r="D271" t="str"><v>8801097260016</v></cell></row><row r="272"><cell r="C272" t="str"><v>데미소다 오렌지 250ml캔</v></cell><cell r="D272" t="str"><v>8801097160040</v></cell></row><row r="273"><cell r="C273" t="str"><v>데미소다 오렌지 410ml페트</v></cell><cell r="D273" t="str"><v>8801097260313</v></cell></row><row r="274"><cell r="C274" t="str"><v>데미소다 피치 250ml캔</v></cell><cell r="D274" t="str"><v>8801097168404</v></cell></row><row r="275"><cell r="C275" t="str"><v>데미소다 피치 410ml페트</v></cell><cell r="D275" t="str"><v>8801097268401</v></cell></row><row r="276"><cell r="C276" t="str"><v>다이아몬드샘물 1.8L페트</v></cell><cell r="D276" t="str"><v>8801094572006</v></cell></row><row r="277"><cell r="C277" t="str"><v>디엠지 청정수 500ml페트</v></cell><cell r="D277" t="str"><v>8801056034788</v></cell></row><row r="278"><cell r="C278" t="str"><v>디엠지 청정수 2L페트</v></cell><cell r="D278" t="str"><v>8801056034801</v></cell></row><row r="279"><cell r="C279" t="str"><v>닥터페퍼 355ml캔</v></cell><cell r="D279" t="str"><v>8801094053208</v></cell></row><row r="280"><cell r="C280" t="str"><v>DK 1.5L페트</v></cell><cell r="D280" t="str"><v>8801094892401</v></cell></row><row r="281"><cell r="C281" t="str"><v>Dynamic 킨사이다 500ml페트</v></cell><cell r="D281" t="str"><v>8801094892609</v></cell></row><row r="282"><cell r="C282" t="str"><v>DK 300ml페트</v></cell><cell r="D282" t="str"><v>8801094892104</v></cell></row><row r="283"><cell r="C283" t="str"><v>DK 250ml캔</v></cell><cell r="D283" t="str"><v>8801094893002</v></cell></row><row r="284"><cell r="C284" t="str"><v>봉평샘물 2L페트</v></cell><cell r="D284" t="str"><v>8801105908022</v></cell></row><row r="285"><cell r="C285" t="str"><v>봉평샘물 500ml페트</v></cell><cell r="D285" t="str"><v>8801105908039</v></cell></row><row r="286"><cell r="C286" t="str"><v>이마트 사이다 1.5L페트</v></cell><cell r="D286" t="str"><v>8801105909227</v></cell></row><row r="287"><cell r="C287" t="str"><v>이마트 사이다 190ml캔</v></cell><cell r="D287" t="str"><v>8801105909470</v></cell></row><row r="288"><cell r="C288" t="str"><v>이마트사이다 190ml캔*6팩</v></cell><cell r="D288" t="str"><v>8801105988437</v></cell></row><row r="289"><cell r="C289" t="str"><v>이마트 콜라 1.5L페트</v></cell><cell r="D289" t="str"><v>8801105909210</v></cell></row><row r="290"><cell r="C290" t="str"><v>이마트 콜라 190ml캔</v></cell><cell r="D290" t="str"><v>8801105909487</v></cell></row><row r="291"><cell r="C291" t="str"><v>이마트콜라 190ml캔*6팩</v></cell><cell r="D291" t="str"><v>8801105988420</v></cell></row><row r="292"><cell r="C292" t="str"><v>파워드링크UP 190ml파우치</v></cell><cell r="D292" t="str"><v>8809344661173</v></cell></row><row r="293"><cell r="C293" t="str"><v>에비앙 1.5L페트</v></cell><cell r="D293" t="str"><v>3068320024202</v></cell></row><row r="294"><cell r="C294" t="str"><v>에비앙 330ml페트</v></cell><cell r="D294" t="str"><v>3068320024509</v></cell></row><row r="295"><cell r="C295" t="str"><v>에비앙 500ml페트</v></cell><cell r="D295" t="str"><v>3068320024400</v></cell></row><row r="296"><cell r="C296" t="str"><v>아이시안 블루베리 120ml병</v></cell><cell r="D296" t="str"><v>8801007216591</v></cell></row><row r="297"><cell r="C297" t="str"><v>환타 애플 250ml캔</v></cell><cell r="D297" t="str"><v>8801094183004</v></cell></row><row r="298"><cell r="C298" t="str"><v>환타 포도 250ml캔</v></cell><cell r="D298" t="str"><v>8801094123000</v></cell></row><row r="299"><cell r="C299" t="str"><v>환타 포도 355ml캔</v></cell><cell r="D299" t="str"><v>8801094123208</v></cell></row><row r="300"><cell r="C300" t="str"><v>환타 포도 1.5L페트</v></cell><cell r="D300" t="str"><v>8801094122409</v></cell></row><row r="301"><cell r="C301" t="str"><v>환타 오렌지 1.5L페트</v></cell><cell r="D301" t="str"><v>8801094112400</v></cell></row><row r="302"><cell r="C302" t="str"><v>환타 오렌지 185ml캔*6팩</v></cell><cell r="D302" t="str"><v>8801094113933</v></cell></row><row r="303"><cell r="C303" t="str"><v>환타 오렌지 245ml캔</v></cell><cell r="D303" t="str"><v>8801094114008</v></cell></row><row r="304"><cell r="C304" t="str"><v>환타 오렌지 245ml캔*8팩</v></cell><cell r="D304" t="str"><v>8801094114084</v></cell></row><row r="305"><cell r="C305" t="str"><v>환타 오렌지 250ml캔</v></cell><cell r="D305" t="str"><v>8801094113001</v></cell></row><row r="306"><cell r="C306" t="str"><v>환타 오렌지 250ml캔*6팩</v></cell><cell r="D306" t="str"><v>8801094113032</v></cell></row><row r="307"><cell r="C307" t="str"><v>환타 오렌지 300ml페트</v></cell><cell r="D307" t="str"><v>8801094112103</v></cell></row><row r="308"><cell r="C308" t="str"><v>환타 오렌지 355ml캔</v></cell><cell r="D308" t="str"><v>8801094113209</v></cell></row><row r="309"><cell r="C309" t="str"><v>환타 오렌지 355ml캔*6팩</v></cell><cell r="D309" t="str"><v>8801094113230</v></cell></row><row r="310"><cell r="C310" t="str"><v>환타 오렌지 600ml페트</v></cell><cell r="D310" t="str"><v>8801094112707</v></cell></row><row r="311"><cell r="C311" t="str"><v>환타 파인애플 1.5L페트</v></cell><cell r="D311" t="str"><v>8801094132408</v></cell></row><row r="312"><cell r="C312" t="str"><v>환타 파인애플 250ml캔</v></cell><cell r="D312" t="str"><v>8801094133009</v></cell></row><row r="313"><cell r="C313" t="str"><v>환타 파인애플 300ml페트</v></cell><cell r="D313" t="str"><v>8801094132101</v></cell></row><row r="314"><cell r="C314" t="str"><v>환타 파인애플 600ml페트</v></cell><cell r="D314" t="str"><v>8801094132705</v></cell></row><row r="315"><cell r="C315" t="str"><v>환타스무디 사과 500ml페트</v></cell><cell r="D315" t="str"><v>8801094159603</v></cell></row><row r="316"><cell r="C316" t="str"><v>환타스무디 복숭아 1.5L페트</v></cell><cell r="D316" t="str"><v>8801094149406</v></cell></row><row r="317"><cell r="C317" t="str"><v>환타스무디 복숭아 250ml캔</v></cell><cell r="D317" t="str"><v>8801094144005</v></cell></row><row r="318"><cell r="C318" t="str"><v>환타스무디 복숭아 500ml페트</v></cell><cell r="D318" t="str"><v>8801094149604</v></cell></row><row r="319"><cell r="C319" t="str"><v>환타스위트믹스 애플리치 250ml캔</v></cell><cell r="D319" t="str"><v>8801094393007</v></cell></row><row r="320"><cell r="C320" t="str"><v>환타스위트믹스 애플리치 500ml페트</v></cell><cell r="D320" t="str"><v>8801094392604</v></cell></row><row r="321"><cell r="C321" t="str"><v>팻다운 아웃도어 430ml페트</v></cell><cell r="D321" t="str"><v>8801007206813</v></cell></row><row r="322"><cell r="C322" t="str"><v>폰테타비나 500ml병</v></cell><cell r="D322" t="str"><v>8000795013119</v></cell></row><row r="323"><cell r="C323" t="str"><v>프렌치카페 카페오레커피 200ml컵</v></cell><cell r="D323" t="str"><v>8801069175614</v></cell></row><row r="324"><cell r="C324" t="str"><v>프렌치카페 카푸치노 175ml캔</v></cell><cell r="D324" t="str"><v>8801069170626</v></cell></row><row r="325"><cell r="C325" t="str"><v>프렌치카페 카푸치노 200ml컵</v></cell><cell r="D325" t="str"><v>8801069175669</v></cell></row><row r="326"><cell r="C326" t="str"><v>프렌치카페 카라멜마끼아또 175ml캔</v></cell><cell r="D326" t="str"><v>8801069175034</v></cell></row><row r="327"><cell r="C327" t="str"><v>프렌치카페 카라멜마끼아또 200ml컵</v></cell><cell r="D327" t="str"><v>8801069175621</v></cell></row><row r="328"><cell r="C328" t="str"><v>프렌치카페 더블샷 에스프레소라떼 200ml캔</v></cell><cell r="D328" t="str"><v>8801069181035</v></cell></row><row r="329"><cell r="C329" t="str"><v>프렌치카페더블샷라떼 200컵</v></cell><cell r="D329" t="str"><v>8801069181028</v></cell></row><row r="330"><cell r="C330" t="str"><v>프렌치카페 더블샷 라떼 200ml캔</v></cell><cell r="D330" t="str"><v>8801069181592</v></cell></row><row r="331"><cell r="C331" t="str"><v>프렌치카페 더블샷 모카 200ml컵</v></cell><cell r="D331" t="str"><v>8801069181042</v></cell></row><row r="332"><cell r="C332" t="str"><v>프렌치카페 더블샷 모카 200ml캔</v></cell><cell r="D332" t="str"><v>8801069181608</v></cell></row><row r="333"><cell r="C333" t="str"><v>프렌치카페 에스프레소골드 200ml컵</v></cell><cell r="D333" t="str"><v>8801069175799</v></cell></row><row r="334"><cell r="C334" t="str"><v>프렌치카페 카와 리치카라멜 250ml컵</v></cell><cell r="D334" t="str"><v>8801069182933</v></cell></row><row r="335"><cell r="C335" t="str"><v>프렌치카페 카와 리치모카초코 250ml컵</v></cell><cell r="D335" t="str"><v>8801069182865</v></cell></row><row r="336"><cell r="C336" t="str"><v>프렌치카페 카와 스모키에스프레소라떼 250ml컵</v></cell><cell r="D336" t="str"><v>8801069182926</v></cell></row><row r="337"><cell r="C337" t="str"><v>프렌치카페 카페오레마일드 175ml캔</v></cell><cell r="D337" t="str"><v>8801069170619</v></cell></row><row r="338"><cell r="C338" t="str"><v>프렌치카페 모카초코 175ml캔</v></cell><cell r="D338" t="str"><v>8801069177090</v></cell></row><row r="339"><cell r="C339" t="str"><v>프렌치카페 모카초코 200ml컵</v></cell><cell r="D339" t="str"><v>8801069175652</v></cell></row><row r="340"><cell r="C340" t="str"><v>프렌치카페 스위트아메리카노 500ml페트</v></cell><cell r="D340" t="str"><v>8801069182964</v></cell></row><row r="341"><cell r="C341" t="str"><v>프렌치카페 화이트초코모카 200ml컵</v></cell><cell r="D341" t="str"><v>8801069178585</v></cell></row><row r="342"><cell r="C342" t="str"><v>후르츠믹스에이드 190ml파우치</v></cell><cell r="D342" t="str"><v>8809344013026</v></cell></row><row r="343"><cell r="C343" t="str"><v>퓨즈티 레몬 500ml페트</v></cell><cell r="D343" t="str"><v>8801094712600</v></cell></row><row r="344"><cell r="C344" t="str"><v>퓨즈티 복숭아 240ml캔</v></cell><cell r="D344" t="str"><v>8801094743000</v></cell></row><row r="345"><cell r="C345" t="str"><v>퓨즈티 355ml캔</v></cell><cell r="D345" t="str"><v>8801094743208</v></cell></row><row r="346"><cell r="C346" t="str"><v>퓨즈티 복숭아 500ml페트</v></cell><cell r="D346" t="str"><v>8801094742607</v></cell></row><row r="347"><cell r="C347" t="str"><v>갈아만든배 238ml캔</v></cell><cell r="D347" t="str"><v>8801105000535</v></cell></row><row r="348"><cell r="C348" t="str"><v>갈아만든배 1.5L페트</v></cell><cell r="D348" t="str"><v>8801105000863</v></cell></row><row r="349"><cell r="C349" t="str"><v>갈아만든배 500ml페트</v></cell><cell r="D349" t="str"><v>8801105911411</v></cell></row><row r="350"><cell r="C350" t="str"><v>갓짜낸100%감귤 1L병</v></cell><cell r="D350" t="str"><v>8809135303527</v></cell></row><row r="351"><cell r="C351" t="str"><v>갓짜낸신선한사과 1L병</v></cell><cell r="D351" t="str"><v>8809135303503</v></cell></row><row r="352"><cell r="C352" t="str"><v>게토레이 블루볼트 1.5L페트</v></cell><cell r="D352" t="str"><v>8801056052188</v></cell></row><row r="353"><cell r="C353" t="str"><v>게토레이 블루볼트 240ml캔</v></cell><cell r="D353" t="str"><v>8801056052256</v></cell></row><row r="354"><cell r="C354" t="str"><v>게토레이 블루볼트 600ml페트</v></cell><cell r="D354" t="str"><v>8801056052218</v></cell></row><row r="355"><cell r="C355" t="str"><v>게토레이 240ml캔*6팩</v></cell><cell r="D355" t="str"><v>8801056836061</v></cell></row><row r="356"><cell r="C356" t="str"><v>게토레이 오렌지 1.5L페트</v></cell><cell r="D356" t="str"><v>8801056060442</v></cell></row><row r="357"><cell r="C357" t="str"><v>게토레이 오렌지 240ml캔</v></cell><cell r="D357" t="str"><v>8801056060473</v></cell></row><row r="358"><cell r="C358" t="str"><v>게토레이 오렌지 240ml캔*6팩</v></cell><cell r="D358" t="str"><v>8801056060480</v></cell></row><row r="359"><cell r="C359" t="str"><v>게토레이 오렌지 600ml페트</v></cell><cell r="D359" t="str"><v>8801056060534</v></cell></row><row r="360"><cell r="C360" t="str"><v>게토레이 레드버스트 240ml캔</v></cell><cell r="D360" t="str"><v>8801056047870</v></cell></row><row r="361"><cell r="C361" t="str"><v>게토레이 레드버스트 600ml페트</v></cell><cell r="D361" t="str"><v>8801056047849</v></cell></row><row r="362"><cell r="C362" t="str"><v>게토레이 1.5L페트</v></cell><cell r="D362" t="str"><v>8801056839017</v></cell></row><row r="363"><cell r="C363" t="str"><v>게토레이 240ml캔</v></cell><cell r="D363" t="str"><v>8801056836016</v></cell></row><row r="364"><cell r="C364" t="str"><v>게토레이 500ml페트</v></cell><cell r="D364" t="str"><v>8801056838010</v></cell></row><row r="365"><cell r="C365" t="str"><v>게토레이 600ml페트</v></cell><cell r="D365" t="str"><v>8801056049201</v></cell></row><row r="366"><cell r="C366" t="str"><v>조지아 카페라떼 240ml캔</v></cell><cell r="D366" t="str"><v>8801094513009</v></cell></row><row r="367"><cell r="C367" t="str"><v>조지아 카페라떼 240ml캔*6팩</v></cell><cell r="D367" t="str"><v>8801094513030</v></cell></row><row r="368"><cell r="C368" t="str"><v>조지아 카페오레 240ml캔</v></cell><cell r="D368" t="str"><v>8801094633011</v></cell></row><row r="369"><cell r="C369" t="str"><v>조지아EMB 클래식라떼 250ml병</v></cell><cell r="D369" t="str"><v>8801094571009</v></cell></row><row r="370"><cell r="C370" t="str"><v>조지아 고티카 아로마 라떼 270ml보틀캔</v></cell><cell r="D370" t="str"><v>8801094577100AA</v></cell></row><row r="371"><cell r="C371" t="str"><v>조지아EMB 에스프레소라떼 250ml컵</v></cell><cell r="D371" t="str"><v>8801094564001</v></cell></row><row r="372"><cell r="C372" t="str"><v>조지아EMB 클래식라떼 200ml캔</v></cell><cell r="D372" t="str"><v>8801094573409</v></cell></row><row r="373"><cell r="C373" t="str"><v>조지아EMB 스위트아메리카노 250ml병</v></cell><cell r="D373" t="str"><v>8801094581008</v></cell></row><row r="374"><cell r="C374" t="str"><v>조지아EMB 스위트아메리카노 270ml보틀캔</v></cell><cell r="D374" t="str"><v>8801094587109</v></cell></row><row r="375"><cell r="C375" t="str"><v>조지아EMB 더블랙 270ml보틀캔</v></cell><cell r="D375" t="str"><v>8801094547103</v></cell></row><row r="376"><cell r="C376" t="str"><v>조지아 유러피안블랙 175ml캔</v></cell><cell r="D376" t="str"><v>8801094473938</v></cell></row><row r="377"><cell r="C377" t="str"><v>조지아 유러피안블랙 190ml파우치</v></cell><cell r="D377" t="str"><v>8801094476007</v></cell></row><row r="378"><cell r="C378" t="str"><v>조지아 유러피안 에스프레소라떼 175ml캔</v></cell><cell r="D378" t="str"><v>8801094483906</v></cell></row><row r="379"><cell r="C379" t="str"><v>조지아 유러피안 에스프레소라떼 190ml파우치</v></cell><cell r="D379" t="str"><v>8801091456006</v></cell></row><row r="380"><cell r="C380" t="str"><v>조지아 유러피안라떼 190ml파우치</v></cell><cell r="D380" t="str"><v>8801094486006</v></cell></row><row r="381"><cell r="C381" t="str"><v>조지아 아이스아메리카노 170ml파우치</v></cell><cell r="D381" t="str"><v>8801094546908</v></cell></row><row r="382"><cell r="C382" t="str"><v>조지아 아이스라떼 170ml파우치</v></cell><cell r="D382" t="str"><v>8801094576905</v></cell></row><row r="383"><cell r="C383" t="str"><v>조지아 맥스 240ml캔</v></cell><cell r="D383" t="str"><v>8801094523206</v></cell></row><row r="384"><cell r="C384" t="str"><v>조지아 맥스 240ml캔*6팩</v></cell><cell r="D384" t="str"><v>8801094523039</v></cell></row><row r="385"><cell r="C385" t="str"><v>조지아 오리지널 240ml캔</v></cell><cell r="D385" t="str"><v>8801094503000</v></cell></row><row r="386"><cell r="C386" t="str"><v>조지아 오리지널 240ml캔*6팩</v></cell><cell r="D386" t="str"><v>8801094503031</v></cell></row><row r="387"><cell r="C387" t="str"><v>까만콩차 330ml페트</v></cell><cell r="D387" t="str"><v>8801105908879</v></cell></row><row r="388"><cell r="C388" t="str"><v>깜찍이 풍선껌향 300ml페트</v></cell><cell r="D388" t="str"><v>8801105909609</v></cell></row><row r="389"><cell r="C389" t="str"><v>진저에일 스파클링 350ml페트</v></cell><cell r="D389" t="str"><v>8801047290056</v></cell></row><row r="390"><cell r="C390" t="str"><v>글라소 스마트워터 500ml페트</v></cell><cell r="D390" t="str"><v>8801094592608</v></cell></row><row r="391"><cell r="C391" t="str"><v>글라소 에너지 240ml캔</v></cell><cell r="D391" t="str"><v>8801094903008</v></cell></row><row r="392"><cell r="C392" t="str"><v>글라소 에너지 500ml페트</v></cell><cell r="D392" t="str"><v>8801094902605</v></cell></row><row r="393"><cell r="C393" t="str"><v>글라소 에센셜 500ml페트</v></cell><cell r="D393" t="str"><v>8801094872601</v></cell></row><row r="394"><cell r="C394" t="str"><v>글라소 포커스 500ml페트</v></cell><cell r="D394" t="str"><v>8801094882600</v></cell></row><row r="395"><cell r="C395" t="str"><v>글라소 지크리에이터 500ml페트</v></cell><cell r="D395" t="str"><v>8801094792602</v></cell></row><row r="396"><cell r="C396" t="str"><v>글라소 멀티브이 500ml페트</v></cell><cell r="D396" t="str"><v>8801094912604</v></cell></row><row r="397"><cell r="C397" t="str"><v>글라소 파워씨 240ml캔</v></cell><cell r="D397" t="str"><v>8801094863005</v></cell></row><row r="398"><cell r="C398" t="str"><v>글라소 파워씨 500ml페트</v></cell><cell r="D398" t="str"><v>8801094862602</v></cell></row><row r="399"><cell r="C399" t="str"><v>글라소 XXX 500ml페트</v></cell><cell r="D399" t="str"><v>8801094932602</v></cell></row><row r="400"><cell r="C400" t="str"><v>골드메달 100%퓨어 사과주스 296ml병</v></cell><cell r="D400" t="str"><v>4124498</v></cell></row><row r="401"><cell r="C401" t="str"><v>골드메달 스파클링 사과주스 296ml병</v></cell><cell r="D401" t="str"><v>41244001057</v></cell></row><row r="402"><cell r="C402" t="str"><v>골든드랍 나는오리지널 175ml캔</v></cell><cell r="D402" t="str"><v>8801105909739</v></cell></row><row r="403"><cell r="C403" t="str"><v>포도 봉봉 238ml캔</v></cell><cell r="D403" t="str"><v>8801105940428</v></cell></row><row r="404"><cell r="C404" t="str"><v>과채믹스23퍼플 190ml팩</v></cell><cell r="D404" t="str"><v>8809111694397</v></cell></row><row r="405"><cell r="C405" t="str"><v>과채믹스23퍼플 세트 190ml팩*16</v></cell><cell r="D405" t="str"><v>8809111694403</v></cell></row><row r="406"><cell r="C406" t="str"><v>과채믹스23옐로우 190ml팩</v></cell><cell r="D406" t="str"><v>8809111694410</v></cell></row><row r="407"><cell r="C407" t="str"><v>과채믹스23옐로우 세트 190ml팩*16</v></cell><cell r="D407" t="str"><v>8809111694427</v></cell></row><row r="408"><cell r="C408" t="str"><v>겨울나기 모과생강배 180ml병</v></cell><cell r="D408" t="str"><v>8801097217317</v></cell></row><row r="409"><cell r="C409" t="str"><v>겨울나기 모과생강배 선물세트 180ml병*12</v></cell><cell r="D409" t="str"><v>8801097217324</v></cell></row><row r="410"><cell r="C410" t="str"><v>하늘청식혜 200ml파우치</v></cell><cell r="D410" t="str"><v>8802711201194</v></cell></row><row r="411"><cell r="C411" t="str"><v>인삼 한뿌리 120ml병</v></cell><cell r="D411" t="str"><v>8801007020945</v></cell></row><row r="412"><cell r="C412" t="str"><v>마 한뿌리 120ml병</v></cell><cell r="D412" t="str"><v>8801007047614</v></cell></row><row r="413"><cell r="C413" t="str"><v>홍삼 한뿌리 120ml병</v></cell><cell r="D413" t="str"><v>8801007031545</v></cell></row><row r="414"><cell r="C414" t="str"><v>한라봉 제주감귤 340ml페트</v></cell><cell r="D414" t="str"><v>8801674710835</v></cell></row><row r="415"><cell r="C415" t="str"><v>하늘보리 1.5L페트</v></cell><cell r="D415" t="str"><v>8801382131038</v></cell></row><row r="416"><cell r="C416" t="str"><v>하늘보리 1L페트</v></cell><cell r="D416" t="str"><v>8801382132400</v></cell></row><row r="417"><cell r="C417" t="str"><v>하늘보리 500ml 페트</v></cell><cell r="D417" t="str"><v>8801382124849</v></cell></row><row r="418"><cell r="C418" t="str"><v>유기농하늘보리차 200ml페트</v></cell><cell r="D418" t="str"><v>8801382143123</v></cell></row><row r="419"><cell r="C419" t="str"><v>하루야채 오리지널 200ml테트라탑</v></cell><cell r="D419" t="str"><v>8801128402330</v></cell></row><row r="420"><cell r="C420" t="str"><v>하와이안 블루레몬 245ml투명캔</v></cell><cell r="D420" t="str"><v>8809394830000</v></cell></row><row r="421"><cell r="C421" t="str"><v>하와이안 모히또 245ml투명캔</v></cell><cell r="D421" t="str"><v>8809394830017</v></cell></row><row r="422"><cell r="C422" t="str"><v>헬로팬돌이 블루 280ml페트</v></cell><cell r="D422" t="str"><v>8801105905151</v></cell></row><row r="423"><cell r="C423" t="str"><v>헬로팬돌이 솜사탕향 280ml페트</v></cell><cell r="D423" t="str"><v>8801105906080</v></cell></row><row r="424"><cell r="C424" t="str"><v>힘찬하루헛개차 340ml페트</v></cell><cell r="D424" t="str"><v>8806002009094</v></cell></row><row r="425"><cell r="C425" t="str"><v>꿀홍삼 180ml병</v></cell><cell r="D425" t="str"><v>8801382126232</v></cell></row><row r="426"><cell r="C426" t="str"><v>웅진 홍삼 차 500 ml</v></cell></row><row r="427"><cell r="C427" t="str"><v>핫식스 355ml캔</v></cell><cell r="D427" t="str"><v>8801056051723</v></cell></row><row r="428"><cell r="C428" t="str"><v>핫식스 360ml보틀캔</v></cell><cell r="D428" t="str"><v>8801056051747</v></cell></row><row r="429"><cell r="C429" t="str"><v>핫식스 250ml캔</v></cell><cell r="D429" t="str"><v>8801056038861</v></cell></row><row r="430"><cell r="C430" t="str"><v>핫식스 후르츠에너지 250ml캔</v></cell><cell r="D430" t="str"><v>8801056062705</v></cell></row><row r="431"><cell r="C431" t="str"><v>핫식스 후르츠에너지 250ml캔*6팩</v></cell><cell r="D431" t="str"><v>8801056062712</v></cell></row><row r="432"><cell r="C432" t="str"><v>핫식스 라이트 250ml캔</v></cell><cell r="D432" t="str"><v>8801056059293</v></cell></row><row r="433"><cell r="C433" t="str"><v>핫식스 라이트 355ml슬림캔</v></cell><cell r="D433" t="str"><v>8801056063214</v></cell></row><row r="434"><cell r="C434" t="str"><v>핫식스 355ml슬림캔</v></cell><cell r="D434" t="str"><v>8801056063184</v></cell></row><row r="435"><cell r="C435" t="str"><v>내몸에좋은 헛개꿀대추차 280ml페트</v></cell><cell r="D435" t="str"><v>8809241232339</v></cell></row><row r="436"><cell r="C436" t="str"><v>아임리얼 애플망고요거트 190ml페트</v></cell><cell r="D436" t="str"><v>8801114120699</v></cell></row><row r="437"><cell r="C437" t="str"><v>아임리얼 블루베리요거트 190ml페트</v></cell><cell r="D437" t="str"><v>8801114120583</v></cell></row><row r="438"><cell r="C438" t="str"><v>나는 이상적이다. 스무디 딸기 딸기 190 ml</v></cell></row><row r="439"><cell r="C439" t="str"><v>아임리얼 스트로베리 190ml페트</v></cell><cell r="D439" t="str"><v>8801114117477</v></cell></row><row r="440"><cell r="C440" t="str"><v>아임리얼 토마토 190ml페트</v></cell><cell r="D440" t="str"><v>8801114117453</v></cell></row><row r="441"><cell r="C441" t="str"><v>아이스버블체리 190ml파우치</v></cell><cell r="D441" t="str"><v>8809084014444</v></cell></row><row r="442"><cell r="C442" t="str"><v>아이스버블청포도 190ml파우치</v></cell><cell r="D442" t="str"><v>8809084014420</v></cell></row><row r="443"><cell r="C443" t="str"><v>아이시스 2L페트</v></cell><cell r="D443" t="str"><v>8801056956011</v></cell></row><row r="444"><cell r="C444" t="str"><v>아이시스 500ml페트</v></cell><cell r="D444" t="str"><v>8801056780012</v></cell></row><row r="445"><cell r="C445" t="str"><v>아이시스8.0 2L페트</v></cell><cell r="D445" t="str"><v>8801056049904</v></cell></row><row r="446"><cell r="C446" t="str"><v>아이시스 8.0 300ml페트</v></cell><cell r="D446" t="str"><v>8801056059842</v></cell></row><row r="447"><cell r="C447" t="str"><v>아이시스8.0 500ml페트</v></cell><cell r="D447" t="str"><v>8801056049881</v></cell></row><row r="448"><cell r="C448" t="str"><v>아이시스 주니어워터 300ml페트</v></cell><cell r="D448" t="str"><v>8801056032081</v></cell></row><row r="449"><cell r="C449" t="str"><v>아이키커사과 100ml파우치</v></cell><cell r="D449" t="str"><v>8809023001573</v></cell></row><row r="450"><cell r="C450" t="str"><v>아이키커오렌지 100ml파우치</v></cell><cell r="D450" t="str"><v>8809023001566</v></cell></row><row r="451"><cell r="C451" t="str"><v>이너뷰티 자몽먹은콜라겐 200ml컵</v></cell><cell r="D451" t="str"><v>8801104501019</v></cell></row><row r="452"><cell r="C452" t="str"><v>이너뷰티 레몬먹은비타민 200ml컵</v></cell><cell r="D452" t="str"><v>8801104501026</v></cell></row><row r="453"><cell r="C453" t="str"><v>잔치집 식혜 240ml캔</v></cell><cell r="D453" t="str"><v>8801056055677</v></cell></row><row r="454"><cell r="C454" t="str"><v>자바 몬스터 코나블렌드 325ml캔</v></cell><cell r="D454" t="str"><v>4897036690291</v></cell></row><row r="455"><cell r="C455" t="str"><v>자바 몬스터 민빈 325ml캔</v></cell><cell r="D455" t="str"><v>4897036690277</v></cell></row><row r="456"><cell r="C456" t="str"><v>자연은 알로에 1.5L페트</v></cell><cell r="D456" t="str"><v>8801382127796</v></cell></row><row r="457"><cell r="C457" t="str"><v>자연은 알로에 180ml병</v></cell><cell r="D457" t="str"><v>8801382127758</v></cell></row><row r="458"><cell r="C458" t="str"><v>자연은 알로에 500ml페트</v></cell><cell r="D458" t="str"><v>8801382127789</v></cell></row><row r="459"><cell r="C459" t="str"><v>자연은 사과 1.5L페트</v></cell><cell r="D459" t="str"><v>8801382134909</v></cell></row><row r="460"><cell r="C460" t="str"><v>자연은 사과 180ml병</v></cell><cell r="D460" t="str"><v>8801382134480</v></cell></row><row r="461"><cell r="C461" t="str"><v>자연은 170일 사과 100 500ml페트</v></cell><cell r="D461" t="str"><v>8801382135166</v></cell></row><row r="462"><cell r="C462" t="str"><v>자연은 블루베리 1.5L</v></cell><cell r="D462" t="str"><v>8801382139478</v></cell></row><row r="463"><cell r="C463" t="str"><v>자연은 복분자 180ml병</v></cell><cell r="D463" t="str"><v>8801382134794</v></cell></row><row r="464"><cell r="C464" t="str"><v>자연은 당근 180ml병</v></cell><cell r="D464" t="str"><v>8801382127994</v></cell></row><row r="465"><cell r="C465" t="str"><v>자연은 포도 1.5L페트</v></cell><cell r="D465" t="str"><v>8801382127987</v></cell></row><row r="466"><cell r="C466" t="str"><v>자연은 포도 180ml병</v></cell><cell r="D466" t="str"><v>8801382127970</v></cell></row><row r="467"><cell r="C467" t="str"><v>자연은 140일 포도 100 500ml페트</v></cell><cell r="D467" t="str"><v>8801382132240</v></cell></row><row r="468"><cell r="C468" t="str"><v>자연은 머스캣 1.5L페트</v></cell><cell r="D468" t="str"><v>8801382141389</v></cell></row><row r="469"><cell r="C469" t="str"><v>자연은 오렌지 1.5L페트</v></cell><cell r="D469" t="str"><v>8801382127680</v></cell></row><row r="470"><cell r="C470" t="str"><v>자연은생으로가득한 블루베리100 950ml페트</v></cell><cell r="D470" t="str"><v>8801382142027</v></cell></row><row r="471"><cell r="C471" t="str"><v>자연은생으로가득한 포도100 950ml페트</v></cell><cell r="D471" t="str"><v>8801382138167</v></cell></row><row r="472"><cell r="C472" t="str"><v>자연은생으로가득한 감귤 2.2L페트</v></cell><cell r="D472" t="str"><v>8801382143468</v></cell></row><row r="473"><cell r="C473" t="str"><v>자연은생으로가득한 감귤 950ml페트</v></cell><cell r="D473" t="str"><v>8801382143451</v></cell></row><row r="474"><cell r="C474" t="str"><v>자연은생으로가득한 오렌지100 950ml페트</v></cell><cell r="D474" t="str"><v>8801382138143</v></cell></row><row r="475"><cell r="C475" t="str"><v>자연은생으로가득한 토마토100 950ml페트</v></cell><cell r="D475" t="str"><v>8801382142942</v></cell></row><row r="476"><cell r="C476" t="str"><v>자연은 석류 1.5L페트</v></cell><cell r="D476" t="str"><v>8801382131014</v></cell></row><row r="477"><cell r="C477" t="str"><v>자연은 석류 180ml병</v></cell><cell r="D477" t="str"><v>8801382131021</v></cell></row><row r="478"><cell r="C478" t="str"><v>자연은제주감귤 1.5페트</v></cell><cell r="D478" t="str"><v>8801382127963</v></cell></row><row r="479"><cell r="C479" t="str"><v>자연은 210일 감귤 500ml페트</v></cell><cell r="D479" t="str"><v>8801382137917</v></cell></row><row r="480"><cell r="C480" t="str"><v>자연은 토마토 1.5L페트</v></cell><cell r="D480" t="str"><v>8801382127727</v></cell></row><row r="481"><cell r="C481" t="str"><v>자연은 토마토 180ml병</v></cell><cell r="D481" t="str"><v>801382127697</v></cell></row><row r="482"><cell r="C482" t="str"><v>자연은 토마토 340ml페트</v></cell><cell r="D482" t="str"><v>8801382127710</v></cell></row><row r="483"><cell r="C483" t="str"><v>자연은 토마토 500ml페트</v></cell><cell r="D483" t="str"><v>8801382130314</v></cell></row><row r="484"><cell r="C484" t="str"><v>제주삼다수 2L페트</v></cell><cell r="D484" t="str"><v>8808244201045</v></cell></row><row r="485"><cell r="C485" t="str"><v>제주삼다수 500ml페트</v></cell><cell r="D485" t="str"><v>8808244201014</v></cell></row><row r="486"><cell r="C486" t="str"><v>제주바다 선인장웰빙주스180ml병</v></cell><cell r="D486" t="str"><v>8809060154089</v></cell></row><row r="487"><cell r="C487" t="str"><v>강원평창수 2L페트</v></cell><cell r="D487" t="str"><v>8801105000313</v></cell></row><row r="488"><cell r="C488" t="str"><v>킨사이다 1.5L페트</v></cell><cell r="D488" t="str"><v>8801094192402</v></cell></row><row r="489"><cell r="C489" t="str"><v>킨사이다 250ml캔</v></cell><cell r="D489" t="str"><v>8801094193003</v></cell></row><row r="490"><cell r="C490" t="str"><v>킨사이다 500ml페트</v></cell><cell r="D490" t="str"><v>8801094192600</v></cell></row><row r="491"><cell r="C491" t="str"><v>깜찍이 밀크아이스크림향 300ml페트</v></cell><cell r="D491" t="str"><v>8801105909777</v></cell></row><row r="492"><cell r="C492" t="str"><v>껍질과뿌리까지다린 황토양파웰빙주스 180ml병</v></cell><cell r="D492" t="str"><v>8809060152207</v></cell></row><row r="493"><cell r="C493" t="str"><v>큰집식혜 238ml캔</v></cell><cell r="D493" t="str"><v>8801105222067</v></cell></row><row r="494"><cell r="C494" t="str"><v>과일촌 아침에사과 1.5L페트</v></cell><cell r="D494" t="str"><v>8801105909036</v></cell></row><row r="495"><cell r="C495" t="str"><v>과일촌 아침에사과 500ml페트</v></cell><cell r="D495" t="str"><v>8801105908367</v></cell></row><row r="496"><cell r="C496" t="str"><v>과일촌 아침에매실 180ml캔</v></cell><cell r="D496" t="str"><v>8801105904338</v></cell></row><row r="497"><cell r="C497" t="str"><v>썬키스트후레쉬 머스캣&제주감귤 1.5L페트*2번들</v></cell><cell r="D497" t="str"><v>8801105987157</v></cell></row><row r="498"><cell r="C498" t="str"><v>과일촌 제주감귤 1.5L페트</v></cell><cell r="D498" t="str"><v>8801105906233</v></cell></row><row r="499"><cell r="C499" t="str"><v>과일촌 제주감귤 1L페트</v></cell><cell r="D499" t="str"><v>8801105908060</v></cell></row><row r="500"><cell r="C500" t="str"><v>강원평창수 500ml페트</v></cell><cell r="D500" t="str"><v>8801105915303</v></cell></row><row r="501"><cell r="C501" t="str"><v>과수원 사과 200ml팩</v></cell><cell r="D501" t="str"><v>88001081</v></cell></row><row r="502"><cell r="C502" t="str"><v>랭거스 크렌베리 1.89L페트</v></cell><cell r="D502" t="str"><v>41755008101</v></cell></row><row r="503"><cell r="C503" t="str"><v>랭거스 크랜베리 474ml페트</v></cell><cell r="D503" t="str"><v>41755000556</v></cell></row><row r="504"><cell r="C504" t="str"><v>랭거스 망고 474ml페트</v></cell><cell r="D504" t="str"><v>41755008477</v></cell></row><row r="505"><cell r="C505" t="str"><v>랭거스 루비레드자몽 474ml페트</v></cell><cell r="D505" t="str"><v>41755008484</v></cell></row><row r="506"><cell r="C506" t="str"><v>블루레몬에이드 200ml병</v></cell><cell r="D506" t="str"><v>8809084013676</v></cell></row><row r="507"><cell r="C507" t="str"><v>모히또레몬라임 200ml병</v></cell><cell r="D507" t="str"><v>8809084013690</v></cell></row><row r="508"><cell r="C508" t="str"><v>깔끔&상큼한티-레몬녹차 340ml페트</v></cell><cell r="D508" t="str"><v>8809084013508</v></cell></row><row r="509"><cell r="C509" t="str"><v>레쓰비 카페타임 아메리카노 240ml캔</v></cell><cell r="D509" t="str"><v>8801056059729</v></cell></row><row r="510"><cell r="C510" t="str"><v>레쓰비 카페타임 모닝커피 240ml캔</v></cell><cell r="D510" t="str"><v>8801056050236</v></cell></row><row r="511"><cell r="C511" t="str"><v>레쓰비 카페타임 클래식 240ml캔</v></cell><cell r="D511" t="str"><v>8801056050238</v></cell></row><row r="512"><cell r="C512" t="str"><v>레쓰비 카페타임 라떼 240ml캔</v></cell><cell r="D512" t="str"><v>8801056050269</v></cell></row><row r="513"><cell r="C513" t="str"><v>레쓰비 175ml캔</v></cell><cell r="D513" t="str"><v>8801056290016</v></cell></row><row r="514"><cell r="C514" t="str"><v>립톤 레몬 500ml페트</v></cell><cell r="D514" t="str"><v>8801056064594</v></cell></row><row r="515"><cell r="C515" t="str"><v>립톤 아이스티 복숭아 1.5L페트</v></cell><cell r="D515" t="str"><v>8801056044558</v></cell></row><row r="516"><cell r="C516" t="str"><v>립톤 복숭아 240ml캔</v></cell><cell r="D516" t="str"><v>8801056044473</v></cell></row><row r="517"><cell r="C517" t="str"><v>립톤 복숭아 500ml페트</v></cell><cell r="D517" t="str"><v>8801056044534</v></cell></row><row r="518"><cell r="C518" t="str"><v>매직파워비타데이 오렌지 370ml페트</v></cell><cell r="D518" t="str"><v>8809380380014</v></cell></row><row r="519"><cell r="C519" t="str"><v>매직파워비타데이 석류 370ml페트</v></cell><cell r="D519" t="str"><v>8809380380021</v></cell></row><row r="520"><cell r="C520" t="str"><v>17차(맑은피부) 340ml</v></cell><cell r="D520" t="str"><v>8801069176543</v></cell></row><row r="521"><cell r="C521" t="str"><v>맵시밸런스메밀차 500ml페트</v></cell><cell r="D521" t="str"><v>8801382143130</v></cell></row><row r="522"><cell r="C522" t="str"><v>맑게우려낸 오곡누룽지차 500ml페트</v></cell><cell r="D522" t="str"><v>8801382135036</v></cell></row><row r="523"><cell r="C523" t="str"><v>맑은땅 옥수수수염차 500ml페트</v></cell><cell r="D523" t="str"><v>8801382132394</v></cell></row><row r="524"><cell r="C524" t="str"><v>마신다 2L 페트</v></cell><cell r="D524" t="str"><v>8801097913042</v></cell></row><row r="525"><cell r="C525" t="str"><v>마신다 500ml페트</v></cell><cell r="D525" t="str"><v>8801097913028</v></cell></row><row r="526"><cell r="C526" t="str"><v>태양의마테차 500ml페트</v></cell><cell r="D526" t="str"><v>8801094342609</v></cell></row><row r="527"><cell r="C527" t="str"><v>맥콜 1.5L페트</v></cell><cell r="D527" t="str"><v>8801223100278</v></cell></row><row r="528"><cell r="C528" t="str"><v>맥콜 250ml캔</v></cell><cell r="D528" t="str"><v>8801223100254</v></cell></row><row r="529"><cell r="C529" t="str"><v>맥콜 250ml캔*6팩</v></cell><cell r="D529" t="str"><v>8801223100506</v></cell></row><row r="530"><cell r="C530" t="str"><v>맥콜 500ml페트</v></cell><cell r="D530" t="str"><v>8801223100261</v></cell></row><row r="531"><cell r="C531" t="str"><v>밀키스 1.5L페트</v></cell><cell r="D531" t="str"><v>8801056201012</v></cell></row><row r="532"><cell r="C532" t="str"><v>크림 우유 소다 250 ml</v></cell></row><row r="533"><cell r="C533" t="str"><v>밀키스 355ml캔</v></cell><cell r="D533" t="str"><v>8801056043551</v></cell></row><row r="534"><cell r="C534" t="str"><v>밀키스 500ml 페트</v></cell><cell r="D534" t="str"><v>8801056755010</v></cell></row><row r="535"><cell r="C535" t="str"><v>밀키스 바나나 250ml캔</v></cell><cell r="D535" t="str"><v>8801056042042</v></cell></row><row r="536"><cell r="C536" t="str"><v>미네워터 500ml페트</v></cell><cell r="D536" t="str"><v>8801007077772</v></cell></row><row r="537"><cell r="C537" t="str"><v>미닛메이드 알로에 350ml페트</v></cell><cell r="D537" t="str"><v>8801094432201</v></cell></row><row r="538"><cell r="C538" t="str"><v>미닛메이드후레쉬C 오렌지 240ml캔</v></cell><cell r="D538" t="str"><v>8801094853006</v></cell></row><row r="539"><cell r="C539" t="str"><v>미닛메이드 선물세트(오아크) 1L병*3</v></cell><cell r="D539" t="str"><v>8801094313722</v></cell></row><row r="540"><cell r="C540" t="str"><v>미닛메이드 포도 100 1L 테트라팩</v></cell><cell r="D540" t="str"><v>8801094324704</v></cell></row><row r="541"><cell r="C541" t="str"><v>미닛메이드 벌꿀유자 280ml병</v></cell><cell r="D541" t="str"><v>8801094442101</v></cell></row><row r="542"><cell r="C542" t="str"><v>미닛메이드조이 사과리치 240ml캔</v></cell><cell r="D542" t="str"><v>8801094933005</v></cell></row><row r="543"><cell r="C543" t="str"><v>미닛메이드조이 사과리치 300ml페트</v></cell><cell r="D543" t="str"><v>8801094932107</v></cell></row><row r="544"><cell r="C544" t="str"><v>미닛메이드조이 포도 240ml캔</v></cell><cell r="D544" t="str"><v>8801094923006</v></cell></row><row r="545"><cell r="C545" t="str"><v>미닛메이드조이 포도 300ml페트</v></cell><cell r="D545" t="str"><v>8801094922108</v></cell></row><row r="546"><cell r="C546" t="str"><v>미닛메이드조이 오렌지 240ml캔</v></cell><cell r="D546" t="str"><v>8801094913007</v></cell></row><row r="547"><cell r="C547" t="str"><v>미닛메이드조이 오렌지 300ml페트</v></cell><cell r="D547" t="str"><v>8801094912109</v></cell></row><row r="548"><cell r="C548" t="str"><v>미닛메이드 매실 175ml캔</v></cell><cell r="D548" t="str"><v>8801094443900</v></cell></row><row r="549"><cell r="C549" t="str"><v>미닛메이드 오렌지 100 1L 테트라팩</v></cell><cell r="D549" t="str"><v>8801094264703</v></cell></row><row r="550"><cell r="C550" t="str"><v>미닛메이드 오리지널오렌지 175ml캔</v></cell><cell r="D550" t="str"><v>8801094263911</v></cell></row><row r="551"><cell r="C551" t="str"><v>미닛메이드 알로에 1.5L페트</v></cell><cell r="D551" t="str"><v>8801094432409</v></cell></row><row r="552"><cell r="C552" t="str"><v>미닛메이드 알로에플러스 180ml병</v></cell><cell r="D552" t="str"><v>8801094431907</v></cell></row><row r="553"><cell r="C553" t="str"><v>미닛메이드 매실 180ml병</v></cell><cell r="D553" t="str"><v>8801094441906</v></cell></row><row r="554"><cell r="C554" t="str"><v>미닛메이드 포도100 셀렉트 1.5L페트</v></cell><cell r="D554" t="str"><v>8801094644406</v></cell></row><row r="555"><cell r="C555" t="str"><v>미닛메이드 오렌지100 셀렉트 1.5L페트</v></cell><cell r="D555" t="str"><v>8801094273408</v></cell></row><row r="556"><cell r="C556" t="str"><v>미닛메이드 포도100 1.8L페트</v></cell><cell r="D556" t="str"><v>8801094642501</v></cell></row><row r="557"><cell r="C557" t="str"><v>미닛메이드 포도 350ml페트</v></cell><cell r="D557" t="str"><v>8801094642204</v></cell></row><row r="558"><cell r="C558" t="str"><v>미닛메이드 포도 180ml병</v></cell><cell r="D558" t="str"><v>8801094321918</v></cell></row><row r="559"><cell r="C559" t="str"><v>미닛메이드 제주감귤 1.5L페트</v></cell><cell r="D559" t="str"><v>8801094626402</v></cell></row><row r="560"><cell r="C560" t="str"><v>미닛메이드 제주감귤 180ml병</v></cell><cell r="D560" t="str"><v>8801094620950</v></cell></row><row r="561"><cell r="C561" t="str"><v>미닛메이드 감알토 선물세트 180ml병*12</v></cell><cell r="D561" t="str"><v>8801094430924</v></cell></row><row r="562"><cell r="C562" t="str"><v>미닛메이드 감포매 선물세트 180ml병*12</v></cell><cell r="D562" t="str"><v>8801094708955</v></cell></row><row r="563"><cell r="C563" t="str"><v>미닛메이드 오리지널 망고플러스 1L 테트라팩</v></cell><cell r="D563" t="str"><v>8801094294700</v></cell></row><row r="564"><cell r="C564" t="str"><v>미닛메이드 오리지널 망고 1.5L페트</v></cell><cell r="D564" t="str"><v>8801094292409</v></cell></row><row r="565"><cell r="C565" t="str"><v>미닛메이드 오리지널 망고 240ml캔</v></cell><cell r="D565" t="str"><v>8801094293000</v></cell></row><row r="566"><cell r="C566" t="str"><v>미닛메이드 오리지널 오렌지100 1.5L페트</v></cell><cell r="D566" t="str"><v>8801094266400</v></cell></row><row r="567"><cell r="C567" t="str"><v>미닛메이드 오리지널 오렌지100 1.8L페트</v></cell><cell r="D567" t="str"><v>8801094266509</v></cell></row><row r="568"><cell r="C568" t="str"><v>미닛메이드 오리지널 오렌지100 350ml페트</v></cell><cell r="D568" t="str"><v>8801094265205</v></cell></row><row r="569"><cell r="C569" t="str"><v>미닛메이드 오렌지플러스 선물세트 180ml병*12</v></cell><cell r="D569" t="str"><v>8801094260958</v></cell></row><row r="570"><cell r="C570" t="str"><v>미닛메이드 오포알 선물세트 180ml병*12</v></cell><cell r="D570" t="str"><v>8801094702953</v></cell></row><row r="571"><cell r="C571" t="str"><v>미닛메이드 오포감 선물세트 180ml병*12</v></cell><cell r="D571" t="str"><v>8801094700959</v></cell></row><row r="572"><cell r="C572" t="str"><v>미닛메이드 포도플러스180ml병</v></cell><cell r="D572" t="str"><v>8801094640903</v></cell></row><row r="573"><cell r="C573" t="str"><v>미닛메이드 제주감귤플러스 180ml병</v></cell><cell r="D573" t="str"><v>8801094620905</v></cell></row><row r="574"><cell r="C574" t="str"><v>미닛메이드 오렌지플러스 180ml병</v></cell><cell r="D574" t="str"><v>8801094261900</v></cell></row><row r="575"><cell r="C575" t="str"><v>미닛메이드 오리지널 오렌지 1L병</v></cell><cell r="D575" t="str"><v>8801094262709</v></cell></row><row r="576"><cell r="C576" t="str"><v>미닛메이드 오리지널 토마토 1.5L페트</v></cell><cell r="D576" t="str"><v>8801094332402</v></cell></row><row r="577"><cell r="C577" t="str"><v>미닛메이드 토마토플러스 180ml병</v></cell><cell r="D577" t="str"><v>8801094331917</v></cell></row><row r="578"><cell r="C578" t="str"><v>미닛메이드 오리지널 포도100 1.5L페트</v></cell><cell r="D578" t="str"><v>8801094642402</v></cell></row><row r="579"><cell r="C579" t="str"><v>미닛메이드펀치 애플홀릭 1.5L</v></cell><cell r="D579" t="str"><v>8801094702403</v></cell></row><row r="580"><cell r="C580" t="str"><v>미닛메이드펀치 애플홀릭 400ml</v></cell><cell r="D580" t="str"><v>8801094702601</v></cell></row><row r="581"><cell r="C581" t="str"><v>미닛메이드펀치 오렌지자몽 1.5L페트</v></cell><cell r="D581" t="str"><v>8801094682408</v></cell></row><row r="582"><cell r="C582" t="str"><v>미닛메이드펀치 오렌지자몽 400ml페트</v></cell><cell r="D582" t="str"><v>8801094682606</v></cell></row><row r="583"><cell r="C583" t="str"><v>미닛메이드펀치 트로피칼 400ml페트</v></cell><cell r="D583" t="str"><v>8801094692605</v></cell></row><row r="584"><cell r="C584" t="str"><v>미닛메이드쿠우 포도 300ml페트</v></cell><cell r="D584" t="str"><v>8801094772109</v></cell></row><row r="585"><cell r="C585" t="str"><v>미닛메이드쿠우 오렌지 175ml캔</v></cell><cell r="D585" t="str"><v>8801094763008</v></cell></row><row r="586"><cell r="C586" t="str"><v>미닛메이드쿠우 오렌지 300ml페트</v></cell><cell r="D586" t="str"><v>8801094762100</v></cell></row><row r="587"><cell r="C587" t="str"><v>미닛메이드리치블렌드 아사이베리 180ml병</v></cell><cell r="D587" t="str"><v>8801094781903</v></cell></row><row r="588"><cell r="C588" t="str"><v>미닛메이드리치블렌드 아사이베리 1L병</v></cell><cell r="D588" t="str"><v>8801094781408</v></cell></row><row r="589"><cell r="C589" t="str"><v>미닛메이드리치블렌드 아사크 선물세트 180ml병*12</v></cell><cell r="D589" t="str"><v>8801094780951</v></cell></row><row r="590"><cell r="C590" t="str"><v>미닛메이드리치블렌드 크랜베리 180ml병</v></cell><cell r="D590" t="str"><v>8801094811907</v></cell></row><row r="591"><cell r="C591" t="str"><v>미닛메이드리치블렌드 크랜베리 1L병</v></cell><cell r="D591" t="str"><v>8801094811402</v></cell></row><row r="592"><cell r="C592" t="str"><v>미닛메이드리치블렌드 아사이베리 1.5L페트</v></cell><cell r="D592" t="str"><v>8801094782405</v></cell></row><row r="593"><cell r="C593" t="str"><v>미닛메이드리치블렌드 아사이베리 300ml페트</v></cell><cell r="D593" t="str"><v>8801094782108</v></cell></row><row r="594"><cell r="C594" t="str"><v>미닛메이드리치블렌드 크랜베리 1.5L페트</v></cell><cell r="D594" t="str"><v>8801094812409</v></cell></row><row r="595"><cell r="C595" t="str"><v>미닛메이드리치블렌드 크랜베리 300ml페트</v></cell><cell r="D595" t="str"><v>8801094812102</v></cell></row><row r="596"><cell r="C596" t="str"><v>미린다 오렌지 250ml캔</v></cell><cell r="D596" t="str"><v>8801056060800</v></cell></row><row r="597"><cell r="C597" t="str"><v>미린다 오렌지 500ml페트</v></cell><cell r="D597" t="str"><v>8801056060862</v></cell></row><row r="598"><cell r="C598" t="str"><v>미린다 파인애플 1.5L페트</v></cell><cell r="D598" t="str"><v>8801056916015</v></cell></row><row r="599"><cell r="C599" t="str"><v>미린다 파인애플 250ml캔</v></cell><cell r="D599" t="str"><v>8801056061012</v></cell></row><row r="600"><cell r="C600" t="str"><v>미린다 파인애플 500ml페트</v></cell><cell r="D600" t="str"><v>8801056061074</v></cell></row><row r="601"><cell r="C601" t="str"><v>모구모구 파인애플 320ml페트</v></cell><cell r="D601" t="str"><v>8850389106259</v></cell></row><row r="602"><cell r="C602" t="str"><v>모구모구 리치 320ml페트</v></cell><cell r="D602" t="str"><v>8850389106211</v></cell></row><row r="603"><cell r="C603" t="str"><v>모히또 애플민트 + 라임 200ml컵</v></cell><cell r="D603" t="str"><v>8801115337393</v></cell></row><row r="604"><cell r="C604" t="str"><v>모히토닉 500ml페트</v></cell><cell r="D604" t="str"><v>8809370680018</v></cell></row><row r="605"><cell r="C605" t="str"><v>몸에좋은 복분자 180ml병</v></cell><cell r="D605" t="str"><v>8801105908411</v></cell></row><row r="606"><cell r="C606" t="str"><v>몸에좋은 건강선물세트 180ml*12</v></cell><cell r="D606" t="str"><v>8801105990010</v></cell></row><row r="607"><cell r="C607" t="str"><v>몸에좋은 꿀물 1.5L페트</v></cell><cell r="D607" t="str"><v>8801105913095</v></cell></row><row r="608"><cell r="C608" t="str"><v>몸에좋은 꿀물 180ml병</v></cell><cell r="D608" t="str"><v>8801105907964</v></cell></row><row r="609"><cell r="C609" t="str"><v>몸에좋은 홍삼 1.5L페트</v></cell><cell r="D609" t="str"><v>8801105913088</v></cell></row><row r="610"><cell r="C610" t="str"><v>몸에좋은 홍삼 180ml병</v></cell><cell r="D610" t="str"><v>8801105906363</v></cell></row><row r="611"><cell r="C611" t="str"><v>몸에좋은 홍삼 선물세트 180ml병*12</v></cell><cell r="D611" t="str"><v>8801105982824</v></cell></row><row r="612"><cell r="C612" t="str"><v>몸에좋은 6년근홍삼진액 80ml파우치</v></cell><cell r="D612" t="str"><v>8801105910612</v></cell></row><row r="613"><cell r="C613" t="str"><v>몸에좋은 헛개 1.5L페트</v></cell><cell r="D613" t="str"><v>8801105913101</v></cell></row><row r="614"><cell r="C614" t="str"><v>몸에좋은 헛개 180ml병</v></cell><cell r="D614" t="str"><v>8801105910186</v></cell></row><row r="615"><cell r="C615" t="str"><v>몸에좋은 헛개진액 80ml파우치</v></cell><cell r="D615" t="str"><v>8801105910629</v></cell></row><row r="616"><cell r="C616" t="str"><v>몸에좋은 막대기헛개차 340ml페트</v></cell><cell r="D616" t="str"><v>8801105912401</v></cell></row><row r="617"><cell r="C617" t="str"><v>마운틴듀 1.5L페트</v></cell><cell r="D617" t="str"><v>8801056436018</v></cell></row><row r="618"><cell r="C618" t="str"><v>마운틴듀 250ml캔*6팩</v></cell><cell r="D618" t="str"><v>8801056721060</v></cell></row><row r="619"><cell r="C619" t="str"><v>마운틴듀 250ml캔</v></cell><cell r="D619" t="str"><v>8801056721015</v></cell></row><row r="620"><cell r="C620" t="str"><v>마운틴듀 500ml페트</v></cell><cell r="D620" t="str"><v>8801056245016</v></cell></row><row r="621"><cell r="C621" t="str"><v>뽕잎수 340ml페트</v></cell><cell r="D621" t="str"><v>8809147956230</v></cell></row><row r="622"><cell r="C622" t="str"><v>자연은멀티브이 글램 470ml페트</v></cell><cell r="D622" t="str"><v>8801382142232</v></cell></row><row r="623"><cell r="C623" t="str"><v>자연은멀티브이 리프레쉬 470ml페트</v></cell><cell r="D623" t="str"><v>8801382142225</v></cell></row><row r="624"><cell r="C624" t="str"><v>나랑드사이다 제로 1.5L페트</v></cell><cell r="D624" t="str"><v>8801097235212</v></cell></row><row r="625"><cell r="C625" t="str"><v>나랑드사이다 제로 245ml캔</v></cell><cell r="D625" t="str"><v>8801097135215</v></cell></row><row r="626"><cell r="C626" t="str"><v>네이처티 애플 허니 그린티 500ml 페트</v></cell><cell r="D626" t="str"><v>8801056053017</v></cell></row><row r="627"><cell r="C627" t="str"><v>네이처티 라임모히또 500ml페트</v></cell><cell r="D627" t="str"><v>8801056052997</v></cell></row><row r="628"><cell r="C628" t="str"><v>골든드랍 나는카푸치노 175ml캔</v></cell><cell r="D628" t="str"><v>8801105001174</v></cell></row><row r="629"><cell r="C629" t="str"><v>뉴트리빈 검은콩 200ml병</v></cell><cell r="D629" t="str"><v>8801056056759</v></cell></row><row r="630"><cell r="C630" t="str"><v>뉴트리빈 오리지널 200ml병</v></cell><cell r="D630" t="str"><v>8801056056674</v></cell></row><row r="631"><cell r="C631" t="str"><v>뉴트리빈 스위트 200ml병</v></cell><cell r="D631" t="str"><v>8801056056711</v></cell></row><row r="632"><cell r="C632" t="str"><v>오션스프레이 크렌베리 그레이프 주스 드링크 1.89L페트</v></cell><cell r="D632" t="str"><v>31200220073</v></cell></row><row r="633"><cell r="C633" t="str"><v>오션스프레이 크렌베리 주스 칵테일 1.89L페트</v></cell><cell r="D633" t="str"><v>31200200075</v></cell></row><row r="634"><cell r="C634" t="str"><v>오라떼 애플 240ml</v></cell><cell r="D634" t="str"><v>8801097115019</v></cell></row><row r="635"><cell r="C635" t="str"><v>오라떼 피치 240ml</v></cell><cell r="D635" t="str"><v>8801097128019</v></cell></row><row r="636"><cell r="C636" t="str"><v>오늘의차 황금보리 500ml 페트</v></cell><cell r="D636" t="str"><v>8801056051037</v></cell></row><row r="637"><cell r="C637" t="str"><v>오란씨 레몬 1.5L페트</v></cell><cell r="D637" t="str"><v>8801097234024</v></cell></row><row r="638"><cell r="C638" t="str"><v>오란씨 파인애플 500ml페트</v></cell><cell r="D638" t="str"><v>8801097234215</v></cell></row><row r="639"><cell r="C639" t="str"><v>오란씨 오렌지 1.5L페트</v></cell><cell r="D639" t="str"><v>8801097234420</v></cell></row><row r="640"><cell r="C640" t="str"><v>오란씨 파인애플 1.5L페트</v></cell><cell r="D640" t="str"><v>8801097234222</v></cell></row><row r="641"><cell r="C641" t="str"><v>프로엠유기포도100 100ml파우치</v></cell><cell r="D641" t="str"><v>8809238110176</v></cell></row><row r="642"><cell r="C642" t="str"><v>프로엠유기오렌지100 100ml파우치</v></cell><cell r="D642" t="str"><v>8809238110169</v></cell></row><row r="643"><cell r="C643" t="str"><v>퓨어플러스 유기농오렌지 245ml병</v></cell><cell r="D643" t="str"><v>8809125060188</v></cell></row><row r="644"><cell r="C644" t="str"><v>퓨어플러스 유기농토마토 245ml병</v></cell><cell r="D644" t="str"><v>8809125060102</v></cell></row><row r="645"><cell r="C645" t="str"><v>펩시 1.5L페트</v></cell><cell r="D645" t="str"><v>8801056195014</v></cell></row><row r="646"><cell r="C646" t="str"><v>펩시 250ml캔</v></cell><cell r="D646" t="str"><v>8801056610012</v></cell></row><row r="647"><cell r="C647" t="str"><v>펩시 500ml페트</v></cell><cell r="D647" t="str"><v>8801056193010</v></cell></row><row r="648"><cell r="C648" t="str"><v>펩시 넥스제로 250ml캔</v></cell><cell r="D648" t="str"><v>8801056032333</v></cell></row><row r="649"><cell r="C649" t="str"><v>펩시 190ml캔*6팩</v></cell><cell r="D649" t="str"><v>8801056066864</v></cell></row><row r="650"><cell r="C650" t="str"><v>페리에 레몬 330ml병</v></cell><cell r="D650" t="str"><v>7613033131585</v></cell></row><row r="651"><cell r="C651" t="str"><v>페리에 라임 330ml병</v></cell><cell r="D651" t="str"><v>7613032983543</v></cell></row><row r="652"><cell r="C652" t="str"><v>쁘띠첼 미초석류 330ml페트</v></cell><cell r="D652" t="str"><v>8801007274843</v></cell></row><row r="653"><cell r="C653" t="str"><v>쁘띠첼 워터젤리 사과 130ml파우치</v></cell><cell r="D653" t="str"><v>8801007026282</v></cell></row><row r="654"><cell r="C654" t="str"><v>쁘띠첼 워터젤리 포도 130ml파우치</v></cell><cell r="D654" t="str"><v>8801007067285</v></cell></row><row r="655"><cell r="C655" t="str"><v>쁘띠첼 워터젤리 자몽에이드 130ml파우치</v></cell><cell r="D655" t="str"><v>8801007248011</v></cell></row><row r="656"><cell r="C656" t="str"><v>쁘띠첼 워터젤리 오렌지 130ml파우치</v></cell><cell r="D656" t="str"><v>8801007026275</v></cell></row><row r="657"><cell r="C657" t="str"><v>쁘띠첼 워터젤리 복숭아 130ml파우치</v></cell><cell r="D657" t="str"><v>8801007038032</v></cell></row><row r="658"><cell r="C658" t="str"><v>포카리스웨트 1.5L페트</v></cell><cell r="D658" t="str"><v>8801097150034</v></cell></row><row r="659"><cell r="C659" t="str"><v>포카리스웨트 245ml캔</v></cell><cell r="D659" t="str"><v>8801097150010</v></cell></row><row r="660"><cell r="C660" t="str"><v>포카리스웨트 245ml캔*6팩</v></cell><cell r="D660" t="str"><v>8801097150119</v></cell></row><row r="661"><cell r="C661" t="str"><v>포카리스웨트 500ml페트</v></cell><cell r="D661" t="str"><v>8801097250048</v></cell></row><row r="662"><cell r="C662" t="str"><v>폴짝폴짝 콩콩콩 포도 210ml페트</v></cell><cell r="D662" t="str"><v>8801105910698</v></cell></row><row r="663"><cell r="C663" t="str"><v>폴짝폴짝 콩콩콩 복숭아 210ml페트</v></cell><cell r="D663" t="str"><v>8801105910681</v></cell></row><row r="664"><cell r="C664" t="str"><v>뽀로로 사과 235ml페트</v></cell><cell r="D664" t="str"><v>8801128945462</v></cell></row><row r="665"><cell r="C665" t="str"><v>뽀로로 밀크 235ml페트</v></cell><cell r="D665" t="str"><v>8801128945073</v></cell></row><row r="666"><cell r="C666" t="str"><v>뽀로로 딸기 235ml페트</v></cell><cell r="D666" t="str"><v>8801128945288</v></cell></row><row r="667"><cell r="C667" t="str"><v>파워오투 사과키위 500ml페트</v></cell><cell r="D667" t="str"><v>4005906404811</v></cell></row><row r="668"><cell r="C668" t="str"><v>파워오투 오렌지레몬 500ml페트</v></cell><cell r="D668" t="str"><v>4005906404835</v></cell></row><row r="669"><cell r="C669" t="str"><v>파워에이드 에너지펀치 1.5L페트</v></cell><cell r="D669" t="str"><v>8801094352400</v></cell></row><row r="670"><cell r="C670" t="str"><v>파워에이드 에너지펀치 600ml페트</v></cell><cell r="D670" t="str"><v>8801094352707</v></cell></row><row r="671"><cell r="C671" t="str"><v>파워에이드 마운틴블라스트 1.5(1.8)L페트</v></cell><cell r="D671" t="str"><v>8801094362409</v></cell></row><row r="672"><cell r="C672" t="str"><v>파워에이드 마운틴블라스트 240ml캔</v></cell><cell r="D672" t="str"><v>8801094363000</v></cell></row><row r="673"><cell r="C673" t="str"><v>파워에이드 마운틴블라스트 355ml캔</v></cell><cell r="D673" t="str"><v>8801094362201</v></cell></row><row r="674"><cell r="C674" t="str"><v>파워에이드 마운틴블라스트 600ml페트</v></cell><cell r="D674" t="str"><v>8801094362706</v></cell></row><row r="675"><cell r="C675" t="str"><v>리차지에너지 250ml캔</v></cell><cell r="D675" t="str"><v>8807096099060</v></cell></row><row r="676"><cell r="C676" t="str"><v>레드불 250ml캔</v></cell><cell r="D676" t="str"><v>9002490100070</v></cell></row><row r="677"><cell r="C677" t="str"><v>레드불 슈가프리 250ml캔</v></cell><cell r="D677" t="str"><v>9002490222895</v></cell></row><row r="678"><cell r="C678" t="str"><v>락스타 에너지드링크 250ml캔</v></cell><cell r="D678" t="str"><v>8801382142041</v></cell></row><row r="679"><cell r="C679" t="str"><v>슈웹스 진저에일 350ml페트</v></cell><cell r="D679" t="str"><v>8801094162207</v></cell></row><row r="680"><cell r="C680" t="str"><v>슈웹스 그레이프토닉 350ml페트</v></cell><cell r="D680" t="str"><v>8801094102203</v></cell></row><row r="681"><cell r="C681" t="str"><v>슈웹스 레몬토닉 350ml페트</v></cell><cell r="D681" t="str"><v>8801094092207</v></cell></row><row r="682"><cell r="C682" t="str"><v>쏠플러스 250ml캔</v></cell><cell r="D682" t="str"><v>8806001087031</v></cell></row><row r="683"><cell r="C683" t="str"><v>솔의눈 240ml캔</v></cell><cell r="D683" t="str"><v>8801056831011</v></cell></row><row r="684"><cell r="C684" t="str"><v>스프라이트 1.5L페트</v></cell><cell r="D684" t="str"><v>8801094202408</v></cell></row><row r="685"><cell r="C685" t="str"><v>스프라이트 185ml캔</v></cell><cell r="D685" t="str"><v>8801094203900</v></cell></row><row r="686"><cell r="C686" t="str"><v>스프라이트 185ml캔*6팩</v></cell><cell r="D686" t="str"><v>8801094203931</v></cell></row><row r="687"><cell r="C687" t="str"><v>스프라이트 250ml캔</v></cell><cell r="D687" t="str"><v>8801094203009</v></cell></row><row r="688"><cell r="C688" t="str"><v>스프라이트 250ml보틀캔</v></cell><cell r="D688" t="str"><v>8801094207007</v></cell></row><row r="689"><cell r="C689" t="str"><v>스프라이트 300ml페트</v></cell><cell r="D689" t="str"><v>8801094202101</v></cell></row><row r="690"><cell r="C690" t="str"><v>스프라이트 355ml캔</v></cell><cell r="D690" t="str"><v>8801094203207</v></cell></row><row r="691"><cell r="C691" t="str"><v>스프라이트 355ml캔*6팩</v></cell><cell r="D691" t="str"><v>8801094203238</v></cell></row><row r="692"><cell r="C692" t="str"><v>스프라이트 500ml페트</v></cell><cell r="D692" t="str"><v>8801094202606</v></cell></row><row r="693"><cell r="C693" t="str"><v>쌕쌕 제주감귤 180ml캔</v></cell><cell r="D693" t="str"><v>8801056935016</v></cell></row><row r="694"><cell r="C694" t="str"><v>스타벅스 더블샷 에스프레소&크림 커피 275ml보틀캔</v></cell><cell r="D694" t="str"><v>8801037055726</v></cell></row><row r="695"><cell r="C695" t="str"><v>스타벅스 더블샷 에스프레소&크림 200ml캔</v></cell><cell r="D695" t="str"><v>8801037035476</v></cell></row><row r="696"><cell r="C696" t="str"><v>스타벅스 프라푸치노 커피 281ml병</v></cell><cell r="D696" t="str"><v>8801037086188</v></cell></row><row r="697"><cell r="C697" t="str"><v>스타벅스 프라푸치노 커피 모카 281ml병</v></cell><cell r="D697" t="str"><v>8801037086195</v></cell></row><row r="698"><cell r="C698" t="str"><v>썬키스트 사과드링크 240ml캔</v></cell><cell r="D698" t="str"><v>8801105908961</v></cell></row><row r="699"><cell r="C699" t="str"><v>썬키스트볼트에너지 블루 250ml캔</v></cell><cell r="D699" t="str"><v>8801105912654</v></cell></row><row r="700"><cell r="C700" t="str"><v>썬키스트볼트에너지 블루 350ml캔</v></cell><cell r="D700" t="str"><v>8801105912661</v></cell></row><row r="701"><cell r="C701" t="str"><v>썬키스트볼트에너지 레드 250ml캔</v></cell><cell r="D701" t="str"><v>8801105912647</v></cell></row><row r="702"><cell r="C702" t="str"><v>썬키스트볼트에너지 레드 350ml캔</v></cell><cell r="D702" t="str"><v>8801105912579</v></cell></row><row r="703"><cell r="C703" t="str"><v>썬키스트 체리에이드 240ml캔</v></cell><cell r="D703" t="str"><v>8801105910025</v></cell></row><row r="704"><cell r="C704" t="str"><v>썬키스트 체리핑크에이드 350ml페트</v></cell><cell r="D704" t="str"><v>8801105910032</v></cell></row><row r="705"><cell r="C705" t="str"><v>썬키스트칵테일 블러디메리 350ml페트</v></cell><cell r="D705" t="str"><v>8801105912814</v></cell></row><row r="706"><cell r="C706" t="str"><v>썬키스트칵테일 블루하와이 350ml페트</v></cell><cell r="D706" t="str"><v>8801105913002</v></cell></row><row r="707"><cell r="C707" t="str"><v>썬키스트칵테일 피나콜라다 350ml페트</v></cell><cell r="D707" t="str"><v>8801105912807</v></cell></row><row r="708"><cell r="C708" t="str"><v>썬키스트칵테일 샤인온더비치 350ml페트</v></cell><cell r="D708" t="str"><v>8801105912791</v></cell></row><row r="709"><cell r="C709" t="str"><v>썬키스트훼미리 알로에 1.5L페트</v></cell><cell r="D709" t="str"><v>8801105912159</v></cell></row><row r="710"><cell r="C710" t="str"><v>썬키스트훼미리 알로에 180ml병</v></cell><cell r="D710" t="str"><v>8801105912142</v></cell></row><row r="711"><cell r="C711" t="str"><v>썬키스트훼미리 사과 선물세트 180ml병*12</v></cell><cell r="D711" t="str"><v>8801105992342</v></cell></row><row r="712"><cell r="C712" t="str"><v>썬키스트훼미리 발효초 블랙 1.5L페트</v></cell><cell r="D712" t="str"><v>8801105912203</v></cell></row><row r="713"><cell r="C713" t="str"><v>썬키스트훼미리 포도 선물세트 180ml병*12</v></cell><cell r="D713" t="str"><v>8801105992656</v></cell></row><row r="714"><cell r="C714" t="str"><v>썬키스트훼미리 제주감귤 180ml병</v></cell><cell r="D714" t="str"><v>8801105906240</v></cell></row><row r="715"><cell r="C715" t="str"><v>썬키스트훼미리 제주감귤 1.5L페트</v></cell><cell r="D715" t="str"><v>8801105912074</v></cell></row><row r="716"><cell r="C716" t="str"><v>SK훼미리제주감귤 180병</v></cell><cell r="D716" t="str"><v>8801105906260</v></cell></row><row r="717"><cell r="C717" t="str"><v>썬키스트훼미리 제주감귤 선물세트 180ml병*12</v></cell><cell r="D717" t="str"><v>8801105982909</v></cell></row><row r="718"><cell r="C718" t="str"><v>썬키스트훼미리 감토매 선물세트 180ml병*12</v></cell><cell r="D718" t="str"><v>8801105992632</v></cell></row><row r="719"><cell r="C719" t="str"><v>썬키스트훼미리 망고 1.5L페트</v></cell><cell r="D719" t="str"><v>8801105912135</v></cell></row><row r="720"><cell r="C720" t="str"><v>썬키스트훼미리 망고 180ml병</v></cell><cell r="D720" t="str"><v>8801105912128</v></cell></row><row r="721"><cell r="C721" t="str"><v>썬키스트훼미리 망고 선물세트 180ml병*12</v></cell><cell r="D721" t="str"><v>8801105992212</v></cell></row><row r="722"><cell r="C722" t="str"><v>썬키스트훼미리 멀티비타100사과 180ml병</v></cell><cell r="D722" t="str"><v>8801105802108</v></cell></row><row r="723"><cell r="C723" t="str"><v>썬키스트훼미리 멀티비타100포도 180ml병</v></cell><cell r="D723" t="str"><v>8801105900538</v></cell></row><row r="724"><cell r="C724" t="str"><v>썬키스트훼미리 멀티비타100오렌지 180ml병</v></cell><cell r="D724" t="str"><v>8801105825107</v></cell></row><row r="725"><cell r="C725" t="str"><v>썬키스트 훼미리 헬시100 포도 1.5L</v></cell><cell r="D725" t="str"><v>8801105911244</v></cell></row><row r="726"><cell r="C726" t="str"><v>썬키스트 훼미리 헬시100 오렌지 1.5L</v></cell><cell r="D726" t="str"><v>8801105911213</v></cell></row><row r="727"><cell r="C727" t="str"><v>썬키스트훼미리 멀티비타100오렌지 선물세트 180ml병*12</v></cell><cell r="D727" t="str"><v>8801105982558</v></cell></row><row r="728"><cell r="C728" t="str"><v>썬키스트훼미리 오포사 선물세트 180ml병*12</v></cell><cell r="D728" t="str"><v>8801105941227</v></cell></row><row r="729"><cell r="C729" t="str"><v>썬키스트훼미리 홍시 180ml병</v></cell><cell r="D729" t="str"><v>8801105912166</v></cell></row><row r="730"><cell r="C730" t="str"><v>썬키스트훼미리 홍시 선물세트 180ml병*12</v></cell><cell r="D730" t="str"><v>8801105992236</v></cell></row><row r="731"><cell r="C731" t="str"><v>썬키스트훼미리 매실 1.5L페트</v></cell><cell r="D731" t="str"><v>8801105912111</v></cell></row><row r="732"><cell r="C732" t="str"><v>썬키스트훼미리 매실 선물세트 180ml병*12</v></cell><cell r="D732" t="str"><v>8801105992205</v></cell></row><row r="733"><cell r="C733" t="str"><v>썬키스트훼미리 오렌지 선물세트 1.5L병*2</v></cell><cell r="D733" t="str"><v>8801105960068</v></cell></row><row r="734"><cell r="C734" t="str"><v>썬키스트훼미리 토마토 1.5L페트</v></cell><cell r="D734" t="str"><v>8801105912098</v></cell></row><row r="735"><cell r="C735" t="str"><v>썬키스트훼미리 토마토 180ml병</v></cell><cell r="D735" t="str"><v>8801105912081</v></cell></row><row r="736"><cell r="C736" t="str"><v>썬키스트후레쉬주스박스 포도100 2L페트</v></cell><cell r="D736" t="str"><v>8801105911497</v></cell></row><row r="737"><cell r="C737" t="str"><v>썬키스트후레쉬주스박스 포도100 1.5L페트</v></cell><cell r="D737" t="str"><v>8801105911381</v></cell></row><row r="738"><cell r="C738" t="str"><v>썬키스트후레쉬 망고 2L페트</v></cell><cell r="D738" t="str"><v>8801105911442</v></cell></row><row r="739"><cell r="C739" t="str"><v>썬키스트후레쉬주스박스 오렌지100 1.5L페트</v></cell><cell r="D739" t="str"><v>8801105911374</v></cell></row><row r="740"><cell r="C740" t="str"><v>썬키스트후레쉬 오렌지&포도 1.5L페트*2번들</v></cell><cell r="D740" t="str"><v>8801105984644</v></cell></row><row r="741"><cell r="C741" t="str"><v>썬키스트후레쉬주스박스 오렌지100 2L페트</v></cell><cell r="D741" t="str"><v>8801105911473</v></cell></row><row r="742"><cell r="C742" t="str"><v>썬키스트 자몽에이드 350ml페트</v></cell><cell r="D742" t="str"><v>8801105908596</v></cell></row><row r="743"><cell r="C743" t="str"><v>썬키스트 허니유자 280ml병</v></cell><cell r="D743" t="str"><v>8801105910391</v></cell></row><row r="744"><cell r="C744" t="str"><v>썬키스트 허니유자 선물세트 280ml병*8</v></cell><cell r="D744" t="str"><v>8801105990331</v></cell></row><row r="745"><cell r="C745" t="str"><v>썬키스트 레몬에이드 1.5L페트</v></cell><cell r="D745" t="str"><v>8801105908626</v></cell></row><row r="746"><cell r="C746" t="str"><v>썬키스트 레몬에이드 240ml캔</v></cell><cell r="D746" t="str"><v>8801105907698</v></cell></row><row r="747"><cell r="C747" t="str"><v>썬키스트 레몬에이드 350ml페트</v></cell><cell r="D747" t="str"><v>8801105907605</v></cell></row><row r="748"><cell r="C748" t="str"><v>썬키스트 망고 180ml캔</v></cell><cell r="D748" t="str"><v>8801105906929</v></cell></row><row r="749"><cell r="C749" t="str"><v>썬키스트 망고 180ml캔*6팩</v></cell><cell r="D749" t="str"><v>8801105983517</v></cell></row><row r="750"><cell r="C750" t="str"><v>썬키스트 모과생강 280ml병</v></cell><cell r="D750" t="str"><v>8801105913231</v></cell></row><row r="751"><cell r="C751" t="str"><v>썬키스트 머스캣 1.5L페트</v></cell><cell r="D751" t="str"><v>8801105908657</v></cell></row><row r="752"><cell r="C752" t="str"><v>썬키스트 머스캣드링크 240ml캔</v></cell><cell r="D752" t="str"><v>8801105908855</v></cell></row><row r="753"><cell r="C753" t="str"><v>썬키스트훼미리 발효초 블루베리 1.5L페트</v></cell><cell r="D753" t="str"><v>8801105912210</v></cell></row><row r="754"><cell r="C754" t="str"><v>써니텐스파클링 체리에이드 250ml캔</v></cell><cell r="D754" t="str"><v>8801105911343</v></cell></row><row r="755"><cell r="C755" t="str"><v>써니텐스파클링 체리에이드 350ml페트</v></cell><cell r="D755" t="str"><v>8801105911367</v></cell></row><row r="756"><cell r="C756" t="str"><v>써니텐스파클링 레몬에이드 350ml페트</v></cell><cell r="D756" t="str"><v>8801105911350</v></cell></row><row r="757"><cell r="C757" t="str"><v>썬키스트 스위티블루에이드 350ml페트</v></cell><cell r="D757" t="str"><v>8801105909418</v></cell></row><row r="758"><cell r="C758" t="str"><v>썬키스트 스위티에이드 1.5L페트</v></cell><cell r="D758" t="str"><v>8801105909685</v></cell></row><row r="759"><cell r="C759" t="str"><v>써니텐블라스트 사과 1.5L페트</v></cell><cell r="D759" t="str"><v>8801105911114</v></cell></row><row r="760"><cell r="C760" t="str"><v>써니텐블라스트 사과 500ml페트</v></cell><cell r="D760" t="str"><v>8801105911077</v></cell></row><row r="761"><cell r="C761" t="str"><v>써니텐블라스트 포도 1.5L페트</v></cell><cell r="D761" t="str"><v>8801105911107</v></cell></row><row r="762"><cell r="C762" t="str"><v>써니텐블라스트 포도 250ml캔</v></cell><cell r="D762" t="str"><v>8801105911039</v></cell></row><row r="763"><cell r="C763" t="str"><v>써니텐블라스트 오렌지 1.2L페트</v></cell><cell r="D763" t="str"><v>8801105911985</v></cell></row><row r="764"><cell r="C764" t="str"><v>써니텐블라스트 오렌지 1.5L페트</v></cell><cell r="D764" t="str"><v>8801105911084</v></cell></row><row r="765"><cell r="C765" t="str"><v>써니텐블라스트 오렌지 250ml캔</v></cell><cell r="D765" t="str"><v>8801105911046</v></cell></row><row r="766"><cell r="C766" t="str"><v>써니텐 블라스트 오렌지향 500ml 페트</v></cell><cell r="D766" t="str"><v>8801105912760</v></cell></row><row r="767"><cell r="C767" t="str"><v>써니텐블라스트 파인애플 1.2L페트</v></cell><cell r="D767" t="str"><v>8801105911978</v></cell></row><row r="768"><cell r="C768" t="str"><v>써니텐블라스트 파인애플 1.5L페트</v></cell><cell r="D768" t="str"><v>8801105911091</v></cell></row><row r="769"><cell r="C769" t="str"><v>써니텐블라스트 파인애플 250ml캔</v></cell><cell r="D769" t="str"><v>8801105911053</v></cell></row><row r="770"><cell r="C770" t="str"><v>써니텐블라스트 파인애플 500ml페트</v></cell><cell r="D770" t="str"><v>8801105911060</v></cell></row><row r="771"><cell r="C771" t="str"><v>써니텐스파클링 체리에이드 1.5L페트</v></cell><cell r="D771" t="str"><v>8801105911886</v></cell></row><row r="772"><cell r="C772" t="str"><v>써니텐스파클링 레몬에이드 1.5L페트</v></cell><cell r="D772" t="str"><v>8801105911879</v></cell></row><row r="773"><cell r="C773" t="str"><v>써니텐스파클링 레몬에이드 250ml캔</v></cell><cell r="D773" t="str"><v>8801105911336</v></cell></row><row r="774"><cell r="C774" t="str"><v>써니텐스파클링 머스캣에이드 1.5L페트</v></cell><cell r="D774" t="str"><v>8801105911893</v></cell></row><row r="775"><cell r="C775" t="str"><v>써니텐스파클링 머스캣에이드 250ml캔</v></cell><cell r="D775" t="str"><v>8801105911923</v></cell></row><row r="776"><cell r="C776" t="str"><v>써니텐스파클링 머스캣에이드 350ml페트</v></cell><cell r="D776" t="str"><v>8801105911930</v></cell></row><row r="777"><cell r="C777" t="str"><v>썬업 과일야채샐러드주스녹황 190ml컵</v></cell><cell r="D777" t="str"><v>8801121108147</v></cell></row><row r="778"><cell r="C778" t="str"><v>썬업 과일야채샐러드주스퍼플 190ml컵</v></cell><cell r="D778" t="str"><v>8801121114308</v></cell></row><row r="779"><cell r="C779" t="str"><v>썬업 과일야채샐러드주스레드 190ml컵</v></cell><cell r="D779" t="str"><v>8801121752296</v></cell></row><row r="780"><cell r="C780" t="str"><v>스위트카페 아이스초코모카 175ml파우치</v></cell><cell r="D780" t="str"><v>8809084013744</v></cell></row><row r="781"><cell r="C781" t="str"><v>스위트카페 복숭아녹차 340ml페트</v></cell><cell r="D781" t="str"><v>8809084013546</v></cell></row><row r="782"><cell r="C782" t="str"><v>톡보리사이다 240ml캔</v></cell><cell r="D782" t="str"><v>8801382140214</v></cell></row><row r="783"><cell r="C783" t="str"><v>탐라제주감귤 500ml 페트</v></cell><cell r="D783" t="str"><v>8801056009274</v></cell></row><row r="784"><cell r="C784" t="str"><v>티스파클링 홍차 500ml페트</v></cell><cell r="D784" t="str"><v>8801056063801</v></cell></row><row r="785"><cell r="C785" t="str"><v>티스파클링 녹차 500ml페트</v></cell><cell r="D785" t="str"><v>8801056055301</v></cell></row><row r="786"><cell r="C786" t="str"><v>티스'티 홍차  270ml보틀캔</v></cell><cell r="D786" t="str"><v>8801043021678</v></cell></row><row r="787"><cell r="C787" t="str"><v>데자와 로얄밀크티 240ml캔</v></cell><cell r="D787" t="str"><v>8801097481015</v></cell></row><row r="788"><cell r="C788" t="str"><v>튼튼한짱구는못말려 120ml파우치</v></cell><cell r="D788" t="str"><v>8806052405617</v></cell></row><row r="789"><cell r="C789" t="str"><v>티오 아이스티 복숭아 240ml캔*6팩</v></cell><cell r="D789" t="str"><v>8801037088373</v></cell></row><row r="790"><cell r="C790" t="str"><v>티오 아이스티 복숭아 350ml 페트</v></cell><cell r="D790" t="str"><v>8801037088380</v></cell></row><row r="791"><cell r="C791" t="str"><v>팁코 브로콜리&믹스후르츠주스 1L팩</v></cell><cell r="D791" t="str"><v>8851013744496</v></cell></row><row r="792"><cell r="C792" t="str"><v>팁코 쇼군오렌지주스 1L팩</v></cell><cell r="D792" t="str"><v>8851013791490</v></cell></row><row r="793"><cell r="C793" t="str"><v>트레비 플레인 500ml페트</v></cell><cell r="D793" t="str"><v>8801056055226</v></cell></row><row r="794"><cell r="C794" t="str"><v>트로피카나 100% 오렌지주스 1.89L팩</v></cell><cell r="D794" t="str"><v>8801056017897</v></cell></row><row r="795"><cell r="C795" t="str"><v>트로피카나 100%퓨어주스 사과 190ml팩</v></cell><cell r="D795" t="str"><v>8801056060343</v></cell></row><row r="796"><cell r="C796" t="str"><v>트로피카나 100%퓨어주스 포도 190ml팩</v></cell><cell r="D796" t="str"><v>8801056060282</v></cell></row><row r="797"><cell r="C797" t="str"><v>트로피카나 100%퓨어주스 오렌지 190ml팩</v></cell><cell r="D797" t="str"><v>8801056060220</v></cell></row><row r="798"><cell r="C798" t="str"><v>트로피카나 골드 100 포도 1.2L</v></cell><cell r="D798" t="str"><v>8801056026912</v></cell></row><row r="799"><cell r="C799" t="str"><v>트로피카나 골드 100 오렌지 1.2L</v></cell><cell r="D799" t="str"><v>8801056026899</v></cell></row><row r="800"><cell r="C800" t="str"><v>트로피카나 자몽플러스 1.5L페트</v></cell><cell r="D800" t="str"><v>8801056064747</v></cell></row><row r="801"><cell r="C801" t="str"><v>트로피카나 자몽플러스 300ml페트</v></cell><cell r="D801" t="str"><v>8801056064761</v></cell></row><row r="802"><cell r="C802" t="str"><v>트로피카나 망고플러스 1.5L페트</v></cell><cell r="D802" t="str"><v>8801056064792</v></cell></row><row r="803"><cell r="C803" t="str"><v>트로피카나 망고플러스 300ml페트</v></cell><cell r="D803" t="str"><v>8801056064815</v></cell></row><row r="804"><cell r="C804" t="str"><v>트로피카나 복숭아라떼 240ml캔</v></cell><cell r="D804" t="str"><v>8801056058197</v></cell></row><row r="805"><cell r="C805" t="str"><v>트로피카나 복숭아 라떼 300ml페트</v></cell><cell r="D805" t="str"><v>8801056058227</v></cell></row><row r="806"><cell r="C806" t="str"><v>트로피카나 매실플러스 1.5L페트</v></cell><cell r="D806" t="str"><v>8801056064891</v></cell></row><row r="807"><cell r="C807" t="str"><v>트로피카나 매실플러스 300ml페트</v></cell><cell r="D807" t="str"><v>8801056064914</v></cell></row><row r="808"><cell r="C808" t="str"><v>트로피카나 스파클링사과 355ml캔</v></cell><cell r="D808" t="str"><v>8801056035570</v></cell></row><row r="809"><cell r="C809" t="str"><v>트로피카나 스파클링포도 355ml캔</v></cell><cell r="D809" t="str"><v>8801056035549</v></cell></row><row r="810"><cell r="C810" t="str"><v>트로피카나 스파클링오렌지 355ml캔</v></cell><cell r="D810" t="str"><v>8801056035518</v></cell></row><row r="811"><cell r="C811" t="str"><v>트로피카나 딸기라떼 240ml캔</v></cell><cell r="D811" t="str"><v>8801056035068</v></cell></row><row r="812"><cell r="C812" t="str"><v>트로키파나 딸기라떼 300ml페트</v></cell><cell r="D812" t="str"><v>8801056034610</v></cell></row><row r="813"><cell r="C813" t="str"><v>트로피카나 트위스터 자몽딸기 240ml캔</v></cell><cell r="D813" t="str"><v>8801056065072</v></cell></row><row r="814"><cell r="C814" t="str"><v>트로피카나 트위스터 자몽 딸기 400ml페트</v></cell><cell r="D814" t="str"><v>8801056065041</v></cell></row><row r="815"><cell r="C815" t="str"><v>트로피카나 트위스터 오렌지망고 1.5L페트</v></cell><cell r="D815" t="str"><v>8801056064945</v></cell></row><row r="816"><cell r="C816" t="str"><v>트로피카나 트위스터 오렌지망고 240ml캔</v></cell><cell r="D816" t="str"><v>8801056064990</v></cell></row><row r="817"><cell r="C817" t="str"><v>트로피카나 트위스터 트로피칼 240ml캔</v></cell><cell r="D817" t="str"><v>8801056065195</v></cell></row><row r="818"><cell r="C818" t="str"><v>트로피카나 트위스터 백포도복숭아 240ml캔</v></cell><cell r="D818" t="str"><v>8801056065133</v></cell></row><row r="819"><cell r="C819" t="str"><v>트로피카나 트위스터 백포도 복숭아 400ml 페트</v></cell><cell r="D819" t="str"><v>8801056065102</v></cell></row><row r="820"><cell r="C820" t="str"><v>UCC 아메리카노가당 170ml파우치</v></cell><cell r="D820" t="str"><v>8809321050044</v></cell></row><row r="821"><cell r="C821" t="str"><v>UCC 블랙커피무가당 200ml컵</v></cell><cell r="D821" t="str"><v>8809321050068</v></cell></row><row r="822"><cell r="C822" t="str"><v>V라인얼굴 옥수수수염차 340ml페트</v></cell><cell r="D822" t="str"><v>8806002005638</v></cell></row><row r="823"><cell r="C823" t="str"><v>V8 100% 야채과일 주스 1L병</v></cell><cell r="D823" t="str"><v>8801043650588</v></cell></row><row r="824"><cell r="C824" t="str"><v>V8 오리지널 100% 야채주스 163ml캔*6팩</v></cell><cell r="D824" t="str"><v>8801043650663</v></cell></row><row r="825"><cell r="C825" t="str"><v>휘오 제주V워터 2.0L페트</v></cell><cell r="D825" t="str"><v>8801094832506</v></cell></row><row r="826"><cell r="C826" t="str"><v>휘오 제주V워터 500ml페트</v></cell><cell r="D826" t="str"><v>8801094832605</v></cell></row><row r="827"><cell r="C827" t="str"><v>휘오순수 아침사과워터 450ml페트</v></cell><cell r="D827" t="str"><v>8801094834609</v></cell></row><row r="828"><cell r="C828" t="str"><v>휘오 순수 2.0L</v></cell><cell r="D828" t="str"><v>8801094462505</v></cell></row><row r="829"><cell r="C829" t="str"><v>휘오 순수 500ml</v></cell><cell r="D829" t="str"><v>8801094462604</v></cell></row><row r="830"><cell r="C830" t="str"><v>휘오순수 제주감귤워터 450ml페트</v></cell><cell r="D830" t="str"><v>8801094830601</v></cell></row><row r="831"><cell r="C831" t="str"><v>착한비타500 240ml캔</v></cell><cell r="D831" t="str"><v>8806002010977</v></cell></row><row r="832"><cell r="C832" t="str"><v>착한비타500 250ml치어팩</v></cell><cell r="D832" t="str"><v>8806002002088</v></cell></row><row r="833"><cell r="C833" t="str"><v>비타500키즈 사과 220ml페트</v></cell><cell r="D833" t="str"><v>8806002009599</v></cell></row><row r="834"><cell r="C834" t="str"><v>비타500키즈 복숭아 220ml페트</v></cell><cell r="D834" t="str"><v>8806002009049</v></cell></row><row r="835"><cell r="C835" t="str"><v>비타코코 코코넛워터 330ml</v></cell><cell r="D835" t="str"><v>898999000022</v></cell></row><row r="836"><cell r="C836" t="str"><v>볼빅 1.5L페트</v></cell><cell r="D836" t="str"><v>3057640100178</v></cell></row><row r="837"><cell r="C837" t="str"><v>볼빅 500ml페트</v></cell><cell r="D837" t="str"><v>3057640100673</v></cell></row><row r="838"><cell r="C838" t="str"><v>웰치스 포도주스 100 1L병</v></cell><cell r="D838" t="str"><v>8801043650342</v></cell></row><row r="839"><cell r="C839" t="str"><v>웰치스 포도 160ml병</v></cell><cell r="D839" t="str"><v>8801043650335</v></cell></row><row r="840"><cell r="C840" t="str"><v>웰치스스파클링 포도 355ml캔</v></cell><cell r="D840" t="str"><v>8801043450690</v></cell></row><row r="841"><cell r="C841" t="str"><v>웰치스 포도+청포도+적포도주스 선물세트1L병*3</v></cell><cell r="D841" t="str"><v>8801043650731</v></cell></row><row r="842"><cell r="C842" t="str"><v>웰치스 청포도 100 1L병</v></cell><cell r="D842" t="str"><v>8801043650595</v></cell></row><row r="843"><cell r="C843" t="str"><v>웰치스 청포도 160ml병</v></cell><cell r="D843" t="str"><v>8801043650601</v></cell></row><row r="844"><cell r="C844" t="str"><v>웰치스 오렌지주스 1L병</v></cell><cell r="D844" t="str"><v>8801043006507</v></cell></row><row r="845"><cell r="C845" t="str"><v>웰치스 적포도주스 100 1L병</v></cell><cell r="D845" t="str"><v>8801043650427</v></cell></row><row r="846"><cell r="C846" t="str"><v>웰치스스파클링 포도 355ml캔*6팩</v></cell><cell r="D846" t="str"><v>8801043650632</v></cell></row><row r="847"><cell r="C847" t="str"><v>웰치스스파클링 화이트그레이프 355ml캔</v></cell><cell r="D847" t="str"><v>8801043650625</v></cell></row><row r="848"><cell r="C848" t="str"><v>웰치스스파클링 딸기 355ml캔</v></cell><cell r="D848" t="str"><v>8801043450706</v></cell></row><row r="849"><cell r="C849" t="str"><v>웰치스 포도&블루베리 290ml페트</v></cell><cell r="D849" t="str"><v>8801043011983</v></cell></row><row r="850"><cell r="C850" t="str"><v>웰치스 백포도복숭아주스 100 1L병</v></cell><cell r="D850" t="str"><v>8801043650366</v></cell></row><row r="851"><cell r="C851" t="str"><v>웅진행복가득세트(유자C,복분자,꿀홍삼) 180ml병*12</v></cell><cell r="D851" t="str"><v>8801382138983</v></cell></row><row r="852"><cell r="C852" t="str"><v>웅진종합세트(아침햇살,초록매실,자연은고칼슘오렌지) 180ml병*12</v></cell><cell r="D852" t="str"><v>8801382125648</v></cell></row><row r="853"><cell r="C853" t="str"><v>내사랑유자C 180ml병</v></cell><cell r="D853" t="str"><v>8801382128014</v></cell></row><row r="854"><cell r="C854" t="str"><v>내사랑유자C 280ml페트</v></cell><cell r="D854" t="str"><v>8801382128045</v></cell></row><row r="855"><cell r="C855" t="str"><v>열두달내몸에맞춘웰빙주스 세트(오디,선인장,황토양파)180ml병*12</v></cell><cell r="D855" t="str"><v>8809060152771</v></cell></row><row r="856"><cell r="C856" t="str"><v>주커피 아이스아메리카노 190ml파우치</v></cell><cell r="D856" t="str"><v>8809344661081</v></cell></row><row r="857"><cell r="C857" t="str"><v>암바사 250캔*6입</v></cell><cell r="D857" t="str"><v>8801094253035</v></cell></row><row r="858"><cell r="C858" t="str"><v>코카콜라 1.25페트</v></cell><cell r="D858" t="str"><v>8801094012304</v></cell></row><row r="859"><cell r="C859" t="str"><v>코카콜라 210캔</v></cell><cell r="D859" t="str"><v>8801094013400</v></cell></row><row r="860"><cell r="C860" t="str"><v>코카콜라 315캔</v></cell><cell r="D860" t="str"><v>8801094013028</v></cell></row><row r="861"><cell r="C861" t="str"><v>코카콜라 777페트</v></cell><cell r="D861" t="str"><v>8801094013707</v></cell></row><row r="862"><cell r="C862" t="str"><v>코카콜라 777페트*2입</v></cell><cell r="D862" t="str"><v>8801094013790</v></cell></row><row r="863"><cell r="C863" t="str"><v>환타딸기1.5페트</v></cell><cell r="D863" t="str"><v>8801094126407</v></cell></row><row r="864"><cell r="C864" t="str"><v>조지아EMB바나나향라떼250컵</v></cell><cell r="D864" t="str"><v>8801094744908</v></cell></row><row r="865"><cell r="C865" t="str"><v>조지아EMB스위트아메리카노390보틀캔</v></cell><cell r="D865" t="str"><v>8801094584603</v></cell></row><row r="866"><cell r="C866" t="str"><v>조지아EMB에스프레소라떼250병</v></cell><cell r="D866" t="str"><v>8801094561000</v></cell></row><row r="867"><cell r="C867" t="str"><v>조지아EMB카라멜향마끼아또250컵</v></cell><cell r="D867" t="str"><v>8801094744007</v></cell></row><row r="868"><cell r="C868" t="str"><v>조지아EMB클래식라떼250ml컵</v></cell><cell r="D868" t="str"><v>8801094574000</v></cell></row><row r="869"><cell r="C869" t="str"><v>글라소혼합팩500페트*2입</v></cell><cell r="D869" t="str"><v>8801094732691</v></cell></row><row r="870"><cell r="C870" t="str"><v>파워에이드GR600페트</v></cell><cell r="D870" t="str"><v>8801094492700</v></cell></row><row r="871"><cell r="C871" t="str"><v>파워에이드MB1.5페트*2입+월드컵물병</v></cell><cell r="D871" t="str"><v>8801094362997</v></cell></row><row r="872"><cell r="C872" t="str"><v>MM포도&아사이스탠딩190파우치</v></cell><cell r="D872" t="str"><v>8801094786007</v></cell></row><row r="873"><cell r="C873" t="str"><v>MM오렌지스텐딩190파우치</v></cell><cell r="D873" t="str"><v>8801094266004</v></cell></row><row r="874"><cell r="C874" t="str"><v>SK골든애플소다 1.5페트</v></cell><cell r="D874" t="str"><v>8801105913675</v></cell></row><row r="875"><cell r="C875" t="str"><v>SK멜론소다 1.5페트</v></cell><cell r="D875" t="str"><v>8801105913668</v></cell></row><row r="876"><cell r="C876" t="str"><v>SK브이밸런스블루+야채 1.5페트</v></cell><cell r="D876" t="str"><v>8801105913750</v></cell></row><row r="877"><cell r="C877" t="str"><v>SK브이밸런스블루+야채 350페트</v></cell><cell r="D877" t="str"><v>8801105913774</v></cell></row><row r="878"><cell r="C878" t="str"><v>SK브이밸런스오렌+야채 1.5페트</v></cell><cell r="D878" t="str"><v>8801105913743</v></cell></row><row r="879"><cell r="C879" t="str"><v>SK브이밸런스오렌+야채 350페트</v></cell><cell r="D879" t="str"><v>8801105913767</v></cell></row><row r="880"><cell r="C880" t="str"><v>SK블루레몬에이드190파우치</v></cell><cell r="D880" t="str"><v>8801105913613</v></cell></row><row r="881"><cell r="C881" t="str"><v>SK아이스레몬에이드190파우치</v></cell><cell r="D881" t="str"><v>8801105913606</v></cell></row><row r="882"><cell r="C882" t="str"><v>SK오렌지100_1.5병</v></cell><cell r="D882" t="str"><v>8801105913286</v></cell></row><row r="883"><cell r="C883" t="str"><v>SK키즈딸기210페트</v></cell><cell r="D883" t="str"><v>8801105913514</v></cell></row><row r="884"><cell r="C884" t="str"><v>SK키즈포도210페트</v></cell><cell r="D884" t="str"><v>8801105913521</v></cell></row><row r="885"><cell r="C885" t="str"><v>SK후레쉬주스박스포도1.0페트</v></cell><cell r="D885" t="str"><v>8801105908008</v></cell></row><row r="886"><cell r="C886" t="str"><v>몸에좋은건강선물세트(연소답청)180병*12입</v></cell><cell r="D886" t="str"><v>8801105994131</v></cell></row><row r="887"><cell r="C887" t="str"><v>봉평샘물640_2.0페트</v></cell><cell r="D887" t="str"><v>8801105909159</v></cell></row><row r="888"><cell r="C888" t="str"><v>닥터페퍼 250캔</v></cell><cell r="D888" t="str"><v>8801094053000</v></cell></row><row r="889"><cell r="C889" t="str"><v>코카콜라355캔*5입+트로피컵</v></cell><cell r="D889" t="str"><v>8801094013233</v></cell></row><row r="890"><cell r="C890" t="str"><v>코카콜라500페트*4입+축구공</v></cell><cell r="D890" t="str"><v>8801094014698</v></cell></row><row r="891"><cell r="C891" t="str"><v>조지아리틀카페 200캔</v></cell><cell r="D891" t="str"><v>8801094507947</v></cell></row><row r="892"><cell r="C892" t="str"><v>조지아 카페마일드 175캔</v></cell><cell r="D892" t="str"><v>8801094507909</v></cell></row><row r="893"><cell r="C893" t="str"><v>파워에이드GR 1.5페트</v></cell><cell r="D893" t="str"><v>8801094492403</v></cell></row><row r="894"><cell r="C894" t="str"><v>파워에이드AP 600페트</v></cell><cell r="D894" t="str"><v>8801094172701</v></cell></row><row r="895"><cell r="C895" t="str"><v>파워에이드AP 1.5페트</v></cell><cell r="D895" t="str"><v>8801094172404</v></cell></row><row r="896"><cell r="C896" t="str"><v>파워에이드GR 240캔</v></cell><cell r="D896" t="str"><v>8801094493004</v></cell></row><row r="897"><cell r="C897" t="str"><v>조지아아이스카라멜 170ml파우치</v></cell><cell r="D897" t="str"><v>8801094577902</v></cell></row><row r="898"><cell r="C898" t="str"><v>조지아EMB더블랙 390보틀캔</v></cell><cell r="D898" t="str"><v>8801094544607</v></cell></row><row r="899"><cell r="C899" t="str"><v>조지아EMB라떼 390보틀캔</v></cell><cell r="D899" t="str"><v>8801094577605</v></cell></row><row r="900"><cell r="C900" t="str"><v>조지아EMB에스 270보틀캔</v></cell><cell r="D900" t="str"><v>8801094557102</v></cell></row><row r="901"><cell r="C901" t="str"><v>조지아EMB아메 200캔</v></cell><cell r="D901" t="str"><v>8801094583408</v></cell></row><row r="902"><cell r="C902" t="str"><v>환타딸기 250캔</v></cell><cell r="D902" t="str"><v>8801094124007</v></cell></row><row r="903"><cell r="C903" t="str"><v>환타딸기 600페트</v></cell><cell r="D903" t="str"><v>8801094126605</v></cell></row><row r="904"><cell r="C904" t="str"><v>글라소코코워터 500(355)페트</v></cell><cell r="D904" t="str"><v>8801094963606</v></cell></row><row r="905"><cell r="C905" t="str"><v>슈웹스코스모폴리탄 350페트</v></cell><cell r="D905" t="str"><v>8801094161200</v></cell></row><row r="906"><cell r="C906" t="str"><v>퓨즈티레몬&애플 500ml페트</v></cell><cell r="D906" t="str"><v>8801094713607</v></cell></row><row r="907"><cell r="C907" t="str"><v>코카콜라 245캔</v></cell><cell r="D907" t="str"><v>8801094014070</v></cell></row><row r="908"><cell r="C908" t="str"><v>MM망고애니멀 100파우치</v></cell><cell r="D908" t="str"><v>8801094296902</v></cell></row><row r="909"><cell r="C909" t="str"><v>MM포도아사이애니멀 100파우치</v></cell><cell r="D909" t="str"><v>8801094786908</v></cell></row><row r="910"><cell r="C910" t="str"><v>SK훼미리New제주감귤 1.5페트</v></cell><cell r="D910" t="str"><v>8801105913729</v></cell></row><row r="911"><cell r="C911" t="str"><v>SK카푸치노 200캔</v></cell><cell r="D911" t="str"><v>8801105913903</v></cell></row><row r="912"><cell r="C912" t="str"><v>SK카푸치노 200캔4+2(증정)</v></cell><cell r="D912" t="str"><v>8801105994704</v></cell></row><row r="913"><cell r="C913" t="str"><v>SK아메리카노 200캔</v></cell><cell r="D913" t="str"><v>8801105913910</v></cell></row><row r="914"><cell r="C914" t="str"><v>SK아메리카노 200캔4+2(증정)</v></cell><cell r="D914" t="str"><v>8801105994698</v></cell></row><row r="915"><cell r="C915" t="str"><v>SK칵테일연재모히또 350페트</v></cell><cell r="D915" t="str"><v>8801105913958</v></cell></row><row r="916"><cell r="C916" t="str"><v>SK아이스아메리카노 190파우치</v></cell><cell r="D916" t="str"><v>8801105913927</v></cell></row><row r="917"><cell r="C917" t="str"><v>SK키즈딸기 100파우치</v></cell><cell r="D917" t="str"><v>8801105913880</v></cell></row><row r="918"><cell r="C918" t="str"><v>SK멜론소다 250캔</v></cell><cell r="D918" t="str"><v>8801105913620</v></cell></row><row r="919"><cell r="C919" t="str"><v>포도봉봉 340캔</v></cell><cell r="D919" t="str"><v>8801105911299</v></cell></row><row r="920"><cell r="C920" t="str"><v>SK멜론소다 250캔*6입</v></cell><cell r="D920" t="str"><v>8801105994285</v></cell></row><row r="921"><cell r="C921" t="str"><v>코카콜라 185캔*4+2입</v></cell><cell r="D921" t="str"><v>8801094013929</v></cell></row><row r="922"><cell r="C922" t="str"><v>MM5alive 1.5페트</v></cell><cell r="D922" t="str"><v>8801094623401</v></cell></row><row r="923"><cell r="C923" t="str"><v>MM펀치애플홀릭 355캔</v></cell><cell r="D923" t="str"><v>8801094704209</v></cell></row><row r="924"><cell r="C924" t="str"><v>코카콜라 245캔*8입</v></cell><cell r="D924" t="str"><v>8801094014087</v></cell></row><row r="925"><cell r="C925" t="str"><v>MM펀치오렌지자몽 355캔</v></cell><cell r="D925" t="str"><v>8801094684204</v></cell></row><row r="926"><cell r="C926" t="str"><v>MM망고 175캔</v></cell><cell r="D926" t="str"><v>8801094293901</v></cell></row><row r="927"><cell r="C927" t="str"><v>MM5alive 350페트</v></cell><cell r="D927" t="str"><v>8801094623203</v></cell></row><row r="928"><cell r="C928" t="str"><v>코카콜라 250병(월드컵)</v></cell><cell r="D928" t="str"><v>8801094011000</v></cell></row><row r="929"><cell r="C929" t="str"><v>게토레이화이트스플래시 240캔</v></cell><cell r="D929" t="str"><v>8801056068981</v></cell></row><row r="930"><cell r="C930" t="str"><v>7UP 250캔</v></cell><cell r="D930" t="str"><v>8801056068554</v></cell></row><row r="931"><cell r="C931" t="str"><v>립톤그린아이스티 240캔</v></cell><cell r="D931" t="str"><v>8801056068806</v></cell></row><row r="932"><cell r="C932" t="str"><v>티스파클링홍차 250캔</v></cell><cell r="D932" t="str"><v>8801056063771</v></cell></row><row r="933"><cell r="C933" t="str"><v>티스파클링녹차 250캔</v></cell><cell r="D933" t="str"><v>8801056062996</v></cell></row><row r="934"><cell r="C934" t="str"><v>립톤아이스티복숭아 355캔</v></cell><cell r="D934" t="str"><v>8801056044503</v></cell></row><row r="935"><cell r="C935" t="str"><v>립톤그린아이스티 355캔</v></cell><cell r="D935" t="str"><v>8801056068837</v></cell></row><row r="936"><cell r="C936" t="str"><v>게토레이레몬 340캔</v></cell><cell r="D936" t="str"><v>8801056043131</v></cell></row><row r="937"><cell r="C937" t="str"><v>스파클링칼라만시 340캔</v></cell><cell r="D937" t="str"><v>8809125065862</v></cell></row><row r="938"><cell r="C938" t="str"><v>잉카콜라 355캔</v></cell><cell r="D938" t="str"><v>4998606</v></cell></row><row r="939"><cell r="C939" t="str"><v>칸타타더치블랙 200캔</v></cell><cell r="D939" t="str"><v>8801056068936</v></cell></row><row r="940"><cell r="C940" t="str"><v>웰치스스파클링포도 250캔</v></cell><cell r="D940" t="str"><v>8801043010658</v></cell></row><row r="941"><cell r="C941" t="str"><v>와츠 250캔</v></cell><cell r="D941" t="str"><v>8801069183220</v></cell></row><row r="942"><cell r="C942" t="str"><v>ZOO커피카페라떼 240캔</v></cell><cell r="D942" t="str"><v>8809344661074</v></cell></row><row r="943"><cell r="C943" t="str"><v>더치아메리카노 240캔</v></cell><cell r="D943" t="str"><v>8809084014321</v></cell></row><row r="944"><cell r="C944" t="str"><v>트레비레몬 500페트</v></cell><cell r="D944" t="str"><v>8801056055202</v></cell></row><row r="945"><cell r="C945" t="str"><v>트레비라임 500페트</v></cell><cell r="D945" t="str"><v>8801056055189</v></cell></row><row r="946"><cell r="C946" t="str"><v>칼슘70큐락</v></cell><cell r="D946" t="str"><v>8809371720065</v></cell></row><row r="947"><cell r="C947" t="str"><v>에피큐락</v></cell><cell r="D947" t="str"><v>8809371720072</v></cell></row><row r="948"><cell r="C948" t="str"><v>히비스큐락</v></cell><cell r="D948" t="str"><v>8809371720089</v></cell></row><row r="949"><cell r="C949" t="str"><v>아쿠아(분스) 300페트</v></cell><cell r="D949" t="str"><v>8801056054601</v></cell></row><row r="950"><cell r="C950" t="str"><v>잇워터(블랙) 350페트</v></cell><cell r="D950" t="str"><v>8801813700383</v></cell></row><row r="951"><cell r="C951" t="str"><v>잇워터(화이트) 350페트</v></cell><cell r="D951" t="str"><v>8801813700376</v></cell></row><row r="952"><cell r="C952" t="str"><v>석수 350페트</v></cell><cell r="D952" t="str"><v>8801001235116</v></cell></row><row r="953"><cell r="C953" t="str"><v>닥터&닥터하루튼튼건강 330페트</v></cell><cell r="D953" t="str"><v>8801056066321</v></cell></row><row r="954"><cell r="C954" t="str"><v>닥터&닥터스타일 330페트</v></cell><cell r="D954" t="str"><v>8801056066383</v></cell></row><row r="955"><cell r="C955" t="str"><v>닥터&닥터미인밸런스 330페트</v></cell><cell r="D955" t="str"><v>8801056066413</v></cell></row><row r="956"><cell r="C956" t="str"><v>닥터&닥터릴랙스 330페트</v></cell><cell r="D956" t="str"><v>8801056066444</v></cell></row><row r="957"><cell r="C957" t="str"><v>닥터&닥터아이밸런스 330페트</v></cell><cell r="D957" t="str"><v>8801056066352</v></cell></row><row r="958"><cell r="C958" t="str"><v>게토레이화이트스플래시 600페트</v></cell><cell r="D958" t="str"><v>8801056069018</v></cell></row><row r="959"><cell r="C959" t="str"><v>동서둥글레 500페트</v></cell><cell r="D959" t="str"><v>8801037088335</v></cell></row><row r="960"><cell r="C960" t="str"><v>미에로화이바레드 350페트</v></cell><cell r="D960" t="str"><v>8806004801603</v></cell></row><row r="961"><cell r="C961" t="str"><v>미에로화이바후레쉬 350페트</v></cell><cell r="D961" t="str"><v>8806004407133</v></cell></row><row r="962"><cell r="C962" t="str"><v>CU블루레몬에이드 340페트</v></cell><cell r="D962" t="str"><v>8809084014161</v></cell></row><row r="963"><cell r="C963" t="str"><v>CU상큼한레몬녹차 340페트</v></cell><cell r="D963" t="str"><v>8809084011085</v></cell></row><row r="964"><cell r="C964" t="str"><v>CU모히또레몬라임 340페트</v></cell><cell r="D964" t="str"><v>8809084013447</v></cell></row><row r="965"><cell r="C965" t="str"><v>CU복숭아녹차 340페트</v></cell><cell r="D965" t="str"><v>8809084011412</v></cell></row><row r="966"><cell r="C966" t="str"><v>제주상황차 500페트</v></cell><cell r="D966" t="str"><v>8809391840019</v></cell></row><row r="967"><cell r="C967" t="str"><v>티모어옥수수수염차 500페트</v></cell><cell r="D967" t="str"><v>8809125063424</v></cell></row><row r="968"><cell r="C968" t="str"><v>동원오미자차</v></cell><cell r="D968" t="str"><v>8801047289685</v></cell></row><row r="969"><cell r="C969" t="str"><v>헬스원그린마테차 500페트</v></cell><cell r="D969" t="str"><v>8801056062880</v></cell></row><row r="970"><cell r="C970" t="str"><v>비락식혜 500페트</v></cell><cell r="D970" t="str"><v>8801128945745</v></cell></row><row r="971"><cell r="C971" t="str"><v>가야농장정성담은사과 500페트</v></cell><cell r="D971" t="str"><v>8801861260631</v></cell></row><row r="972"><cell r="C972" t="str"><v>나인아이언 250캔</v></cell><cell r="D972" t="str"><v>8801223002138</v></cell></row><row r="973"><cell r="C973" t="str"><v>프링클제로칼로리비타민C드링크스파클링 500페트</v></cell><cell r="D973" t="str"><v>8806004801542</v></cell></row><row r="974"><cell r="C974" t="str"><v>비디랩스키니레몬디톡 400페트</v></cell><cell r="D974" t="str"><v>8801013775280</v></cell></row><row r="975"><cell r="C975" t="str"><v>비디랩스키니자몽마이핏 400페트</v></cell><cell r="D975" t="str"><v>8801013775303</v></cell></row><row r="976"><cell r="C976" t="str"><v>이다화이버콜라</v></cell><cell r="D976" t="str"><v>8801001236816</v></cell></row><row r="977"><cell r="C977" t="str"><v>7UP 500페트</v></cell><cell r="D977" t="str"><v>8801056068615</v></cell></row><row r="978"><cell r="C978" t="str"><v>랭거스히비스커스그린티 414페트</v></cell><cell r="D978" t="str"><v>41755701095</v></cell></row><row r="979"><cell r="C979" t="str"><v>랭거스망고블랙티위드우롱티 414페트</v></cell><cell r="D979" t="str"><v>41755701194</v></cell></row><row r="980"><cell r="C980" t="str"><v>네슬레퓨어라이프 500페트</v></cell><cell r="D980" t="str"><v>8809169718212</v></cell></row><row r="981"><cell r="C981" t="str"><v>깊은산속옹달샘물 500페트</v></cell><cell r="D981" t="str"><v>8801056016357</v></cell></row><row r="982"><cell r="C982" t="str"><v>스파클 500페트</v></cell><cell r="D982" t="str"><v>8809055546424</v></cell></row><row r="983"><cell r="C983" t="str"><v>깊은산속옹달샘물 300페트</v></cell><cell r="D983" t="str"><v>8801056037659</v></cell></row><row r="984"><cell r="C984" t="str"><v>칸타타그란데아메리카노 300페트</v></cell><cell r="D984" t="str"><v>8801056069643</v></cell></row><row r="985"><cell r="C985" t="str"><v>칸타타그란데블랙 300페트</v></cell><cell r="D985" t="str"><v>8801056069667</v></cell></row><row r="986"><cell r="C986" t="str"><v>칸타타그란데라떼 300페트</v></cell><cell r="D986" t="str"><v>8801056069629</v></cell></row><row r="987"><cell r="C987" t="str"><v>한방에다린기운차 275보틀캔</v></cell><cell r="D987" t="str"><v>8801056071455</v></cell></row><row r="988"><cell r="C988" t="str"><v>한방에다린슬기차 275보틀캔</v></cell><cell r="D988" t="str"><v>8801056071486</v></cell></row><row r="989"><cell r="C989" t="str"><v>한방에다린평온차 275보틀캔</v></cell><cell r="D989" t="str"><v>8801056071424</v></cell></row><row r="990"><cell r="C990" t="str"><v>티오피초콜릿모카 275보틀캔</v></cell><cell r="D990" t="str"><v>8801037055436</v></cell></row><row r="991"><cell r="C991" t="str"><v>몽베스트 1000페트</v></cell><cell r="D991" t="str"><v>8803186200088</v></cell></row><row r="992"><cell r="C992" t="str"><v>내몸을위한청정샘물 2.0페트</v></cell><cell r="D992" t="str"><v>8801001235284</v></cell></row><row r="993"><cell r="C993" t="str"><v>네슬레퓨어라이프 2.0페트</v></cell><cell r="D993" t="str"><v>8809169712210</v></cell></row><row r="994"><cell r="C994" t="str"><v>7UP 1.5페트</v></cell><cell r="D994" t="str"><v>8801056068646</v></cell></row><row r="995"><cell r="C995" t="str"><v>게토레이화이트스플래시 1.5페트</v></cell><cell r="D995" t="str"><v>8801056069032</v></cell></row><row r="996"><cell r="C996" t="str"><v>석수 2.0페트</v></cell><cell r="D996" t="str"><v>8801001235154</v></cell></row><row r="997"><cell r="C997" t="str"><v>프룻티애플티 230병</v></cell><cell r="D997" t="str"><v>8801861260594</v></cell></row><row r="998"><cell r="C998" t="str"><v>프룻티뱅쇼 230병</v></cell><cell r="D998" t="str"><v>8801861260617x</v></cell></row><row r="999"><cell r="C999" t="str"><v>델몬트1일분야채 200테트라팩</v></cell><cell r="D999" t="str"><v>8801056070168</v></cell></row><row r="1000"><cell r="C1000" t="str"><v>델몬트1일분야채과일 200테트라팩</v></cell><cell r="D1000" t="str"><v>8801056070250</v></cell></row><row r="1001"><cell r="C1001" t="str"><v>비락식혜 238ml캔*6입</v></cell><cell r="D1001" t="str"><v>8801128920209</v></cell></row><row r="1002"><cell r="C1002" t="str"><v>조지아 카라멜향 마끼아또 240캔</v></cell><cell r="D1002" t="str"><v>8801094573041</v></cell></row><row r="1003"><cell r="C1003" t="str"><v>스프라이트 245ml캔</v></cell><cell r="D1003" t="str"><v>8801094204006</v></cell></row><row r="1004"><cell r="C1004" t="str"><v>썬키스트 알로에 180ml캔</v></cell><cell r="D1004" t="str"><v>8801105912739</v></cell></row><row r="1005"><cell r="C1005" t="str"><v>썬키스트 드롭스 블랙베리 240ml캔</v></cell><cell r="D1005" t="str"><v>8801105913040</v></cell></row><row r="1006"><cell r="C1006" t="str"><v>썬키스트 드롭스 석류 & 감귤 240ml캔</v></cell><cell r="D1006" t="str"><v>8801105913057</v></cell></row><row r="1007"><cell r="C1007" t="str"><v>썬키스트 애플사이다 250ml캔</v></cell><cell r="D1007" t="str"><v>8801105912869</v></cell></row><row r="1008"><cell r="C1008" t="str"><v>17차기타</v></cell><cell r="D1008" t="str"><v>Other0001</v></cell></row><row r="1009"><cell r="C1009" t="str"><v>2%부족할때기타</v></cell><cell r="D1009" t="str"><v>Other0002</v></cell></row><row r="1010"><cell r="C1010" t="str"><v>7UP기타</v></cell><cell r="D1010" t="str"><v>Other0003</v></cell></row><row r="1011"><cell r="C1011" t="str"><v>까만콩차기타</v></cell><cell r="D1011" t="str"><v>Other0004</v></cell></row><row r="1012"><cell r="C1012" t="str"><v>UCC기타</v></cell><cell r="D1012" t="str"><v>Other0005</v></cell></row><row r="1013"><cell r="C1013" t="str"><v>V8기타</v></cell><cell r="D1013" t="str"><v>Other0006</v></cell></row><row r="1014"><cell r="C1014" t="str"><v>V라인기타</v></cell><cell r="D1014" t="str"><v>Other0007</v></cell></row><row r="1015"><cell r="C1015" t="str"><v>zoo커피기타</v></cell><cell r="D1015" t="str"><v>Other0008</v></cell></row><row r="1016"><cell r="C1016" t="str"><v>가야농장주스기타</v></cell><cell r="D1016" t="str"><v>Other0009</v></cell></row><row r="1017"><cell r="C1017" t="str"><v>가야농장차기타</v></cell><cell r="D1017" t="str"><v>Other0010</v></cell></row><row r="1018"><cell r="C1018" t="str"><v>갈아만든기타</v></cell><cell r="D1018" t="str"><v>Other0011</v></cell></row><row r="1019"><cell r="C1019" t="str"><v>갓짜낸기타</v></cell><cell r="D1019" t="str"><v>Other0012</v></cell></row><row r="1020"><cell r="C1020" t="str"><v>강원평창수기타</v></cell><cell r="D1020" t="str"><v>Other0013</v></cell></row><row r="1021"><cell r="C1021" t="str"><v>게토레이기타</v></cell><cell r="D1021" t="str"><v>Other0014</v></cell></row><row r="1022"><cell r="C1022" t="str"><v>겨울나기기타</v></cell><cell r="D1022" t="str"><v>Other0015</v></cell></row><row r="1023"><cell r="C1023" t="str"><v>골드메달탄산기타</v></cell><cell r="D1023" t="str"><v>Other0016</v></cell></row><row r="1024"><cell r="C1024" t="str"><v>골드메달주스기타</v></cell><cell r="D1024" t="str"><v>Other0017</v></cell></row><row r="1025"><cell r="C1025" t="str"><v>골든드랍기타</v></cell><cell r="D1025" t="str"><v>Other0018</v></cell></row><row r="1026"><cell r="C1026" t="str"><v>과수원기타</v></cell><cell r="D1026" t="str"><v>Other0019</v></cell></row><row r="1027"><cell r="C1027" t="str"><v>과일촌기타</v></cell><cell r="D1027" t="str"><v>Other0020</v></cell></row><row r="1028"><cell r="C1028" t="str"><v>과일촌+썬키스트기타</v></cell><cell r="D1028" t="str"><v>Other0021</v></cell></row><row r="1029"><cell r="C1029" t="str"><v>과채믹스23기타</v></cell><cell r="D1029" t="str"><v>Other0022</v></cell></row><row r="1030"><cell r="C1030" t="str"><v>글라소플레이버워터기타</v></cell><cell r="D1030" t="str"><v>Other0023</v></cell></row><row r="1031"><cell r="C1031" t="str"><v>글라소비타민워터기타</v></cell><cell r="D1031" t="str"><v>Other0024</v></cell></row><row r="1032"><cell r="C1032" t="str"><v>글라소생수기타</v></cell><cell r="D1032" t="str"><v>Other0025</v></cell></row><row r="1033"><cell r="C1033" t="str"><v>깊은산속옹달샘물기타</v></cell><cell r="D1033" t="str"><v>Other0027</v></cell></row><row r="1034"><cell r="C1034" t="str"><v>깜찍이기타</v></cell><cell r="D1034" t="str"><v>Other0028</v></cell></row><row r="1035"><cell r="C1035" t="str"><v>꿀홍삼기타</v></cell><cell r="D1035" t="str"><v>Other0029</v></cell></row><row r="1036"><cell r="C1036" t="str"><v>나랑드기타</v></cell><cell r="D1036" t="str"><v>Other0030</v></cell></row><row r="1037"><cell r="C1037" t="str"><v>나인아이언기타</v></cell><cell r="D1037" t="str"><v>Other0031</v></cell></row><row r="1038"><cell r="C1038" t="str"><v>내몸을위한청정샘물기타</v></cell><cell r="D1038" t="str"><v>Other0032</v></cell></row><row r="1039"><cell r="C1039" t="str"><v>내사랑유자씨기타</v></cell><cell r="D1039" t="str"><v>Other0033</v></cell></row><row r="1040"><cell r="C1040" t="str"><v>네슬레퓨어라이프기타</v></cell><cell r="D1040" t="str"><v>Other0034</v></cell></row><row r="1041"><cell r="C1041" t="str"><v>네이처티기타</v></cell><cell r="D1041" t="str"><v>Other0035</v></cell></row><row r="1042"><cell r="C1042" t="str"><v>뉴트리빈기타</v></cell><cell r="D1042" t="str"><v>Other0036</v></cell></row><row r="1043"><cell r="C1043" t="str"><v>다이나믹킨기타</v></cell><cell r="D1043" t="str"><v>Other0037</v></cell></row><row r="1044"><cell r="C1044" t="str"><v>닥터&닥터기타</v></cell><cell r="D1044" t="str"><v>Other0038</v></cell></row><row r="1045"><cell r="C1045" t="str"><v>닥터페퍼기타</v></cell><cell r="D1045" t="str"><v>Other0039</v></cell></row><row r="1046"><cell r="C1046" t="str"><v>데미소다기타</v></cell><cell r="D1046" t="str"><v>Other0040</v></cell></row><row r="1047"><cell r="C1047" t="str"><v>데일리씨기타</v></cell><cell r="D1047" t="str"><v>Other0041</v></cell></row><row r="1048"><cell r="C1048" t="str"><v>데일리파워기타</v></cell><cell r="D1048" t="str"><v>Other0042</v></cell></row><row r="1049"><cell r="C1049" t="str"><v>데자와기타</v></cell><cell r="D1049" t="str"><v>Other0043</v></cell></row><row r="1050"><cell r="C1050" t="str"><v>델몬트기타</v></cell><cell r="D1050" t="str"><v>Other0044</v></cell></row><row r="1051"><cell r="C1051" t="str"><v>동서둥글레기타</v></cell><cell r="D1051" t="str"><v>Other0045</v></cell></row><row r="1052"><cell r="C1052" t="str"><v>동원오미자차기타</v></cell><cell r="D1052" t="str"><v>Other0046</v></cell></row><row r="1053"><cell r="C1053" t="str"><v>디엠지기타</v></cell><cell r="D1053" t="str"><v>Other0047</v></cell></row><row r="1054"><cell r="C1054" t="str"><v>락스타기타</v></cell><cell r="D1054" t="str"><v>Other0048</v></cell></row><row r="1055"><cell r="C1055" t="str"><v>랭거스기타</v></cell><cell r="D1055" t="str"><v>Other0049</v></cell></row><row r="1056"><cell r="C1056" t="str"><v>레드불기타</v></cell><cell r="D1056" t="str"><v>Other0050</v></cell></row><row r="1057"><cell r="C1057" t="str"><v>레몬트리기타</v></cell><cell r="D1057" t="str"><v>Other0052</v></cell></row><row r="1058"><cell r="C1058" t="str"><v>레쓰비기타</v></cell><cell r="D1058" t="str"><v>Other0053</v></cell></row><row r="1059"><cell r="C1059" t="str"><v>리차지기타</v></cell><cell r="D1059" t="str"><v>Other0054</v></cell></row><row r="1060"><cell r="C1060" t="str"><v>립톤기타</v></cell><cell r="D1060" t="str"><v>Other0055</v></cell></row><row r="1061"><cell r="C1061" t="str"><v>마신다기타</v></cell><cell r="D1061" t="str"><v>Other0056</v></cell></row><row r="1062"><cell r="C1062" t="str"><v>마운틴듀기타</v></cell><cell r="D1062" t="str"><v>Other0057</v></cell></row><row r="1063"><cell r="C1063" t="str"><v>맑은땅기타</v></cell><cell r="D1063" t="str"><v>Other0059</v></cell></row><row r="1064"><cell r="C1064" t="str"><v>매직파워기타</v></cell><cell r="D1064" t="str"><v>Other0060</v></cell></row><row r="1065"><cell r="C1065" t="str"><v>맥콜기타</v></cell><cell r="D1065" t="str"><v>Other0061</v></cell></row><row r="1066"><cell r="C1066" t="str"><v>맵시밸런스기타</v></cell><cell r="D1066" t="str"><v>Other0062</v></cell></row><row r="1067"><cell r="C1067" t="str"><v>모구모구기타</v></cell><cell r="D1067" t="str"><v>Other0063</v></cell></row><row r="1068"><cell r="C1068" t="str"><v>모히또레몬라임기타</v></cell><cell r="D1068" t="str"><v>Other0064</v></cell></row><row r="1069"><cell r="C1069" t="str"><v>모히토닉기타</v></cell><cell r="D1069" t="str"><v>Other0065</v></cell></row><row r="1070"><cell r="C1070" t="str"><v>몸에좋은기타</v></cell><cell r="D1070" t="str"><v>Other0067</v></cell></row><row r="1071"><cell r="C1071" t="str"><v>몽베스트기타</v></cell><cell r="D1071" t="str"><v>Other0068</v></cell></row><row r="1072"><cell r="C1072" t="str"><v>미네워터기타</v></cell><cell r="D1072" t="str"><v>Other0069</v></cell></row><row r="1073"><cell r="C1073" t="str"><v>미닛메이드기타</v></cell><cell r="D1073" t="str"><v>Other0070</v></cell></row><row r="1074"><cell r="C1074" t="str"><v>미린다기타</v></cell><cell r="D1074" t="str"><v>Other0071</v></cell></row><row r="1075"><cell r="C1075" t="str"><v>미에로화이바기타</v></cell><cell r="D1075" t="str"><v>Other0072</v></cell></row><row r="1076"><cell r="C1076" t="str"><v>밀키스기타</v></cell><cell r="D1076" t="str"><v>Other0073</v></cell></row><row r="1077"><cell r="C1077" t="str"><v>바리스타기타</v></cell><cell r="D1077" t="str"><v>Other0074</v></cell></row><row r="1078"><cell r="C1078" t="str"><v>바바기타</v></cell><cell r="D1078" t="str"><v>Other0075</v></cell></row><row r="1079"><cell r="C1079" t="str"><v>백두산하늘샘기타</v></cell><cell r="D1079" t="str"><v>Other0076</v></cell></row><row r="1080"><cell r="C1080" t="str"><v>백산수기타</v></cell><cell r="D1080" t="str"><v>Other0077</v></cell></row><row r="1081"><cell r="C1081" t="str"><v>번인텐스기타</v></cell><cell r="D1081" t="str"><v>Other0078</v></cell></row><row r="1082"><cell r="C1082" t="str"><v>복분자기타</v></cell><cell r="D1082" t="str"><v>Other0079</v></cell></row><row r="1083"><cell r="C1083" t="str"><v>복숭아녹차기타</v></cell><cell r="D1083" t="str"><v>Other0080</v></cell></row><row r="1084"><cell r="C1084" t="str"><v>본카페기타</v></cell><cell r="D1084" t="str"><v>Other0081</v></cell></row><row r="1085"><cell r="C1085" t="str"><v>볼빅기타</v></cell><cell r="D1085" t="str"><v>Other0082</v></cell></row><row r="1086"><cell r="C1086" t="str"><v>봉봉기타</v></cell><cell r="D1086" t="str"><v>Other0083</v></cell></row><row r="1087"><cell r="C1087" t="str"><v>봉평샘물기타</v></cell><cell r="D1087" t="str"><v>Other0084</v></cell></row><row r="1088"><cell r="C1088" t="str"><v>블랙빈티기타</v></cell><cell r="D1088" t="str"><v>Other0085</v></cell></row><row r="1089"><cell r="C1089" t="str"><v>블루기타</v></cell><cell r="D1089" t="str"><v>Other0086</v></cell></row><row r="1090"><cell r="C1090" t="str"><v>블루레몬에이드기타</v></cell><cell r="D1090" t="str"><v>Other0087</v></cell></row><row r="1091"><cell r="C1091" t="str"><v>비디랩스키니기타</v></cell><cell r="D1091" t="str"><v>Other0088</v></cell></row><row r="1092"><cell r="C1092" t="str"><v>비락기타</v></cell><cell r="D1092" t="str"><v>Other0089</v></cell></row><row r="1093"><cell r="C1093" t="str"><v>비타500기타</v></cell><cell r="D1093" t="str"><v>Other1915</v></cell></row><row r="1094"><cell r="C1094" t="str"><v>비타코코기타</v></cell><cell r="D1094" t="str"><v>Other0091</v></cell></row><row r="1095"><cell r="C1095" t="str"><v>뽀로로주스기타</v></cell><cell r="D1095" t="str"><v>Other0092</v></cell></row><row r="1096"><cell r="C1096" t="str"><v>뽕나무기타</v></cell><cell r="D1096" t="str"><v>Other0094</v></cell></row><row r="1097"><cell r="C1097" t="str"><v>뽕잎수기타</v></cell><cell r="D1097" t="str"><v>Other0095</v></cell></row><row r="1098"><cell r="C1098" t="str"><v>쁘띠첼기타</v></cell><cell r="D1098" t="str"><v>Other0096</v></cell></row><row r="1099"><cell r="C1099" t="str"><v>이마트사이다기타</v></cell><cell r="D1099" t="str"><v>Other0097</v></cell></row><row r="1100"><cell r="C1100" t="str"><v>상큼한레몬녹차기타</v></cell><cell r="D1100" t="str"><v>Other0098</v></cell></row><row r="1101"><cell r="C1101" t="str"><v>석수기타</v></cell><cell r="D1101" t="str"><v>Other0099</v></cell></row><row r="1102"><cell r="C1102" t="str"><v>솔라에너지기타</v></cell><cell r="D1102" t="str"><v>Other0100</v></cell></row><row r="1103"><cell r="C1103" t="str"><v>솔의눈기타</v></cell><cell r="D1103" t="str"><v>Other0101</v></cell></row><row r="1104"><cell r="C1104" t="str"><v>슈웹스기타</v></cell><cell r="D1104" t="str"><v>Other0102</v></cell></row><row r="1105"><cell r="C1105" t="str"><v>스윗카페커피기타</v></cell><cell r="D1105" t="str"><v>Other0103</v></cell></row><row r="1106"><cell r="C1106" t="str"><v>스윗카페차기타</v></cell><cell r="D1106" t="str"><v>Other0104</v></cell></row><row r="1107"><cell r="C1107" t="str"><v>스타벅스기타</v></cell><cell r="D1107" t="str"><v>Other0105</v></cell></row><row r="1108"><cell r="C1108" t="str"><v>스파클기타</v></cell><cell r="D1108" t="str"><v>Other0106</v></cell></row><row r="1109"><cell r="C1109" t="str"><v>스프라이트기타</v></cell><cell r="D1109" t="str"><v>Other0107</v></cell></row><row r="1110"><cell r="C1110" t="str"><v>실론티기타</v></cell><cell r="D1110" t="str"><v>Other0108</v></cell></row><row r="1111"><cell r="C1111" t="str"><v>쌕쌕기타</v></cell><cell r="D1111" t="str"><v>Other0109</v></cell></row><row r="1112"><cell r="C1112" t="str"><v>써니텐기타</v></cell><cell r="D1112" t="str"><v>Other0110</v></cell></row><row r="1113"><cell r="C1113" t="str"><v>썬업기타</v></cell><cell r="D1113" t="str"><v>Other0111</v></cell></row><row r="1114"><cell r="C1114" t="str"><v>썬키스트탄산기타</v></cell><cell r="D1114" t="str"><v>Other0112</v></cell></row><row r="1115"><cell r="C1115" t="str"><v>썬키스트주스기타</v></cell><cell r="D1115" t="str"><v>Other0113</v></cell></row><row r="1116"><cell r="C1116" t="str"><v>썬키스트볼트기타</v></cell><cell r="D1116" t="str"><v>Other0114</v></cell></row><row r="1117"><cell r="C1117" t="str"><v>썬키스트커피기타</v></cell><cell r="D1117" t="str"><v>Other0115</v></cell></row><row r="1118"><cell r="C1118" t="str"><v>썬키스트탄산2기타</v></cell><cell r="D1118" t="str"><v>Other0116</v></cell></row><row r="1119"><cell r="C1119" t="str"><v>쎄레스탄산기타</v></cell><cell r="D1119" t="str"><v>Other0117</v></cell></row><row r="1120"><cell r="C1120" t="str"><v>쎄레스주스기타</v></cell><cell r="D1120" t="str"><v>Other0118</v></cell></row><row r="1121"><cell r="C1121" t="str"><v>아리조나기타</v></cell><cell r="D1121" t="str"><v>Other0119</v></cell></row><row r="1122"><cell r="C1122" t="str"><v>아마존시크릿기타</v></cell><cell r="D1122" t="str"><v>Other0120</v></cell></row><row r="1123"><cell r="C1123" t="str"><v>아이스버블기타</v></cell><cell r="D1123" t="str"><v>Other0121</v></cell></row><row r="1124"><cell r="C1124" t="str"><v>아이시스기타</v></cell><cell r="D1124" t="str"><v>Other0122</v></cell></row><row r="1125"><cell r="C1125" t="str"><v>아이시안기타</v></cell><cell r="D1125" t="str"><v>Other0123</v></cell></row><row r="1126"><cell r="C1126" t="str"><v>아이키커기타</v></cell><cell r="D1126" t="str"><v>Other0124</v></cell></row><row r="1127"><cell r="C1127" t="str"><v>아임리얼기타</v></cell><cell r="D1127" t="str"><v>Other0125</v></cell></row><row r="1128"><cell r="C1128" t="str"><v>아침에주스기타</v></cell><cell r="D1128" t="str"><v>Other0126</v></cell></row><row r="1129"><cell r="C1129" t="str"><v>아침햇살주스기타</v></cell><cell r="D1129" t="str"><v>Other0127</v></cell></row><row r="1130"><cell r="C1130" t="str"><v>아침햇살차기타</v></cell><cell r="D1130" t="str"><v>Other0128</v></cell></row><row r="1131"><cell r="C1131" t="str"><v>아침헛개기타</v></cell><cell r="D1131" t="str"><v>Other0129</v></cell></row><row r="1132"><cell r="C1132" t="str"><v>아쿠아기타</v></cell><cell r="D1132" t="str"><v>Other0130</v></cell></row><row r="1133"><cell r="C1133" t="str"><v>아쿠아리우스기타</v></cell><cell r="D1133" t="str"><v>Other0131</v></cell></row><row r="1134"><cell r="C1134" t="str"><v>아쿠아파나기타</v></cell><cell r="D1134" t="str"><v>Other0132</v></cell></row><row r="1135"><cell r="C1135" t="str"><v>암바사기타</v></cell><cell r="D1135" t="str"><v>Other0133</v></cell></row><row r="1136"><cell r="C1136" t="str"><v>앳홈기타</v></cell><cell r="D1136" t="str"><v>Other0134</v></cell></row><row r="1137"><cell r="C1137" t="str"><v>앵그리버드기타</v></cell><cell r="D1137" t="str"><v>Other0135</v></cell></row><row r="1138"><cell r="C1138" t="str"><v>에너지파워기타</v></cell><cell r="D1138" t="str"><v>Other0136</v></cell></row><row r="1139"><cell r="C1139" t="str"><v>에비앙기타</v></cell><cell r="D1139" t="str"><v>Other0137</v></cell></row><row r="1140"><cell r="C1140" t="str"><v>엔제리너스기타</v></cell><cell r="D1140" t="str"><v>Other0138</v></cell></row><row r="1141"><cell r="C1141" t="str"><v>오곡누룽지차기타</v></cell><cell r="D1141" t="str"><v>Other0139</v></cell></row><row r="1142"><cell r="C1142" t="str"><v>오늘의차기타</v></cell><cell r="D1142" t="str"><v>Other0140</v></cell></row><row r="1143"><cell r="C1143" t="str"><v>오라떼기타</v></cell><cell r="D1143" t="str"><v>Other0141</v></cell></row><row r="1144"><cell r="C1144" t="str"><v>오란씨기타</v></cell><cell r="D1144" t="str"><v>Other0142</v></cell></row><row r="1145"><cell r="C1145" t="str"><v>오션스프레이기타</v></cell><cell r="D1145" t="str"><v>Other0143</v></cell></row><row r="1146"><cell r="C1146" t="str"><v>와츠기타</v></cell><cell r="D1146" t="str"><v>Other0144</v></cell></row><row r="1147"><cell r="C1147" t="str"><v>웅진종합기타</v></cell><cell r="D1147" t="str"><v>Other0145</v></cell></row><row r="1148"><cell r="C1148" t="str"><v>웰치스탄산기타</v></cell><cell r="D1148" t="str"><v>Other0146</v></cell></row><row r="1149"><cell r="C1149" t="str"><v>웰치스주스기타</v></cell><cell r="D1149" t="str"><v>Other0147</v></cell></row><row r="1150"><cell r="C1150" t="str"><v>이너뷰티기타</v></cell><cell r="D1150" t="str"><v>Other0148</v></cell></row><row r="1151"><cell r="C1151" t="str"><v>이다기타</v></cell><cell r="D1151" t="str"><v>Other0149</v></cell></row><row r="1152"><cell r="C1152" t="str"><v>잇워터기타</v></cell><cell r="D1152" t="str"><v>Other0150_1</v></cell></row><row r="1153"><cell r="C1153" t="str"><v>잉카콜라기타</v></cell><cell r="D1153" t="str"><v>Other0151</v></cell></row><row r="1154"><cell r="C1154" t="str"><v>자연은기타</v></cell><cell r="D1154" t="str"><v>Other0152</v></cell></row><row r="1155"><cell r="C1155" t="str"><v>자연은멀티브이기타</v></cell><cell r="D1155" t="str"><v>Other0153</v></cell></row><row r="1156"><cell r="C1156" t="str"><v>잔치집기타</v></cell><cell r="D1156" t="str"><v>Other0154</v></cell></row><row r="1157"><cell r="C1157" t="str"><v>제주바다기타</v></cell><cell r="D1157" t="str"><v>Other0156</v></cell></row><row r="1158"><cell r="C1158" t="str"><v>제주삼다수기타</v></cell><cell r="D1158" t="str"><v>Other0157</v></cell></row><row r="1159"><cell r="C1159" t="str"><v>제주상황차기타</v></cell><cell r="D1159" t="str"><v>Other0158</v></cell></row><row r="1160"><cell r="C1160" t="str"><v>조지아기타</v></cell><cell r="D1160" t="str"><v>Other0159</v></cell></row><row r="1161"><cell r="C1161" t="str"><v>조지아맥스기타</v></cell><cell r="D1161" t="str"><v>Other0160</v></cell></row><row r="1162"><cell r="C1162" t="str"><v>조지아유러피안기타</v></cell><cell r="D1162" t="str"><v>Other0161</v></cell></row><row r="1163"><cell r="C1163" t="str"><v>진저에일스파클링기타</v></cell><cell r="D1163" t="str"><v>Other0162</v></cell></row><row r="1164"><cell r="C1164" t="str"><v>천연사이다기타</v></cell><cell r="D1164" t="str"><v>Other0164</v></cell></row><row r="1165"><cell r="C1165" t="str"><v>초록매실기타</v></cell><cell r="D1165" t="str"><v>Other0166</v></cell></row><row r="1166"><cell r="C1166" t="str"><v>칠성사이다기타</v></cell><cell r="D1166" t="str"><v>Other0168</v></cell></row><row r="1167"><cell r="C1167" t="str"><v>카나다드라이기타</v></cell><cell r="D1167" t="str"><v>Other0169</v></cell></row><row r="1168"><cell r="C1168" t="str"><v>카페드롭탑기타</v></cell><cell r="D1168" t="str"><v>Other0170</v></cell></row><row r="1169"><cell r="C1169" t="str"><v>카페레몬트리기타</v></cell><cell r="D1169" t="str"><v>Other0171</v></cell></row><row r="1170"><cell r="C1170" t="str"><v>카페리얼커피기타</v></cell><cell r="D1170" t="str"><v>Other0172</v></cell></row><row r="1171"><cell r="C1171" t="str"><v>카페리얼차기타</v></cell><cell r="D1171" t="str"><v>Other0173</v></cell></row><row r="1172"><cell r="C1172" t="str"><v>카페베네기타</v></cell><cell r="D1172" t="str"><v>Other0174</v></cell></row><row r="1173"><cell r="C1173" t="str"><v>카프리썬기타</v></cell><cell r="D1173" t="str"><v>Other0175</v></cell></row><row r="1174"><cell r="C1174" t="str"><v>칸타타기타</v></cell><cell r="D1174" t="str"><v>Other0176</v></cell></row><row r="1175"><cell r="C1175" t="str"><v>칼라만시기타</v></cell><cell r="D1175" t="str"><v>Other0177</v></cell></row><row r="1176"><cell r="C1176" t="str"><v>캠벨기타</v></cell><cell r="D1176" t="str"><v>Other0178</v></cell></row><row r="1177"><cell r="C1177" t="str"><v>컨디션헛개수기타</v></cell><cell r="D1177" t="str"><v>Other0179</v></cell></row><row r="1178"><cell r="C1178" t="str"><v>컨피던스기타</v></cell><cell r="D1178" t="str"><v>Other0180</v></cell></row><row r="1179"><cell r="C1179" t="str"><v>코카콜라탄산기타</v></cell><cell r="D1179" t="str"><v>Other0181</v></cell></row><row r="1180"><cell r="C1180" t="str"><v>휘오순수 10 - 플레이버워터 기타</v></cell><cell r="D1180" t="str"><v>Other0182</v></cell></row><row r="1181"><cell r="C1181" t="str"><v>코카콜라-스프라이트기타</v></cell><cell r="D1181" t="str"><v>Other0183</v></cell></row><row r="1182"><cell r="C1182" t="str"><v>코카콜라-환타기타</v></cell><cell r="D1182" t="str"><v>Other0184</v></cell></row><row r="1183"><cell r="C1183" t="str"><v>코코몽기타</v></cell><cell r="D1183" t="str"><v>Other0185</v></cell></row><row r="1184"><cell r="C1184" t="str"><v>코코팜탄산기타</v></cell><cell r="D1184" t="str"><v>Other0186</v></cell></row><row r="1185"><cell r="C1185" t="str"><v>코코팜주스기타</v></cell><cell r="D1185" t="str"><v>Other0187</v></cell></row><row r="1186"><cell r="C1186" t="str"><v>이마트콜라기타</v></cell><cell r="D1186" t="str"><v>Other0188</v></cell></row><row r="1187"><cell r="C1187" t="str"><v>큐락기타</v></cell><cell r="D1187" t="str"><v>Other0189</v></cell></row><row r="1188"><cell r="C1188" t="str"><v>크리미기타</v></cell><cell r="D1188" t="str"><v>Other0190</v></cell></row><row r="1189"><cell r="C1189" t="str"><v>큰집기타</v></cell><cell r="D1189" t="str"><v>Other0191</v></cell></row><row r="1190"><cell r="C1190" t="str"><v>킨기타</v></cell><cell r="D1190" t="str"><v>Other0192</v></cell></row><row r="1191"><cell r="C1191" t="str"><v>탄산멀티기타</v></cell><cell r="D1191" t="str"><v>Other0193</v></cell></row><row r="1192"><cell r="C1192" t="str"><v>탐라제주기타</v></cell><cell r="D1192" t="str"><v>Other0194</v></cell></row><row r="1193"><cell r="C1193" t="str"><v>태양의마테차기타</v></cell><cell r="D1193" t="str"><v>Other0195</v></cell></row><row r="1194"><cell r="C1194" t="str"><v>톡보리사이다기타</v></cell><cell r="D1194" t="str"><v>Other0196</v></cell></row><row r="1195"><cell r="C1195" t="str"><v>트레비생수기타</v></cell><cell r="D1195" t="str"><v>Other0198</v></cell></row><row r="1196"><cell r="C1196" t="str"><v>트로피카나탄산기타</v></cell><cell r="D1196" t="str"><v>Other0199</v></cell></row><row r="1197"><cell r="C1197" t="str"><v>트로피카나주스기타</v></cell><cell r="D1197" t="str"><v>Other0200</v></cell></row><row r="1198"><cell r="C1198" t="str"><v>튼튼한짱구는못말려기타</v></cell><cell r="D1198" t="str"><v>Other0201</v></cell></row><row r="1199"><cell r="C1199" t="str"><v>티모어기타</v></cell><cell r="D1199" t="str"><v>Other0202</v></cell></row><row r="1200"><cell r="C1200" t="str"><v>티스'티기타</v></cell><cell r="D1200" t="str"><v>Other0203</v></cell></row><row r="1201"><cell r="C1201" t="str"><v>티스파클링기타</v></cell><cell r="D1201" t="str"><v>Other0204</v></cell></row><row r="1202"><cell r="C1202" t="str"><v>티오기타</v></cell><cell r="D1202" t="str"><v>Other0205</v></cell></row><row r="1203"><cell r="C1203" t="str"><v>티오피기타</v></cell><cell r="D1203" t="str"><v>Other0206</v></cell></row><row r="1204"><cell r="C1204" t="str"><v>팁코기타</v></cell><cell r="D1204" t="str"><v>Other0207</v></cell></row><row r="1205"><cell r="C1205" t="str"><v>파워에이드기타</v></cell><cell r="D1205" t="str"><v>Other0208</v></cell></row><row r="1206"><cell r="C1206" t="str"><v>파워오투기타</v></cell><cell r="D1206" t="str"><v>Other0209</v></cell></row><row r="1207"><cell r="C1207" t="str"><v>팻다운기타</v></cell><cell r="D1207" t="str"><v>Other0210</v></cell></row><row r="1208"><cell r="C1208" t="str"><v>페리에기타</v></cell><cell r="D1208" t="str"><v>Other0211</v></cell></row><row r="1209"><cell r="C1209" t="str"><v>펩시기타</v></cell><cell r="D1209" t="str"><v>Other0212</v></cell></row><row r="1210"><cell r="C1210" t="str"><v>포카리스웨트기타</v></cell><cell r="D1210" t="str"><v>Other0213</v></cell></row><row r="1211"><cell r="C1211" t="str"><v>폰테타비나기타</v></cell><cell r="D1211" t="str"><v>Other0214</v></cell></row><row r="1212"><cell r="C1212" t="str"><v>폴짝폴짝콩콩콩기타</v></cell><cell r="D1212" t="str"><v>Other0215</v></cell></row><row r="1213"><cell r="C1213" t="str"><v>퓨즈티기타</v></cell><cell r="D1213" t="str"><v>Other0216</v></cell></row><row r="1214"><cell r="C1214" t="str"><v>프렌치카페기타</v></cell><cell r="D1214" t="str"><v>Other0217</v></cell></row><row r="1215"><cell r="C1215" t="str"><v>프렌치카페카와기타</v></cell><cell r="D1215" t="str"><v>Other0218</v></cell></row><row r="1216"><cell r="C1216" t="str"><v>프링클기타</v></cell><cell r="D1216" t="str"><v>Other0219</v></cell></row><row r="1217"><cell r="C1217" t="str"><v>하늘청기타</v></cell><cell r="D1217" t="str"><v>Other0221</v></cell></row><row r="1218"><cell r="C1218" t="str"><v>하루야채기타</v></cell><cell r="D1218" t="str"><v>Other0222</v></cell></row><row r="1219"><cell r="C1219" t="str"><v>하와이안기타</v></cell><cell r="D1219" t="str"><v>Other0223</v></cell></row><row r="1220"><cell r="C1220" t="str"><v>한라봉기타</v></cell><cell r="D1220" t="str"><v>Other0224</v></cell></row><row r="1221"><cell r="C1221" t="str"><v>한방에다린기타</v></cell><cell r="D1221" t="str"><v>Other0225</v></cell></row><row r="1222"><cell r="C1222" t="str"><v>한뿌리기타</v></cell><cell r="D1222" t="str"><v>Other0226</v></cell></row><row r="1223"><cell r="C1223" t="str"><v>핫식스기타</v></cell><cell r="D1223" t="str"><v>Other0227</v></cell></row><row r="1224"><cell r="C1224" t="str"><v>헛개꿀대추기타</v></cell><cell r="D1224" t="str"><v>Other0228</v></cell></row><row r="1225"><cell r="C1225" t="str"><v>헬로팬돌이기타</v></cell><cell r="D1225" t="str"><v>Other0229</v></cell></row><row r="1226"><cell r="C1226" t="str"><v>헬스원기타</v></cell><cell r="D1226" t="str"><v>Other0230</v></cell></row><row r="1227"><cell r="C1227" t="str"><v>홍삼헛개기타</v></cell><cell r="D1227" t="str"><v>Other0231</v></cell></row><row r="1228"><cell r="C1228" t="str"><v>환타기타</v></cell><cell r="D1228" t="str"><v>Other0232</v></cell></row><row r="1229"><cell r="C1229" t="str"><v>환타스무디기타</v></cell><cell r="D1229" t="str"><v>Other0233</v></cell></row><row r="1230"><cell r="C1230" t="str"><v>환타스위트믹스기타</v></cell><cell r="D1230" t="str"><v>Other0234</v></cell></row><row r="1231"><cell r="C1231" t="str"><v>후르츠믹스에이드기타</v></cell><cell r="D1231" t="str"><v>Other0235</v></cell></row><row r="1232"><cell r="C1232" t="str"><v>휘오순수 08 - 생수 기타</v></cell><cell r="D1232" t="str"><v>Other0236</v></cell></row><row r="1233"><cell r="C1233" t="str"><v>휘오제주기타</v></cell><cell r="D1233" t="str"><v>Other0237</v></cell></row><row r="1234"><cell r="C1234" t="str"><v>힘찬하루헛개기타</v></cell><cell r="D1234" t="str"><v>Other0238</v></cell></row><row r="1235"><cell r="C1235" t="str"><v>기타주스Others기타</v></cell><cell r="D1235" t="str"><v>Other0239_1</v></cell></row><row r="1236"><cell r="C1236" t="str"><v>Choice L Cola sparkling other</v></cell></row><row r="1237"><cell r="C1237" t="str"><v>기타차롯데쇼핑기타</v></cell><cell r="D1237" t="str"><v>Other0241</v></cell></row><row r="1238"><cell r="C1238" t="str"><v>퓨어플러스유기농기타</v></cell><cell r="D1238" t="str"><v>Other0245</v></cell></row><row r="1239"><cell r="C1239" t="str"><v>프로엠기타</v></cell><cell r="D1239" t="str"><v>Other0246</v></cell></row><row r="1240"><cell r="C1240" t="str"><v>17차빈 공간</v></cell><cell r="D1240" t="str"><v>Empty0001</v></cell></row><row r="1241"><cell r="C1241" t="str"><v>2%부족할때빈 공간</v></cell><cell r="D1241" t="str"><v>Empty0002</v></cell></row><row r="1242"><cell r="C1242" t="str"><v>7UP빈 공간</v></cell><cell r="D1242" t="str"><v>Empty0003</v></cell></row><row r="1243"><cell r="C1243" t="str"><v>까만콩차빈 공간</v></cell><cell r="D1243" t="str"><v>Empty0004</v></cell></row><row r="1244"><cell r="C1244" t="str"><v>UCC빈 공간</v></cell><cell r="D1244" t="str"><v>Empty0005</v></cell></row><row r="1245"><cell r="C1245" t="str"><v>V8빈 공간</v></cell><cell r="D1245" t="str"><v>Empty0006</v></cell></row><row r="1246"><cell r="C1246" t="str"><v>V라인빈 공간</v></cell><cell r="D1246" t="str"><v>Empty0007</v></cell></row><row r="1247"><cell r="C1247" t="str"><v>zoo커피빈 공간</v></cell><cell r="D1247" t="str"><v>Empty0008</v></cell></row><row r="1248"><cell r="C1248" t="str"><v>가야농장주스빈 공간</v></cell><cell r="D1248" t="str"><v>Empty0009</v></cell></row><row r="1249"><cell r="C1249" t="str"><v>가야농장차빈 공간</v></cell><cell r="D1249" t="str"><v>Empty0010</v></cell></row><row r="1250"><cell r="C1250" t="str"><v>갈아만든빈 공간</v></cell><cell r="D1250" t="str"><v>Empty0011</v></cell></row><row r="1251"><cell r="C1251" t="str"><v>갓짜낸빈 공간</v></cell><cell r="D1251" t="str"><v>Empty0012</v></cell></row><row r="1252"><cell r="C1252" t="str"><v>강원평창수빈 공간</v></cell><cell r="D1252" t="str"><v>Empty0013</v></cell></row><row r="1253"><cell r="C1253" t="str"><v>게토레이빈 공간</v></cell><cell r="D1253" t="str"><v>Empty0014</v></cell></row><row r="1254"><cell r="C1254" t="str"><v>겨울나기빈 공간</v></cell><cell r="D1254" t="str"><v>Empty0015</v></cell></row><row r="1255"><cell r="C1255" t="str"><v>골드메달탄산빈 공간</v></cell><cell r="D1255" t="str"><v>Empty0016</v></cell></row><row r="1256"><cell r="C1256" t="str"><v>골드메달주스빈 공간</v></cell><cell r="D1256" t="str"><v>Empty0017</v></cell></row><row r="1257"><cell r="C1257" t="str"><v>골든드랍빈 공간</v></cell><cell r="D1257" t="str"><v>Empty0018</v></cell></row><row r="1258"><cell r="C1258" t="str"><v>과수원빈 공간</v></cell><cell r="D1258" t="str"><v>Empty0019</v></cell></row><row r="1259"><cell r="C1259" t="str"><v>과일촌빈 공간</v></cell><cell r="D1259" t="str"><v>Empty0020</v></cell></row><row r="1260"><cell r="C1260" t="str"><v>과일촌+썬키스트빈 공간</v></cell><cell r="D1260" t="str"><v>Empty0021</v></cell></row><row r="1261"><cell r="C1261" t="str"><v>과채믹스23빈 공간</v></cell><cell r="D1261" t="str"><v>Empty0022</v></cell></row><row r="1262"><cell r="C1262" t="str"><v>글라소플레이버워터빈 공간</v></cell><cell r="D1262" t="str"><v>Empty0023</v></cell></row><row r="1263"><cell r="C1263" t="str"><v>글라소비타민워터빈 공간</v></cell><cell r="D1263" t="str"><v>Empty0024</v></cell></row><row r="1264"><cell r="C1264" t="str"><v>글라소생수빈 공간</v></cell><cell r="D1264" t="str"><v>Empty0025</v></cell></row><row r="1265"><cell r="C1265" t="str"><v>깊은산속옹달샘물빈 공간</v></cell><cell r="D1265" t="str"><v>Empty0027</v></cell></row><row r="1266"><cell r="C1266" t="str"><v>깜찍이빈 공간</v></cell><cell r="D1266" t="str"><v>Empty0028</v></cell></row><row r="1267"><cell r="C1267" t="str"><v>꿀홍삼빈 공간</v></cell><cell r="D1267" t="str"><v>Empty0029</v></cell></row><row r="1268"><cell r="C1268" t="str"><v>나랑드빈 공간</v></cell><cell r="D1268" t="str"><v>Empty0030</v></cell></row><row r="1269"><cell r="C1269" t="str"><v>나인아이언빈 공간</v></cell><cell r="D1269" t="str"><v>Empty0031</v></cell></row><row r="1270"><cell r="C1270" t="str"><v>내몸을위한청정샘물빈 공간</v></cell><cell r="D1270" t="str"><v>Empty0032</v></cell></row><row r="1271"><cell r="C1271" t="str"><v>내사랑유자씨빈 공간</v></cell><cell r="D1271" t="str"><v>Empty0033</v></cell></row><row r="1272"><cell r="C1272" t="str"><v>네슬레퓨어라이프빈 공간</v></cell><cell r="D1272" t="str"><v>Empty0034</v></cell></row><row r="1273"><cell r="C1273" t="str"><v>네이처티빈 공간</v></cell><cell r="D1273" t="str"><v>Empty0035</v></cell></row><row r="1274"><cell r="C1274" t="str"><v>뉴트리빈빈 공간</v></cell><cell r="D1274" t="str"><v>Empty0036</v></cell></row><row r="1275"><cell r="C1275" t="str"><v>다이나믹킨빈 공간</v></cell><cell r="D1275" t="str"><v>Empty0037</v></cell></row><row r="1276"><cell r="C1276" t="str"><v>닥터&닥터빈 공간</v></cell><cell r="D1276" t="str"><v>Empty0038</v></cell></row><row r="1277"><cell r="C1277" t="str"><v>닥터페퍼빈 공간</v></cell><cell r="D1277" t="str"><v>Empty0039</v></cell></row><row r="1278"><cell r="C1278" t="str"><v>데미소다빈 공간</v></cell><cell r="D1278" t="str"><v>Empty0040</v></cell></row><row r="1279"><cell r="C1279" t="str"><v>데일리씨빈 공간</v></cell><cell r="D1279" t="str"><v>Empty0041</v></cell></row><row r="1280"><cell r="C1280" t="str"><v>데일리파워빈 공간</v></cell><cell r="D1280" t="str"><v>Empty0042</v></cell></row><row r="1281"><cell r="C1281" t="str"><v>데자와빈 공간</v></cell><cell r="D1281" t="str"><v>Empty0043</v></cell></row><row r="1282"><cell r="C1282" t="str"><v>델몬트빈 공간</v></cell><cell r="D1282" t="str"><v>Empty0044</v></cell></row><row r="1283"><cell r="C1283" t="str"><v>동서둥글레빈 공간</v></cell><cell r="D1283" t="str"><v>Empty0045</v></cell></row><row r="1284"><cell r="C1284" t="str"><v>동원오미자차빈 공간</v></cell><cell r="D1284" t="str"><v>Empty0046</v></cell></row><row r="1285"><cell r="C1285" t="str"><v>디엠지빈 공간</v></cell><cell r="D1285" t="str"><v>Empty0047</v></cell></row><row r="1286"><cell r="C1286" t="str"><v>락스타빈 공간</v></cell><cell r="D1286" t="str"><v>Empty0048</v></cell></row><row r="1287"><cell r="C1287" t="str"><v>랭거스빈 공간</v></cell><cell r="D1287" t="str"><v>Empty0049</v></cell></row><row r="1288"><cell r="C1288" t="str"><v>레드불빈 공간</v></cell><cell r="D1288" t="str"><v>Empty0050</v></cell></row><row r="1289"><cell r="C1289" t="str"><v>레몬트리빈 공간</v></cell><cell r="D1289" t="str"><v>Empty0052</v></cell></row><row r="1290"><cell r="C1290" t="str"><v>레쓰비빈 공간</v></cell><cell r="D1290" t="str"><v>Empty0053</v></cell></row><row r="1291"><cell r="C1291" t="str"><v>리차지빈 공간</v></cell><cell r="D1291" t="str"><v>Empty0054</v></cell></row><row r="1292"><cell r="C1292" t="str"><v>립톤빈 공간</v></cell><cell r="D1292" t="str"><v>Empty0055</v></cell></row><row r="1293"><cell r="C1293" t="str"><v>마신다빈 공간</v></cell><cell r="D1293" t="str"><v>Empty0056</v></cell></row><row r="1294"><cell r="C1294" t="str"><v>마운틴듀빈 공간</v></cell><cell r="D1294" t="str"><v>Empty0057</v></cell></row><row r="1295"><cell r="C1295" t="str"><v>맑은땅빈 공간</v></cell><cell r="D1295" t="str"><v>Empty0059</v></cell></row><row r="1296"><cell r="C1296" t="str"><v>매직파워빈 공간</v></cell><cell r="D1296" t="str"><v>Empty0060</v></cell></row><row r="1297"><cell r="C1297" t="str"><v>맥콜빈 공간</v></cell><cell r="D1297" t="str"><v>Empty0061</v></cell></row><row r="1298"><cell r="C1298" t="str"><v>맵시밸런스빈 공간</v></cell><cell r="D1298" t="str"><v>Empty0062</v></cell></row><row r="1299"><cell r="C1299" t="str"><v>모구모구빈 공간</v></cell><cell r="D1299" t="str"><v>Empty0063</v></cell></row><row r="1300"><cell r="C1300" t="str"><v>모히또레몬라임빈 공간</v></cell><cell r="D1300" t="str"><v>Empty0064</v></cell></row><row r="1301"><cell r="C1301" t="str"><v>모히토닉빈 공간</v></cell><cell r="D1301" t="str"><v>Empty0065</v></cell></row><row r="1302"><cell r="C1302" t="str"><v>몸에좋은빈 공간</v></cell><cell r="D1302" t="str"><v>Empty0067</v></cell></row><row r="1303"><cell r="C1303" t="str"><v>몽베스트빈 공간</v></cell><cell r="D1303" t="str"><v>Empty0068</v></cell></row><row r="1304"><cell r="C1304" t="str"><v>미네워터빈 공간</v></cell><cell r="D1304" t="str"><v>Empty0069</v></cell></row><row r="1305"><cell r="C1305" t="str"><v>미닛메이드빈 공간</v></cell><cell r="D1305" t="str"><v>Empty0254</v></cell></row><row r="1306"><cell r="C1306" t="str"><v>미린다빈 공간</v></cell><cell r="D1306" t="str"><v>Empty0071</v></cell></row><row r="1307"><cell r="C1307" t="str"><v>미에로화이바빈 공간</v></cell><cell r="D1307" t="str"><v>Empty0072</v></cell></row><row r="1308"><cell r="C1308" t="str"><v>밀키스빈 공간</v></cell><cell r="D1308" t="str"><v>Empty0073</v></cell></row><row r="1309"><cell r="C1309" t="str"><v>바리스타빈 공간</v></cell><cell r="D1309" t="str"><v>Empty0074</v></cell></row><row r="1310"><cell r="C1310" t="str"><v>바바빈 공간</v></cell><cell r="D1310" t="str"><v>Empty0075</v></cell></row><row r="1311"><cell r="C1311" t="str"><v>백두산하늘샘빈 공간</v></cell><cell r="D1311" t="str"><v>Empty0076</v></cell></row><row r="1312"><cell r="C1312" t="str"><v>백산수빈 공간</v></cell><cell r="D1312" t="str"><v>Empty0077</v></cell></row><row r="1313"><cell r="C1313" t="str"><v>번인텐스빈 공간</v></cell><cell r="D1313" t="str"><v>Empty0078</v></cell></row><row r="1314"><cell r="C1314" t="str"><v>복분자빈 공간</v></cell><cell r="D1314" t="str"><v>Empty0079</v></cell></row><row r="1315"><cell r="C1315" t="str"><v>복숭아녹차빈 공간</v></cell><cell r="D1315" t="str"><v>Empty0080</v></cell></row><row r="1316"><cell r="C1316" t="str"><v>본카페빈 공간</v></cell><cell r="D1316" t="str"><v>Empty0081</v></cell></row><row r="1317"><cell r="C1317" t="str"><v>볼빅빈 공간</v></cell><cell r="D1317" t="str"><v>Empty0082</v></cell></row><row r="1318"><cell r="C1318" t="str"><v>봉봉빈 공간</v></cell><cell r="D1318" t="str"><v>Empty0083</v></cell></row><row r="1319"><cell r="C1319" t="str"><v>봉평샘물빈 공간</v></cell><cell r="D1319" t="str"><v>Empty0084</v></cell></row><row r="1320"><cell r="C1320" t="str"><v>블랙빈티빈 공간</v></cell><cell r="D1320" t="str"><v>Empty0085</v></cell></row><row r="1321"><cell r="C1321" t="str"><v>블루빈 공간</v></cell><cell r="D1321" t="str"><v>Empty0086</v></cell></row><row r="1322"><cell r="C1322" t="str"><v>블루레몬에이드빈 공간</v></cell><cell r="D1322" t="str"><v>Empty0087</v></cell></row><row r="1323"><cell r="C1323" t="str"><v>비디랩스키니빈 공간</v></cell><cell r="D1323" t="str"><v>Empty0088</v></cell></row><row r="1324"><cell r="C1324" t="str"><v>비락빈 공간</v></cell><cell r="D1324" t="str"><v>Empty0089</v></cell></row><row r="1325"><cell r="C1325" t="str"><v>비타500빈 공간</v></cell><cell r="D1325" t="str"><v>Empty1915</v></cell></row><row r="1326"><cell r="C1326" t="str"><v>비타코코빈 공간</v></cell><cell r="D1326" t="str"><v>Empty0091</v></cell></row><row r="1327"><cell r="C1327" t="str"><v>뽀로로주스빈 공간</v></cell><cell r="D1327" t="str"><v>Empty0092</v></cell></row><row r="1328"><cell r="C1328" t="str"><v>뽕나무빈 공간</v></cell><cell r="D1328" t="str"><v>Empty0094</v></cell></row><row r="1329"><cell r="C1329" t="str"><v>뽕잎수빈 공간</v></cell><cell r="D1329" t="str"><v>Empty0095</v></cell></row><row r="1330"><cell r="C1330" t="str"><v>쁘띠첼빈 공간</v></cell><cell r="D1330" t="str"><v>Empty0096</v></cell></row><row r="1331"><cell r="C1331" t="str"><v>이마트사이다빈 공간</v></cell><cell r="D1331" t="str"><v>Empty0097</v></cell></row><row r="1332"><cell r="C1332" t="str"><v>상큼한레몬녹차빈 공간</v></cell><cell r="D1332" t="str"><v>Empty0098</v></cell></row><row r="1333"><cell r="C1333" t="str"><v>석수빈 공간</v></cell><cell r="D1333" t="str"><v>Empty0099</v></cell></row><row r="1334"><cell r="C1334" t="str"><v>솔라에너지빈 공간</v></cell><cell r="D1334" t="str"><v>Empty0100</v></cell></row><row r="1335"><cell r="C1335" t="str"><v>솔의눈빈 공간</v></cell><cell r="D1335" t="str"><v>Empty0101</v></cell></row><row r="1336"><cell r="C1336" t="str"><v>슈웹스빈 공간</v></cell><cell r="D1336" t="str"><v>Empty0102</v></cell></row><row r="1337"><cell r="C1337" t="str"><v>스윗카페커피빈 공간</v></cell><cell r="D1337" t="str"><v>Empty0103</v></cell></row><row r="1338"><cell r="C1338" t="str"><v>스윗카페차빈 공간</v></cell><cell r="D1338" t="str"><v>Empty0104</v></cell></row><row r="1339"><cell r="C1339" t="str"><v>스타벅스빈 공간</v></cell><cell r="D1339" t="str"><v>Empty0105</v></cell></row><row r="1340"><cell r="C1340" t="str"><v>스파클빈 공간</v></cell><cell r="D1340" t="str"><v>Empty0106</v></cell></row><row r="1341"><cell r="C1341" t="str"><v>스프라이트빈 공간</v></cell><cell r="D1341" t="str"><v>Empty0107</v></cell></row><row r="1342"><cell r="C1342" t="str"><v>실론티빈 공간</v></cell><cell r="D1342" t="str"><v>Empty0108</v></cell></row><row r="1343"><cell r="C1343" t="str"><v>쌕쌕빈 공간</v></cell><cell r="D1343" t="str"><v>Empty0109</v></cell></row><row r="1344"><cell r="C1344" t="str"><v>써니텐빈 공간</v></cell><cell r="D1344" t="str"><v>Empty0110</v></cell></row><row r="1345"><cell r="C1345" t="str"><v>썬업빈 공간</v></cell><cell r="D1345" t="str"><v>Empty0111</v></cell></row><row r="1346"><cell r="C1346" t="str"><v>썬키스트탄산빈 공간</v></cell><cell r="D1346" t="str"><v>Empty0112</v></cell></row><row r="1347"><cell r="C1347" t="str"><v>썬키스트주스빈 공간</v></cell><cell r="D1347" t="str"><v>Empty0113</v></cell></row><row r="1348"><cell r="C1348" t="str"><v>썬키스트볼트빈 공간</v></cell><cell r="D1348" t="str"><v>Empty0114</v></cell></row><row r="1349"><cell r="C1349" t="str"><v>썬키스트커피빈 공간</v></cell><cell r="D1349" t="str"><v>Empty0115</v></cell></row><row r="1350"><cell r="C1350" t="str"><v>썬키스트탄산2빈 공간</v></cell><cell r="D1350" t="str"><v>Empty0116</v></cell></row><row r="1351"><cell r="C1351" t="str"><v>쎄레스탄산빈 공간</v></cell><cell r="D1351" t="str"><v>Empty0117</v></cell></row><row r="1352"><cell r="C1352" t="str"><v>쎄레스주스빈 공간</v></cell><cell r="D1352" t="str"><v>Empty0118</v></cell></row><row r="1353"><cell r="C1353" t="str"><v>아리조나빈 공간</v></cell><cell r="D1353" t="str"><v>Empty0119</v></cell></row><row r="1354"><cell r="C1354" t="str"><v>아마존시크릿빈 공간</v></cell><cell r="D1354" t="str"><v>Empty0120</v></cell></row><row r="1355"><cell r="C1355" t="str"><v>아이스버블빈 공간</v></cell><cell r="D1355" t="str"><v>Empty0121</v></cell></row><row r="1356"><cell r="C1356" t="str"><v>아이시스빈 공간</v></cell><cell r="D1356" t="str"><v>Empty0122</v></cell></row><row r="1357"><cell r="C1357" t="str"><v>아이시안빈 공간</v></cell><cell r="D1357" t="str"><v>Empty0123</v></cell></row><row r="1358"><cell r="C1358" t="str"><v>아이키커빈 공간</v></cell><cell r="D1358" t="str"><v>Empty0124</v></cell></row><row r="1359"><cell r="C1359" t="str"><v>아임리얼빈 공간</v></cell><cell r="D1359" t="str"><v>Empty0125</v></cell></row><row r="1360"><cell r="C1360" t="str"><v>아침에주스빈 공간</v></cell><cell r="D1360" t="str"><v>Empty0126</v></cell></row><row r="1361"><cell r="C1361" t="str"><v>아침햇살주스빈 공간</v></cell><cell r="D1361" t="str"><v>Empty0127</v></cell></row><row r="1362"><cell r="C1362" t="str"><v>아침햇살차빈 공간</v></cell><cell r="D1362" t="str"><v>Empty0128</v></cell></row><row r="1363"><cell r="C1363" t="str"><v>아침헛개빈 공간</v></cell><cell r="D1363" t="str"><v>Empty0129</v></cell></row><row r="1364"><cell r="C1364" t="str"><v>아쿠아빈 공간</v></cell><cell r="D1364" t="str"><v>Empty0130</v></cell></row><row r="1365"><cell r="C1365" t="str"><v>아쿠아리우스빈 공간</v></cell><cell r="D1365" t="str"><v>Empty0131</v></cell></row><row r="1366"><cell r="C1366" t="str"><v>아쿠아파나빈 공간</v></cell><cell r="D1366" t="str"><v>Empty0132</v></cell></row><row r="1367"><cell r="C1367" t="str"><v>암바사빈 공간</v></cell><cell r="D1367" t="str"><v>Empty0133</v></cell></row><row r="1368"><cell r="C1368" t="str"><v>앳홈빈 공간</v></cell><cell r="D1368" t="str"><v>Empty0134</v></cell></row><row r="1369"><cell r="C1369" t="str"><v>앵그리버드빈 공간</v></cell><cell r="D1369" t="str"><v>Empty0135</v></cell></row><row r="1370"><cell r="C1370" t="str"><v>에너지파워빈 공간</v></cell><cell r="D1370" t="str"><v>Empty0136</v></cell></row><row r="1371"><cell r="C1371" t="str"><v>에비앙빈 공간</v></cell><cell r="D1371" t="str"><v>Empty0137</v></cell></row><row r="1372"><cell r="C1372" t="str"><v>엔제리너스빈 공간</v></cell><cell r="D1372" t="str"><v>Empty0138</v></cell></row><row r="1373"><cell r="C1373" t="str"><v>오곡누룽지차빈 공간</v></cell><cell r="D1373" t="str"><v>Empty0139</v></cell></row><row r="1374"><cell r="C1374" t="str"><v>오늘의차빈 공간</v></cell><cell r="D1374" t="str"><v>Empty0140</v></cell></row><row r="1375"><cell r="C1375" t="str"><v>오라떼빈 공간</v></cell><cell r="D1375" t="str"><v>Empty0141</v></cell></row><row r="1376"><cell r="C1376" t="str"><v>오란씨빈 공간</v></cell><cell r="D1376" t="str"><v>Empty0142</v></cell></row><row r="1377"><cell r="C1377" t="str"><v>오션스프레이빈 공간</v></cell><cell r="D1377" t="str"><v>Empty0143</v></cell></row><row r="1378"><cell r="C1378" t="str"><v>와츠빈 공간</v></cell><cell r="D1378" t="str"><v>Empty0144</v></cell></row><row r="1379"><cell r="C1379" t="str"><v>웅진종합빈 공간</v></cell><cell r="D1379" t="str"><v>Empty0145</v></cell></row><row r="1380"><cell r="C1380" t="str"><v>웰치스탄산빈 공간</v></cell><cell r="D1380" t="str"><v>Empty0146</v></cell></row><row r="1381"><cell r="C1381" t="str"><v>웰치스주스빈 공간</v></cell><cell r="D1381" t="str"><v>Empty0147</v></cell></row><row r="1382"><cell r="C1382" t="str"><v>이너뷰티빈 공간</v></cell><cell r="D1382" t="str"><v>Empty0148</v></cell></row><row r="1383"><cell r="C1383" t="str"><v>이다빈 공간</v></cell><cell r="D1383" t="str"><v>Empty0149</v></cell></row><row r="1384"><cell r="C1384" t="str"><v>잇워터빈 공간</v></cell><cell r="D1384" t="str"><v>Empty0150</v></cell></row><row r="1385"><cell r="C1385" t="str"><v>잉카콜라빈 공간</v></cell><cell r="D1385" t="str"><v>Empty0151</v></cell></row><row r="1386"><cell r="C1386" t="str"><v>자연은빈 공간</v></cell><cell r="D1386" t="str"><v>Empty0152</v></cell></row><row r="1387"><cell r="C1387" t="str"><v>자연은멀티브이빈 공간</v></cell><cell r="D1387" t="str"><v>Empty0153</v></cell></row><row r="1388"><cell r="C1388" t="str"><v>잔치집빈 공간</v></cell><cell r="D1388" t="str"><v>Empty0154</v></cell></row><row r="1389"><cell r="C1389" t="str"><v>제주바다빈 공간</v></cell><cell r="D1389" t="str"><v>Empty0156</v></cell></row><row r="1390"><cell r="C1390" t="str"><v>제주삼다수빈 공간</v></cell><cell r="D1390" t="str"><v>Empty0157</v></cell></row><row r="1391"><cell r="C1391" t="str"><v>제주상황차빈 공간</v></cell><cell r="D1391" t="str"><v>Empty0158</v></cell></row><row r="1392"><cell r="C1392" t="str"><v>조지아빈 공간</v></cell><cell r="D1392" t="str"><v>Empty0159</v></cell></row><row r="1393"><cell r="C1393" t="str"><v>조지아맥스빈 공간</v></cell><cell r="D1393" t="str"><v>Empty0160</v></cell></row><row r="1394"><cell r="C1394" t="str"><v>조지아유러피안빈 공간</v></cell><cell r="D1394" t="str"><v>Empty0161</v></cell></row><row r="1395"><cell r="C1395" t="str"><v>진저에일스파클링빈 공간</v></cell><cell r="D1395" t="str"><v>Empty0162</v></cell></row><row r="1396"><cell r="C1396" t="str"><v>천연사이다빈 공간</v></cell><cell r="D1396" t="str"><v>Empty0164</v></cell></row><row r="1397"><cell r="C1397" t="str"><v>초록매실빈 공간</v></cell><cell r="D1397" t="str"><v>Empty0166</v></cell></row><row r="1398"><cell r="C1398" t="str"><v>칠성사이다빈 공간</v></cell><cell r="D1398" t="str"><v>Empty0168</v></cell></row><row r="1399"><cell r="C1399" t="str"><v>카나다드라이빈 공간</v></cell><cell r="D1399" t="str"><v>Empty0169</v></cell></row><row r="1400"><cell r="C1400" t="str"><v>카페드롭탑빈 공간</v></cell><cell r="D1400" t="str"><v>Empty0170</v></cell></row><row r="1401"><cell r="C1401" t="str"><v>카페레몬트리빈 공간</v></cell><cell r="D1401" t="str"><v>Empty0171</v></cell></row><row r="1402"><cell r="C1402" t="str"><v>카페리얼커피빈 공간</v></cell><cell r="D1402" t="str"><v>Empty0172</v></cell></row><row r="1403"><cell r="C1403" t="str"><v>카페리얼차빈 공간</v></cell><cell r="D1403" t="str"><v>Empty0173</v></cell></row><row r="1404"><cell r="C1404" t="str"><v>카페베네빈 공간</v></cell><cell r="D1404" t="str"><v>Empty0174</v></cell></row><row r="1405"><cell r="C1405" t="str"><v>카프리썬빈 공간</v></cell><cell r="D1405" t="str"><v>Empty0175</v></cell></row><row r="1406"><cell r="C1406" t="str"><v>칸타타빈 공간</v></cell><cell r="D1406" t="str"><v>Empty0176</v></cell></row><row r="1407"><cell r="C1407" t="str"><v>칼라만시빈 공간</v></cell><cell r="D1407" t="str"><v>Empty0177</v></cell></row><row r="1408"><cell r="C1408" t="str"><v>캠벨빈 공간</v></cell><cell r="D1408" t="str"><v>Empty0178</v></cell></row><row r="1409"><cell r="C1409" t="str"><v>컨디션헛개수빈 공간</v></cell><cell r="D1409" t="str"><v>Empty0179</v></cell></row><row r="1410"><cell r="C1410" t="str"><v>컨피던스빈 공간</v></cell><cell r="D1410" t="str"><v>Empty0180</v></cell></row><row r="1411"><cell r="C1411" t="str"><v>코카콜라탄산빈 공간</v></cell><cell r="D1411" t="str"><v>Empty0181</v></cell></row><row r="1412"><cell r="C1412" t="str"><v>휘오순수빈 10 - 플레이버워터 공간</v></cell><cell r="D1412" t="str"><v>Empty0182</v></cell></row><row r="1413"><cell r="C1413" t="str"><v>코카콜라-스프라이트빈 공간</v></cell><cell r="D1413" t="str"><v>Empty0183</v></cell></row><row r="1414"><cell r="C1414" t="str"><v>코카콜라-환타빈 공간</v></cell><cell r="D1414" t="str"><v>Empty0184</v></cell></row><row r="1415"><cell r="C1415" t="str"><v>코코몽빈 공간</v></cell><cell r="D1415" t="str"><v>Empty0185</v></cell></row><row r="1416"><cell r="C1416" t="str"><v>코코팜탄산빈 공간</v></cell><cell r="D1416" t="str"><v>Empty0186</v></cell></row><row r="1417"><cell r="C1417" t="str"><v>코코팜주스빈 공간</v></cell><cell r="D1417" t="str"><v>Empty0187</v></cell></row><row r="1418"><cell r="C1418" t="str"><v>이마트콜라빈 공간</v></cell><cell r="D1418" t="str"><v>Empty0188</v></cell></row><row r="1419"><cell r="C1419" t="str"><v>큐락빈 공간</v></cell><cell r="D1419" t="str"><v>Empty0189</v></cell></row><row r="1420"><cell r="C1420" t="str"><v>크리미빈 공간</v></cell><cell r="D1420" t="str"><v>Empty0190</v></cell></row><row r="1421"><cell r="C1421" t="str"><v>큰집빈 공간</v></cell><cell r="D1421" t="str"><v>Empty0191</v></cell></row><row r="1422"><cell r="C1422" t="str"><v>킨빈 공간</v></cell><cell r="D1422" t="str"><v>Empty0192</v></cell></row><row r="1423"><cell r="C1423" t="str"><v>탄산멀티빈 공간</v></cell><cell r="D1423" t="str"><v>Empty0193</v></cell></row><row r="1424"><cell r="C1424" t="str"><v>탐라제주빈 공간</v></cell><cell r="D1424" t="str"><v>Empty0194</v></cell></row><row r="1425"><cell r="C1425" t="str"><v>태양의마테차빈 공간</v></cell><cell r="D1425" t="str"><v>Empty0195</v></cell></row><row r="1426"><cell r="C1426" t="str"><v>톡보리사이다빈 공간</v></cell><cell r="D1426" t="str"><v>Empty0196</v></cell></row><row r="1427"><cell r="C1427" t="str"><v>트레비생수빈 공간</v></cell><cell r="D1427" t="str"><v>Empty0198</v></cell></row><row r="1428"><cell r="C1428" t="str"><v>트로피카나탄산빈 공간</v></cell><cell r="D1428" t="str"><v>Empty0199</v></cell></row><row r="1429"><cell r="C1429" t="str"><v>트로피카나주스빈 공간</v></cell><cell r="D1429" t="str"><v>Empty0200</v></cell></row><row r="1430"><cell r="C1430" t="str"><v>튼튼한짱구는못말려빈 공간</v></cell><cell r="D1430" t="str"><v>Empty0201</v></cell></row><row r="1431"><cell r="C1431" t="str"><v>티모어빈 공간</v></cell><cell r="D1431" t="str"><v>Empty0202</v></cell></row><row r="1432"><cell r="C1432" t="str"><v>티스'티빈 공간</v></cell><cell r="D1432" t="str"><v>Empty0203</v></cell></row><row r="1433"><cell r="C1433" t="str"><v>티스파클링빈 공간</v></cell><cell r="D1433" t="str"><v>Empty0204</v></cell></row><row r="1434"><cell r="C1434" t="str"><v>티오빈 공간</v></cell><cell r="D1434" t="str"><v>Empty0205</v></cell></row><row r="1435"><cell r="C1435" t="str"><v>티오피빈 공간</v></cell><cell r="D1435" t="str"><v>Empty0206</v></cell></row><row r="1436"><cell r="C1436" t="str"><v>팁코빈 공간</v></cell><cell r="D1436" t="str"><v>Empty0207</v></cell></row><row r="1437"><cell r="C1437" t="str"><v>파워에이드빈 공간</v></cell><cell r="D1437" t="str"><v>Empty0208</v></cell></row><row r="1438"><cell r="C1438" t="str"><v>파워오투빈 공간</v></cell><cell r="D1438" t="str"><v>Empty0209</v></cell></row><row r="1439"><cell r="C1439" t="str"><v>팻다운빈 공간</v></cell><cell r="D1439" t="str"><v>Empty0210</v></cell></row><row r="1440"><cell r="C1440" t="str"><v>페리에빈 공간</v></cell><cell r="D1440" t="str"><v>Empty0211</v></cell></row><row r="1441"><cell r="C1441" t="str"><v>펩시빈 공간</v></cell><cell r="D1441" t="str"><v>Empty0212</v></cell></row><row r="1442"><cell r="C1442" t="str"><v>포카리스웨트빈 공간</v></cell><cell r="D1442" t="str"><v>Empty0213</v></cell></row><row r="1443"><cell r="C1443" t="str"><v>폰테타비나빈 공간</v></cell><cell r="D1443" t="str"><v>Empty0214</v></cell></row><row r="1444"><cell r="C1444" t="str"><v>폴짝폴짝콩콩콩빈 공간</v></cell><cell r="D1444" t="str"><v>Empty0215</v></cell></row><row r="1445"><cell r="C1445" t="str"><v>퓨즈티빈 공간</v></cell><cell r="D1445" t="str"><v>Empty0216</v></cell></row><row r="1446"><cell r="C1446" t="str"><v>프렌치카페빈 공간</v></cell><cell r="D1446" t="str"><v>Empty0217</v></cell></row><row r="1447"><cell r="C1447" t="str"><v>프렌치카페카와빈 공간</v></cell><cell r="D1447" t="str"><v>Empty0218</v></cell></row><row r="1448"><cell r="C1448" t="str"><v>프링클빈 공간</v></cell><cell r="D1448" t="str"><v>Empty0219</v></cell></row><row r="1449"><cell r="C1449" t="str"><v>하늘청빈 공간</v></cell><cell r="D1449" t="str"><v>Empty0221</v></cell></row><row r="1450"><cell r="C1450" t="str"><v>하루야채빈 공간</v></cell><cell r="D1450" t="str"><v>Empty0222</v></cell></row><row r="1451"><cell r="C1451" t="str"><v>하와이안빈 공간</v></cell><cell r="D1451" t="str"><v>Empty0223</v></cell></row><row r="1452"><cell r="C1452" t="str"><v>한라봉빈 공간</v></cell><cell r="D1452" t="str"><v>Empty0224</v></cell></row><row r="1453"><cell r="C1453" t="str"><v>한방에다린빈 공간</v></cell><cell r="D1453" t="str"><v>Empty0225</v></cell></row><row r="1454"><cell r="C1454" t="str"><v>한뿌리빈 공간</v></cell><cell r="D1454" t="str"><v>Empty0226</v></cell></row><row r="1455"><cell r="C1455" t="str"><v>핫식스빈 공간</v></cell><cell r="D1455" t="str"><v>Empty0227</v></cell></row><row r="1456"><cell r="C1456" t="str"><v>헛개꿀대추빈 공간</v></cell><cell r="D1456" t="str"><v>Empty0228</v></cell></row><row r="1457"><cell r="C1457" t="str"><v>헬로팬돌이빈 공간</v></cell><cell r="D1457" t="str"><v>Empty0229</v></cell></row><row r="1458"><cell r="C1458" t="str"><v>헬스원빈 공간</v></cell><cell r="D1458" t="str"><v>Empty0230</v></cell></row><row r="1459"><cell r="C1459" t="str"><v>홍삼헛개빈 공간</v></cell><cell r="D1459" t="str"><v>Empty0231</v></cell></row><row r="1460"><cell r="C1460" t="str"><v>환타빈 공간</v></cell><cell r="D1460" t="str"><v>Empty0232</v></cell></row><row r="1461"><cell r="C1461" t="str"><v>환타스무디빈 공간</v></cell><cell r="D1461" t="str"><v>Empty0233</v></cell></row><row r="1462"><cell r="C1462" t="str"><v>환타스위트믹스빈 공간</v></cell><cell r="D1462" t="str"><v>Empty0234</v></cell></row><row r="1463"><cell r="C1463" t="str"><v>후르츠믹스에이드빈 공간</v></cell><cell r="D1463" t="str"><v>Empty0235</v></cell></row><row r="1464"><cell r="C1464" t="str"><v>휘오순수빈  08 - 생수 공간</v></cell><cell r="D1464" t="str"><v>Empty0236</v></cell></row><row r="1465"><cell r="C1465" t="str"><v>휘오제주빈 공간</v></cell><cell r="D1465" t="str"><v>Empty0237</v></cell></row><row r="1466"><cell r="C1466" t="str"><v>힘찬하루헛개빈 공간</v></cell><cell r="D1466" t="str"><v>Empty0238</v></cell></row><row r="1467"><cell r="C1467" t="str"><v>기타주스Others빈 공간</v></cell><cell r="D1467" t="str"><v>Empty0239_1</v></cell></row><row r="1468"><cell r="C1468" t="str"><v>기타탄산롯데쇼핑빈 공간</v></cell><cell r="D1468" t="str"><v>Empty0240</v></cell></row><row r="1469"><cell r="C1469" t="str"><v>기타차롯데쇼핑빈 공간</v></cell><cell r="D1469" t="str"><v>Empty0241</v></cell></row><row r="1470"><cell r="C1470" t="str"><v>퓨어플러스유기농빈 공간</v></cell><cell r="D1470" t="str"><v>Empty0245</v></cell></row><row r="1471"><cell r="C1471" t="str"><v>프로엠빈 공간</v></cell><cell r="D1471" t="str"><v>Empty0246</v></cell></row><row r="1472"><cell r="C1472" t="str"><v>空闲位置</v></cell><cell r="D1472" t="str"><v>EMPTY001</v></cell></row><row r="1473"><cell r="C1473" t="str"><v>관계없는</v></cell><cell r="D1473" t="str"><v>Irrelevant001</v></cell></row><row r="1474"><cell r="C1474" t="str"><v> 주스 기타</v></cell><cell r="D1474" t="str"><v>CATOther003</v></cell></row><row r="1475"><cell r="C1475" t="str"><v>맥스웰하우스오리지널175캔*6입</v></cell><cell r="D1475" t="str"><v>8801037031799</v></cell></row><row r="1476"><cell r="C1476" t="str"><v>펩시250캔*6입</v></cell><cell r="D1476" t="str"><v>8801056610067</v></cell></row><row r="1477"><cell r="C1477" t="str"><v>립톤복숭아240캔*6입</v></cell><cell r="D1477" t="str"><v>8801056044497</v></cell></row><row r="1478"><cell r="C1478" t="str"><v>SK볼트에너지블루 250캔*6입</v></cell><cell r="D1478" t="str"><v>8801105992861</v></cell></row><row r="1479"><cell r="C1479" t="str"><v>레쓰비마일드175캔*6입</v></cell><cell r="D1479" t="str"><v>8801056290061</v></cell></row><row r="1480"><cell r="C1480" t="str"><v>웰치스화이트그레이프 355캔*6입</v></cell><cell r="D1480" t="str"><v>8801043005425</v></cell></row><row r="1481"><cell r="C1481" t="str"><v>칸타타프리미엄라떼 175캔*6입</v></cell><cell r="D1481" t="str"><v>8801056020118</v></cell></row><row r="1482"><cell r="C1482" t="str"><v>오란씨오렌지350캔*4입</v></cell><cell r="D1482" t="str"><v>8801097334427</v></cell></row><row r="1483"><cell r="C1483" t="str"><v>오란씨레몬350캔*4입</v></cell><cell r="D1483" t="str"><v>8801097334038</v></cell></row><row r="1484"><cell r="C1484" t="str"><v>오란씨파인애플350캔*4입</v></cell><cell r="D1484" t="str"><v>8801097334229</v></cell></row><row r="1485"><cell r="C1485" t="str"><v>포카리스웨트 340ml캔*4입</v></cell><cell r="D1485" t="str"><v>8801097350403</v></cell></row><row r="1486"><cell r="C1486" t="str"><v>에비앙 330페트*4입</v></cell><cell r="D1486" t="str"><v>8801056041038</v></cell></row><row r="1487"><cell r="C1487" t="str"><v>초정탄산수라임 250캔*6입</v></cell><cell r="D1487" t="str"><v>8801223002749</v></cell></row><row r="1488"><cell r="C1488" t="str"><v>칠성사이다 210캔*4입</v></cell><cell r="D1488" t="str"><v>8801056061463</v></cell></row><row r="1489"><cell r="C1489" t="str"><v>MM오렌지 C 1.5페트</v></cell><cell r="D1489" t="str"><v>8801094842406</v></cell></row><row r="1490"><cell r="C1490" t="str"><v>피코크스파클링워터플레인 330병*4입</v></cell><cell r="D1490" t="str"><v>8801223002794</v></cell></row><row r="1491"><cell r="C1491" t="str"><v>피코크스파클링워터레몬 330병*4입</v></cell><cell r="D1491" t="str"><v>8801223002817</v></cell></row><row r="1492"><cell r="C1492" t="str"><v>태양의마테차 1.5페트</v></cell><cell r="D1492" t="str"><v>8801094342500</v></cell></row><row r="1493"><cell r="C1493" t="str"><v>파워에이드GR 1.8페트</v></cell><cell r="D1493" t="str"><v>8801094492519</v></cell></row><row r="1494"><cell r="C1494" t="str"><v>파워에이드MB 1.8페트</v></cell><cell r="D1494" t="str"><v>8801094362508</v></cell></row><row r="1495"><cell r="C1495" t="str"><v>MM5얼라이브 1.0테트라</v></cell><cell r="D1495" t="str"><v>8801094624705</v></cell></row><row r="1496"><cell r="C1496" t="str"><v>행복찾기오렌지 1.8페트</v></cell><cell r="D1496" t="str"><v>8801056070366</v></cell></row><row r="1497"><cell r="C1497" t="str"><v>행복찾기포도 1.8페트</v></cell><cell r="D1497" t="str"><v>8801056070380</v></cell></row><row r="1498"><cell r="C1498" t="str"><v>트로피카나스파클링사과 355캔*6입</v></cell><cell r="D1498" t="str"><v>8801056035587</v></cell></row><row r="1499"><cell r="C1499" t="str"><v>트로피카나스파클링포도 355캔*6입</v></cell><cell r="D1499" t="str"><v>8801056035556</v></cell></row><row r="1500"><cell r="C1500" t="str"><v>트로피카나 스파클링복숭아 355캔*6입</v></cell><cell r="D1500" t="str"><v>8801056064457</v></cell></row><row r="1501"><cell r="C1501" t="str"><v>웰치스스트로베리 355캔*6입</v></cell><cell r="D1501" t="str"><v>8801043650656</v></cell></row><row r="1502"><cell r="C1502" t="str"><v>핫식스 250캔*6입</v></cell><cell r="D1502" t="str"><v>8801056038878</v></cell></row><row r="1503"><cell r="C1503" t="str"><v>스타벅스더블샷에스프레소&크림 200캔*4입</v></cell><cell r="D1503" t="str"><v>8801037035568</v></cell></row><row r="1504"><cell r="C1504" t="str"><v>스타벅스더블샷아메리카노 200캔*4입</v></cell><cell r="D1504" t="str"><v>8801037039818</v></cell></row><row r="1505"><cell r="C1505" t="str"><v>티오피더블랙 200캔*4입</v></cell><cell r="D1505" t="str"><v>8801037057546</v></cell></row><row r="1506"><cell r="C1506" t="str"><v>스타벅스 프라푸치노 모카 281병*4입</v></cell><cell r="D1506" t="str"><v>8801037041712</v></cell></row><row r="1507"><cell r="C1507" t="str"><v>2%부족할때 240ml캔*6입</v></cell><cell r="D1507" t="str"><v>8801056002718</v></cell></row><row r="1508"><cell r="C1508" t="str"><v>게토레이 블루볼트 240ml캔*6입</v></cell><cell r="D1508" t="str"><v>8801056052270</v></cell></row><row r="1509"><cell r="C1509" t="str"><v>팻다운 430ml페트*4입</v></cell><cell r="D1509" t="str"><v>8801007338958</v></cell></row><row r="1510"><cell r="C1510" t="str"><v>레드불 슈가프리 250ml캔*6입</v></cell><cell r="D1510" t="str"><v>9002490223373</v></cell></row><row r="1511"><cell r="C1511" t="str"><v>칠성사이다 245ml캔*8입</v></cell><cell r="D1511" t="str"><v>8801056061531</v></cell></row><row r="1512"><cell r="C1512" t="str"><v>MM오오포망 1.0테트라*4입</v></cell><cell r="D1512" t="str"><v>8801094314729</v></cell></row><row r="1513"><cell r="C1513" t="str"><v>자연은선물세트(포오알) 180병*12입</v></cell><cell r="D1513" t="str"><v>8801382135920</v></cell></row><row r="1514"><cell r="C1514" t="str"><v>자연은선물세트(토감사알) 180병*16입</v></cell><cell r="D1514" t="str"><v>8801382136897</v></cell></row><row r="1515"><cell r="C1515" t="str"><v>MM포도아사이애니멀 100파우치*10입</v></cell><cell r="D1515" t="str"><v>8801094786915</v></cell></row><row r="1516"><cell r="C1516" t="str"><v>SK키즈사과 100파우치*10입</v></cell><cell r="D1516" t="str"><v>8801105994452</v></cell></row><row r="1517"><cell r="C1517" t="str"><v>SK키즈딸기 100파우치*10입</v></cell><cell r="D1517" t="str"><v>8801105994469</v></cell></row><row r="1518"><cell r="C1518" t="str"><v>델몬트선물세트오렌지 180병*12입</v></cell><cell r="D1518" t="str"><v>8801056267124</v></cell></row><row r="1519"><cell r="C1519" t="str"><v>델몬트선물세트알로에 180병*12입</v></cell><cell r="D1519" t="str"><v>8801056022099</v></cell></row><row r="1520"><cell r="C1520" t="str"><v>탐라제주감귤선물세트 180병*12입</v></cell><cell r="D1520" t="str"><v>8801056000806</v></cell></row><row r="1521"><cell r="C1521" t="str"><v>펩시245캔*8입</v></cell><cell r="D1521" t="str"><v>8801056061630</v></cell></row><row r="1522"><cell r="C1522" t="str"><v>한라봉과유자레몬선물세트 180병*12입</v></cell><cell r="D1522" t="str"><v>8801056066963</v></cell></row><row r="1523"><cell r="C1523" t="str"><v>탐라제주감귤선물세트 1.8페트*2입</v></cell><cell r="D1523" t="str"><v>8801056064112</v></cell></row><row r="1524"><cell r="C1524" t="str"><v>포카리스웨트 900페트</v></cell><cell r="D1524" t="str"><v>8801097250703</v></cell></row><row r="1525"><cell r="C1525" t="str"><v>포카리스웨트 620페트</v></cell><cell r="D1525" t="str"><v>8801097250079</v></cell></row><row r="1526"><cell r="C1526" t="str"><v>환타 파인애플 355ml캔</v></cell><cell r="D1526" t="str"><v>8801094133207</v></cell></row><row r="1527"><cell r="C1527" t="str"><v>MM망고스텐딩190파우치</v></cell><cell r="D1527" t="str"><v>8801094296001</v></cell></row><row r="1528"><cell r="C1528" t="str"><v>SK키즈포도겨울왕국 210페트</v></cell><cell r="D1528" t="str"><v>8801105913736</v></cell></row><row r="1529"><cell r="C1529" t="str"><v>에이수 500페트</v></cell><cell r="D1529" t="str"><v>8809028460023</v></cell></row><row r="1530"><cell r="C1530" t="str"><v>보르바스킨밸런스워터모이 470페트</v></cell><cell r="D1530" t="str"><v>8809384890014</v></cell></row><row r="1531"><cell r="C1531" t="str"><v>보르바스킨밸런스워터클레 470페트</v></cell><cell r="D1531" t="str"><v>8809384890007</v></cell></row><row r="1532"><cell r="C1532" t="str"><v>보르바스킨밸런스워터엘라 470페트</v></cell><cell r="D1532" t="str"><v>8809384890021</v></cell></row><row r="1533"><cell r="C1533" t="str"><v>칼슘70락 300페트</v></cell><cell r="D1533" t="str"><v>8809371720034</v></cell></row><row r="1534"><cell r="C1534" t="str"><v>에피락 300페트</v></cell><cell r="D1534" t="str"><v>8809371720027</v></cell></row><row r="1535"><cell r="C1535" t="str"><v>맥스웰기타</v></cell><cell r="D1535" t="str"><v>Other0301</v></cell></row><row r="1536"><cell r="C1536" t="str"><v>초정탄산수탄산수기타</v></cell><cell r="D1536" t="str"><v>Other0302</v></cell></row><row r="1537"><cell r="C1537" t="str"><v>피코크기타</v></cell><cell r="D1537" t="str"><v>Other0303</v></cell></row><row r="1538"><cell r="C1538" t="str"><v>행복찾기기타</v></cell><cell r="D1538" t="str"><v>Other0304</v></cell></row><row r="1539"><cell r="C1539" t="str"><v>2%부족할때스포츠기타</v></cell><cell r="D1539" t="str"><v>Other0305</v></cell></row><row r="1540"><cell r="C1540" t="str"><v>한라봉과유자레몬기타</v></cell><cell r="D1540" t="str"><v>Other0306</v></cell></row><row r="1541"><cell r="C1541" t="str"><v>에이수기타</v></cell><cell r="D1541" t="str"><v>Other0307</v></cell></row><row r="1542"><cell r="C1542" t="str"><v>보르바기타</v></cell><cell r="D1542" t="str"><v>Other0308</v></cell></row><row r="1543"><cell r="C1543" t="str"><v>락(Racc)기타</v></cell><cell r="D1543" t="str"><v>Other0309</v></cell></row><row r="1544"><cell r="C1544" t="str"><v>맥스웰빈 공간</v></cell><cell r="D1544" t="str"><v>Empty301_3</v></cell></row><row r="1545"><cell r="C1545" t="str"><v>초정탄산수빈 공간</v></cell><cell r="D1545" t="str"><v>Empty301_6</v></cell></row><row r="1546"><cell r="C1546" t="str"><v>피코크빈 공간</v></cell><cell r="D1546" t="str"><v>Empty301_7</v></cell></row><row r="1547"><cell r="C1547" t="str"><v>행복찾기빈 공간</v></cell><cell r="D1547" t="str"><v>Empty301_9</v></cell></row><row r="1548"><cell r="C1548" t="str"><v>2%부족할때공간</v></cell><cell r="D1548" t="str"><v>Empty301_1</v></cell></row><row r="1549"><cell r="C1549" t="str"><v>한라봉과유자레몬빈 공간</v></cell><cell r="D1549" t="str"><v>Empty301_8</v></cell></row><row r="1550"><cell r="C1550" t="str"><v>에이수빈 공간</v></cell><cell r="D1550" t="str"><v>Empty301_5</v></cell></row><row r="1551"><cell r="C1551" t="str"><v>보르바빈 공간</v></cell><cell r="D1551" t="str"><v>Empty301_4</v></cell></row><row r="1552"><cell r="C1552" t="str"><v>락(Racc)빈 공간</v></cell><cell r="D1552" t="str"><v>Empty301_2</v></cell></row><row r="1553"><cell r="C1553" t="str"><v>썬키스트주스기타어린이</v></cell><cell r="D1553" t="str"><v>Other1715</v></cell></row><row r="1554"><cell r="C1554" t="str"><v>썬키스트주스빈 공간어린이</v></cell><cell r="D1554" t="str"><v>Empty1715</v></cell></row><row r="1555"><cell r="C1555" t="str"><v>미닛메이드기타어린이</v></cell><cell r="D1555" t="str"><v>Other1815</v></cell></row><row r="1556"><cell r="C1556" t="str"><v>미닛메이드빈 공간어린이</v></cell><cell r="D1556" t="str"><v>Empty1815</v></cell></row><row r="1557"><cell r="C1557" t="str"><v>비타500기타어린이</v></cell><cell r="D1557" t="str"><v>Other2345</v></cell></row><row r="1558"><cell r="C1558" t="str"><v>비타500빈 공간어린이</v></cell><cell r="D1558" t="str"><v>Empty2345</v></cell></row><row r="1559"><cell r="C1559" t="str"><v>휘오 다이아몬드 S 300ml 페트</v></cell><cell r="D1559" t="str"><v>8801094838904</v></cell></row><row r="1560"><cell r="C1560" t="str"><v>SK 에이플러스 키즈 사과 요구르트 100ml파우치</v></cell><cell r="D1560" t="str"><v>8801105913873</v></cell></row><row r="1561"><cell r="C1561" t="str"><v>오란씨 파인애플 250ml캔</v></cell><cell r="D1561" t="str"><v>8801097134218</v></cell></row><row r="1562"><cell r="C1562" t="str"><v>미닛메이드 오알망 선물세트 180ml병*12</v></cell><cell r="D1562" t="str"><v>8801094703950</v></cell></row><row r="1563"><cell r="C1563" t="str"><v>태양의맑게우린차 500페트</v></cell><cell r="D1563" t="str"><v>8801094343606</v></cell></row><row r="1564"><cell r="C1564" t="str"><v>조지아EMB 더블랙 300페트</v></cell><cell r="D1564" t="str"><v>8801094543105</v></cell></row><row r="1565"><cell r="C1565" t="str"><v>조지아EMB 스위트아메리카노 300페트</v></cell><cell r="D1565" t="str"><v>8801094583101</v></cell></row><row r="1566"><cell r="C1566" t="str"><v>카나다드라이 토닉워터 350페트</v></cell><cell r="D1566" t="str"><v>8801094952204</v></cell></row><row r="1567"><cell r="C1567" t="str"><v>씨그램플레인 350페트</v></cell><cell r="D1567" t="str"><v>8801094984205</v></cell></row><row r="1568"><cell r="C1568" t="str"><v>씨그램라임 350페트</v></cell><cell r="D1568" t="str"><v>8801094985202</v></cell></row><row r="1569"><cell r="C1569" t="str"><v>휘오 기타</v></cell><cell r="D1569" t="str"><v>Other0310</v></cell></row><row r="1570"><cell r="C1570" t="str"><v>태양의맑게우린차 기타</v></cell><cell r="D1570" t="str"><v>Other0311</v></cell></row><row r="1571"><cell r="C1571" t="str"><v>씨그램  08 - 생수 기타</v></cell><cell r="D1571" t="str"><v>Other0251_1</v></cell></row><row r="1572"><cell r="C1572" t="str"><v>휘오빈 공간</v></cell><cell r="D1572" t="str"><v>Empty0310</v></cell></row><row r="1573"><cell r="C1573" t="str"><v>태양의맑게우린차빈 공간</v></cell><cell r="D1573" t="str"><v>Empty0311</v></cell></row><row r="1574"><cell r="C1574" t="str"><v>씨그램빈 공간</v></cell><cell r="D1574" t="str"><v>Empty0312</v></cell></row><row r="1575"><cell r="C1575" t="str"><v>티오레 240캔</v></cell><cell r="D1575" t="str"><v>8801069184067</v></cell></row><row r="1576"><cell r="C1576" t="str"><v>조지아EMB 더블랙 200캔</v></cell><cell r="D1576" t="str"><v>8801094543402</v></cell></row><row r="1577"><cell r="C1577" t="str"><v>조지아EMB 에스프레소라떼 200캔</v></cell><cell r="D1577" t="str"><v>8801094553401</v></cell></row><row r="1578"><cell r="C1578" t="str"><v>레쓰비 모카라떼 200캔</v></cell><cell r="D1578" t="str"><v>8801056041908</v></cell></row><row r="1579"><cell r="C1579" t="str"><v>레쓰비 마일드커피 200캔</v></cell><cell r="D1579" t="str"><v>8801056018979</v></cell></row><row r="1580"><cell r="C1580" t="str"><v>티오피 마스터라떼 275보틀캔</v></cell><cell r="D1580" t="str"><v>8801037087543</v></cell></row><row r="1581"><cell r="C1581" t="str"><v>티오피 스위트아메리카노 380보틀캔</v></cell><cell r="D1581" t="str"><v>8801037057843</v></cell></row><row r="1582"><cell r="C1582" t="str"><v>티오피 더블랙 380보틀캔</v></cell><cell r="D1582" t="str"><v>8801037057867</v></cell></row><row r="1583"><cell r="C1583" t="str"><v>조지아 오리지널 280페트</v></cell><cell r="D1583" t="str"><v>8801094502102</v></cell></row><row r="1584"><cell r="C1584" t="str"><v>자연은 고칼슘오렌지 180캔</v></cell><cell r="D1584" t="str"><v>8801382128465</v></cell></row><row r="1585"><cell r="C1585" t="str"><v>델몬트 망고 240캔</v></cell><cell r="D1585" t="str"><v>8801056001667</v></cell></row><row r="1586"><cell r="C1586" t="str"><v>오버앤오버 250캔</v></cell><cell r="D1586" t="str"><v>8801007333816</v></cell></row><row r="1587"><cell r="C1587" t="str"><v>레드소다 250캔</v></cell><cell r="D1587" t="str"><v>8809005028840</v></cell></row><row r="1588"><cell r="C1588" t="str"><v>조건 헤 롯카에 쯔 제일 제당 오두막 번호 500 ml</v></cell></row><row r="1589"><cell r="C1589" t="str"><v>씨그램 레몬 350페트</v></cell><cell r="D1589" t="str"><v>8801094989200</v></cell></row><row r="1590"><cell r="C1590" t="str"><v>몸에좋은 옥수수수염차 500페트</v></cell><cell r="D1590" t="str"><v>8801105913866</v></cell></row><row r="1591"><cell r="C1591" t="str"><v>몸에좋은 막대기헛개차 500페트</v></cell><cell r="D1591" t="str"><v>8801105913835</v></cell></row><row r="1592"><cell r="C1592" t="str"><v>뷰핏 스파클링타임 플레인 350페트</v></cell><cell r="D1592" t="str"><v>8806002012148</v></cell></row><row r="1593"><cell r="C1593" t="str"><v>립톤 그린아이스티 500페트</v></cell><cell r="D1593" t="str"><v>8801056068868</v></cell></row><row r="1594"><cell r="C1594" t="str"><v>데일리씨 자몽워터 500페트</v></cell><cell r="D1594" t="str"><v>8801056072414</v></cell></row><row r="1595"><cell r="C1595" t="str"><v>데일리씨 레몬워터 500페트</v></cell><cell r="D1595" t="str"><v>8801056042134</v></cell></row><row r="1596"><cell r="C1596" t="str"><v>힘찬하루헛개차500페트</v></cell><cell r="D1596" t="str"><v>8806002009957</v></cell></row><row r="1597"><cell r="C1597" t="str"><v>V라인얼굴 옥수수수염차 500ml페트</v></cell><cell r="D1597" t="str"><v>8806002006437</v></cell></row><row r="1598"><cell r="C1598" t="str"><v>트로피카나 망고플러스 1L테트라팩</v></cell><cell r="D1598" t="str"><v>8801056068448</v></cell></row><row r="1599"><cell r="C1599" t="str"><v>트로피카나 골드100오렌지 1L테트라팩</v></cell><cell r="D1599" t="str"><v>8801056068400</v></cell></row><row r="1600"><cell r="C1600" t="str"><v>자연은 지중해햇살 100%착즙 오렌지 1L페트</v></cell><cell r="D1600" t="str"><v>8801382144519</v></cell></row><row r="1601"><cell r="C1601" t="str"><v>자연은 지중해햇살 100%착즙 포도 1L페트</v></cell><cell r="D1601" t="str"><v>8801382144526</v></cell></row><row r="1602"><cell r="C1602" t="str"><v>썬키스트훼미리 오알망 선물세트 180ml병*12</v></cell><cell r="D1602" t="str"><v>8801105994711</v></cell></row><row r="1603"><cell r="C1603" t="str"><v>레드소다 기타</v></cell><cell r="D1603" t="str"><v>Other0313</v></cell></row><row r="1604"><cell r="C1604" t="str"><v>레몬녹차 기타</v></cell><cell r="D1604" t="str"><v>Other0314</v></cell></row><row r="1605"><cell r="C1605" t="str"><v>레스비 기타</v></cell><cell r="D1605" t="str"><v>Other0315</v></cell></row><row r="1606"><cell r="C1606" t="str"><v>뷰핏 기타</v></cell><cell r="D1606" t="str"><v>Other0316</v></cell></row><row r="1607"><cell r="C1607" t="str"><v>오버앤오버 기타</v></cell><cell r="D1607" t="str"><v>Other0317</v></cell></row><row r="1608"><cell r="C1608" t="str"><v>티오레 기타</v></cell><cell r="D1608" t="str"><v>Other0318</v></cell></row><row r="1609"><cell r="C1609" t="str"><v>레드소다빈 공간</v></cell><cell r="D1609" t="str"><v>Empty0313</v></cell></row><row r="1610"><cell r="C1610" t="str"><v>레몬녹차빈 공간</v></cell><cell r="D1610" t="str"><v>Empty0314</v></cell></row><row r="1611"><cell r="C1611" t="str"><v>뷰핏빈 공간</v></cell><cell r="D1611" t="str"><v>Empty0316</v></cell></row><row r="1612"><cell r="C1612" t="str"><v>오버앤오버빈 공간</v></cell><cell r="D1612" t="str"><v>Empty0317</v></cell></row><row r="1613"><cell r="C1613" t="str"><v>티오레빈 공간</v></cell><cell r="D1613" t="str"><v>Empty0318</v></cell></row><row r="1614"><cell r="C1614" t="str"><v>조지아 리틀카페*6입</v></cell><cell r="D1614" t="str"><v>8801094507930</v></cell></row><row r="1615"><cell r="C1615" t="str"><v>스프라이트 250캔*6입</v></cell><cell r="D1615" t="str"><v>8801094203030</v></cell></row><row r="1616"><cell r="C1616" t="str"><v>조지아EMB 스위트아메리카노 250캔*6입</v></cell><cell r="D1616" t="str"><v>8801094583439</v></cell></row><row r="1617"><cell r="C1617" t="str"><v>미닛메이드 포도 1.5페트</v></cell><cell r="D1617" t="str"><v>8801094852405</v></cell></row><row r="1618"><cell r="C1618" t="str"><v>씨그램 라임 355캔</v></cell><cell r="D1618" t="str"><v>8801094983208</v></cell></row><row r="1619"><cell r="C1619" t="str"><v>씨그램 레몬 355캔</v></cell><cell r="D1619" t="str"><v>8801094986209</v></cell></row><row r="1620"><cell r="C1620" t="str"><v>미닛메이드 벌꿀배 240캔</v></cell><cell r="D1620" t="str"><v>8801094444006</v></cell></row><row r="1621"><cell r="C1621" t="str"><v>슈웹스 레몬토닉 210캔</v></cell><cell r="D1621" t="str"><v>8801094093402</v></cell></row><row r="1622"><cell r="C1622" t="str"><v>태양의마테차 175캔</v></cell><cell r="D1622" t="str"><v>8801094343903</v></cell></row><row r="1623"><cell r="C1623" t="str"><v>815 콜라 250캔</v></cell><cell r="D1623" t="str"><v>8809344661852</v></cell></row><row r="1624"><cell r="C1624" t="str"><v>오란씨 오렌지 250캔</v></cell><cell r="D1624" t="str"><v>8801097134416</v></cell></row><row r="1625"><cell r="C1625" t="str"><v>쌕쌕 제주감귤 240캔</v></cell><cell r="D1625" t="str"><v>8801056031183</v></cell></row><row r="1626"><cell r="C1626" t="str"><v>바리스타 라떼프레소 230병</v></cell><cell r="D1626" t="str"><v>8801121758526</v></cell></row><row r="1627"><cell r="C1627" t="str"><v>스타벅스 프라푸치노 바닐라 281병</v></cell><cell r="D1627" t="str"><v>8801037086331</v></cell></row><row r="1628"><cell r="C1628" t="str"><v>스타벅스 프라푸치노 카라멜 281병</v></cell><cell r="D1628" t="str"><v>8801037086201</v></cell></row><row r="1629"><cell r="C1629" t="str"><v>티오피 마스터라떼 200캔</v></cell><cell r="D1629" t="str"><v>8801037040029</v></cell></row><row r="1630"><cell r="C1630" t="str"><v>티오피 더블랙 200캔</v></cell><cell r="D1630" t="str"><v>8801037042863</v></cell></row><row r="1631"><cell r="C1631" t="str"><v>티오피 스위트아메리카노 200캔</v></cell><cell r="D1631" t="str"><v>8801037039993</v></cell></row><row r="1632"><cell r="C1632" t="str"><v>티오피 스위트아메리카노 275보틀캔</v></cell><cell r="D1632" t="str"><v>8801037087550</v></cell></row><row r="1633"><cell r="C1633" t="str"><v>티오피 더블랙 275보틀캔</v></cell><cell r="D1633" t="str"><v>8801037087741</v></cell></row><row r="1634"><cell r="C1634" t="str"><v>815콜라 다른</v></cell><cell r="D1634" t="str"><v>Other0239</v></cell></row><row r="1635"><cell r="C1635" t="str"><v>815콜라 빈</v></cell><cell r="D1635" t="str"><v>Empty0239</v></cell></row><row r="1636"><cell r="C1636" t="str"><v>이태백의 숙취비책 150ml캔</v></cell><cell r="D1636" t="str"><v>8801105913583</v></cell></row><row r="1637"><cell r="C1637" t="str"><v>숙취비책 다른</v></cell><cell r="D1637" t="str"><v>other2347</v></cell></row><row r="1638"><cell r="C1638" t="str"><v>숙취비책 빈</v></cell><cell r="D1638" t="str"><v>other2348</v></cell></row><row r="1639"><cell r="C1639" t="str"><v>코코팜 포도 340ml페트</v></cell><cell r="D1639" t="str"><v>8801105914092</v></cell></row><row r="1640"><cell r="C1640" t="str"><v>글라소코코워터 355페트</v></cell><cell r="D1640" t="str"><v>8801094962203</v></cell></row><row r="1641"><cell r="C1641" t="str"><v>가야농장 당근농장 1.5L페트</v></cell><cell r="D1641" t="str"><v>8801861130118</v></cell></row><row r="1642"><cell r="C1642" t="str"><v>가야 농장 토마토 주스 1.5 l</v></cell></row><row r="1643"><cell r="C1643" t="str"><v>가야농장 알로에농장 1.5L페트</v></cell><cell r="D1643" t="str"><v>8801861150567</v></cell></row><row r="1644"><cell r="C1644" t="str"><v>가야농장 알로에농장 500ml페트</v></cell><cell r="D1644" t="str"><v>8801861150512</v></cell></row><row r="1645"><cell r="C1645" t="str"><v>가야농장 토마토농장 500ml페트</v></cell><cell r="D1645" t="str"><v>8801861130347</v></cell></row><row r="1646"><cell r="C1646" t="str"><v>델몬트 알로에 400ml페트</v></cell><cell r="D1646" t="str"><v>8801056071301</v></cell></row><row r="1647"><cell r="C1647" t="str"><v>델몬트 오렌지100 400ml페트</v></cell><cell r="D1647" t="str"><v>8801056071226</v></cell></row><row r="1648"><cell r="C1648" t="str"><v>썬키스트칵테일 블루하와이 340ml캔</v></cell><cell r="D1648" t="str"><v>8801105913262</v></cell></row><row r="1649"><cell r="C1649" t="str"><v>썬키스트칵테일 샤인온더비치 340ml캔</v></cell><cell r="D1649" t="str"><v>8801105913279</v></cell></row><row r="1650"><cell r="C1650" t="str"><v>썬키스트 그레이프밸리 스파클링 350ml캔</v></cell><cell r="D1650" t="str"><v>8801105912616</v></cell></row><row r="1651"><cell r="C1651" t="str"><v>맥스웰 하우스 블루엣마일드 175ml캔</v></cell><cell r="D1651" t="str"><v>8801037007688</v></cell></row><row r="1652"><cell r="C1652" t="str"><v>칸타타 프리미엄 라떼 175ml캔</v></cell><cell r="D1652" t="str"><v>8801056018924</v></cell></row><row r="1653"><cell r="C1653" t="str"><v>썬키스트 우리배 180ml캔</v></cell><cell r="D1653" t="str"><v>8801105913781</v></cell></row><row r="1654"><cell r="C1654" t="str"><v>자연은 오렌지100 180ml병</v></cell><cell r="D1654" t="str"><v>8801382123477</v></cell></row><row r="1655"><cell r="C1655" t="str"><v>가야농장 복숭아농장 180ml병</v></cell><cell r="D1655" t="str"><v>8801861150000</v></cell></row><row r="1656"><cell r="C1656" t="str"><v>아침에주스 100% 오렌지 950ml페트</v></cell><cell r="D1656" t="str"><v>88004471</v></cell></row><row r="1657"><cell r="C1657" t="str"><v>아침에주스 100% 포도 950ml페트</v></cell><cell r="D1657" t="str"><v>88007748</v></cell></row><row r="1658"><cell r="C1658" t="str"><v>쌕쌕 포도 238ml캔</v></cell><cell r="D1658" t="str"><v>8801056298012</v></cell></row><row r="1659"><cell r="C1659" t="str"><v>쌕쌕 오렌지 238ml캔</v></cell><cell r="D1659" t="str"><v>8801056936013</v></cell></row><row r="1660"><cell r="C1660" t="str"><v>아침에주스 100% 오렌지 210ml페트</v></cell><cell r="D1660" t="str"><v>8801115336143</v></cell></row><row r="1661"><cell r="C1661" t="str"><v>아침에주스 100% 포도 210ml페트</v></cell><cell r="D1661" t="str"><v>8801115336150</v></cell></row><row r="1662"><cell r="C1662" t="str"><v>델몬트 미녀는석류를좋아해 180ml병</v></cell><cell r="D1662" t="str"><v>8801056013448</v></cell></row><row r="1663"><cell r="C1663" t="str"><v>트로피카나 스파클링 복숭아 355ml캔</v></cell><cell r="D1663" t="str"><v>8801056064464</v></cell></row><row r="1664"><cell r="C1664" t="str"><v>제주 한라봉에이드 355ml캔</v></cell><cell r="D1664" t="str"><v>8809084011214</v></cell></row><row r="1665"><cell r="C1665" t="str"><v>프렌치카페 카라멜마키아또</v></cell><cell r="D1665" t="str"><v>8801069182957</v></cell></row><row r="1666"><cell r="C1666" t="str"><v>뷰핏 스파클링타임 레몬 350ml페트</v></cell><cell r="D1666" t="str"><v>8806002012162</v></cell></row><row r="1667"><cell r="C1667" t="str"><v>마운틴듀 400ml페트</v></cell><cell r="D1667" t="str"><v>8801056075071</v></cell></row><row r="1668"><cell r="C1668" t="str"><v>초록매실 선물세트 180ml병*12</v></cell><cell r="D1668" t="str"><v>8801382126546</v></cell></row><row r="1669"><cell r="C1669" t="str"><v>자연은 알로에 선물세트 180ml병*12</v></cell><cell r="D1669" t="str"><v>8801382127765</v></cell></row><row r="1670"><cell r="C1670" t="str"><v>자연은 오렌지 선물세트 180ml병*12</v></cell><cell r="D1670" t="str"><v>8801382127666</v></cell></row><row r="1671"><cell r="C1671" t="str"><v>자연은 토마토 선물세트 180ml병*12</v></cell><cell r="D1671" t="str"><v>8801382127703</v></cell></row><row r="1672"><cell r="C1672" t="str"><v>자연은 포도 선물세트 180ml병*12</v></cell><cell r="D1672" t="str"><v>8801382128281</v></cell></row><row r="1673"><cell r="C1673" t="str"><v>자연은 사과, 포도, 석류 선물세트 180ml병*12</v></cell><cell r="D1673" t="str"><v>8801382131595</v></cell></row><row r="1674"><cell r="C1674" t="str"><v>델몬트 오렌지, 포도, 토마토 선물세트 180ml병*12</v></cell><cell r="D1674" t="str"><v>8801056018672</v></cell></row><row r="1675"><cell r="C1675" t="str"><v>델몬트 망고 선물세트 180ml병*12</v></cell><cell r="D1675" t="str"><v>8801056002367</v></cell></row><row r="1676"><cell r="C1676" t="str"><v>델몬트 복분자 선물세트 180ml병*12</v></cell><cell r="D1676" t="str"><v>8801056015305</v></cell></row><row r="1677"><cell r="C1677" t="str"><v>델몬트 포도 선물세트 180ml병*12</v></cell><cell r="D1677" t="str"><v>8801056015978</v></cell></row><row r="1678"><cell r="C1678" t="str"><v>델몬트 오렌지 선물세트 180ml병*12</v></cell><cell r="D1678" t="str"><v>8801056260125</v></cell></row><row r="1679"><cell r="C1679" t="str"><v>가야농장 종합선물세트 180ml병*12</v></cell><cell r="D1679" t="str"><v>8801861200415</v></cell></row><row r="1680"><cell r="C1680" t="str"><v>가야농장 알찬선물세트 180ml병*12</v></cell><cell r="D1680" t="str"><v>8801861200507</v></cell></row><row r="1681"><cell r="C1681" t="str"><v>미닛메이드 밀키라떼 망고 300ml페트</v></cell><cell r="D1681" t="str"><v>8801094316402</v></cell></row><row r="1682"><cell r="C1682" t="str"><v>미닛메이드 밀키라떼 애플 300ml페트</v></cell><cell r="D1682" t="str"><v>8801094315405</v></cell></row><row r="1683"><cell r="C1683" t="str"><v>한라봉에이드 다른</v></cell><cell r="D1683" t="str"><v>Other0320</v></cell></row><row r="1684"><cell r="C1684" t="str"><v>한라봉에이드 빈</v></cell><cell r="D1684" t="str"><v>Empty0320</v></cell></row><row r="1685"><cell r="C1685" t="str"><v>미닛메이드 복숭아퓨레 240ml캔</v></cell><cell r="D1685" t="str"><v>8801094322007</v></cell></row><row r="1686"><cell r="C1686" t="str"><v>미닛메이드 복숭아퓨레 300ml페트</v></cell><cell r="D1686" t="str"><v>8801094323400</v></cell></row><row r="1687"><cell r="C1687" t="str"><v>미닛메이드 망고퓨레 300ml페트</v></cell><cell r="D1687" t="str"><v>8801094313401</v></cell></row><row r="1688"><cell r="C1688" t="str"><v>지코 오리지널 330ml테트라팩</v></cell><cell r="D1688" t="str"><v>8801094964108</v></cell></row><row r="1689"><cell r="C1689" t="str"><v>미닛메이드 벌꿀배 280ml병</v></cell><cell r="D1689" t="str"><v>8801094447106</v></cell></row><row r="1690"><cell r="C1690" t="str"><v>지코_E</v></cell><cell r="D1690" t="str"><v>Empty0321</v></cell></row><row r="1691"><cell r="C1691" t="str"><v>지코_O</v></cell><cell r="D1691" t="str"><v>Other0321</v></cell></row><row r="1692"><cell r="C1692" t="str"><v>미닛메이드 포도 선물세트 180ml병*12</v></cell><cell r="D1692" t="str"><v>8801094640958</v></cell></row><row r="1693"><cell r="C1693" t="str"><v>스프라이트 아이스 500ml페트</v></cell><cell r="D1693" t="str"><v>8801094203702</v></cell></row><row r="1694"><cell r="C1694" t="str"><v>스프라이트 아이스 250ml캔</v></cell><cell r="D1694" t="str"><v>8801094202002</v></cell></row><row r="1695"><cell r="C1695" t="str"><v>휘오다이아몬드SE 400ml페트</v></cell><cell r="D1695" t="str"><v>8801094574901</v></cell></row><row r="1696"><cell r="C1696" t="str"><v>미닛메이드 리치블렌드 백포도&알로에베라 1.5L페트</v></cell><cell r="D1696" t="str"><v>8801094810405</v></cell></row><row r="1697"><cell r="C1697" t="str"><v>조지아 델리 모카라떼 240ml페트</v></cell><cell r="D1697" t="str"><v>8801094752002</v></cell></row><row r="1698"><cell r="C1698" t="str"><v>조지아 델리 스윗포테이토향라떼 240ml페트</v></cell><cell r="D1698" t="str"><v>8801094742003</v></cell></row><row r="1699"><cell r="C1699" t="str"><v>미닛메이드 홈스타일 오렌지100 300ml페트</v></cell><cell r="D1699" t="str"><v>8801094743109</v></cell></row><row r="1700"><cell r="C1700" t="str"><v>미닛메이드 홈스타일 자몽 300ml페트</v></cell><cell r="D1700" t="str"><v>8801094742102</v></cell></row><row r="1701"><cell r="C1701" t="str"><v>미닛메이드 홈스타일 오렌지100 1.2L페트</v></cell><cell r="D1701" t="str"><v>8801094743307</v></cell></row><row r="1702"><cell r="C1702" t="str"><v>조지아 고티카 아메리카노 270ml보틀캔</v></cell><cell r="D1702" t="str"><v>8801094589103</v></cell></row><row r="1703"><cell r="C1703" t="str"><v>조지아 고티카 아로마 블랙 270ml보틀캔</v></cell><cell r="D1703" t="str"><v>8801094547103AA</v></cell></row><row r="1704"><cell r="C1704" t="str"><v>조지아EMB 클래식라떼 270ml보틀캔</v></cell><cell r="D1704" t="str"><v>8801094577100</v></cell></row><row r="1705"><cell r="C1705" t="str"><v>하트비트 자몽 500ml페트</v></cell><cell r="D1705" t="str"><v>8801056077730</v></cell></row><row r="1706"><cell r="C1706" t="str"><v>하트비트 복숭아 500ml페트</v></cell><cell r="D1706" t="str"><v>8801056077693</v></cell></row><row r="1707"><cell r="C1707" t="str"><v>조지아 고티카 카라멜향 마끼아또 250ml컵</v></cell><cell r="D1707" t="str"><v>8801094744007AA</v></cell></row><row r="1708"><cell r="C1708" t="str"><v>조지아 고티카 아로마 라떼 250ml컵</v></cell><cell r="D1708" t="str"><v>8801094574000AA</v></cell></row><row r="1709"><cell r="C1709" t="str"><v>썬키스트 스파클링 자몽소다 350ml페트</v></cell><cell r="D1709" t="str"><v>8801105914337</v></cell></row><row r="1710"><cell r="C1710" t="str"><v>썬키스트 스파클링 멜론소다 350ml페트</v></cell><cell r="D1710" t="str"><v>8801105914320</v></cell></row><row r="1711"><cell r="C1711" t="str"><v>썬키스트 레몬 스파클링워터 350ml페트</v></cell><cell r="D1711" t="str"><v>8801105914108</v></cell></row><row r="1712"><cell r="C1712" t="str"><v>썬키스트 라임 스파클링워터 350ml페트</v></cell><cell r="D1712" t="str"><v>8801105914115</v></cell></row><row r="1713"><cell r="C1713" t="str"><v>썬키스트 리얼에이드 청포도 340ml페트</v></cell><cell r="D1713" t="str"><v>8801105914276</v></cell></row><row r="1714"><cell r="C1714" t="str"><v>썬키스트 리얼에이드 자몽 340ml페트</v></cell><cell r="D1714" t="str"><v>8801105914252</v></cell></row><row r="1715"><cell r="C1715" t="str"><v>썬키스트 석류드링크 240ml캔</v></cell><cell r="D1715" t="str"><v>8801105912968</v></cell></row><row r="1716"><cell r="C1716" t="str"><v>썬키스트 바나나라떼 300ml페트</v></cell><cell r="D1716" t="str"><v>8801105914054</v></cell></row><row r="1717"><cell r="C1717" t="str"><v>트로피카나 스파클링 망고 355ml캔</v></cell><cell r="D1717" t="str"><v>8801056075699</v></cell></row><row r="1718"><cell r="C1718" t="str"><v>SK멜론소다 355캔</v></cell><cell r="D1718" t="str"><v>8801105913811M</v></cell></row><row r="1719"><cell r="C1719" t="str"><v>POE박스1</v></cell><cell r="D1719" t="str"><v>CCKRPOE1</v></cell></row><row r="1720"><cell r="C1720" t="str"><v>POE박스2</v></cell><cell r="D1720" t="str"><v>CCKRPOE2</v></cell></row><row r="1721"><cell r="C1721" t="str"><v>POE박스3</v></cell><cell r="D1721" t="str"><v>CCKRPOE3</v></cell></row><row r="1722"><cell r="C1722" t="str"><v>POE박스4</v></cell><cell r="D1722" t="str"><v>CCKRPOE4</v></cell></row><row r="1723"><cell r="C1723" t="str"><v>POE박스5</v></cell><cell r="D1723" t="str"><v>CCKRPOE5</v></cell></row><row r="1724"><cell r="C1724" t="str"><v>썬키스트 탄산수 기타</v></cell><cell r="D1724" t="str"><v>Other322</v></cell></row><row r="1725"><cell r="C1725" t="str"><v>썬키스트 탄산수빈 공간</v></cell><cell r="D1725" t="str"><v>Empty0322</v></cell></row><row r="1726"><cell r="C1726" t="str"><v>하트비트빈 공간</v></cell><cell r="D1726" t="str"><v>Empty0322_1</v></cell></row><row r="1727"><cell r="C1727" t="str"><v>하트비트 기타</v></cell><cell r="D1727" t="str"><v>Other0322</v></cell></row><row r="1728"><cell r="C1728" t="str"><v>탐라제주감귤 1.8L 페트</v></cell><cell r="D1728" t="str"><v>8801056076009</v></cell></row><row r="1729"><cell r="C1729" t="str"><v>조지아 고티카 아로마 블랙 390ml보틀캔</v></cell><cell r="D1729" t="str"><v>8801094548605</v></cell></row><row r="1730"><cell r="C1730" t="str"><v>조지아 고티카 스위트아메리카노 390ml보틀캔</v></cell><cell r="D1730" t="str"><v>8801094588601</v></cell></row><row r="1731"><cell r="C1731" t="str"><v>구론산 바몬드 150ml병</v></cell><cell r="D1731" t="str"><v>8801105914382</v></cell></row><row r="1732"><cell r="C1732" t="str"><v>스타벅스 프라푸치노 쿠키향 281ml병</v></cell><cell r="D1732" t="str"><v>8801037051421</v></cell></row><row r="1733"><cell r="C1733" t="str"><v>스타벅스 더블샷 에스프레소 마키아또 200ml캔</v></cell><cell r="D1733" t="str"><v>8801037050127</v></cell></row><row r="1734"><cell r="C1734" t="str"><v>스타벅스 더블샷 아메리카노 200ml캔</v></cell><cell r="D1734" t="str"><v>8801037039689</v></cell></row><row r="1735"><cell r="C1735" t="str"><v>썬키스트 스파클링 자몽소다 355ml캔</v></cell><cell r="D1735" t="str"><v>8801105914344</v></cell></row><row r="1736"><cell r="C1736" t="str"><v>썬키스트 스파클링 멜론소다 355ml캔</v></cell><cell r="D1736" t="str"><v>8801105913811</v></cell></row><row r="1737"><cell r="C1737" t="str"><v>뷰핏 스파클링타임 자몽 350ml페트</v></cell><cell r="D1737" t="str"><v>8806002013169</v></cell></row><row r="1738"><cell r="C1738" t="str"><v>웰치스 라임&민트 250ml캔</v></cell><cell r="D1738" t="str"><v>8801043031899</v></cell></row><row r="1739"><cell r="C1739" t="str"><v>웰치스 망고&패션후르츠 250ml캔</v></cell><cell r="D1739" t="str"><v>8801043031851</v></cell></row><row r="1740"><cell r="C1740" t="str"><v>얼려먹는 환타 포도 130ml파우치</v></cell><cell r="D1740" t="str"><v>8801094127909</v></cell></row><row r="1741"><cell r="C1741" t="str"><v>썬키스트 키즈 보리차 210ml페트</v></cell><cell r="D1741" t="str"><v>8801105914078</v></cell></row><row r="1742"><cell r="C1742" t="str"><v>썬키스트 키즈 사과 210ml페트</v></cell><cell r="D1742" t="str"><v>8801105914283</v></cell></row><row r="1743"><cell r="C1743" t="str"><v>광동 우엉차 500ml페트</v></cell><cell r="D1743" t="str"><v>8806002012919</v></cell></row><row r="1744"><cell r="C1744" t="str"><v>광동 우엉차 340ml페트</v></cell><cell r="D1744" t="str"><v>8806002012896</v></cell></row><row r="1745"><cell r="C1745" t="str"><v>한뿌리 울금차 500ml페트</v></cell><cell r="D1745" t="str"><v>8801007404042</v></cell></row><row r="1746"><cell r="C1746" t="str"><v>미닛메이드 쿠우 젤리 복숭아 130ml파우치</v></cell><cell r="D1746" t="str"><v>8801094786304</v></cell></row><row r="1747"><cell r="C1747" t="str"><v>미닛메이드 쿠우 젤리 포도 130ml파우치</v></cell><cell r="D1747" t="str"><v>8801094776305</v></cell></row><row r="1748"><cell r="C1748" t="str"><v>스프라이트 500ml캔</v></cell><cell r="D1748" t="str"><v>8801094203603</v></cell></row><row r="1749"><cell r="C1749" t="str"><v>델몬트 제철과실 효돈감귤 1L페트</v></cell><cell r="D1749" t="str"><v>8801056076146</v></cell></row><row r="1750"><cell r="C1750" t="str"><v>델몬트 제철과실 청도홍시 1L페트</v></cell><cell r="D1750" t="str"><v>8801056076078</v></cell></row><row r="1751"><cell r="C1751" t="str"><v>트로피카나 코코퀀치 1L페트</v></cell><cell r="D1751" t="str"><v>4803925260216</v></cell></row><row r="1752"><cell r="C1752" t="str"><v>미닛메이드 리치블렌드 아사알로에 180ml병*12입</v></cell><cell r="D1752" t="str"><v>8801094780951AA</v></cell></row><row r="1753"><cell r="C1753" t="str"><v>델몬트 썸썸 딸기&포도 235ml페트</v></cell><cell r="D1753" t="str"><v>8801056076870</v></cell></row><row r="1754"><cell r="C1754" t="str"><v>델몬트 썸썸 오렌지&백포도 235ml페트</v></cell><cell r="D1754" t="str"><v>8801056076856</v></cell></row><row r="1755"><cell r="C1755" t="str"><v>맥스웰 하우스 스위트 아메리카노 200ml캔</v></cell><cell r="D1755" t="str"><v>8801037061048</v></cell></row><row r="1756"><cell r="C1756" t="str"><v>맥스웰 하우스 블루엣 마일드 200ml캔</v></cell><cell r="D1756" t="str"><v>8801037061000</v></cell></row><row r="1757"><cell r="C1757" t="str"><v>맥스웰 하우스 오리지날 200ml캔</v></cell><cell r="D1757" t="str"><v>8801037060973</v></cell></row><row r="1758"><cell r="C1758" t="str"><v>구론산 바몬드 150ml병*10입</v></cell><cell r="D1758" t="str"><v>8801105995428</v></cell></row><row r="1759"><cell r="C1759" t="str"><v>글라소 후르츠 백포도&레몬 450ml페트</v></cell><cell r="D1759" t="str"><v>8801094923600</v></cell></row><row r="1760"><cell r="C1760" t="str"><v>글라소 후르츠 복숭아&자몽 450ml페트</v></cell><cell r="D1760" t="str"><v>8801094913601</v></cell></row><row r="1761"><cell r="C1761" t="str"><v>글라소 후르츠 감귤&망고 450ml페트</v></cell><cell r="D1761" t="str"><v>8801094903602</v></cell></row><row r="1762"><cell r="C1762" t="str"><v>미닛메이드 홈스타일 자몽 1.2L페트</v></cell><cell r="D1762" t="str"><v>8801094742300</v></cell></row><row r="1763"><cell r="C1763" t="str"><v>미닛메이드 리치블렌드 백포도&알로에베라 238ml캔</v></cell><cell r="D1763" t="str"><v>8801094813000</v></cell></row><row r="1764"><cell r="C1764" t="str"><v>펩시 355ml캔</v></cell><cell r="D1764" t="str"><v>8801056150013</v></cell></row><row r="1765"><cell r="C1765" t="str"><v>스와이스 레몬 500ml페트</v></cell><cell r="D1765" t="str"><v>8801069185323</v></cell></row><row r="1766"><cell r="C1766" t="str"><v>립톤 망고 패션푸르트 500ml페트</v></cell><cell r="D1766" t="str"><v>8801056077341</v></cell></row><row r="1767"><cell r="C1767" t="str"><v>델몬트 자연맞춤 그린포도100 750ml페트</v></cell><cell r="D1767" t="str"><v>8801056077808</v></cell></row><row r="1768"><cell r="C1768" t="str"><v>델몬트 자연맞춤 그린제주감귤100 750ml페트</v></cell><cell r="D1768" t="str"><v>8801056077846</v></cell></row><row r="1769"><cell r="C1769" t="str"><v>델몬트 자연맞춤 그린오렌지100 750ml페트</v></cell><cell r="D1769" t="str"><v>8801056077785</v></cell></row><row r="1770"><cell r="C1770" t="str"><v>델몬트 자연맞춤 그린사과100 750ml페트</v></cell><cell r="D1770" t="str"><v>8801056077822</v></cell></row><row r="1771"><cell r="C1771" t="str"><v>휘오다이아몬드 스파클링 플레인 350ml페트</v></cell><cell r="D1771" t="str"><v>8801094839802</v></cell></row><row r="1772"><cell r="C1772" t="str"><v>미닛메이드 홈스타일 자몽+오렌지100 선물세트 180ml병*12입</v></cell><cell r="D1772" t="str"><v>8801094741938</v></cell></row><row r="1773"><cell r="C1773" t="str"><v>초이스엘 스파클링 라임 300ml페트</v></cell><cell r="D1773" t="str"><v>8801056074944</v></cell></row><row r="1774"><cell r="C1774" t="str"><v>초이스엘 스파클링 레몬 300ml페트</v></cell><cell r="D1774" t="str"><v>8801056074968</v></cell></row><row r="1775"><cell r="C1775" t="str"><v>프라우 스파클링워터 라임 390ml페트</v></cell><cell r="D1775" t="str"><v>8801069185316</v></cell></row><row r="1776"><cell r="C1776" t="str"><v>프라우 스파클링워터 레몬 390ml페트</v></cell><cell r="D1776" t="str"><v>8801069185309</v></cell></row><row r="1777"><cell r="C1777" t="str"><v>초정탄산수 라임 500ml페트</v></cell><cell r="D1777" t="str"><v>8801223002176</v></cell></row><row r="1778"><cell r="C1778" t="str"><v>CU 탄산수 레몬 350ml페트</v></cell><cell r="D1778" t="str"><v>8801069184593</v></cell></row><row r="1779"><cell r="C1779" t="str"><v>CU 탄산수 민트 350ml페트</v></cell><cell r="D1779" t="str"><v>8801069184609</v></cell></row><row r="1780"><cell r="C1780" t="str"><v>트레비 자몽 500ml페트</v></cell><cell r="D1780" t="str"><v>8801056069605</v></cell></row><row r="1781"><cell r="C1781" t="str"><v>이너비워터 스파클링 350ml페트</v></cell><cell r="D1781" t="str"><v>8801007405339</v></cell></row><row r="1782"><cell r="C1782" t="str"><v>칸타타 킬리만자로 라떼 390ml보틀캔</v></cell><cell r="D1782" t="str"><v>8801056079130</v></cell></row><row r="1783"><cell r="C1783" t="str"><v>칸타타 킬리만자로 아메리카노 390ml보틀캔</v></cell><cell r="D1783" t="str"><v>8801056079161</v></cell></row><row r="1784"><cell r="C1784" t="str"><v>칸타타 킬리만자로 아메리카노 275ml보틀캔</v></cell><cell r="D1784" t="str"><v>8801056076665</v></cell></row><row r="1785"><cell r="C1785" t="str"><v>칸타타 킬리만자로 라떼 275ml보틀캔</v></cell><cell r="D1785" t="str"><v>8801056076634</v></cell></row><row r="1786"><cell r="C1786" t="str"><v>칸타타 프리미엄라떼 200ml캔</v></cell><cell r="D1786" t="str"><v>8801056048129</v></cell></row><row r="1787"><cell r="C1787" t="str"><v>칸타타 아메리카노 200ml캔</v></cell><cell r="D1787" t="str"><v>8801056048150</v></cell></row><row r="1788"><cell r="C1788" t="str"><v>프렌치카페 더블샷 카라멜 마키아또 250ml병</v></cell><cell r="D1788" t="str"><v>8801069184326</v></cell></row><row r="1789"><cell r="C1789" t="str"><v>프렌치카페 더블샷 라떼 250ml병</v></cell><cell r="D1789" t="str"><v>8801069183336</v></cell></row><row r="1790"><cell r="C1790" t="str"><v>프렌치카페 더블샷 카라멜 마키아또 200ml캔</v></cell><cell r="D1790" t="str"><v>8801069183169</v></cell></row><row r="1791"><cell r="C1791" t="str"><v>델몬트 레몬에이드 240ml캔</v></cell><cell r="D1791" t="str"><v>8801056019143</v></cell></row><row r="1792"><cell r="C1792" t="str"><v>코코망고 300ml페트</v></cell><cell r="D1792" t="str"><v>8801056079604</v></cell></row><row r="1793"><cell r="C1793" t="str"><v>코코포도 300ml페트</v></cell><cell r="D1793" t="str"><v>8801056079581</v></cell></row><row r="1794"><cell r="C1794" t="str"><v>이너뷰티플래너 알로에화이바 500ml페트</v></cell><cell r="D1794" t="str"><v>8801056078294</v></cell></row><row r="1795"><cell r="C1795" t="str"><v>이너뷰티플래너 알로에베리 500ml페트</v></cell><cell r="D1795" t="str"><v>8801056078263</v></cell></row><row r="1796"><cell r="C1796" t="str"><v>델몬트 포도100 400ml페트</v></cell><cell r="D1796" t="str"><v>8801056071240</v></cell></row><row r="1797"><cell r="C1797" t="str"><v>롯데 마테차 350ml페트</v></cell><cell r="D1797" t="str"><v>8801056074005</v></cell></row><row r="1798"><cell r="C1798" t="str"><v>롯데 옥수수수염차 350ml페트</v></cell><cell r="D1798" t="str"><v>8801056073985</v></cell></row><row r="1799"><cell r="C1799" t="str"><v>롯데 보리차 350ml페트</v></cell><cell r="D1799" t="str"><v>8801056073961</v></cell></row><row r="1800"><cell r="C1800" t="str"><v>롯데 초가을우엉차 500ml페트</v></cell><cell r="D1800" t="str"><v>8801056076542</v></cell></row><row r="1801"><cell r="C1801" t="str"><v>롯데 옥수수수염차 500ml페트</v></cell><cell r="D1801" t="str"><v>8801056051150</v></cell></row><row r="1802"><cell r="C1802" t="str"><v>자연은 지중해햇살 100%착즙 오렌지 240ml페트</v></cell><cell r="D1802" t="str"><v>8801382144915</v></cell></row><row r="1803"><cell r="C1803" t="str"><v>자연은 지중해햇살 100%착즙 포도 240ml페트</v></cell><cell r="D1803" t="str"><v>8801382144922</v></cell></row><row r="1804"><cell r="C1804" t="str"><v>자연은 데일리톡 적양배추 240ml페트</v></cell><cell r="D1804" t="str"><v>8801382144472</v></cell></row><row r="1805"><cell r="C1805" t="str"><v>자연은 데일리톡 브로콜리 240ml페트</v></cell><cell r="D1805" t="str"><v>8801382144496</v></cell></row><row r="1806"><cell r="C1806" t="str"><v>CU 콜라 350ml페트</v></cell><cell r="D1806" t="str"><v>8809084019236</v></cell></row><row r="1807"><cell r="C1807" t="str"><v>CU 사이다 350ml페트</v></cell><cell r="D1807" t="str"><v>8809084015250</v></cell></row><row r="1808"><cell r="C1808" t="str"><v>마운틴듀 355ml캔</v></cell><cell r="D1808" t="str"><v>8801056716011</v></cell></row><row r="1809"><cell r="C1809" t="str"><v>7UP 355ml캔</v></cell><cell r="D1809" t="str"><v>8801056068585</v></cell></row><row r="1810"><cell r="C1810" t="str"><v>칠성사이다 355ml캔</v></cell><cell r="D1810" t="str"><v>8801056040925</v></cell></row><row r="1811"><cell r="C1811" t="str"><v>썬키스트 리얼에이드 자몽 1.5L페트</v></cell><cell r="D1811" t="str"><v>8801105914269</v></cell></row><row r="1812"><cell r="C1812" t="str"><v>델몬트 자몽 1L페트</v></cell><cell r="D1812" t="str"><v>8801056070533</v></cell></row><row r="1813"><cell r="C1813" t="str"><v>구론산 바몬드 150ml병*20입</v></cell><cell r="D1813" t="str"><v>8801105995763</v></cell></row><row r="1814"><cell r="C1814" t="str"><v>조지아 고티카 아로마 라떼 200ml캔</v></cell><cell r="D1814" t="str"><v>8801094573409AA</v></cell></row><row r="1815"><cell r="C1815" t="str"><v>코코팜 포도 340ml캔</v></cell><cell r="D1815" t="str"><v>8801105911312</v></cell></row><row r="1816"><cell r="C1816" t="str"><v>황윤다이어트 옥수수수염차맛 500ml페트</v></cell><cell r="D1816" t="str"><v>8801105914528</v></cell></row><row r="1817"><cell r="C1817" t="str"><v>포카리스웨트 340ml캔</v></cell><cell r="D1817" t="str"><v>8801097150096</v></cell></row><row r="1818"><cell r="C1818" t="str"><v>베리소다 250ml캔</v></cell><cell r="D1818" t="str"><v>8809005028888</v></cell></row><row r="1819"><cell r="C1819" t="str"><v>로리나 레몬 420ml페트</v></cell><cell r="D1819" t="str"><v>3551720026810</v></cell></row><row r="1820"><cell r="C1820" t="str"><v>로리나 핑크레몬에이드 420ml페트</v></cell><cell r="D1820" t="str"><v>3551720026780</v></cell></row><row r="1821"><cell r="C1821" t="str"><v>광동 레몬과생강 300ml페트</v></cell><cell r="D1821" t="str"><v>8806002012513</v></cell></row><row r="1822"><cell r="C1822" t="str"><v>커핑로드 카페봉봉 300ml컵</v></cell><cell r="D1822" t="str"><v>8801155731571</v></cell></row><row r="1823"><cell r="C1823" t="str"><v>스타벅스 카페라떼 200ml컵</v></cell><cell r="D1823" t="str"><v>8801037086942</v></cell></row><row r="1824"><cell r="C1824" t="str"><v>스타벅스 화이트 초콜릿 모카 200ml컵</v></cell><cell r="D1824" t="str"><v>8801115381259</v></cell></row><row r="1825"><cell r="C1825" t="str"><v>스타벅스 에스프레소 200ml컵</v></cell><cell r="D1825" t="str"><v>8801037086959</v></cell></row><row r="1826"><cell r="C1826" t="str"><v>썬키스트 허니자몽 280ml병</v></cell><cell r="D1826" t="str"><v>8801105914627</v></cell></row><row r="1827"><cell r="C1827" t="str"><v>구론산스파클링150ml병</v></cell><cell r="D1827" t="str"><v>8801105914610</v></cell></row><row r="1828"><cell r="C1828" t="str"><v>홍삼연탄액 150ml병</v></cell><cell r="D1828" t="str"><v>8801105914634</v></cell></row><row r="1829"><cell r="C1829" t="str"><v>코코팜피치핑크복숭아 1.5L페트</v></cell><cell r="D1829" t="str"><v>8801105914221</v></cell></row><row r="1830"><cell r="C1830" t="str"><v>밀키에몽 240ml페트</v></cell><cell r="D1830" t="str"><v>8801069185453</v></cell></row><row r="1831"><cell r="C1831" t="str"><v>사과에몽 240ml페트</v></cell><cell r="D1831" t="str"><v>8801069185460</v></cell></row><row r="1832"><cell r="C1832" t="str"><v>헬로카봇골드키위 220ml페트</v></cell><cell r="D1832" t="str"><v>8809385600537</v></cell></row><row r="1833"><cell r="C1833" t="str"><v>라바딸기복숭아 200ml페트</v></cell><cell r="D1833" t="str"><v>8809111695554</v></cell></row><row r="1834"><cell r="C1834" t="str"><v>라바오렌지망고 200ml페트</v></cell><cell r="D1834" t="str"><v>8809111695578</v></cell></row><row r="1835"><cell r="C1835" t="str"><v>헬로카봇오렌지맛 100ml파우치</v></cell><cell r="D1835" t="str"><v>8809385600391</v></cell></row><row r="1836"><cell r="C1836" t="str"><v>헬로카봇사과맛 100ml파우치</v></cell><cell r="D1836" t="str"><v>8809385600377</v></cell></row><row r="1837"><cell r="C1837" t="str"><v>델몬트애플&망고 1.5L페트</v></cell><cell r="D1837" t="str"><v>8801056074197</v></cell></row><row r="1838"><cell r="C1838" t="str"><v>델몬트스카시사과 1L페트</v></cell><cell r="D1838" t="str"><v>8801056073329</v></cell></row><row r="1839"><cell r="C1839" t="str"><v>델몬트스카시파인애플 1L페트</v></cell><cell r="D1839" t="str"><v>8801056073343</v></cell></row><row r="1840"><cell r="C1840" t="str"><v>델몬트스카시제주감귤 1L페트</v></cell><cell r="D1840" t="str"><v>8801056073367</v></cell></row><row r="1841"><cell r="C1841" t="str"><v>자연은제주당근 1.5L페트</v></cell><cell r="D1841" t="str"><v>88013821280_1</v></cell></row><row r="1842"><cell r="C1842" t="str"><v>자연은배 1.5L페트</v></cell><cell r="D1842" t="str"><v>8801382144236</v></cell></row><row r="1843"><cell r="C1843" t="str"><v>자연은데일리톡적양배추 1L페트</v></cell><cell r="D1843" t="str"><v>8801382144489</v></cell></row><row r="1844"><cell r="C1844" t="str"><v>자연은데일리톡브로콜리 1L페트</v></cell><cell r="D1844" t="str"><v>8801382144502</v></cell></row><row r="1845"><cell r="C1845" t="str"><v>미에로화이바패밀리 1.5L페트</v></cell><cell r="D1845" t="str"><v>8806004801856</v></cell></row><row r="1846"><cell r="C1846" t="str"><v>이마트자몽팝 1.5L페트</v></cell><cell r="D1846" t="str"><v>8809041427102</v></cell></row><row r="1847"><cell r="C1847" t="str"><v>이마트그레이프팝 1.5L페트</v></cell><cell r="D1847" t="str"><v>8809041427119</v></cell></row><row r="1848"><cell r="C1848" t="str"><v>이마트파인애플팝 1.5L페트</v></cell><cell r="D1848" t="str"><v>8809041427096</v></cell></row><row r="1849"><cell r="C1849" t="str"><v>이마트엄마의정성오렌지 1.5L페트</v></cell><cell r="D1849" t="str"><v>8801382128007</v></cell></row><row r="1850"><cell r="C1850" t="str"><v>이마트엄마의정성포도 1.5L페트</v></cell><cell r="D1850" t="str"><v>8801382138785</v></cell></row><row r="1851"><cell r="C1851" t="str"><v>이마트엄마의정성알로에 1.5L페트</v></cell><cell r="D1851" t="str"><v>88013821387_1</v></cell></row><row r="1852"><cell r="C1852" t="str"><v>이마트엄마의정성매실 1.5L페트</v></cell><cell r="D1852" t="str"><v>8801139012610</v></cell></row><row r="1853"><cell r="C1853" t="str"><v>이마트엄마의정성유자 1.5L페트</v></cell><cell r="D1853" t="str"><v>8801139013617</v></cell></row><row r="1854"><cell r="C1854" t="str"><v>이마트노브랜드알로에 1.5L페트</v></cell><cell r="D1854" t="str"><v>8801382138747</v></cell></row><row r="1855"><cell r="C1855" t="str"><v>파리콜라 330ml병</v></cell><cell r="D1855" t="str"><v>3546530003540</v></cell></row><row r="1856"><cell r="C1856" t="str"><v>파리콜라제로 330ml병</v></cell><cell r="D1856" t="str"><v>3546530004745</v></cell></row><row r="1857"><cell r="C1857" t="str"><v>조지아카페블랙175ml캔</v></cell><cell r="D1857" t="str"><v>8801094509903</v></cell></row><row r="1858"><cell r="C1858" t="str"><v>하늘보리 07 - 차 기타</v></cell><cell r="D1858" t="str"><v>Other0250</v></cell></row><row r="1859"><cell r="C1859" t="str"><v>하늘보리빈 07 - 차 공간</v></cell><cell r="D1859" t="str"><v>Empty0250</v></cell></row><row r="1860"><cell r="C1860" t="str"><v>몬스터 그린 355ml캔</v></cell><cell r="D1860" t="str"><v>4897036691007</v></cell></row><row r="1861"><cell r="C1861" t="str"><v>몬스터 기타</v></cell><cell r="D1861" t="str"><v>Other0251</v></cell></row><row r="1862"><cell r="C1862" t="str"><v>몬스터 공간</v></cell><cell r="D1862" t="str"><v>Empty0251</v></cell></row><row r="1863"><cell r="C1863" t="str"><v>씨그램 미네랄워터 500ml</v></cell><cell r="D1863" t="str"><v>8801094461805</v></cell></row><row r="1864"><cell r="C1864" t="str"><v>환타 젤리소다 포도 185ml</v></cell><cell r="D1864" t="str"><v>8801094154912</v></cell></row><row r="1865"><cell r="C1865" t="str"><v>환타 젤리소다 오렌지 185ml</v></cell><cell r="D1865" t="str"><v>8801094142919</v></cell></row><row r="1866"><cell r="C1866" t="str"><v>써니텐스파클링 청포도 350ml페트</v></cell><cell r="D1866" t="str"><v>8801105914597</v></cell></row><row r="1867"><cell r="C1867" t="str"><v>씨그램 공간</v></cell><cell r="D1867" t="str"><v>Empty0251_1</v></cell></row><row r="1868"><cell r="C1868" t="str"><v>환타 기타</v></cell><cell r="D1868" t="str"><v>Other0252</v></cell></row><row r="1869"><cell r="C1869" t="str"><v>환타 공간</v></cell><cell r="D1869" t="str"><v>Empty0252</v></cell></row><row r="1870"><cell r="C1870" t="str"><v>파워에이드 마운틴블라스트 제로 600ml페트</v></cell><cell r="D1870" t="str"><v>8801094212704</v></cell></row><row r="1871"><cell r="C1871" t="str"><v>미닛메이드 오리진에이드 레몬 300ml페트</v></cell><cell r="D1871" t="str"><v>8801094322106</v></cell></row><row r="1872"><cell r="C1872" t="str"><v>미닛메이드 오리진에이드 자몽 300ml페트</v></cell><cell r="D1872" t="str"><v>8801094262105</v></cell></row><row r="1873"><cell r="C1873" t="str"><v>미닛메이드 오리진에이드 레몬 1.2L페트</v></cell><cell r="D1873" t="str"><v>8801094323301</v></cell></row><row r="1874"><cell r="C1874" t="str"><v>미닛메이드 오리진에이드 자몽 1.2L페트</v></cell><cell r="D1874" t="str"><v>8801094262310</v></cell></row><row r="1875"><cell r="C1875" t="str"><v>태양의마테차 350ml페트</v></cell><cell r="D1875" t="str"><v>8801094342104</v></cell></row><row r="1876"><cell r="C1876" t="str"><v>썬키스트 수박에이드 350ml페트</v></cell><cell r="D1876" t="str"><v>8801105914764</v></cell></row><row r="1877"><cell r="C1877" t="str"><v>디아망 플레인 350ml페트</v></cell><cell r="D1877" t="str"><v>8801001236755</v></cell></row><row r="1878"><cell r="C1878" t="str"><v>디아망 라임 350ml페트</v></cell><cell r="D1878" t="str"><v>8801001236786</v></cell></row><row r="1879"><cell r="C1879" t="str"><v>디아망 자몽 350ml페트</v></cell><cell r="D1879" t="str"><v>8801001236854</v></cell></row><row r="1880"><cell r="C1880" t="str"><v>디아망 기타</v></cell><cell r="D1880" t="str"><v>Other0253</v></cell></row><row r="1881"><cell r="C1881" t="str"><v>디아망 공간</v></cell><cell r="D1881" t="str"><v>Empty0253</v></cell></row><row r="1882"><cell r="C1882" t="str"><v>토레타 500ml페트</v></cell><cell r="D1882" t="str"><v>8801094412005</v></cell></row><row r="1883"><cell r="C1883" t="str"><v>얼려먹는 환타 오렌지 130ml파우치</v></cell><cell r="D1883" t="str"><v>8801094117900</v></cell></row><row r="1884"><cell r="C1884" t="str"><v>썬키스트 보리탄산 250ml캔</v></cell><cell r="D1884" t="str"><v>8801105914566</v></cell></row><row r="1885"><cell r="C1885" t="str"><v>토레타 기타</v></cell><cell r="D1885" t="str"><v>Other0323</v></cell></row><row r="1886"><cell r="C1886" t="str"><v>토레타 공간</v></cell><cell r="D1886" t="str"><v>Empty0323</v></cell></row><row r="1887"><cell r="C1887" t="str"><v>토레타 1.5페트</v></cell><cell r="D1887" t="str"><v>8801094412906</v></cell></row><row r="1888"><cell r="C1888" t="str"><v>몬스터 울트라 355ml캔</v></cell><cell r="D1888" t="str"><v>4897036691120</v></cell></row><row r="1889"><cell r="C1889" t="str"><v>우연보이차 350ml페트</v></cell><cell r="D1889" t="str"><v>8801105914726</v></cell></row><row r="1890"><cell r="C1890" t="str"><v>암바사 350ml페트</v></cell><cell r="D1890" t="str"><v>8801094250201</v></cell></row><row r="1891"><cell r="C1891" t="str"><v>밀키스 요거트 500ml 페트</v></cell><cell r="D1891" t="str"><v>8801056084370</v></cell></row><row r="1892"><cell r="C1892" t="str"><v>미닛메이드 홈스타일 청포도 1.2L페트</v></cell><cell r="D1892" t="str"><v>8801094746506</v></cell></row><row r="1893"><cell r="C1893" t="str"><v>미닛메이드 홈스타일 청포도 300ml페트</v></cell><cell r="D1893" t="str"><v>8801094747800</v></cell></row><row r="1894"><cell r="C1894" t="str"><v>레쓰비 마일드커피 240캔</v></cell><cell r="D1894" t="str"><v>8801056085971</v></cell></row><row r="1895"><cell r="C1895" t="str"><v>밀키스 딸기향 250ml캔</v></cell><cell r="D1895" t="str"><v>8801056083496</v></cell></row><row r="1896"><cell r="C1896" t="str"><v>밀키스 메론향 250ml캔</v></cell><cell r="D1896" t="str"><v>8801056083526</v></cell></row><row r="1897"><cell r="C1897" t="str"><v>프라우 스파클링워터 자몽 390ml페트</v></cell><cell r="D1897" t="str"><v>8801069186153</v></cell></row><row r="1898"><cell r="C1898" t="str"><v>이츠바바 마일드카페라떼 175ml캔</v></cell><cell r="D1898" t="str"><v>8801382142683</v></cell></row><row r="1899"><cell r="C1899" t="str"><v>헤라클레스 500ml페트</v></cell><cell r="D1899" t="str"><v>8801056084059</v></cell></row><row r="1900"><cell r="C1900" t="str"><v>태양의홍차 로얄밀크티 350ml페트</v></cell><cell r="D1900" t="str"><v>8801094355203</v></cell></row><row r="1901"><cell r="C1901" t="str"><v>태양의홍차 로얄밀크티 벚꽃향 350ml페트</v></cell><cell r="D1901" t="str"><v>8801094357207</v></cell></row><row r="1902"><cell r="C1902" t="str"><v>결명자 서리채차 350ml페트</v></cell><cell r="D1902" t="str"><v>8801105914771</v></cell></row><row r="1903"><cell r="C1903" t="str"><v>스프라이트 1.8L페트</v></cell><cell r="D1903" t="str"><v>8801094202507</v></cell></row><row r="1904"><cell r="C1904" t="str"><v>씨그램자몽 350페트</v></cell><cell r="D1904" t="str"><v>8801094972202</v></cell></row><row r="1905"><cell r="C1905" t="str"><v>코카콜라 210ml캔*6팩</v></cell><cell r="D1905" t="str"><v>8801094013431</v></cell></row><row r="1906"><cell r="C1906" t="str"><v>조지아 고티카 마스터스 라떼 390ml보틀캔</v></cell><cell r="D1906" t="str"><v>8801094407605</v></cell></row><row r="1907"><cell r="C1907" t="str"><v>조지아 고티카 카라멜향 마끼아또 355ml페트</v></cell><cell r="D1907" t="str"><v>8801094572204</v></cell></row><row r="1908"><cell r="C1908" t="str"><v>초정탄산수 레몬 500ml페트</v></cell><cell r="D1908" t="str"><v>8801223004682</v></cell></row><row r="1909"><cell r="C1909" t="str"><v>초정탄산수 자몽 500ml페트</v></cell><cell r="D1909" t="str"><v>8801223005351</v></cell></row><row r="1910"><cell r="C1910" t="str"><v>야왕 비수리차 500ml페트</v></cell><cell r="D1910" t="str"><v>8806002014821</v></cell></row><row r="1911"><cell r="C1911" t="str"><v>비수리차 기타</v></cell><cell r="D1911" t="str"><v>Other033</v></cell></row><row r="1912"><cell r="C1912" t="str"><v>비수리차 공간</v></cell><cell r="D1912" t="str"><v>Empty033</v></cell></row><row r="1913"><cell r="C1913" t="str"><v>칸타타 프리미엄 라떼 390ml보틀캔</v></cell><cell r="D1913" t="str"><v>8801056080426</v></cell></row><row r="1914"><cell r="C1914" t="str"><v>티오피 콜드브루 아메리카노 275보틀캔</v></cell><cell r="D1914" t="str"><v>8801037065282</v></cell></row><row r="1915"><cell r="C1915" t="str"><v>칸타타 콜드브루 블랙 275ml 보틀캔</v></cell><cell r="D1915" t="str"><v>88010560321_1</v></cell></row><row r="1916"><cell r="C1916" t="str"><v>코카콜라 레몬 250ml캔</v></cell><cell r="D1916" t="str"><v>8801094063009</v></cell></row><row r="1917"><cell r="C1917" t="str"><v>코카콜라 레몬 500ml페트</v></cell><cell r="D1917" t="str"><v>8801094062705</v></cell></row><row r="1918"><cell r="C1918" t="str"><v>티오피 콜드브루 스위트 아메리카노 275보틀캔</v></cell><cell r="D1918" t="str"><v>8801037065305</v></cell></row><row r="1919"><cell r="C1919" t="str"><v>티오피 마스터라떼 380보틀캔</v></cell><cell r="D1919" t="str"><v>8801037064346</v></cell></row><row r="1920"><cell r="C1920" t="str"><v>칸타타 아메리카노 390보틀캔</v></cell><cell r="D1920" t="str"><v>8801056080457</v></cell></row><row r="1921"><cell r="C1921" t="str"><v>밀키스 바나나 250</v></cell><cell r="D1921" t="str"><v>8801056086497</v></cell></row><row r="1922"><cell r="C1922" t="str"><v>게토레이 그린애플 240</v></cell><cell r="D1922" t="str"><v>8801056085032</v></cell></row><row r="1923"><cell r="C1923" t="str"><v>게토레이 그린애플 600</v></cell><cell r="D1923" t="str"><v>8801056085001</v></cell></row><row r="1924"><cell r="C1924" t="str"><v>미닛메이드 알로에 175ml캔</v></cell><cell r="D1924" t="str"><v>8801094433901</v></cell></row><row r="1925"><cell r="C1925" t="str"><v>미닛메이드 조이 오렌지 175ml캔</v></cell><cell r="D1925" t="str"><v>8801094913908</v></cell></row><row r="1926"><cell r="C1926" t="str"><v>미닛메이드 조이 사과리치 175ml캔</v></cell><cell r="D1926" t="str"><v>8801094933906</v></cell></row><row r="1927"><cell r="C1927" t="str"><v>미닛메이드 스파클링 유자 1.25L 페트</v></cell><cell r="D1927" t="str"><v>8801094772307</v></cell></row><row r="1928"><cell r="C1928" t="str"><v>미닛메이드 스파클링 청포도 1.25L 페트</v></cell><cell r="D1928" t="str"><v>8801094782306</v></cell></row><row r="1929"><cell r="C1929" t="str"><v>미닛메이드 스파클링 유자 350ml 페트</v></cell><cell r="D1929" t="str"><v>8801094773205</v></cell></row><row r="1930"><cell r="C1930" t="str"><v>미닛메이드 스파클링 청포도 350ml 페트</v></cell><cell r="D1930" t="str"><v>8801094783204</v></cell></row><row r="1931"><cell r="C1931" t="str"><v>미닛메이드 스파클링 유자 345ml캔</v></cell><cell r="D1931" t="str"><v>8801094773106</v></cell></row><row r="1932"><cell r="C1932" t="str"><v>미닛메이드 스파클링 청포도 345ml캔</v></cell><cell r="D1932" t="str"><v>8801094783105</v></cell></row><row r="1933"><cell r="C1933" t="str"><v>미닛메이드 홈스타일 청포도 180ml병</v></cell><cell r="D1933" t="str"><v>8801094740900</v></cell></row><row r="1934"><cell r="C1934" t="str"><v>토레타 240ml캔</v></cell><cell r="D1934" t="str"><v>8801094413705</v></cell></row><row r="1935"><cell r="C1935" t="str"><v>코카콜라 박보검 팩</v></cell><cell r="D1935" t="str"><v>8801094692123</v></cell></row><row r="1936"><cell r="C1936" t="str"><v>코카콜라 레몬 1.8L페트</v></cell><cell r="D1936" t="str"><v>8801094062507</v></cell></row><row r="1937"><cell r="C1937" t="str"><v>2%부족할때 아쿠아 500ml페트</v></cell><cell r="D1937" t="str"><v>8801056086657</v></cell></row><row r="1938"><cell r="C1938" t="str"><v>핫식스 자몽 250ml캔</v></cell><cell r="D1938" t="str"><v>8801056084196</v></cell></row><row r="1939"><cell r="C1939" t="str"><v>미닛메이드 기타</v></cell><cell r="D1939" t="str"><v>Other0254_1</v></cell></row><row r="1940"><cell r="C1940" t="str"><v>2%부족할때 기타</v></cell><cell r="D1940" t="str"><v>Other0255</v></cell></row><row r="1941"><cell r="C1941" t="str"><v>2%부족할때 공간</v></cell><cell r="D1941" t="str"><v>Empty0255</v></cell></row><row r="1942"><cell r="C1942" t="str"><v>환타 오렌지 210ml캔*6팩</v></cell><cell r="D1942" t="str"><v>8801094113438</v></cell></row><row r="1943"><cell r="C1943" t="str"><v>스프라이트 210ml캔*6팩</v></cell><cell r="D1943" t="str"><v>8801094203436</v></cell></row><row r="1944"><cell r="C1944" t="str"><v>미닛메이드 스파클링 할인 스티커 1</v></cell><cell r="D1944" t="str"><v>8801094740901</v></cell></row><row r="1945"><cell r="C1945" t="str"><v>미닛메이드 망고 180ml병</v></cell><cell r="D1945" t="str"><v>8801094291907</v></cell></row><row r="1946"><cell r="C1946" t="str"><v>미닛메이드 망고 선물세트 180ml병*12</v></cell><cell r="D1946" t="str"><v>8801094291952</v></cell></row><row r="1947"><cell r="C1947" t="str"><v>조지아 스위트 아메리카노 240ml캔</v></cell><cell r="D1947" t="str"><v>8801094561208</v></cell></row><row r="1948"><cell r="C1948" t="str"><v>조지아 카페 마일드 175캔*6팩</v></cell><cell r="D1948" t="str"><v>8801094507930A</v></cell></row><row r="1949"><cell r="C1949" t="str"><v>조지아 카페 블랙 175캔*6팩</v></cell><cell r="D1949" t="str"><v>8801094509934</v></cell></row><row r="1950"><cell r="C1950" t="str"><v>파워에이드 마운틴블라스트 900ml페트</v></cell><cell r="D1950" t="str"><v>8801094362805</v></cell></row><row r="1951"><cell r="C1951" t="str"><v>토레타 900ml페트</v></cell><cell r="D1951" t="str"><v>8801094412708</v></cell></row><row r="1952"><cell r="C1952" t="str"><v>조지아 오리지널 마일드 240ml캔</v></cell><cell r="D1952" t="str"><v>8801094561109</v></cell></row><row r="1953"><cell r="C1953" t="str"><v>바크 루트비어 355ml캔</v></cell><cell r="D1953" t="str"><v>8801094023201</v></cell></row><row r="1954"><cell r="C1954" t="str"><v>바크 기타</v></cell><cell r="D1954" t="str"><v>Other0254</v></cell></row><row r="1955"><cell r="C1955" t="str"><v>바크 공간</v></cell><cell r="D1955" t="str"><v>Empty0254_1</v></cell></row><row r="1956"><cell r="C1956" t="str"><v>씨그램  12 - 탄산수 기타</v></cell><cell r="D1956" t="str"><v>Other0150</v></cell></row><row r="1957"><cell r="C1957" t="str"><v>씨그램 라임 345ml캔</v></cell><cell r="D1957" t="str"><v>8801094983109</v></cell></row><row r="1958"><cell r="C1958" t="str"><v>미닛메이드 제주감귤 1.2L페트</v></cell><cell r="D1958" t="str"><v>8801094622305</v></cell></row><row r="1959"><cell r="C1959" t="str"><v>갈아만든배 340ml캔</v></cell><cell r="D1959" t="str"><v>8801105915006</v></cell></row><row r="1960"><cell r="C1960" t="str"><v>조지아 고티카 콜드브루 아메리카노 265ml보틀캔</v></cell><cell r="D1960" t="str"><v>8801094562106</v></cell></row><row r="1961"><cell r="C1961" t="str"><v>조지아 고티카 콜드브루 카페라떼 265ml보틀캔</v></cell><cell r="D1961" t="str"><v>8801094582203</v></cell></row><row r="1962"><cell r="C1962" t="str"><v>썬키스트 폴리 포도 210ml페트</v></cell><cell r="D1962" t="str"><v>8801105915174</v></cell></row><row r="1963"><cell r="C1963" t="str"><v>썬키스트 폴리 사과 210ml페트</v></cell><cell r="D1963" t="str"><v>8801105915150</v></cell></row><row r="1964"><cell r="C1964" t="str"><v>썬키스트 폴리 딸기 210ml페트</v></cell><cell r="D1964" t="str"><v>8801105915167</v></cell></row><row r="1965"><cell r="C1965" t="str"><v>썬키스트 폴리 보리차 210ml페트</v></cell><cell r="D1965" t="str"><v>8801105915181</v></cell></row><row r="1966"><cell r="C1966" t="str"><v>델몬트 팜앤홈 오렌지 100 1.2L페트</v></cell><cell r="D1966" t="str"><v>8801056088972</v></cell></row><row r="1967"><cell r="C1967" t="str"><v>델몬트 팜앤홈 자몽 1.2L페트</v></cell><cell r="D1967" t="str"><v>8801056089030</v></cell></row><row r="1968"><cell r="C1968" t="str"><v>델몬트 팜앤홈 청포도 1.2L페트</v></cell><cell r="D1968" t="str"><v>8801056089009</v></cell></row><row r="1969"><cell r="C1969" t="str"><v>델몬트 팜앤홈 망고 1.2L페트</v></cell><cell r="D1969" t="str"><v>8801056089061</v></cell></row><row r="1970"><cell r="C1970" t="str"><v>썬키스트 폴리 사과 요구르트 100ml파우치</v></cell><cell r="D1970" t="str"><v>8801105915198</v></cell></row><row r="1971"><cell r="C1971" t="str"><v>썬키스트 폴리 딸기 요구르트 100ml파우치</v></cell><cell r="D1971" t="str"><v>8801105915204</v></cell></row><row r="1972"><cell r="C1972" t="str"><v>미닛메이드 홈스타일 오렌지 180ml병</v></cell><cell r="D1972" t="str"><v>8801094741907</v></cell></row><row r="1973"><cell r="C1973" t="str"><v>미닛메이드 홈스타일 자몽 180ml병</v></cell><cell r="D1973" t="str"><v>8801094742904</v></cell></row><row r="1974"><cell r="C1974" t="str"><v>파워에이드 마이티 포스 600ml페트</v></cell><cell r="D1974" t="str"><v>8801094303600</v></cell></row><row r="1975"><cell r="C1975" t="str"><v>골드피크 오리지널 470ml페트</v></cell><cell r="D1975" t="str"><v>8801094603601</v></cell></row><row r="1976"><cell r="C1976" t="str"><v>미닛메이드 스파클링 사과 345ml캔</v></cell><cell r="D1976" t="str"><v>8801094793104</v></cell></row><row r="1977"><cell r="C1977" t="str"><v>씨그램 워터 아티스트 500ml</v></cell><cell r="D1977" t="str"><v>8801094463601</v></cell></row><row r="1978"><cell r="C1978" t="str"><v>골드피크 Other</v></cell><cell r="D1978" t="str"><v>Other2346</v></cell></row><row r="1979"><cell r="C1979" t="str"><v>골드피크 Empty</v></cell><cell r="D1979" t="str"><v>Empty2346</v></cell></row><row r="1980"><cell r="C1980" t="str"><v>조지아 아이스 아메리카노 900ml페트</v></cell><cell r="D1980" t="str"><v>8801094567705</v></cell></row><row r="1981"><cell r="C1981" t="str"><v>골드피크 라즈베리 470ml페트</v></cell><cell r="D1981" t="str"><v>8801094608606</v></cell></row><row r="1982"><cell r="C1982" t="str"><v>미닛메이드 스파클링 사과 350ml페트</v></cell><cell r="D1982" t="str"><v>8801094793203</v></cell></row><row r="1983"><cell r="C1983" t="str"><v>미닛메이드 홈스타일 사과 1.2L페트</v></cell><cell r="D1983" t="str"><v>8801094746513</v></cell></row><row r="1984"><cell r="C1984" t="str"><v>미닛메이드 홈스타일 사과 300ml페트</v></cell><cell r="D1984" t="str"><v>8801094747817</v></cell></row><row r="1985"><cell r="C1985" t="str"><v>맑은티엔 둥글레 410ml페트</v></cell><cell r="D1985" t="str"><v>8801037091755</v></cell></row><row r="1986"><cell r="C1986" t="str"><v>맑은티엔 보리 410ml페트</v></cell><cell r="D1986" t="str"><v>8801037091724</v></cell></row><row r="1987"><cell r="C1987" t="str"><v>맑은티엔 옥수수 410ml페트</v></cell><cell r="D1987" t="str"><v>8801037091748</v></cell></row><row r="1988"><cell r="C1988" t="str"><v>타라 우바 밀크티 275ml보틀캔</v></cell><cell r="D1988" t="str"><v>8801037091823</v></cell></row><row r="1989"><cell r="C1989" t="str"><v>타라 아쌈 밀크티 275ml보틀캔</v></cell><cell r="D1989" t="str"><v>8801037091830</v></cell></row><row r="1990"><cell r="C1990" t="str"><v>스위트 슬립 250ml캔</v></cell><cell r="D1990" t="str"><v>8801056089207</v></cell></row><row r="1991"><cell r="C1991" t="str"><v>레몬 자스민차  350ml페트</v></cell><cell r="D1991" t="str"><v>8801105915280</v></cell></row><row r="1992"><cell r="C1992" t="str"><v>마이 멜로옐로 355ml캔</v></cell><cell r="D1992" t="str"><v>8801105915235</v></cell></row><row r="1993"><cell r="C1993" t="str"><v>맑은티엔 Other</v></cell><cell r="D1993" t="str"><v>Other324</v></cell></row><row r="1994"><cell r="C1994" t="str"><v>타라 Other</v></cell><cell r="D1994" t="str"><v>Other325</v></cell></row><row r="1995"><cell r="C1995" t="str"><v>스위트 슬립 Other</v></cell><cell r="D1995" t="str"><v>Other326</v></cell></row><row r="1996"><cell r="C1996" t="str"><v>맑은티엔 Empty</v></cell><cell r="D1996" t="str"><v>Empty324</v></cell></row><row r="1997"><cell r="C1997" t="str"><v>타라 Empty</v></cell><cell r="D1997" t="str"><v>Empty325</v></cell></row><row r="1998"><cell r="C1998" t="str"><v>스위트 슬립 Empty</v></cell><cell r="D1998" t="str"><v>Empty326</v></cell></row><row r="1999"><cell r="C1999" t="str"><v>티오피 심플리스무스 라떼</v></cell><cell r="D1999" t="str"><v>8801037092240</v></cell></row><row r="2000"><cell r="C2000" t="str"><v>티오피 심플리스무스 스위트 아메리카노</v></cell><cell r="D2000" t="str"><v>8801037092257</v></cell></row><row r="2001"><cell r="C2001" t="str"><v>티오피 심플리스무스 블랙</v></cell><cell r="D2001" t="str"><v>8801037092264</v></cell></row><row r="2002"><cell r="C2002" t="str"><v>칠성스트롱 사이다 5.0 400페트</v></cell><cell r="D2002" t="str"><v>8801056090111</v></cell></row><row r="2003"><cell r="C2003" t="str"><v>2%부족할때 아쿠아 1.5페트</v></cell><cell r="D2003" t="str"><v>8801056091286</v></cell></row><row r="2004"><cell r="C2004" t="str"><v>미닛메이드 감포망 선물세트 180ml병*12</v></cell><cell r="D2004" t="str"><v>8801094362805A</v></cell></row><row r="2005"><cell r="C2005" t="str"><v>카나다드라이 진저엘 355ml캔</v></cell><cell r="D2005" t="str"><v>8801094984250</v></cell></row><row r="2006"><cell r="C2006" t="str"><v>목까지 시원한 배</v></cell><cell r="D2006" t="str"><v>8801056086572</v></cell></row><row r="2007"><cell r="C2007" t="str"><v>목까지 Other</v></cell><cell r="D2007" t="str"><v>Other327</v></cell></row><row r="2008"><cell r="C2008" t="str"><v>목까지 Empty</v></cell><cell r="D2008" t="str"><v>Empty327</v></cell></row><row r="2009"><cell r="C2009" t="str"><v>몬스터 울트라 시트론 355ml캔</v></cell><cell r="D2009" t="str"><v>4897036691595</v></cell></row><row r="2010"><cell r="C2010" t="str"><v>카페베네 카라멜마끼아또 200ml컵</v></cell><cell r="D2010" t="str"><v>8806371305452</v></cell></row><row r="2011"><cell r="C2011" t="str"><v>수박소다 350ml</v></cell><cell r="D2011" t="str"><v>8809005028987</v></cell></row><row r="2012"><cell r="C2012" t="str"><v>레드불 트로피칼 250ml</v></cell><cell r="D2012" t="str"><v>9002490231293</v></cell></row><row r="2013"><cell r="C2013" t="str"><v>스파클링 보성녹차 340ml</v></cell><cell r="D2013" t="str"><v>8801047290049</v></cell></row><row r="2014"><cell r="C2014" t="str"><v>콜드 오렌지과즙 100 1L테트라탑</v></cell><cell r="D2014" t="str"><v>8801056082581</v></cell></row><row r="2015"><cell r="C2015" t="str"><v>콜드 포도과즙 100 1L테트라탑</v></cell><cell r="D2015" t="str"><v>8801056082604</v></cell></row><row r="2016"><cell r="C2016" t="str"><v>으랏차차 마카 비수리 혼합차 410ml</v></cell><cell r="D2016" t="str"><v>8801047289807</v></cell></row><row r="2017"><cell r="C2017" t="str"><v>수박소다 Other</v></cell><cell r="D2017" t="str"><v>Other330</v></cell></row><row r="2018"><cell r="C2018" t="str"><v>보성녹차 Other</v></cell><cell r="D2018" t="str"><v>Other328</v></cell></row><row r="2019"><cell r="C2019" t="str"><v>마카 비수리 Other</v></cell><cell r="D2019" t="str"><v>Other329</v></cell></row><row r="2020"><cell r="C2020" t="str"><v>수박소다 Empty</v></cell><cell r="D2020" t="str"><v>Empty330</v></cell></row><row r="2021"><cell r="C2021" t="str"><v>보성녹차 Empty</v></cell><cell r="D2021" t="str"><v>Empty328</v></cell></row><row r="2022"><cell r="C2022" t="str"><v>마카 비수리 Empty</v></cell><cell r="D2022" t="str"><v>Empty329</v></cell></row><row r="2023"><cell r="C2023" t="str"><v>조지아 오리지널 175ml</v></cell><cell r="D2023" t="str"><v>50001</v></cell></row><row r="2024"><cell r="C2024" t="str"><v>조지아 고티카 에스프레소 마일드 8입</v></cell><cell r="D2024" t="str"><v>8801094428303</v></cell></row><row r="2025"><cell r="C2025" t="str"><v>조지아 고티카 에스프레소 다크 8입</v></cell><cell r="D2025" t="str"><v>8801094426903</v></cell></row><row r="2026"><cell r="C2026" t="str"><v>POE-코카콜라</v></cell><cell r="D2026" t="str"><v>COKEPOE1</v></cell></row><row r="2027"><cell r="C2027" t="str"><v>보성말차</v></cell><cell r="D2027" t="str"><v>8801047289852</v></cell></row><row r="2028"><cell r="C2028" t="str"><v>빅토리아 스파클링 콜라향</v></cell><cell r="D2028" t="str"><v>8801382146322</v></cell></row><row r="2029"><cell r="C2029" t="str"><v>디-톡 자몽 과일 스파클링</v></cell><cell r="D2029" t="str"><v>8801047290018</v></cell></row><row r="2030"><cell r="C2030" t="str"><v>디-톡 레몬 과일 스파클링</v></cell><cell r="D2030" t="str"><v>8801047290001</v></cell></row><row r="2031"><cell r="C2031" t="str"><v>보성말차 Other</v></cell><cell r="D2031" t="str"><v>Other00010</v></cell></row><row r="2032"><cell r="C2032" t="str"><v>빅토리아 스파클링 Other</v></cell><cell r="D2032" t="str"><v>Other00011</v></cell></row><row r="2033"><cell r="C2033" t="str"><v>디-톡 Other</v></cell><cell r="D2033" t="str"><v>Other00012</v></cell></row><row r="2034"><cell r="C2034" t="str"><v>보성말차 Empty</v></cell><cell r="D2034" t="str"><v>Empty00010</v></cell></row><row r="2035"><cell r="C2035" t="str"><v>빅토리아 스파클링 Empty</v></cell><cell r="D2035" t="str"><v>Empty00011</v></cell></row><row r="2036"><cell r="C2036" t="str"><v>디-톡 Empty</v></cell><cell r="D2036" t="str"><v>Empty00012</v></cell></row><row r="2037"><cell r="C2037" t="str"><v>Coffee other</v></cell><cell r="D2037" t="str"><v>CATOther002</v></cell></row><row r="2038"><cell r="C2038" t="str"><v>Sparkling other</v></cell><cell r="D2038" t="str"><v>CATOther001</v></cell></row><row r="2039"><cell r="C2039" t="str"><v>Sports other</v></cell><cell r="D2039" t="str"><v>CATOther004</v></cell></row><row r="2040"><cell r="C2040" t="str"><v>Vitamin water other</v></cell><cell r="D2040" t="str"><v>CATOther005</v></cell></row><row r="2041"><cell r="C2041" t="str"><v>Energy other</v></cell><cell r="D2041" t="str"><v>CATOther006</v></cell></row><row r="2042"><cell r="C2042" t="str"><v>Water other</v></cell><cell r="D2042" t="str"><v>CATOther008</v></cell></row><row r="2043"><cell r="C2043" t="str"><v>Functional other</v></cell><cell r="D2043" t="str"><v>CATOther009</v></cell></row><row r="2044"><cell r="C2044" t="str"><v>Flavored water other</v></cell><cell r="D2044" t="str"><v>CATOther010</v></cell></row><row r="2045"><cell r="C2045" t="str"><v>Children other</v></cell><cell r="D2045" t="str"><v>CatOther25</v></cell></row><row r="2046"><cell r="C2046" t="str"><v>Sparkling water other</v></cell><cell r="D2046" t="str"><v>CATOTHER26</v></cell></row><row r="2047"><cell r="C2047" t="str"><v>Tea other</v></cell><cell r="D2047" t="str"><v>CATOther007</v></cell></row><row r="2048"><cell r="C2048" t="str"><v>갈아만든배 by 숙취비책</v></cell><cell r="D2048" t="str"><v>8801105915327</v></cell></row><row r="2049"><cell r="C2049" t="str"><v>마인드 포인트 사과 과즙 스파클링</v></cell><cell r="D2049" t="str"><v>8806002015811</v></cell></row><row r="2050"><cell r="C2050" t="str"><v>Crushed  Other</v></cell></row><row r="2051"><cell r="C2051" t="str"><v>Crushed  Empty</v></cell></row><row r="2052"><cell r="C2052" t="str"><v>MP Other</v></cell></row><row r="2053"><cell r="C2053" t="str"><v>MP  Empty</v></cell></row><row r="2054"><cell r="C2054" t="str"><v>2% Bujokhaldde Aqua 240 ml</v></cell></row><row r="2055"><cell r="C2055" t="str"><v>17 Cha origin 1L</v></cell></row><row r="2056"><cell r="C2056" t="str"><v>Angel in-us Opera Mocha Dessert Cafe 250ml</v></cell></row><row r="2057"><cell r="C2057" t="str"><v>Barista Rules espresso latte 250ml</v></cell></row><row r="2058"><cell r="C2058" t="str"><v>Trevi Lime 1.2l</v></cell></row><row r="2059"><cell r="C2059" t="str"><v>Trevi Lime Can 355ml</v></cell></row><row r="2060"><cell r="C2060" t="str"><v>Trevi Plain 1.2l</v></cell></row><row r="2061"><cell r="C2061" t="str"><v>Tropicana Sparkling Apple 400ml</v></cell></row><row r="2062"><cell r="C2062" t="str"><v>Tropicana Sparkling Grapefruit 400ml</v></cell></row><row r="2063"><cell r="C2063" t="str"><v>Vita 500 180ml</v></cell></row><row r="2064"><cell r="C2064" t="str"><v>Vita 500 Fresh 100ml</v></cell></row><row r="2065"><cell r="C2065" t="str"><v>vita500 100ml</v></cell></row><row r="2066"><cell r="C2066" t="str"><v>Welch's Sparkling Grape 1.5L pet</v></cell></row><row r="2067"><cell r="C2067" t="str"><v>Welch's Sparkling Grape 500ml </v></cell></row><row r="2068"><cell r="C2068" t="str"><v>Welch's sparkling white grape 1.5L pet</v></cell></row><row r="2069"><cell r="C2069" t="str"><v>Welch's sparkling white grape 500ml</v></cell></row><row r="2070"><cell r="C2070" t="str"><v>Canada Dry Ginger Ale 250ml 6Pack</v></cell></row><row r="2071"><cell r="C2071" t="str"><v>Toreta 340ml Can</v></cell></row><row r="2072"><cell r="C2072" t="str"><v>Vio Diamonds Ec 300ml PET</v></cell></row><row r="2073"><cell r="C2073" t="str"><v>Coca-Cola 330ml</v></cell></row><row r="2074"><cell r="C2074" t="str"><v>Coca-Cola Lemon 250ml  6Pack</v></cell></row><row r="2075"><cell r="C2075" t="str"><v>Coca-Cola Sparkling 1L Glass Bottle</v></cell></row><row r="2076"><cell r="C2076" t="str"><v>Minute Maid Kids Grape 210ml</v></cell></row><row r="2077"><cell r="C2077" t="str"><v>Minute Maid Kids Orange 210ml</v></cell></row><row r="2078"><cell r="C2078" t="str"><v>Sprite 210ml</v></cell></row><row r="2079"><cell r="C2079" t="str"><v>초록매실 웅진 1.5L</v></cell></row><row r="2080"><cell r="C2080" t="str"><v>델 몬트 매실400ml</v></cell></row><row r="2081"><cell r="C2081" t="str"><v>델 몬트 데칠성 과일혼합 180mlx12</v></cell></row><row r="2082"><cell r="C2082" t="str"><v>오라떼 오리지널 240ml</v></cell></row><row r="2083"><cell r="C2083" t="str"><v>오션스프레이 루비레드 자몽주스 드링크 1.5L</v></cell></row><row r="2084"><cell r="C2084" t="str"><v>오션스프레이 자몽 주스 340ml</v></cell></row><row r="2085"><cell r="C2085" t="str"><v>오션스프레이 크랜베리 1.5L</v></cell></row><row r="2086"><cell r="C2086" t="str"><v>오션스프레이 크랜베리 340ml</v></cell></row><row r="2087"><cell r="C2087" t="str"><v>팁코 망고 주스 1L</v></cell></row><row r="2088"><cell r="C2088" t="str"><v>팁코 코코넛워터 주스 1L</v></cell></row><row r="2089"><cell r="C2089" t="str"><v>컨컨피던스 250ml 캔</v></cell></row><row r="2090"><cell r="C2090" t="str"><v>815 사이다 1.5L</v></cell></row><row r="2091"><cell r="C2091" t="str"><v>815 사이다 250ml</v></cell></row><row r="2092"><cell r="C2092" t="str"><v>815 콜라사이다 1.5L</v></cell></row><row r="2093"><cell r="C2093" t="str"><v>데미소다 자몽 250ml</v></cell></row><row r="2094"><cell r="C2094" t="str"><v>데미소다 자몽 340ml</v></cell></row><row r="2095"><cell r="C2095" t="str"><v>썬키스트 망고스틴소다 350ml</v></cell></row><row r="2096"><cell r="C2096" t="str"><v>썬키스트 패션후르츠소다 350ml</v></cell></row><row r="2097"><cell r="C2097" t="str"><v>17차 몸이 가벼워지는 시간 240ml캔</v></cell></row><row r="2098"><cell r="C2098" t="str"><v>아리조나그린티위드진생앤허니500ml</v></cell></row><row r="2099"><cell r="C2099" t="str"><v>아리조나아이스티위드레몬500ml</v></cell></row><row r="2100"><cell r="C2100" t="str"><v>데자와 로얄밀크티 500ML</v></cell></row><row r="2101"><cell r="C2101" t="str"><v>YoungJin Glonsan Other</v></cell></row><row r="2102"><cell r="C2102" t="str"><v>YoungJin Glonsan Empty</v></cell></row><row r="2103"><cell r="C2103" t="str"><v>Red Ginseng YeonTan Other</v></cell></row><row r="2104"><cell r="C2104" t="str"><v>Red Ginseng YeonTan Empty</v></cell></row><row r="2105"><cell r="C2105" t="str"><v>Woof Other</v></cell></row><row r="2106"><cell r="C2106" t="str"><v>Woof Empty</v></cell></row><row r="2107"><cell r="C2107" t="str"><v>EMONG Other</v></cell></row><row r="2108"><cell r="C2108" t="str"><v>EMONG Empty</v></cell></row><row r="2109"><cell r="C2109" t="str"><v>Coffing Road Other</v></cell></row><row r="2110"><cell r="C2110" t="str"><v>Coffing Road Empty</v></cell></row><row r="2111"><cell r="C2111" t="str"><v>Fanta juice Other</v></cell></row><row r="2112"><cell r="C2112" t="str"><v>Fanta juice Empty</v></cell></row><row r="2113"><cell r="C2113" t="str"><v>Swhys Other</v></cell></row><row r="2114"><cell r="C2114" t="str"><v>Swhys Empty</v></cell></row><row r="2115"><cell r="C2115" t="str"><v>Paris Cola Other</v></cell></row><row r="2116"><cell r="C2116" t="str"><v>Paris Cola Empty</v></cell></row><row r="2117"><cell r="C2117" t="str"><v>Lorina Other</v></cell></row><row r="2118"><cell r="C2118" t="str"><v>Lorina Empty</v></cell></row><row r="2119"><cell r="C2119" t="str"><v>Emart Nobrand Other</v></cell></row><row r="2120"><cell r="C2120" t="str"><v>Emart Nobrand Empty</v></cell></row><row r="2121"><cell r="C2121" t="str"><v>Hello Carbot Other</v></cell></row><row r="2122"><cell r="C2122" t="str"><v>Hello Carbot Empty</v></cell></row><row r="2123"><cell r="C2123" t="str"><v>Frau Other</v></cell></row><row r="2124"><cell r="C2124" t="str"><v>Frau Empty</v></cell></row><row r="2125"><cell r="C2125" t="str"><v>Larva Other</v></cell></row><row r="2126"><cell r="C2126" t="str"><v>Larva Empty</v></cell></row><row r="2127"><cell r="C2127" t="str"><v>Del Monte kids Other</v></cell></row><row r="2128"><cell r="C2128" t="str"><v>Del Monte kids Empty</v></cell></row><row r="2129"><cell r="C2129" t="str"><v>Berrysoda Other</v></cell></row><row r="2130"><cell r="C2130" t="str"><v>Berrysoda Empty</v></cell></row><row r="2131"><cell r="C2131" t="str"><v>CU Sparkling Other</v></cell></row><row r="2132"><cell r="C2132" t="str"><v>CU Sparkling Empty</v></cell></row><row r="2133"><cell r="C2133" t="str"><v>Coco Other</v></cell></row><row r="2134"><cell r="C2134" t="str"><v>Coco Empty</v></cell></row><row r="2135"><cell r="C2135" t="str"><v>Emart Pop Other</v></cell></row><row r="2136"><cell r="C2136" t="str"><v>Emart Pop Empty</v></cell></row><row r="2137"><cell r="C2137" t="str"><v>Lemon and Ginger Other</v></cell></row><row r="2138"><cell r="C2138" t="str"><v>Lemon and Ginger Empty</v></cell></row><row r="2139"><cell r="C2139" t="str"><v>Hwangyoon Other</v></cell></row><row r="2140"><cell r="C2140" t="str"><v>Hwangyoon Empty</v></cell></row><row r="2141"><cell r="C2141" t="str"><v>Inner Beauty Planner Other</v></cell></row><row r="2142"><cell r="C2142" t="str"><v>Inner Beauty Planner Empty</v></cell></row><row r="2143"><cell r="C2143" t="str"><v>Choice L Other</v></cell></row><row r="2144"><cell r="C2144" t="str"><v>Choice L Empty</v></cell></row><row r="2145"><cell r="C2145" t="str"><v>Innerb Water Other</v></cell></row><row r="2146"><cell r="C2146" t="str"><v>Innerb Water Empty</v></cell></row><row r="2147"><cell r="C2147" t="str"><v>CU Sparkling 01 - Sparkling Other</v></cell></row><row r="2148"><cell r="C2148" t="str"><v>CU Sparkling 01 - Sparkling Empty</v></cell></row><row r="2149"><cell r="C2149" t="str"><v>Kwangdong Budock Tea 07 - Tea Other</v></cell></row><row r="2150"><cell r="C2150" t="str"><v>Kwangdong Budock Tea 07 - Tea Empty</v></cell></row><row r="2151"><cell r="C2151" t="str"><v>Glaceau 12 - Sparkling Water Other</v></cell></row><row r="2152"><cell r="C2152" t="str"><v>Glaceau 12 - Sparkling Water Empty</v></cell></row><row r="2153"><cell r="C2153" t="str"><v>Emart Mom 03 - Juice Other</v></cell></row><row r="2154"><cell r="C2154" t="str"><v>Emart Mom 03 - Juice Empty</v></cell></row><row r="2155"><cell r="C2155" t="str"><v>카라 만시 소다 350 ml</v></cell></row><row r="2156"><cell r="C2156" t="str"><v>모히토 쿨 모카 레몬 & 애플 민트 맛 340 ml</v></cell></row><row r="2157"><cell r="C2157" t="str"><v>할라 봉 그리고 유자 280 ml</v></cell></row><row r="2158"><cell r="C2158" t="str"><v>아카 판나 미네랄 워터 보틀 500 ml</v></cell></row><row r="2159"><cell r="C2159" t="str"><v>몽 베스트 천연 물병 500 ml</v></cell></row><row r="2160"><cell r="C2160" t="str"><v>쟈뎅 까페리얼자몽에이드 190 ml</v></cell></row><row r="2161"><cell r="C2161" t="str"><v>애리조나 허니 그리고 벌꿀 녹차 500 ml</v></cell></row><row r="2162"><cell r="C2162" t="str"><v> 나는 리얼 퓨어 쥬스 오렌지 190 ml </v></cell></row><row r="2163"><cell r="C2163" t="str"><v>나는 리얼 그린 키위 190 ml</v></cell></row><row r="2164"><cell r="C2164" t="str"><v>아리조나 홍차와 홍차 340 ml</v></cell></row><row r="2165"><cell r="C2165" t="str"><v>나는 리얼 퓨어 쥬스 오렌지 700 ml</v></cell></row><row r="2166"><cell r="C2166" t="str"><v>팁코 망고 혼합 과일 주스 1 l</v></cell></row><row r="2167"><cell r="C2167" t="str"><v>팁코 코코넛 워터 주스 500 ml</v></cell></row><row r="2168"><cell r="C2168" t="str"><v>팁코 코코넛 워터 주스 1 l </v></cell></row><row r="2169"><cell r="C2169" t="str"><v>팁코 쇼군 오렌지 주스 3 x 200 ml</v></cell></row><row r="2170"><cell r="C2170" t="str"><v>팁코 브로콜리 및 혼합 과일 주스 3 x 200 ml</v></cell></row><row r="2171"><cell r="C2171" t="str"><v>나는 진짜 자몽 자몽 700 ml</v></cell></row><row r="2172"><cell r="C2172" t="str"><v>Ucc 흑설탕 설탕 커피 900 ml</v></cell></row><row r="2173"><cell r="C2173" t="str"><v>가야 팜 귤 340 ml</v></cell></row><row r="2174"><cell r="C2174" t="str"><v>가야 팜 토마토 340 ml</v></cell></row><row r="2175"><cell r="C2175" t="str"><v>가야 팜 귤 쥬스 1.5 l</v></cell></row><row r="2176"><cell r="C2176" t="str"><v>조건 호 톳카에 스 수 모자 수 1.5 l</v></cell></row><row r="2177"><cell r="C2177" t="str"><v>가야 팜 토마토 180 ml</v></cell></row><row r="2178"><cell r="C2178" t="str"><v>가야 농장 포도 주스 1.5 l</v></cell></row><row r="2179"><cell r="C2179" t="str"><v>가야 팜 배 주스 1.5 l</v></cell></row><row r="2180"><cell r="C2180" t="str"><v>아침에주스 아침에 사과 950 ml</v></cell></row><row r="2181"><cell r="C2181" t="str"><v>미닛메이드 오리지널 포도100 for KIDS 210ml 페트</v></cell><cell r="D2181" t="str"><v>8801094642419</v></cell></row><row r="2182"><cell r="C2182" t="str"><v>미닛메이드 오리지널 오렌지100 for KIDS 210ml 페트</v></cell><cell r="D2182" t="str"><v>8801094262426</v></cell></row><row r="2183"><cell r="C2183" t="str"><v>영진 구론산 로얄골드 스파클링 150ml </v></cell><cell r="D2183" t="str"><v>8801105915099</v></cell></row><row r="2184"><cell r="C2184" t="str"><v>빽다방 바니바닐라떼 300ml 페트</v></cell><cell r="D2184" t="str"><v>8801056092757</v></cell></row><row r="2185"><cell r="C2185" t="str"><v>환타 +C 레몬</v></cell><cell r="D2185" t="str"><v>8801094095208</v></cell></row><row r="2186"><cell r="C2186" t="str"><v>썬키스트 스파클링 패션후르츠소다 350ml 페트</v></cell><cell r="D2186" t="str"><v>8801105915402</v></cell></row><row r="2187"><cell r="C2187" t="str"><v>칸타타 아로마 마스터 블랙 170ml 캔</v></cell><cell r="D2187" t="str"><v>4988873029976</v></cell></row><row r="2188"><cell r="C2188" t="str"><v>빽다방 황금라떼 300ml 페트</v></cell><cell r="D2188" t="str"><v>8801056085483</v></cell></row><row r="2189"><cell r="C2189" t="str"><v>칸타타 아로마 마스터 라떼 170ml 캔</v></cell><cell r="D2189" t="str"><v>4988873029983</v></cell></row><row r="2190"><cell r="C2190" t="str"><v>질소 커피_Cold Brew 200ml 캔</v></cell><cell r="D2190" t="str"><v>8809502850067</v></cell></row><row r="2191"><cell r="C2191" t="str"><v>프리미엄소다 스노우 콜라 390ml 페트</v></cell><cell r="D2191" t="str"><v>8801069187389</v></cell></row><row r="2192"><cell r="C2192" t="str"><v>프리미엄소다 레몬 사이다 390ml 페트</v></cell><cell r="D2192" t="str"><v>8801069187372</v></cell></row><row r="2193"><cell r="C2193" t="str"><v>밀키스 무스카토 500ml 페트</v></cell><cell r="D2193" t="str"><v>8801056087180</v></cell></row><row r="2194"><cell r="C2194" t="str"><v>새싹보리차 410ml 페트</v></cell><cell r="D2194" t="str"><v>8809422040210</v></cell></row><row r="2195"><cell r="C2195" t="str"><v>후디스 카카오닙스차 500ml 페트</v></cell><cell r="D2195" t="str"><v>8801157415455</v></cell></row><row r="2196"><cell r="C2196" t="str"><v>하루이리터 500ml</v></cell><cell r="D2196" t="str"><v>8803186000022</v></cell></row><row r="2197"><cell r="C2197" t="str"><v>밀키스 요하이 워터 500ml 페트</v></cell><cell r="D2197" t="str"><v>8801056091873</v></cell></row><row r="2198"><cell r="C2198" t="str"><v>미닛메이드 스파클링 사과 1.25L 페트</v></cell><cell r="D2198" t="str"><v>8801094792305</v></cell></row><row r="2199"><cell r="C2199" t="str"><v>미닛메이드 스파클링 청포도 185ml *6팩</v></cell><cell r="D2199" t="str"><v>8801094783938</v></cell></row><row r="2200"><cell r="C2200" t="str"><v>미닛메이드 스파클링 청포도 185ml</v></cell><cell r="D2200" t="str"><v>8801094783907</v></cell></row><row r="2201"><cell r="C2201" t="str"><v>에이치 포인트 포도 과즙 스파클링 400ml 페트</v></cell><cell r="D2201" t="str"><v>8806002015810</v></cell></row><row r="2202"><cell r="C2202" t="str"><v>빽다방 Other</v></cell><cell r="D2202" t="str"><v>Other0400</v></cell></row><row r="2203"><cell r="C2203" t="str"><v>질소커피 Other</v></cell><cell r="D2203" t="str"><v>Other0401</v></cell></row><row r="2204"><cell r="C2204" t="str"><v>프리미엄소다 Other</v></cell><cell r="D2204" t="str"><v>Other0402</v></cell></row><row r="2205"><cell r="C2205" t="str"><v>새싹보리 Other</v></cell><cell r="D2205" t="str"><v>Other0403</v></cell></row><row r="2206"><cell r="C2206" t="str"><v>카카오 Other</v></cell><cell r="D2206" t="str"><v>Other0404</v></cell></row><row r="2207"><cell r="C2207" t="str"><v>하루이리터 Other</v></cell><cell r="D2207" t="str"><v>Other0405</v></cell></row><row r="2208"><cell r="C2208" t="str"><v>HP Other</v></cell></row><row r="2209"><cell r="C2209" t="str"><v>HP Empty</v></cell></row><row r="2210"><cell r="C2210" t="str"><v>빽다방 Empty</v></cell></row><row r="2211"><cell r="C2211" t="str"><v>질소커피 Empty</v></cell></row><row r="2212"><cell r="C2212" t="str"><v>프리미엄소다 Empty</v></cell></row><row r="2213"><cell r="C2213" t="str"><v>새싹보리 Empty</v></cell></row><row r="2214"><cell r="C2214" t="str"><v>카카오 Empty</v></cell></row><row r="2215"><cell r="C2215" t="str"><v>하루이리터 Empty</v></cell></row><row r="2216"><cell r="C2216" t="str"><v>밀키스 250ml캔</v></cell><cell r="D2216" t="str"><v>8801056154011</v></cell></row><row r="2217"><cell r="C2217" t="str"><v>Powerade purple storm 600ml PET</v></cell><cell r="D2217" t="str"><v>8801094603700</v></cell></row><row r="2218"><cell r="C2218" t="str"><v>Georgia sweet and salt coffee 240ml CAN</v></cell><cell r="D2218" t="str"><v>8801094602000</v></cell></row><row r="2219"><cell r="C2219" t="str"><v>Minute Maid Sparkling Peach 345ml CAN</v></cell><cell r="D2219" t="str"><v>8801094732202</v></cell></row><row r="2220"><cell r="C2220" t="str"><v>Georgia Ice americano 220ml pouch</v></cell><cell r="D2220" t="str"><v>8801094546403</v></cell></row><row r="2221"><cell r="C2221" t="str"><v>Georgia Ice black 220ml pouch</v></cell><cell r="D2221" t="str"><v>8801094556907</v></cell></row><row r="2222"><cell r="C2222" t="str"><v>GalBae  Cider 355ml</v></cell><cell r="D2222" t="str"><v>8801105915419</v></cell></row><row r="2223"><cell r="C2223" t="str"><v>Collpis tok sparkling peach 340ml PET</v></cell><cell r="D2223" t="str"><v>8801047290100</v></cell></row><row r="2224"><cell r="C2224" t="str"><v>Collpis tok sparkling pineapple 340ml PET</v></cell><cell r="D2224" t="str"><v>8801047290117</v></cell></row><row r="2225"><cell r="C2225" t="str"><v>Collpis tok sparkling yoghurt 340ml PET</v></cell><cell r="D2225" t="str"><v>8801047290094</v></cell></row><row r="2226"><cell r="C2226" t="str"><v>Dongwon Corn Tassel Tea 1.5L</v></cell><cell r="D2226" t="str"><v>8801047289159</v></cell></row><row r="2227"><cell r="C2227" t="str"><v>쿨피스 Other</v></cell></row><row r="2228"><cell r="C2228" t="str"><v>쿨피스 Empty</v></cell></row><row r="2229"><cell r="C2229" t="str"><v>비락식혜 페트 1.2 L</v></cell></row><row r="2230"><cell r="C2230" t="str"><v>동원 으랏차차 410 ml</v></cell></row><row r="2231"><cell r="C2231" t="str"><v>동원오미자차꿀물차음료 180ml</v></cell></row><row r="2232"><cell r="C2232" t="str"><v>스타벅스 더블샷 에스프레소 크림 병 275 ml</v></cell></row><row r="2233"><cell r="C2233" t="str"><v>스타벅스 프라푸치노 블랙티커피 281 ml</v></cell></row><row r="2234"><cell r="C2234" t="str"><v>칠성 사이다 280 ml</v></cell></row><row r="2235"><cell r="C2235" t="str"><v>코코 몽 딸기 200 ml</v></cell></row><row r="2236"><cell r="C2236" t="str"><v>코코 몽 사과 200 ml</v></cell></row><row r="2237"><cell r="C2237" t="str"><v>코코 몽 포도 200 ml</v></cell></row><row r="2238"><cell r="C2238" t="str"><v>코코 야자 포도 300 ml</v></cell></row><row r="2239"><cell r="C2239" t="str"><v>트로피 카나 절인 복숭아 400 ml</v></cell></row><row r="2240"><cell r="C2240" t="str"><v>트로피 카나 스파클링 사과 1.5 L</v></cell></row><row r="2241"><cell r="C2241" t="str"><v>파워오투 스포츠 레몬 500ml</v></cell></row><row r="2242"><cell r="C2242" t="str"><v>파워오투 아이스크림 500ml</v></cell></row><row r="2243"><cell r="C2243" t="str"><v>프랑스 카페 카라멜 마키아 다른 6 x 175 ml</v></cell></row><row r="2244"><cell r="C2244" t="str"><v>프랑스 카페 카라멜 마키아토 175 ml</v></cell></row><row r="2245"><cell r="C2245" t="str"><v>프렌치카페카페오레마일드 6 x 175 ml</v></cell></row><row r="2246"><cell r="C2246" t="str"><v>데일리 C 클린 포도 비타민 워터 500 ml</v></cell></row><row r="2247"><cell r="C2247" t="str"><v>Dongwon Omija Tea Water Empty</v></cell></row><row r="2248"><cell r="C2248" t="str"><v>Dongwon Omija Tea Water Other</v></cell></row><row r="2249"><cell r="C2249" t="str"><v>Cocomong Kids Other</v></cell></row><row r="2250"><cell r="C2250" t="str"><v>Cocomong Kids Empty</v></cell></row><row r="2251"><cell r="C2251" t="str"><v>코카콜라 캔 185mlx10</v></cell></row><row r="2252"><cell r="C2252" t="str"><v>코카콜라 330mlx6</v></cell></row><row r="2253"><cell r="C2253" t="str"><v>환타 오렌지 185mlx10</v></cell></row><row r="2254"><cell r="C2254" t="str"><v>분 메이드 스파클링 사과 1.25L</v></cell></row><row r="2255"><cell r="C2255" t="str"><v>커핑로드 카페봉봉 300ml컵</v></cell></row><row r="2256"><cell r="C2256" t="str"><v>[UCC]블랙 딥 앤드 리치 275g</v></cell></row><row r="2257"><cell r="C2257" t="str"><v>UCC 블랙 스무스 앤드 클리어 375g</v></cell></row><row r="2258"><cell r="C2258" t="str"><v>이 UCC 블렌드 커피 캔 185g</v></cell></row><row r="2259"><cell r="C2259" t="str"><v>코코넛 워터 피치 망고 330ml</v></cell></row><row r="2260"><cell r="C2260" t="str"><v>코코넛워터 허니 330ml</v></cell></row><row r="2261"><cell r="C2261" t="str"><v>V8 야채 주스 340 ML</v></cell></row><row r="2262"><cell r="C2262" t="str"><v>카프리썬 페어리드링크 200ml</v></cell></row><row r="2263"><cell r="C2263" t="str"><v>정관장 아이키커플러스 포도100ML</v></cell></row><row r="2264"><cell r="C2264" t="str"><v>코카콜라 벚꽃 에디션 250ML</v></cell></row><row r="2265"><cell r="C2265" t="str"><v>초정탄산수 라임 330ml</v></cell></row><row r="2266"><cell r="C2266" t="str"><v>17차 로스티드340ml</v></cell></row><row r="2267"><cell r="C2267" t="str"><v>17차 로스티드500ml</v></cell></row><row r="2268"><cell r="C2268" t="str"><v>고급 광동힘찬하루헛개차1.5L</v></cell></row><row r="2269"><cell r="C2269" t="str"><v>농심 백두산 백산수 500ml</v></cell></row><row r="2270"><cell r="C2270" t="str"><v>아침햇살 180ml캔</v></cell></row><row r="2271"><cell r="C2271" t="str"><v>농심 웰치청포도주스 1L</v></cell></row><row r="2272"><cell r="C2272" t="str"><v>농심 웰치포도주스 1L</v></cell></row><row r="2273"><cell r="C2273" t="str"><v>남양 프렌치카페 모카 초코커피 200ml</v></cell></row><row r="2274"><cell r="C2274" t="str"><v>프렌치카페 로스터리 돌체라떼 270ml</v></cell></row><row r="2275"><cell r="C2275" t="str"><v>프렌치카페 벨벳비엔나모카 200ml</v></cell></row><row r="2276"><cell r="C2276" t="str"><v>프렌치듀얼로스터리에스프레소리치라떼 250ml</v></cell></row><row r="2277"><cell r="C2277" t="str"><v>Let 's Be 마일드 커피 275ml</v></cell></row><row r="2278"><cell r="C2278" t="str"><v>상세보기 맥스웰 콜롬비아나 스위트 아메리카노 240ml</v></cell></row><row r="2279"><cell r="C2279" t="str"><v>맥스웰 하우스 콜롬비아 I 검정색 240ML</v></cell></row><row r="2280"><cell r="C2280" t="str"><v>맥스웰하우스 콜롬비아나 카페라떼 240ml</v></cell></row><row r="2281"><cell r="C2281" t="str"><v>UCC 콩 & 구운 카페 라떼 375 g</v></cell></row><row r="2282"><cell r="C2282" t="str"><v>UCC 블랙 무가당 딥 & 리치 275 g</v></cell></row><row r="2283"><cell r="C2283" t="str"><v>UCC 블랙 프리미엄 드라이 185 g</v></cell></row><row r="2284"><cell r="C2284" t="str"><v>UCC 크리미 카페라떼 330ml</v></cell></row><row r="2285"><cell r="C2285" t="str"><v>UCC 밀크 & 커피 캔 250g</v></cell></row><row r="2286"><cell r="C2286" t="str"><v>비타 코코넛 코코넛 워터 꿀 330ml</v></cell></row><row r="2287"><cell r="C2287" t="str"><v>가야 농장 복숭아 1.5L</v></cell></row><row r="2288"><cell r="C2288" t="str"><v>가야 팜 알로에 베라 드링크 180ml</v></cell></row><row r="2289"><cell r="C2289" t="str"><v>가야 팜 알로에 베라 드링크 500ml</v></cell></row><row r="2290"><cell r="C2290" t="str"><v>아임리얼 케일 키위 190ml</v></cell></row><row r="2291"><cell r="C2291" t="str"><v>맥콜 355ml</v></cell></row><row r="2292"><cell r="C2292" t="str"><v>썬 키스트 자몽 소다 1.5L</v></cell></row><row r="2293"><cell r="C2293" t="str"><v>수박 소다 500ml</v></cell></row><row r="2294"><cell r="C2294" t="str"><v>페리 어 그린 애플 스파클링 워터 500ml</v></cell></row><row r="2295"><cell r="C2295" t="str"><v>페리 어 스파클링 워터 330ml</v></cell></row><row r="2296"><cell r="C2296" t="str"><v>페리에 딸기 스파클링 워터 500ml</v></cell></row><row r="2297"><cell r="C2297" t="str"><v>동원 F & B 보성 녹차 350ml</v></cell></row><row r="2298"><cell r="C2298" t="str"><v>광동 힘찬하루헛개차 1.5L</v></cell></row><row r="2299"><cell r="C2299" t="str"><v>V 라인광동 옥수수수염차 1.5L</v></cell></row><row r="2300"><cell r="C2300" t="str"><v>석수 500ml</v></cell></row><row r="2301"><cell r="C2301" t="str"><v>망고 소다 Empty</v></cell></row><row r="2302"><cell r="C2302" t="str"><v>망고 소다 Other</v></cell></row><row r="2303"><cell r="C2303" t="str"><v>데미 소다 레몬 250ml</v></cell></row><row r="2304"><cell r="C2304" t="str"><v>고티 카 빈티지 블랙 270ml</v></cell></row><row r="2305"><cell r="C2305" t="str"><v>조지아 고티 카 빈티지 라떼 270ml</v></cell></row><row r="2306"><cell r="C2306" t="str"><v>조지아 고티 카 빈티지 스위트 아메리카노 270ml</v></cell></row><row r="2307"><cell r="C2307" t="str"><v>편의점 레쓰비모카라떼 185ml</v></cell></row><row r="2308"><cell r="C2308" t="str"><v>해태음료 갈아만든 배 360ml</v></cell></row><row r="2309"><cell r="C2309" t="str"><v>델몬트 망고주스 400ml</v></cell></row><row r="2310"><cell r="C2310" t="str"><v>델몬트 토마토 토마토 400ML</v></cell></row><row r="2311"><cell r="C2311" t="str"><v>모구 모구 망고 320ML</v></cell></row><row r="2312"><cell r="C2312" t="str"><v>롯데 제주 사랑의 감귤류 러브 1.5L</v></cell></row><row r="2313"><cell r="C2313" t="str"><v>포카리 땀 이온 물 500ml</v></cell></row><row r="2314"><cell r="C2314" t="str"><v>레드 불 355ml</v></cell></row><row r="2315"><cell r="C2315" t="str"><v>립톤 스페셜블렌드 그린티 500ML</v></cell></row><row r="2316"><cell r="C2316" t="str"><v>미에로화이바 100ml</v></cell></row><row r="2317"><cell r="C2317" t="str"><v>해태 갈아만든배 1L</v></cell></row><row r="2318"><cell r="C2318" t="str"><v>델몬트 오리지널 매실 175ml</v></cell></row><row r="2319"><cell r="C2319" t="str"><v>델몬트 스퀴즈사과 에이드 240ml</v></cell></row><row r="2320"><cell r="C2320" t="str"><v>델몬트 스퀴즈 오렌지 에이드 240ml</v></cell></row><row r="2321"><cell r="C2321" t="str"><v>롯데 밀키스 250ML X 6</v></cell></row><row r="2322"><cell r="C2322" t="str"><v>카페 드롭탑 스위트 아메리카노 200ml</v></cell></row><row r="2323"><cell r="C2323" t="str"><v>칸타타 콜드브루 블랙 200ml</v></cell></row><row r="2324"><cell r="C2324" t="str"><v>롯데 칸타타 콜드 브로콜리 275ML</v></cell></row><row r="2325"><cell r="C2325" t="str"><v>캔타타 킬리만자로 아메리카노 175ml</v></cell></row><row r="2326"><cell r="C2326" t="str"><v>캔타타 킬리만자로 단일 원본 175ml</v></cell></row><row r="2327"><cell r="C2327" t="str"><v>조지아 고티카 콜드브루 스위트아메리카노 265ml</v></cell></row><row r="2328"><cell r="C2328" t="str"><v>앳홈 포도 1.5L</v></cell></row><row r="2329"><cell r="C2329" t="str"><v>앳홈오렌지 1.5L</v></cell></row><row r="2330"><cell r="C2330" t="str"><v>앳홈 복숭아 속살 238ml</v></cell></row><row r="2331"><cell r="C2331" t="str"><v>암바사 355ml</v></cell></row><row r="2332"><cell r="C2332" t="str"><v>칠성 칠성 사 210ml</v></cell></row><row r="2333"><cell r="C2333" t="str"><v>롯데칠성 칠성사이다캔 250ML X 6</v></cell></row><row r="2334"><cell r="C2334" t="str"><v>조지아 고티카 콜드브루 스위트 아메리카노 265ml보틀캔</v></cell><cell r="D2334" t="str"><v>8801094574109</v></cell></row><row r="2335"><cell r="C2335" t="str"><v>바리스타카라멜프레소250ML</v></cell></row><row r="2336"><cell r="C2336" t="str"><v>팔도 뽀로로 블루베리맛 235ml</v></cell></row><row r="2337"><cell r="C2337" t="str"><v>망고소다 350ML</v></cell></row><row r="2338"><cell r="C2338" t="str"><v>해태 썬키스트 자몽소다 1.5L</v></cell></row><row r="2339"><cell r="C2339" t="str"><v>초정탄산수 250ml</v></cell></row><row r="2340"><cell r="C2340" t="str"><v>2% 이프로 부족할때 아쿠아 340ml</v></cell></row><row r="2341"><cell r="C2341" t="str"><v>하늘보리 500ml</v></cell></row><row r="2342"><cell r="C2342" t="str"><v>백두산 하늘샘 2L</v></cell></row></sheetData><sheetData sheetId="1"></sheetData><sheetData sheetId="2"></sheetData></sheetDataSet></externalBook></externalLink>
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Container Type"/>
+      <sheetName val="Trax Categories"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="C3" t="str">
+            <v>General Empty</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="C4" t="str">
+            <v>17차 1.5L페트</v>
+          </cell>
+          <cell r="D4" t="str">
+            <v>8801069174037</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="C5" t="str">
+            <v>17차 500ml페트</v>
+          </cell>
+          <cell r="D5" t="str">
+            <v>8801069174020</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="C6" t="str">
+            <v>17차 340ml페트</v>
+          </cell>
+          <cell r="D6" t="str">
+            <v>8801069173986</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="C7" t="str">
+            <v>2%부족할때 1.5L페트</v>
+          </cell>
+          <cell r="D7" t="str">
+            <v>8801056002749</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="C8" t="str">
+            <v>2%부족할때 240ml캔</v>
+          </cell>
+          <cell r="D8" t="str">
+            <v>8801056002701</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="C9" t="str">
+            <v>2%부족할때 350ml 페트</v>
+          </cell>
+          <cell r="D9" t="str">
+            <v>8801056017583</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="C10" t="str">
+            <v>아침햇살 180ml병</v>
+          </cell>
+          <cell r="D10" t="str">
+            <v>8801382124504</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="C11" t="str">
+            <v>아침햇살 선물세트 180ml병*12</v>
+          </cell>
+          <cell r="D11" t="str">
+            <v>8801382123354</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="C12" t="str">
+            <v>아침햇살 1.5L 페트</v>
+          </cell>
+          <cell r="D12" t="str">
+            <v>8801382123446</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="C13" t="str">
+            <v>아침햇살 500ml 페트</v>
+          </cell>
+          <cell r="D13" t="str">
+            <v>8801382124528</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="C14" t="str">
+            <v>오늘의차 아침헛개 500ml페트</v>
+          </cell>
+          <cell r="D14" t="str">
+            <v>8801056051099</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="C15" t="str">
+            <v>아침에 사과 200ml컵</v>
+          </cell>
+          <cell r="D15" t="str">
+            <v>8801115336778</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="C16" t="str">
+            <v>아쿠아파나 750ml병</v>
+          </cell>
+          <cell r="D16" t="str">
+            <v>8002270018237</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="C17" t="str">
+            <v>아마존시크릿 아사이베리 500ml페트</v>
+          </cell>
+          <cell r="D17" t="str">
+            <v>8801056066048</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="C18" t="str">
+            <v>암바사 1.5L페트</v>
+          </cell>
+          <cell r="D18" t="str">
+            <v>8801094252403</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="C19" t="str">
+            <v>암바사 250ml캔</v>
+          </cell>
+          <cell r="D19" t="str">
+            <v>8801094253004</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="C20" t="str">
+            <v>암바사 300ml페트</v>
+          </cell>
+          <cell r="D20" t="str">
+            <v>8801094252106</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="C21" t="str">
+            <v>암바사 500ml페트</v>
+          </cell>
+          <cell r="D21" t="str">
+            <v>8801094252601</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="C22" t="str">
+            <v>엔제리너스 카페라떼 250ml병</v>
+          </cell>
+          <cell r="D22" t="str">
+            <v>8801056031565</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="C23" t="str">
+            <v>엔제리너스 카페모카 250ml병</v>
+          </cell>
+          <cell r="D23" t="str">
+            <v>8801056031527</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="C24" t="str">
+            <v>엔제리너스 카페라떼 200ml컵</v>
+          </cell>
+          <cell r="D24" t="str">
+            <v>8801056031589</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="C25" t="str">
+            <v>엔제리너스 카라멜마키아토 250ml병</v>
+          </cell>
+          <cell r="D25" t="str">
+            <v>8801056031541</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="C26" t="str">
+            <v>앵그리버드사과 240ml페트</v>
+          </cell>
+          <cell r="D26" t="str">
+            <v>8809111694014</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="C27" t="str">
+            <v>앵그리버드사과블루베리 100ml파우치</v>
+          </cell>
+          <cell r="D27" t="str">
+            <v>8809111694243</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="C28" t="str">
+            <v>앵그리버드포도 240ml페트</v>
+          </cell>
+          <cell r="D28" t="str">
+            <v>8809111694090</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="C29" t="str">
+            <v>앵그리버드복숭아딸기 100ml파우치</v>
+          </cell>
+          <cell r="D29" t="str">
+            <v>8809111694229</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="C30" t="str">
+            <v>앵그리버드파인애플 240ml페트</v>
+          </cell>
+          <cell r="D30" t="str">
+            <v>8809111694021</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="C31" t="str">
+            <v>앵그리버드딸기 240ml페트</v>
+          </cell>
+          <cell r="D31" t="str">
+            <v>8809111694007</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="C32" t="str">
+            <v>아쿠아리우스 1.5L페트</v>
+          </cell>
+          <cell r="D32" t="str">
+            <v>8801094302405</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="C33" t="str">
+            <v>아쿠아리우스 240ml캔</v>
+          </cell>
+          <cell r="D33" t="str">
+            <v>8801094303006</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="C34" t="str">
+            <v>아쿠아리우스 500ml페트</v>
+          </cell>
+          <cell r="D34" t="str">
+            <v>8801094302603</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="C35" t="str">
+            <v>아리조나 그린티 진생허니 680ml캔</v>
+          </cell>
+          <cell r="D35" t="str">
+            <v>613008715267</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="C36" t="str">
+            <v>아리조나 아이스티 레몬 680ml캔</v>
+          </cell>
+          <cell r="D36" t="str">
+            <v>613008735159</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="C37" t="str">
+            <v>아리조나 아이스티 라즈베리 680ml캔</v>
+          </cell>
+          <cell r="D37" t="str">
+            <v>613008735470</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="C38" t="str">
+            <v>앳홈 사과100 1.5L</v>
+          </cell>
+          <cell r="D38" t="str">
+            <v>8801069178202</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="C39" t="str">
+            <v>앳홈 복숭아속살 1.5L페트</v>
+          </cell>
+          <cell r="D39" t="str">
+            <v>8801069174235</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="C40" t="str">
+            <v>블랙빈티 340ml페트</v>
+          </cell>
+          <cell r="D40" t="str">
+            <v>8801097224025</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="C41" t="str">
+            <v>바바 아메리카노클래식 270ml병</v>
+          </cell>
+          <cell r="D41" t="str">
+            <v>8801382136118</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="C42" t="str">
+            <v>바바 카페모카클래식 270ml병</v>
+          </cell>
+          <cell r="D42" t="str">
+            <v>8801382136125</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="C43" t="str">
+            <v>바바 카라멜아포카토 290ml페트</v>
+          </cell>
+          <cell r="D43" t="str">
+            <v>8801382140733</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="C44" t="str">
+            <v>바바 프리미엄라떼 200ml캔</v>
+          </cell>
+          <cell r="D44" t="str">
+            <v>8801382136064</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="C45" t="str">
+            <v>바바 에스프레소 스윗 아메리카노 275ml보틀캔</v>
+          </cell>
+          <cell r="D45" t="str">
+            <v>8801382143048</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="C46" t="str">
+            <v>바바 스윗아메리카노 200ml캔</v>
+          </cell>
+          <cell r="D46" t="str">
+            <v>8801382136057</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="C47" t="str">
+            <v>바바 에스프레소 프리미엄 라떼 275ml보틀캔</v>
+          </cell>
+          <cell r="D47" t="str">
+            <v>8801382143055</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="C48" t="str">
+            <v>바바 아이스카페라떼 190ml파우치</v>
+          </cell>
+          <cell r="D48" t="str">
+            <v>8801382142881</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="C49" t="str">
+            <v>바바 아이스카라멜마끼아또 190ml파우치</v>
+          </cell>
+          <cell r="D49" t="str">
+            <v>8801382142898</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="C50" t="str">
+            <v>백두산 하늘샘 500ml페트</v>
+          </cell>
+          <cell r="D50" t="str">
+            <v>8801056055349</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="C51" t="str">
+            <v>백산수 600ml페트</v>
+          </cell>
+          <cell r="D51" t="str">
+            <v>8801043020459</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="C52" t="str">
+            <v>백산수 2L페트</v>
+          </cell>
+          <cell r="D52" t="str">
+            <v>8801043020473</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="C53" t="str">
+            <v>바리스타 커피 에스프레소 라떼 250ml컵</v>
+          </cell>
+          <cell r="D53" t="str">
+            <v>8801121106792</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="C54" t="str">
+            <v>바리스타 커피 모카프레소 250ml컵</v>
+          </cell>
+          <cell r="D54" t="str">
+            <v>8801121107942</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="C55" t="str">
+            <v>바리스타 커피 스모키 로스팅 라떼 250ml컵</v>
+          </cell>
+          <cell r="D55" t="str">
+            <v>8801121107935</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="C56" t="str">
+            <v>뽕나무하늘소 오디웰빙주스 180ml병</v>
+          </cell>
+          <cell r="D56" t="str">
+            <v>8809060156007</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="C57" t="str">
+            <v>뽀로로보리차 220ml페트</v>
+          </cell>
+          <cell r="D57" t="str">
+            <v>8809296885009</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="C58" t="str">
+            <v>MM벌꿀유자 280병</v>
+          </cell>
+          <cell r="D58" t="str">
+            <v>8011094442101</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="C59" t="str">
+            <v>비락식혜 1.8L페트</v>
+          </cell>
+          <cell r="D59" t="str">
+            <v>8801128943406</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="C60" t="str">
+            <v>비락식혜 238ml캔</v>
+          </cell>
+          <cell r="D60" t="str">
+            <v>8801128900201</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="C61" t="str">
+            <v>비락식혜 250ml컵</v>
+          </cell>
+          <cell r="D61" t="str">
+            <v>8809296885443</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="C62" t="str">
+            <v>비락 수정과 238ml캔</v>
+          </cell>
+          <cell r="D62" t="str">
+            <v>8800128900232</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="C63" t="str">
+            <v>비락수정과 1.8L페트</v>
+          </cell>
+          <cell r="D63" t="str">
+            <v>8801128945172</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="C64" t="str">
+            <v>비락수정과 238ml캔</v>
+          </cell>
+          <cell r="D64" t="str">
+            <v>8801128900232</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="C65" t="str">
+            <v>이마트 블루 2L페트</v>
+          </cell>
+          <cell r="D65" t="str">
+            <v>8803186200200</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="C66" t="str">
+            <v>블루 500ml페트</v>
+          </cell>
+          <cell r="D66" t="str">
+            <v>8801047288381</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="C67" t="str">
+            <v>델몬트 복분자 180ml병</v>
+          </cell>
+          <cell r="D67" t="str">
+            <v>8801056015299</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="C68" t="str">
+            <v>본카페커피팝 330ml캔</v>
+          </cell>
+          <cell r="D68" t="str">
+            <v>8888089402531</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="C69" t="str">
+            <v>포도 봉봉 240ml캔</v>
+          </cell>
+          <cell r="D69" t="str">
+            <v>8801105909951</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="C70" t="str">
+            <v>봉봉오렌지 180ml캔</v>
+          </cell>
+          <cell r="D70" t="str">
+            <v>8801105906226</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="C71" t="str">
+            <v>파인애플 봉봉 240ml캔</v>
+          </cell>
+          <cell r="D71" t="str">
+            <v>8801105912975</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="C72" t="str">
+            <v>봉평샘물 500페트*20입</v>
+          </cell>
+          <cell r="D72" t="str">
+            <v>8801105909142</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="C73" t="str">
+            <v>미닛메이드 벌꿀유자 240ml캔</v>
+          </cell>
+          <cell r="D73" t="str">
+            <v>8801094443009</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="C74" t="str">
+            <v>번인텐스 250ml캔</v>
+          </cell>
+          <cell r="D74" t="str">
+            <v>8801094803001</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="C75" t="str">
+            <v>번인텐스 250ml캔*6팩</v>
+          </cell>
+          <cell r="D75" t="str">
+            <v>8801094803032</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="C76" t="str">
+            <v>번인텐스 350ml페트</v>
+          </cell>
+          <cell r="D76" t="str">
+            <v>8801094802202</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="C77" t="str">
+            <v>카페베네 카페라떼 200ml컵</v>
+          </cell>
+          <cell r="D77" t="str">
+            <v>8806371304264</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="C78" t="str">
+            <v>카페베네 카페모카 200ml컵</v>
+          </cell>
+          <cell r="D78" t="str">
+            <v>8806371304271</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="C79" t="str">
+            <v>카페드롭탑 카페라떼 200ml캔</v>
+          </cell>
+          <cell r="D79" t="str">
+            <v>8806002011387</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="C80" t="str">
+            <v>카페드롭탑 카페라떼 275ml보틀캔</v>
+          </cell>
+          <cell r="D80" t="str">
+            <v>8806002011424</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="C81" t="str">
+            <v>카페드롭탑 스위트아메리카노 200ml캔</v>
+          </cell>
+          <cell r="D81" t="str">
+            <v>8806002011363</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="C82" t="str">
+            <v>카페드롭탑 스위트아메리카노 275ml보틀캔</v>
+          </cell>
+          <cell r="D82" t="str">
+            <v>8806002011400</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="C83" t="str">
+            <v>카페레몬트리 카페모카 250ml컵</v>
+          </cell>
+          <cell r="D83" t="str">
+            <v>8809350883149</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="C84" t="str">
+            <v>카페리얼 아메리카노 170ml파우치</v>
+          </cell>
+          <cell r="D84" t="str">
+            <v>8808024017460</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="C85" t="str">
+            <v>카페리얼 카푸치노 170ml파우치</v>
+          </cell>
+          <cell r="D85" t="str">
+            <v>8808024017477</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="C86" t="str">
+            <v>카페리얼 캐러멜마끼아또 170ml파우치</v>
+          </cell>
+          <cell r="D86" t="str">
+            <v>8808024017835</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="C87" t="str">
+            <v>카페리얼 헤이즐넛 170ml파우치</v>
+          </cell>
+          <cell r="D87" t="str">
+            <v>8808024017453</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="C88" t="str">
+            <v>카페리얼 복숭아아이스티 170ml파우치</v>
+          </cell>
+          <cell r="D88" t="str">
+            <v>8808024017484</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="C89" t="str">
+            <v>캠벨 토마토 주스 1L병</v>
+          </cell>
+          <cell r="D89" t="str">
+            <v>8801043650526</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="C90" t="str">
+            <v>카나다드라이 클럽소다 250ml캔</v>
+          </cell>
+          <cell r="D90" t="str">
+            <v>8801094973001</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="C91" t="str">
+            <v>카나다드라이 진저엘 250ml캔</v>
+          </cell>
+          <cell r="D91" t="str">
+            <v>8801094983000</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="C92" t="str">
+            <v>카나다드라이 토닉워터 250ml캔</v>
+          </cell>
+          <cell r="D92" t="str">
+            <v>8801094953003</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="C93" t="str">
+            <v>카나다드라이 토닉워터 250ml캔*6팩</v>
+          </cell>
+          <cell r="D93" t="str">
+            <v>8801094953034</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="C94" t="str">
+            <v>칸타타 아메리카노 스위트블랙 275ml보틀캔</v>
+          </cell>
+          <cell r="D94" t="str">
+            <v>8801056018900</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="C95" t="str">
+            <v>칸타타 아메리카노 900ml 페트</v>
+          </cell>
+          <cell r="D95" t="str">
+            <v>8801056022907</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="C96" t="str">
+            <v>칸타타 카라멜 마키아토 275ml - 보틀캔</v>
+          </cell>
+          <cell r="D96" t="str">
+            <v>8801056051921</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="C97" t="str">
+            <v>칸타타 원두커피 더치블랙 275ml 보틀캔</v>
+          </cell>
+          <cell r="D97" t="str">
+            <v>8801056032159</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="C98" t="str">
+            <v>칸타타 아이스블랙 190ml파우치</v>
+          </cell>
+          <cell r="D98" t="str">
+            <v>8801056060190</v>
+          </cell>
+        </row>
+        <row r="99">
+          <cell r="C99" t="str">
+            <v>칸타타 아이스카라멜마키아토 190ml - Pouch</v>
+          </cell>
+          <cell r="D99" t="str">
+            <v>8801056046576</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="C100" t="str">
+            <v>칸타타 아이스헤이즐넛 190ml - Pouch</v>
+          </cell>
+          <cell r="D100" t="str">
+            <v>8801056046590</v>
+          </cell>
+        </row>
+        <row r="101">
+          <cell r="C101" t="str">
+            <v>칸타타 오리지널 블렌드 아메리카노 175ml캔</v>
+          </cell>
+          <cell r="D101" t="str">
+            <v>8801056018887</v>
+          </cell>
+        </row>
+        <row r="102">
+          <cell r="C102" t="str">
+            <v>칸타타 프리미엄 라떼 275ml - bottle can</v>
+          </cell>
+          <cell r="D102" t="str">
+            <v>8801056018948</v>
+          </cell>
+        </row>
+        <row r="103">
+          <cell r="C103" t="str">
+            <v>칸타타 프리미엄라떼 900ml 페트</v>
+          </cell>
+          <cell r="D103" t="str">
+            <v>8801056022884</v>
+          </cell>
+        </row>
+        <row r="104">
+          <cell r="C104" t="str">
+            <v>카프리썬 알래스카아이스티 200ml파우치</v>
+          </cell>
+          <cell r="D104" t="str">
+            <v>8801043650205</v>
+          </cell>
+        </row>
+        <row r="105">
+          <cell r="C105" t="str">
+            <v>카프리썬 알래스카아이스티 200ml파우치*10팩</v>
+          </cell>
+          <cell r="D105" t="str">
+            <v>8801043900034</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1808,18 +2734,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E55"/>
+  <dimension ref="A1:E65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="44.7773279352227"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.3198380566802"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.85425101214575"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="34.0647773279352"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="45.0971659919028"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.96356275303644"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="34.3846153846154"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1839,956 +2765,946 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="0" t="n">
-        <v>8906002481309</v>
+      <c r="B2" s="2" t="str">
+        <f aca="false">VLOOKUP(A2,[1]Sheet1!$C$3:$D$2342,2,0)</f>
+        <v>8801094561208</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="D2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="3" t="str">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="str">
         <f aca="false">VLOOKUP(A3,[1]Sheet1!$C$3:$D$2342,2,0)</f>
-        <v>8801094561208</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="4" t="s">
+        <v>8801094862602</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="5" t="n">
+      <c r="D3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="3" t="str">
+      <c r="B4" s="2" t="str">
         <f aca="false">VLOOKUP(A4,[1]Sheet1!$C$3:$D$2342,2,0)</f>
-        <v>8801094862602</v>
-      </c>
-      <c r="C4" s="3" t="s">
+        <v>8801094432409</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="5" t="n">
+      <c r="D4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="3" t="str">
+      <c r="B5" s="2" t="str">
         <f aca="false">VLOOKUP(A5,[1]Sheet1!$C$3:$D$2342,2,0)</f>
-        <v>8801094432409</v>
-      </c>
-      <c r="C5" s="3" t="s">
+        <v>8801094266400</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="5" t="n">
+      <c r="D5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="3" t="str">
+      <c r="B6" s="2" t="str">
         <f aca="false">VLOOKUP(A6,[1]Sheet1!$C$3:$D$2342,2,0)</f>
-        <v>8801094266400</v>
-      </c>
-      <c r="C6" s="3" t="s">
+        <v>8801094265205</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="5" t="n">
+      <c r="D6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="3" t="str">
+      <c r="B7" s="2" t="str">
         <f aca="false">VLOOKUP(A7,[1]Sheet1!$C$3:$D$2342,2,0)</f>
-        <v>8801094265205</v>
-      </c>
-      <c r="C7" s="3" t="s">
+        <v>8801094332402</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="5" t="n">
+      <c r="D7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="3" t="str">
+      <c r="B8" s="2" t="str">
         <f aca="false">VLOOKUP(A8,[1]Sheet1!$C$3:$D$2342,2,0)</f>
-        <v>8801094332402</v>
-      </c>
-      <c r="C8" s="3" t="s">
+        <v>8801094642402</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="5" t="n">
+      <c r="D8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="3" t="str">
+      <c r="B9" s="2" t="str">
         <f aca="false">VLOOKUP(A9,[1]Sheet1!$C$3:$D$2342,2,0)</f>
-        <v>8801094642402</v>
-      </c>
-      <c r="C9" s="3" t="s">
+        <v>8801094626402</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="5" t="n">
+      <c r="D9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="3" t="str">
+      <c r="B10" s="2" t="str">
         <f aca="false">VLOOKUP(A10,[1]Sheet1!$C$3:$D$2342,2,0)</f>
-        <v>8801094626402</v>
-      </c>
-      <c r="C10" s="3" t="s">
+        <v>8801094743307</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="5" t="n">
+      <c r="D10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="3" t="str">
+      <c r="B11" s="2" t="str">
         <f aca="false">VLOOKUP(A11,[1]Sheet1!$C$3:$D$2342,2,0)</f>
-        <v>8801094743307</v>
-      </c>
-      <c r="C11" s="3" t="s">
+        <v>8801094202408</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="5" t="n">
+      <c r="D11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="3" t="str">
+      <c r="B12" s="2" t="str">
         <f aca="false">VLOOKUP(A12,[1]Sheet1!$C$3:$D$2342,2,0)</f>
-        <v>8801094202408</v>
-      </c>
-      <c r="C12" s="3" t="s">
+        <v>8801094203009</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="5" t="n">
+      <c r="D12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="3" t="str">
+      <c r="B13" s="2" t="str">
         <f aca="false">VLOOKUP(A13,[1]Sheet1!$C$3:$D$2342,2,0)</f>
-        <v>8801094203009</v>
-      </c>
-      <c r="C13" s="3" t="s">
+        <v>8801094202606</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="5" t="n">
+      <c r="D13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="3" t="str">
+      <c r="B14" s="2" t="str">
         <f aca="false">VLOOKUP(A14,[1]Sheet1!$C$3:$D$2342,2,0)</f>
-        <v>8801094202606</v>
-      </c>
-      <c r="C14" s="3" t="s">
+        <v>8801094989200</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="5" t="n">
+      <c r="D14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="3" t="str">
+      <c r="B15" s="2" t="str">
         <f aca="false">VLOOKUP(A15,[1]Sheet1!$C$3:$D$2342,2,0)</f>
-        <v>8801094989200</v>
-      </c>
-      <c r="C15" s="3" t="s">
+        <v>8801094985202</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="5" t="n">
+      <c r="D15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="3" t="str">
+      <c r="B16" s="2" t="str">
         <f aca="false">VLOOKUP(A16,[1]Sheet1!$C$3:$D$2342,2,0)</f>
-        <v>8801094985202</v>
-      </c>
-      <c r="C16" s="3" t="s">
+        <v>8801094984205</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="5" t="n">
+      <c r="D16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="3" t="str">
+      <c r="B17" s="2" t="str">
         <f aca="false">VLOOKUP(A17,[1]Sheet1!$C$3:$D$2342,2,0)</f>
-        <v>8801094984205</v>
-      </c>
-      <c r="C17" s="3" t="s">
+        <v>8801094252403</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="5" t="n">
+      <c r="D17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="3" t="str">
+      <c r="B18" s="2" t="str">
         <f aca="false">VLOOKUP(A18,[1]Sheet1!$C$3:$D$2342,2,0)</f>
-        <v>8801094252403</v>
-      </c>
-      <c r="C18" s="3" t="s">
+        <v>8801094253004</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="5" t="n">
+      <c r="D18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="3" t="str">
+      <c r="B19" s="2" t="str">
         <f aca="false">VLOOKUP(A19,[1]Sheet1!$C$3:$D$2342,2,0)</f>
-        <v>8801094253004</v>
-      </c>
-      <c r="C19" s="3" t="s">
+        <v>8801094252601</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="5" t="n">
+      <c r="D19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="3" t="str">
+      <c r="B20" s="2" t="str">
         <f aca="false">VLOOKUP(A20,[1]Sheet1!$C$3:$D$2342,2,0)</f>
-        <v>8801094252601</v>
-      </c>
-      <c r="C20" s="3" t="s">
+        <v>8801094577100AA</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="5" t="n">
+      <c r="D20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="3" t="str">
+      <c r="B21" s="2" t="str">
         <f aca="false">VLOOKUP(A21,[1]Sheet1!$C$3:$D$2342,2,0)</f>
-        <v>8801094577100AA</v>
-      </c>
-      <c r="C21" s="3" t="s">
+        <v>8801094547103AA</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="5" t="n">
+      <c r="D21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="3" t="str">
+      <c r="B22" s="2" t="str">
         <f aca="false">VLOOKUP(A22,[1]Sheet1!$C$3:$D$2342,2,0)</f>
-        <v>8801094547103AA</v>
-      </c>
-      <c r="C22" s="3" t="s">
+        <v>8801094589103</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" s="5" t="n">
+      <c r="D22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="3" t="str">
+      <c r="B23" s="2" t="str">
         <f aca="false">VLOOKUP(A23,[1]Sheet1!$C$3:$D$2342,2,0)</f>
-        <v>8801094589103</v>
-      </c>
-      <c r="C23" s="3" t="s">
+        <v>8801094503000</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" s="5" t="n">
+      <c r="D23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="3" t="str">
+      <c r="B24" s="2" t="str">
         <f aca="false">VLOOKUP(A24,[1]Sheet1!$C$3:$D$2342,2,0)</f>
-        <v>8801094503000</v>
-      </c>
-      <c r="C24" s="3" t="s">
+        <v>8801094746506</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D24" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" s="5" t="n">
+      <c r="D24" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="3" t="str">
+      <c r="B25" s="2" t="str">
         <f aca="false">VLOOKUP(A25,[1]Sheet1!$C$3:$D$2342,2,0)</f>
-        <v>8801094746506</v>
-      </c>
-      <c r="C25" s="3" t="s">
+        <v>8801094513009</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D25" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25" s="5" t="n">
+      <c r="D25" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="3" t="str">
+      <c r="B26" s="2" t="str">
         <f aca="false">VLOOKUP(A26,[1]Sheet1!$C$3:$D$2342,2,0)</f>
-        <v>8801094513009</v>
-      </c>
-      <c r="C26" s="3" t="s">
+        <v>8801094082406</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D26" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E26" s="5" t="n">
+      <c r="D26" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="3" t="str">
+      <c r="B27" s="2" t="str">
         <f aca="false">VLOOKUP(A27,[1]Sheet1!$C$3:$D$2342,2,0)</f>
-        <v>8801094082406</v>
-      </c>
-      <c r="C27" s="3" t="s">
+        <v>8801094083007</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D27" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E27" s="5" t="n">
+      <c r="D27" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="3" t="str">
+      <c r="B28" s="2" t="str">
         <f aca="false">VLOOKUP(A28,[1]Sheet1!$C$3:$D$2342,2,0)</f>
-        <v>8801094083007</v>
-      </c>
-      <c r="C28" s="3" t="s">
+        <v>8801094082604</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E28" s="5" t="n">
+      <c r="D28" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="3" t="str">
+      <c r="B29" s="2" t="str">
         <f aca="false">VLOOKUP(A29,[1]Sheet1!$C$3:$D$2342,2,0)</f>
-        <v>8801094082604</v>
-      </c>
-      <c r="C29" s="3" t="s">
+        <v>8801094342609</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E29" s="5" t="n">
+      <c r="D29" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B30" s="3" t="str">
+      <c r="B30" s="2" t="str">
         <f aca="false">VLOOKUP(A30,[1]Sheet1!$C$3:$D$2342,2,0)</f>
-        <v>8801094342609</v>
-      </c>
-      <c r="C30" s="3" t="s">
+        <v>8801094362409</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D30" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E30" s="5" t="n">
+      <c r="D30" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B31" s="3" t="str">
+      <c r="B31" s="2" t="str">
         <f aca="false">VLOOKUP(A31,[1]Sheet1!$C$3:$D$2342,2,0)</f>
-        <v>8801094362409</v>
-      </c>
-      <c r="C31" s="3" t="s">
+        <v>8801094363000</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D31" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E31" s="5" t="n">
+      <c r="D31" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="3" t="str">
+      <c r="B32" s="2" t="str">
         <f aca="false">VLOOKUP(A32,[1]Sheet1!$C$3:$D$2342,2,0)</f>
-        <v>8801094363000</v>
-      </c>
-      <c r="C32" s="3" t="s">
+        <v>8801094362706</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D32" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E32" s="5" t="n">
+      <c r="D32" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B33" s="3" t="str">
+      <c r="B33" s="2" t="str">
         <f aca="false">VLOOKUP(A33,[1]Sheet1!$C$3:$D$2342,2,0)</f>
-        <v>8801094362706</v>
-      </c>
-      <c r="C33" s="3" t="s">
+        <v>8801094112400</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D33" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E33" s="5" t="n">
+      <c r="D33" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="3" t="str">
+      <c r="B34" s="2" t="str">
         <f aca="false">VLOOKUP(A34,[1]Sheet1!$C$3:$D$2342,2,0)</f>
-        <v>8801094112400</v>
-      </c>
-      <c r="C34" s="3" t="s">
+        <v>8801094113001</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D34" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E34" s="5" t="n">
+      <c r="D34" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B35" s="3" t="str">
+      <c r="B35" s="2" t="str">
         <f aca="false">VLOOKUP(A35,[1]Sheet1!$C$3:$D$2342,2,0)</f>
-        <v>8801094113001</v>
-      </c>
-      <c r="C35" s="3" t="s">
+        <v>8801094112707</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D35" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E35" s="5" t="n">
+      <c r="D35" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="3" t="str">
+      <c r="B36" s="2" t="str">
         <f aca="false">VLOOKUP(A36,[1]Sheet1!$C$3:$D$2342,2,0)</f>
-        <v>8801094112707</v>
-      </c>
-      <c r="C36" s="3" t="s">
+        <v>8801094132408</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D36" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E36" s="5" t="n">
+      <c r="D36" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E36" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B37" s="3" t="str">
+      <c r="B37" s="2" t="str">
         <f aca="false">VLOOKUP(A37,[1]Sheet1!$C$3:$D$2342,2,0)</f>
-        <v>8801094132408</v>
-      </c>
-      <c r="C37" s="3" t="s">
+        <v>8801094133009</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D37" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E37" s="5" t="n">
+      <c r="D37" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E37" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B38" s="3" t="str">
+      <c r="B38" s="2" t="str">
         <f aca="false">VLOOKUP(A38,[1]Sheet1!$C$3:$D$2342,2,0)</f>
-        <v>8801094133009</v>
-      </c>
-      <c r="C38" s="3" t="s">
+        <v>8801094132705</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D38" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E38" s="5" t="n">
+      <c r="D38" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B39" s="3" t="str">
+      <c r="B39" s="2" t="str">
         <f aca="false">VLOOKUP(A39,[1]Sheet1!$C$3:$D$2342,2,0)</f>
-        <v>8801094132705</v>
-      </c>
-      <c r="C39" s="3" t="s">
+        <v>8801094462505</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D39" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E39" s="5" t="n">
+      <c r="D39" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E39" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B40" s="3" t="str">
+      <c r="B40" s="2" t="str">
         <f aca="false">VLOOKUP(A40,[1]Sheet1!$C$3:$D$2342,2,0)</f>
-        <v>8801094462505</v>
-      </c>
-      <c r="C40" s="3" t="s">
+        <v>8801094462604</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D40" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E40" s="5" t="n">
+      <c r="D40" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E40" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B41" s="3" t="str">
+      <c r="B41" s="2" t="str">
         <f aca="false">VLOOKUP(A41,[1]Sheet1!$C$3:$D$2342,2,0)</f>
-        <v>8801094462604</v>
-      </c>
-      <c r="C41" s="3" t="s">
+        <v>8801094413705</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D41" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E41" s="5" t="n">
+      <c r="D41" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B42" s="3" t="str">
+      <c r="B42" s="2" t="str">
         <f aca="false">VLOOKUP(A42,[1]Sheet1!$C$3:$D$2342,2,0)</f>
-        <v>8801094413705</v>
-      </c>
-      <c r="C42" s="3" t="s">
+        <v>8801094412005</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D42" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E42" s="5" t="n">
+      <c r="D42" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E42" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B43" s="3" t="str">
+      <c r="B43" s="2" t="str">
         <f aca="false">VLOOKUP(A43,[1]Sheet1!$C$3:$D$2342,2,0)</f>
-        <v>8801094412005</v>
-      </c>
-      <c r="C43" s="3" t="s">
+        <v>8801094412906</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D43" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E43" s="5" t="n">
+      <c r="D43" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E43" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B44" s="3" t="str">
+      <c r="B44" s="2" t="str">
         <f aca="false">VLOOKUP(A44,[1]Sheet1!$C$3:$D$2342,2,0)</f>
-        <v>8801094412906</v>
-      </c>
-      <c r="C44" s="3" t="s">
+        <v>4897036691007</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D44" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E44" s="5" t="n">
+      <c r="D44" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E44" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B45" s="3" t="str">
+      <c r="B45" s="2" t="str">
         <f aca="false">VLOOKUP(A45,[1]Sheet1!$C$3:$D$2342,2,0)</f>
-        <v>4897036691007</v>
-      </c>
-      <c r="C45" s="3" t="s">
+        <v>4897036691120</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D45" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E45" s="5" t="n">
+      <c r="D45" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E45" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B46" s="3" t="str">
+      <c r="B46" s="2" t="str">
         <f aca="false">VLOOKUP(A46,[1]Sheet1!$C$3:$D$2342,2,0)</f>
-        <v>4897036691120</v>
-      </c>
-      <c r="C46" s="3" t="s">
+        <v>8801094013202</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D46" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E46" s="5" t="n">
+      <c r="D46" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E46" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B47" s="3" t="str">
+      <c r="B47" s="2" t="str">
         <f aca="false">VLOOKUP(A47,[1]Sheet1!$C$3:$D$2342,2,0)</f>
-        <v>8801094013202</v>
-      </c>
-      <c r="C47" s="3" t="s">
+        <v>8801094762100</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D47" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E47" s="5" t="n">
+      <c r="D47" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E47" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="3" t="s">
+      <c r="A48" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B48" s="3" t="str">
+      <c r="B48" s="2" t="str">
         <f aca="false">VLOOKUP(A48,[1]Sheet1!$C$3:$D$2342,2,0)</f>
-        <v>8801094762100</v>
-      </c>
-      <c r="C48" s="3" t="s">
+        <v>8801094783105</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D48" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E48" s="5" t="n">
+      <c r="D48" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E48" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B49" s="3" t="str">
+      <c r="B49" s="2" t="str">
         <f aca="false">VLOOKUP(A49,[1]Sheet1!$C$3:$D$2342,2,0)</f>
-        <v>8801094783105</v>
-      </c>
-      <c r="C49" s="3" t="s">
+        <v>8801094793104</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D49" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E49" s="5" t="n">
+      <c r="D49" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E49" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B50" s="3" t="str">
+      <c r="B50" s="2" t="str">
         <f aca="false">VLOOKUP(A50,[1]Sheet1!$C$3:$D$2342,2,0)</f>
-        <v>8801094793104</v>
-      </c>
-      <c r="C50" s="3" t="s">
+        <v>8801094562106</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D50" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E50" s="5" t="n">
+      <c r="D50" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E50" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="3" t="s">
+      <c r="A51" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B51" s="3" t="str">
+      <c r="B51" s="2" t="str">
         <f aca="false">VLOOKUP(A51,[1]Sheet1!$C$3:$D$2342,2,0)</f>
-        <v>8801094562106</v>
-      </c>
-      <c r="C51" s="3" t="s">
+        <v>8801094582203</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D51" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E51" s="5" t="n">
+      <c r="D51" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E51" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="3" t="s">
+      <c r="A52" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B52" s="3" t="str">
+      <c r="B52" s="2" t="str">
         <f aca="false">VLOOKUP(A52,[1]Sheet1!$C$3:$D$2342,2,0)</f>
-        <v>8801094582203</v>
-      </c>
-      <c r="C52" s="3" t="s">
+        <v>8801094603601</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D52" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E52" s="5" t="n">
+      <c r="D52" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E52" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="3" t="s">
+      <c r="A53" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B53" s="3" t="str">
+      <c r="B53" s="2" t="str">
         <f aca="false">VLOOKUP(A53,[1]Sheet1!$C$3:$D$2342,2,0)</f>
-        <v>8801094603601</v>
-      </c>
-      <c r="C53" s="3" t="s">
+        <v>8801094432201</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D53" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E53" s="5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B54" s="3" t="str">
-        <f aca="false">VLOOKUP(A54,[1]Sheet1!$C$3:$D$2342,2,0)</f>
-        <v>8801094432201</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E54" s="5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="D53" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E53" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:E54"/>
+  <autoFilter ref="A1:E53"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/Projects/CCKR_SAND/Data/CC Korea - Availability KPI_120718.xlsx
+++ b/Projects/CCKR_SAND/Data/CC Korea - Availability KPI_120718.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet4" sheetId="1" state="visible" r:id="rId2"/>
@@ -16,6 +16,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Sheet4!$A$1:$E$53</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Sheet4!$A$1:$E$53</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Sheet4!$A$1:$E$53</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Sheet4!$A$1:$E$53</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="107">
   <si>
     <t xml:space="preserve">Kpi Display Text (SKU Name)</t>
   </si>
@@ -50,7 +51,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">조지아 스위트 아메리카노 </t>
     </r>
@@ -70,7 +70,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">캔</t>
     </r>
@@ -88,7 +87,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">글라소 파워씨 </t>
     </r>
@@ -108,7 +106,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">페트</t>
     </r>
@@ -123,7 +120,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">미닛메이드 알로에 </t>
     </r>
@@ -143,7 +139,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">페트</t>
     </r>
@@ -158,7 +153,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">미닛메이드 오리지널 오렌지</t>
     </r>
@@ -178,7 +172,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">페트</t>
     </r>
@@ -193,7 +186,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">미닛메이드 오리지널 오렌지</t>
     </r>
@@ -213,7 +205,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">페트</t>
     </r>
@@ -228,7 +219,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">미닛메이드 오리지널 토마토 </t>
     </r>
@@ -248,7 +238,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">페트</t>
     </r>
@@ -263,7 +252,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">미닛메이드 오리지널 포도</t>
     </r>
@@ -283,7 +271,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">페트</t>
     </r>
@@ -298,7 +285,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">미닛메이드 제주감귤 </t>
     </r>
@@ -318,7 +304,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">페트</t>
     </r>
@@ -333,7 +318,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">미닛메이드 홈스타일 오렌지</t>
     </r>
@@ -353,7 +337,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">페트</t>
     </r>
@@ -368,7 +351,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">스프라이트 </t>
     </r>
@@ -388,7 +370,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">페트</t>
     </r>
@@ -403,7 +384,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">스프라이트 </t>
     </r>
@@ -423,7 +403,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">캔</t>
     </r>
@@ -438,7 +417,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">스프라이트 </t>
     </r>
@@ -458,7 +436,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">페트</t>
     </r>
@@ -473,7 +450,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">씨그램 레몬 </t>
     </r>
@@ -493,7 +469,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">페트</t>
     </r>
@@ -508,7 +483,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">씨그램라임 </t>
     </r>
@@ -528,7 +502,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">페트</t>
     </r>
@@ -543,7 +516,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">씨그램플레인 </t>
     </r>
@@ -563,7 +535,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">페트</t>
     </r>
@@ -578,7 +549,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">암바사 </t>
     </r>
@@ -598,7 +568,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">페트</t>
     </r>
@@ -613,7 +582,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">암바사 </t>
     </r>
@@ -633,7 +601,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">캔</t>
     </r>
@@ -648,7 +615,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">암바사 </t>
     </r>
@@ -668,7 +634,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">페트</t>
     </r>
@@ -680,17 +645,16 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-        <charset val="1"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">조지아 고티 카 빈티지 라떼 </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
@@ -699,23 +663,19 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">8801094577100AA</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-        <charset val="1"/>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">고티 카 빈티지 블랙 </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
@@ -724,23 +684,19 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">8801094547103AA</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-        <charset val="1"/>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">조지아 고티 카 빈티지 스위트 아메리카노 </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
@@ -749,16 +705,12 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">8801094589103</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-        <charset val="1"/>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">조지아 오리지널 </t>
     </r>
@@ -778,7 +730,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">캔</t>
     </r>
@@ -793,7 +744,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">미닛메이드 홈스타일 청포도 </t>
     </r>
@@ -813,7 +763,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">페트</t>
     </r>
@@ -828,7 +777,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">조지아 카페라떼 </t>
     </r>
@@ -848,7 +796,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">캔</t>
     </r>
@@ -863,7 +810,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">코카콜라 제로 </t>
     </r>
@@ -883,7 +829,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">페트</t>
     </r>
@@ -898,7 +843,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">코카콜라 제로 </t>
     </r>
@@ -918,7 +862,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">캔</t>
     </r>
@@ -933,7 +876,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">코카콜라 제로 </t>
     </r>
@@ -953,7 +895,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">페트</t>
     </r>
@@ -968,7 +909,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">태양의마테차 </t>
     </r>
@@ -988,7 +928,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">페트</t>
     </r>
@@ -1003,7 +942,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">파워에이드 마운틴블라스트 </t>
     </r>
@@ -1023,7 +961,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">페트</t>
     </r>
@@ -1038,7 +975,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">파워에이드 마운틴블라스트 </t>
     </r>
@@ -1058,7 +994,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">캔</t>
     </r>
@@ -1073,7 +1008,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">파워에이드 마운틴블라스트 </t>
     </r>
@@ -1093,7 +1027,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">페트</t>
     </r>
@@ -1108,7 +1041,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">환타 오렌지 </t>
     </r>
@@ -1128,7 +1060,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">페트</t>
     </r>
@@ -1143,7 +1074,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">환타 오렌지 </t>
     </r>
@@ -1163,7 +1093,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">캔</t>
     </r>
@@ -1178,7 +1107,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">환타 오렌지 </t>
     </r>
@@ -1198,7 +1126,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">페트</t>
     </r>
@@ -1213,7 +1140,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">환타 파인애플 </t>
     </r>
@@ -1233,7 +1159,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">페트</t>
     </r>
@@ -1248,7 +1173,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">환타 파인애플 </t>
     </r>
@@ -1268,7 +1192,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">캔</t>
     </r>
@@ -1283,7 +1206,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">환타 파인애플 </t>
     </r>
@@ -1303,7 +1225,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">페트</t>
     </r>
@@ -1318,7 +1239,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">휘오 순수 </t>
     </r>
@@ -1343,7 +1263,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">휘오 순수 </t>
     </r>
@@ -1368,7 +1287,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">토레타 </t>
     </r>
@@ -1388,7 +1306,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">캔</t>
     </r>
@@ -1403,7 +1320,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">토레타 </t>
     </r>
@@ -1423,7 +1339,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">페트</t>
     </r>
@@ -1438,7 +1353,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">토레타 </t>
     </r>
@@ -1458,7 +1372,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">페트</t>
     </r>
@@ -1473,7 +1386,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">몬스터 그린 </t>
     </r>
@@ -1493,7 +1405,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">캔</t>
     </r>
@@ -1508,7 +1419,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">몬스터 울트라 </t>
     </r>
@@ -1528,7 +1438,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">캔</t>
     </r>
@@ -1543,7 +1452,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">코카콜라 </t>
     </r>
@@ -1563,7 +1471,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">캔</t>
     </r>
@@ -1578,7 +1485,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">미닛메이드쿠우 오렌지 </t>
     </r>
@@ -1598,7 +1504,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">페트</t>
     </r>
@@ -1613,7 +1518,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">미닛메이드 스파클링 청포도 </t>
     </r>
@@ -1633,7 +1537,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">캔</t>
     </r>
@@ -1648,7 +1551,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">미닛메이드 스파클링 사과 </t>
     </r>
@@ -1668,7 +1570,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">캔</t>
     </r>
@@ -1683,7 +1584,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">조지아 고티카 콜드브루 아메리카노 </t>
     </r>
@@ -1703,7 +1603,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">보틀캔</t>
     </r>
@@ -1718,7 +1617,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">조지아 고티카 콜드브루 카페라떼 </t>
     </r>
@@ -1738,7 +1636,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">보틀캔</t>
     </r>
@@ -1753,7 +1650,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">골드피크 오리지널 </t>
     </r>
@@ -1773,7 +1669,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">페트</t>
     </r>
@@ -1788,7 +1683,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">미닛메이드 알로에 </t>
     </r>
@@ -1808,7 +1702,6 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">페트</t>
     </r>
@@ -1821,10 +1714,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="0"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1859,6 +1753,18 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Noto Sans CJK SC Regular"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Noto Sans CJK SC Regular"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -1918,7 +1824,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1936,6 +1842,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2023,15 +1937,14 @@
   <dimension ref="A1:E65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
+      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="45.9554655870445"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.6396761133603"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.1781376518219"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="34.8137651821862"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="46.3805668016194"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.2834008097166"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2358,48 +2271,48 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="6" t="n">
+        <v>8801094577100</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="s">
+      <c r="B21" s="6" t="n">
+        <v>8801094547103</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" s="2" t="s">
+      <c r="B22" s="6" t="n">
+        <v>8801094589103</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>44</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>7</v>
@@ -2410,13 +2323,13 @@
     </row>
     <row r="23" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>7</v>
@@ -2427,13 +2340,13 @@
     </row>
     <row r="24" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>7</v>
@@ -2444,13 +2357,13 @@
     </row>
     <row r="25" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>7</v>
@@ -2461,13 +2374,13 @@
     </row>
     <row r="26" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>7</v>
@@ -2478,13 +2391,13 @@
     </row>
     <row r="27" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>7</v>
@@ -2495,13 +2408,13 @@
     </row>
     <row r="28" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>7</v>
@@ -2512,13 +2425,13 @@
     </row>
     <row r="29" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>7</v>
@@ -2529,13 +2442,13 @@
     </row>
     <row r="30" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>7</v>
@@ -2546,13 +2459,13 @@
     </row>
     <row r="31" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>7</v>
@@ -2563,13 +2476,13 @@
     </row>
     <row r="32" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>7</v>
@@ -2580,13 +2493,13 @@
     </row>
     <row r="33" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>7</v>
@@ -2597,13 +2510,13 @@
     </row>
     <row r="34" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>7</v>
@@ -2614,13 +2527,13 @@
     </row>
     <row r="35" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>7</v>
@@ -2631,13 +2544,13 @@
     </row>
     <row r="36" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>7</v>
@@ -2648,13 +2561,13 @@
     </row>
     <row r="37" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>7</v>
@@ -2665,13 +2578,13 @@
     </row>
     <row r="38" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>7</v>
@@ -2682,13 +2595,13 @@
     </row>
     <row r="39" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>7</v>
@@ -2699,13 +2612,13 @@
     </row>
     <row r="40" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>7</v>
@@ -2716,13 +2629,13 @@
     </row>
     <row r="41" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>7</v>
@@ -2733,13 +2646,13 @@
     </row>
     <row r="42" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>7</v>
@@ -2750,13 +2663,13 @@
     </row>
     <row r="43" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>7</v>
@@ -2767,13 +2680,13 @@
     </row>
     <row r="44" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>7</v>
@@ -2784,13 +2697,13 @@
     </row>
     <row r="45" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>7</v>
@@ -2801,13 +2714,13 @@
     </row>
     <row r="46" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>7</v>
@@ -2818,13 +2731,13 @@
     </row>
     <row r="47" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>7</v>
@@ -2835,13 +2748,13 @@
     </row>
     <row r="48" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>7</v>
@@ -2852,13 +2765,13 @@
     </row>
     <row r="49" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>7</v>
@@ -2869,13 +2782,13 @@
     </row>
     <row r="50" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>7</v>
@@ -2886,13 +2799,13 @@
     </row>
     <row r="51" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>7</v>
@@ -2903,13 +2816,13 @@
     </row>
     <row r="52" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>7</v>
@@ -2920,13 +2833,13 @@
     </row>
     <row r="53" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>7</v>

--- a/Projects/CCKR_SAND/Data/CC Korea - Availability KPI_120718.xlsx
+++ b/Projects/CCKR_SAND/Data/CC Korea - Availability KPI_120718.xlsx
@@ -5,18 +5,24 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet4" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="KPI" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Template" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet4!$A$1:$E$53</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet4!$A$1:$E$53</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Sheet4!$A$1:$E$53</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Sheet4!$A$1:$E$53</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Sheet4!$A$1:$E$53</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Sheet4!$A$1:$E$53</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPI!$A$1:$E$53</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPI!$A$1:$E$53</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">KPI!$A$1:$E$53</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">KPI!$A$1:$E$53</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">KPI!$A$1:$E$53</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">KPI!$A$1:$E$53</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">KPI!$A$1:$E$53</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">KPI!$A$1:$E$53</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">KPI!$A$1:$E$53</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">KPI!$A$1:$E$53</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPI!$A$1:$E$53</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -28,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="60">
   <si>
     <t xml:space="preserve">Kpi Display Text (SKU Name)</t>
   </si>
@@ -51,6 +57,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">조지아 스위트 아메리카노 </t>
     </r>
@@ -70,14 +77,12 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">캔</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">8801094561208</t>
-  </si>
-  <si>
     <t xml:space="preserve">kpi_rule_count</t>
   </si>
   <si>
@@ -87,6 +92,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">글라소 파워씨 </t>
     </r>
@@ -106,20 +112,19 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">페트</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">8801094862602</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">페트</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">미닛메이드 알로에 </t>
     </r>
@@ -139,20 +144,19 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">페트</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">8801094432409</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">페트</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">미닛메이드 오리지널 오렌지</t>
     </r>
@@ -172,20 +176,19 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">페트</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">8801094266400</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">페트</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">미닛메이드 오리지널 오렌지</t>
     </r>
@@ -205,20 +208,19 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">페트</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">8801094265205</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">페트</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">미닛메이드 오리지널 토마토 </t>
     </r>
@@ -238,20 +240,19 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">페트</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">8801094332402</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">페트</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">미닛메이드 오리지널 포도</t>
     </r>
@@ -271,20 +272,19 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">페트</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">8801094642402</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">페트</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">미닛메이드 제주감귤 </t>
     </r>
@@ -304,20 +304,19 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">페트</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">8801094626402</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">페트</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">미닛메이드 홈스타일 오렌지</t>
     </r>
@@ -337,20 +336,19 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">페트</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">8801094743307</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">페트</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">스프라이트 </t>
     </r>
@@ -370,20 +368,19 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">페트</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">8801094202408</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">페트</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">스프라이트 </t>
     </r>
@@ -403,20 +400,19 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">캔</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">8801094203009</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">스프라이트 </t>
     </r>
@@ -436,20 +432,19 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">페트</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">8801094202606</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">페트</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">씨그램 레몬 </t>
     </r>
@@ -469,20 +464,19 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">페트</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">8801094989200</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">페트</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">씨그램라임 </t>
     </r>
@@ -502,20 +496,19 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">페트</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">8801094985202</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">페트</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">씨그램플레인 </t>
     </r>
@@ -535,20 +528,19 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">페트</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">8801094984205</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">페트</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">암바사 </t>
     </r>
@@ -568,20 +560,19 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">페트</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">8801094252403</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">페트</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">암바사 </t>
     </r>
@@ -601,20 +592,19 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">캔</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">8801094253004</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">암바사 </t>
     </r>
@@ -634,12 +624,10 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">페트</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">8801094252601</t>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">페트</t>
+    </r>
   </si>
   <si>
     <r>
@@ -648,6 +636,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">조지아 고티 카 빈티지 라떼 </t>
     </r>
@@ -669,6 +658,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">고티 카 빈티지 블랙 </t>
     </r>
@@ -690,6 +680,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">조지아 고티 카 빈티지 스위트 아메리카노 </t>
     </r>
@@ -711,6 +702,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">조지아 오리지널 </t>
     </r>
@@ -730,20 +722,19 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">캔</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">8801094503000</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">미닛메이드 홈스타일 청포도 </t>
     </r>
@@ -763,20 +754,19 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">페트</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">8801094746506</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">페트</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">조지아 카페라떼 </t>
     </r>
@@ -796,20 +786,19 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">캔</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">8801094513009</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">코카콜라 제로 </t>
     </r>
@@ -829,20 +818,19 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">페트</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">8801094082406</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">페트</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">코카콜라 제로 </t>
     </r>
@@ -862,20 +850,19 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">캔</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">8801094083007</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">코카콜라 제로 </t>
     </r>
@@ -895,20 +882,19 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">페트</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">8801094082604</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">페트</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">태양의마테차 </t>
     </r>
@@ -928,20 +914,19 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">페트</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">8801094342609</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">페트</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">파워에이드 마운틴블라스트 </t>
     </r>
@@ -961,20 +946,19 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">페트</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">8801094362409</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">페트</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">파워에이드 마운틴블라스트 </t>
     </r>
@@ -994,20 +978,19 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">캔</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">8801094363000</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">파워에이드 마운틴블라스트 </t>
     </r>
@@ -1027,20 +1010,19 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">페트</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">8801094362706</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">페트</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">환타 오렌지 </t>
     </r>
@@ -1060,20 +1042,19 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">페트</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">8801094112400</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">페트</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">환타 오렌지 </t>
     </r>
@@ -1093,20 +1074,19 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">캔</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">8801094113001</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">환타 오렌지 </t>
     </r>
@@ -1126,20 +1106,19 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">페트</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">8801094112707</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">페트</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">환타 파인애플 </t>
     </r>
@@ -1159,20 +1138,19 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">페트</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">8801094132408</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">페트</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">환타 파인애플 </t>
     </r>
@@ -1192,20 +1170,19 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">캔</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">8801094133009</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">환타 파인애플 </t>
     </r>
@@ -1225,20 +1202,19 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">페트</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">8801094132705</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">페트</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">휘오 순수 </t>
     </r>
@@ -1254,15 +1230,13 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">8801094462505</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">휘오 순수 </t>
     </r>
@@ -1278,15 +1252,13 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">8801094462604</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">토레타 </t>
     </r>
@@ -1306,20 +1278,19 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">캔</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">8801094413705</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">토레타 </t>
     </r>
@@ -1339,20 +1310,19 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">페트</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">8801094412005</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">페트</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">토레타 </t>
     </r>
@@ -1372,20 +1342,19 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">페트</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">8801094412906</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">페트</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">몬스터 그린 </t>
     </r>
@@ -1405,20 +1374,19 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">캔</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">4897036691007</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">몬스터 울트라 </t>
     </r>
@@ -1438,20 +1406,19 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">캔</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">4897036691120</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">코카콜라 </t>
     </r>
@@ -1471,20 +1438,19 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">캔</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">8801094013202</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">미닛메이드쿠우 오렌지 </t>
     </r>
@@ -1504,20 +1470,19 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">페트</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">8801094762100</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">페트</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">미닛메이드 스파클링 청포도 </t>
     </r>
@@ -1537,20 +1502,19 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">캔</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">8801094783105</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">미닛메이드 스파클링 사과 </t>
     </r>
@@ -1570,20 +1534,19 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">캔</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">8801094793104</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">조지아 고티카 콜드브루 아메리카노 </t>
     </r>
@@ -1603,20 +1566,19 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">보틀캔</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">8801094562106</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">조지아 고티카 콜드브루 카페라떼 </t>
     </r>
@@ -1636,20 +1598,19 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">보틀캔</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">8801094582203</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">골드피크 오리지널 </t>
     </r>
@@ -1669,20 +1630,19 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">페트</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">8801094603601</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">페트</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">미닛메이드 알로에 </t>
     </r>
@@ -1702,12 +1662,16 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">페트</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">8801094432201</t>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">페트</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">additional_attribute_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">주진열</t>
   </si>
 </sst>
 </file>
@@ -1716,7 +1680,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0"/>
+    <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -1754,17 +1718,19 @@
       <color rgb="FF000000"/>
       <name val="Noto Sans CJK SC Regular"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Noto Sans CJK SC Regular"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -1837,6 +1803,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1845,12 +1815,8 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1936,15 +1902,16 @@
   </sheetPr>
   <dimension ref="A1:E65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="46.3805668016194"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.2834008097166"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="48.2024291497976"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.3886639676113"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1968,883 +1935,883 @@
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>6</v>
+      <c r="B2" s="3" t="n">
+        <v>8801094561208</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="4" t="n">
+      <c r="D2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="B3" s="3" t="n">
+        <v>8801094862602</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="4" t="n">
+      <c r="D3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
+      </c>
+      <c r="B4" s="3" t="n">
+        <v>8801094432409</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
+      </c>
+      <c r="B5" s="3" t="n">
+        <v>8801094266400</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="B6" s="3" t="n">
+        <v>8801094265205</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
+      </c>
+      <c r="B7" s="3" t="n">
+        <v>8801094332402</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>19</v>
+        <v>12</v>
+      </c>
+      <c r="B8" s="3" t="n">
+        <v>8801094642402</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>21</v>
+        <v>13</v>
+      </c>
+      <c r="B9" s="3" t="n">
+        <v>8801094626402</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="4" t="n">
+        <v>13</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>23</v>
+        <v>14</v>
+      </c>
+      <c r="B10" s="3" t="n">
+        <v>8801094743307</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="4" t="n">
+        <v>14</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>25</v>
+        <v>15</v>
+      </c>
+      <c r="B11" s="3" t="n">
+        <v>8801094202408</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>27</v>
+        <v>16</v>
+      </c>
+      <c r="B12" s="3" t="n">
+        <v>8801094203009</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="4" t="n">
+        <v>16</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>29</v>
+        <v>17</v>
+      </c>
+      <c r="B13" s="3" t="n">
+        <v>8801094202606</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="4" t="n">
+        <v>17</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>31</v>
+        <v>18</v>
+      </c>
+      <c r="B14" s="3" t="n">
+        <v>8801094989200</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="4" t="n">
+        <v>18</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>33</v>
+        <v>19</v>
+      </c>
+      <c r="B15" s="3" t="n">
+        <v>8801094985202</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="4" t="n">
+        <v>19</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>35</v>
+        <v>20</v>
+      </c>
+      <c r="B16" s="3" t="n">
+        <v>8801094984205</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>37</v>
+        <v>21</v>
+      </c>
+      <c r="B17" s="3" t="n">
+        <v>8801094252403</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="4" t="n">
+        <v>21</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>39</v>
+        <v>22</v>
+      </c>
+      <c r="B18" s="3" t="n">
+        <v>8801094253004</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="4" t="n">
+        <v>22</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>41</v>
+        <v>23</v>
+      </c>
+      <c r="B19" s="3" t="n">
+        <v>8801094252601</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="4" t="n">
+        <v>23</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" s="6" t="n">
+      <c r="A20" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="3" t="n">
         <v>8801094577100</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="4" t="n">
+      <c r="C20" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" s="6" t="n">
+      <c r="A21" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="3" t="n">
         <v>8801094547103</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="4" t="n">
+      <c r="C21" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B22" s="6" t="n">
+      <c r="A22" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="3" t="n">
         <v>8801094589103</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" s="4" t="n">
+      <c r="C22" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>46</v>
+        <v>27</v>
+      </c>
+      <c r="B23" s="3" t="n">
+        <v>8801094503000</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" s="4" t="n">
+        <v>27</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>48</v>
+        <v>28</v>
+      </c>
+      <c r="B24" s="3" t="n">
+        <v>8801094746506</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" s="4" t="n">
+        <v>28</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>50</v>
+        <v>29</v>
+      </c>
+      <c r="B25" s="3" t="n">
+        <v>8801094513009</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25" s="4" t="n">
+        <v>29</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>52</v>
+        <v>30</v>
+      </c>
+      <c r="B26" s="3" t="n">
+        <v>8801094082406</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E26" s="4" t="n">
+        <v>30</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>54</v>
+        <v>31</v>
+      </c>
+      <c r="B27" s="3" t="n">
+        <v>8801094083007</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E27" s="4" t="n">
+        <v>31</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>56</v>
+        <v>32</v>
+      </c>
+      <c r="B28" s="3" t="n">
+        <v>8801094082604</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E28" s="4" t="n">
+        <v>32</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>58</v>
+        <v>33</v>
+      </c>
+      <c r="B29" s="3" t="n">
+        <v>8801094342609</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E29" s="4" t="n">
+        <v>33</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>60</v>
+        <v>34</v>
+      </c>
+      <c r="B30" s="3" t="n">
+        <v>8801094362409</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E30" s="4" t="n">
+        <v>34</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>62</v>
+        <v>35</v>
+      </c>
+      <c r="B31" s="3" t="n">
+        <v>8801094363000</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E31" s="4" t="n">
+        <v>35</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>64</v>
+        <v>36</v>
+      </c>
+      <c r="B32" s="3" t="n">
+        <v>8801094362706</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E32" s="4" t="n">
+        <v>36</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>66</v>
+        <v>37</v>
+      </c>
+      <c r="B33" s="3" t="n">
+        <v>8801094112400</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E33" s="4" t="n">
+        <v>37</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>68</v>
+        <v>38</v>
+      </c>
+      <c r="B34" s="3" t="n">
+        <v>8801094113001</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E34" s="4" t="n">
+        <v>38</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>70</v>
+        <v>39</v>
+      </c>
+      <c r="B35" s="3" t="n">
+        <v>8801094112707</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E35" s="4" t="n">
+        <v>39</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>72</v>
+        <v>40</v>
+      </c>
+      <c r="B36" s="3" t="n">
+        <v>8801094132408</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E36" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E36" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>74</v>
+        <v>41</v>
+      </c>
+      <c r="B37" s="3" t="n">
+        <v>8801094133009</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E37" s="4" t="n">
+        <v>41</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E37" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>76</v>
+        <v>42</v>
+      </c>
+      <c r="B38" s="3" t="n">
+        <v>8801094132705</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E38" s="4" t="n">
+        <v>42</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>78</v>
+        <v>43</v>
+      </c>
+      <c r="B39" s="3" t="n">
+        <v>8801094462505</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E39" s="4" t="n">
+        <v>43</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E39" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>80</v>
+        <v>44</v>
+      </c>
+      <c r="B40" s="3" t="n">
+        <v>8801094462604</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E40" s="4" t="n">
+        <v>44</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E40" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>82</v>
+        <v>45</v>
+      </c>
+      <c r="B41" s="3" t="n">
+        <v>8801094413705</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E41" s="4" t="n">
+        <v>45</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>84</v>
+        <v>46</v>
+      </c>
+      <c r="B42" s="3" t="n">
+        <v>8801094412005</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E42" s="4" t="n">
+        <v>46</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E42" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>86</v>
+        <v>47</v>
+      </c>
+      <c r="B43" s="3" t="n">
+        <v>8801094412906</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E43" s="4" t="n">
+        <v>47</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E43" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>88</v>
+        <v>48</v>
+      </c>
+      <c r="B44" s="3" t="n">
+        <v>4897036691007</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E44" s="4" t="n">
+        <v>48</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E44" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>90</v>
+        <v>49</v>
+      </c>
+      <c r="B45" s="3" t="n">
+        <v>4897036691120</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E45" s="4" t="n">
+        <v>49</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E45" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>92</v>
+        <v>50</v>
+      </c>
+      <c r="B46" s="3" t="n">
+        <v>8801094013202</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E46" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E46" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>94</v>
+        <v>51</v>
+      </c>
+      <c r="B47" s="3" t="n">
+        <v>8801094762100</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E47" s="4" t="n">
+        <v>51</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E47" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>96</v>
+        <v>52</v>
+      </c>
+      <c r="B48" s="3" t="n">
+        <v>8801094783105</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E48" s="4" t="n">
+        <v>52</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E48" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>98</v>
+        <v>53</v>
+      </c>
+      <c r="B49" s="3" t="n">
+        <v>8801094793104</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E49" s="4" t="n">
+        <v>53</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E49" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>100</v>
+        <v>54</v>
+      </c>
+      <c r="B50" s="3" t="n">
+        <v>8801094562106</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E50" s="4" t="n">
+        <v>54</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E50" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>102</v>
+        <v>55</v>
+      </c>
+      <c r="B51" s="3" t="n">
+        <v>8801094582203</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E51" s="4" t="n">
+        <v>55</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E51" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>104</v>
+        <v>56</v>
+      </c>
+      <c r="B52" s="3" t="n">
+        <v>8801094603601</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E52" s="4" t="n">
+        <v>56</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E52" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>106</v>
+        <v>57</v>
+      </c>
+      <c r="B53" s="3" t="n">
+        <v>8801094432201</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E53" s="4" t="n">
+        <v>57</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E53" s="5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2861,4 +2828,41 @@
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.10526315789474"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/Projects/CCKR_SAND/Data/CC Korea - Availability KPI_120718.xlsx
+++ b/Projects/CCKR_SAND/Data/CC Korea - Availability KPI_120718.xlsx
@@ -5,24 +5,28 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="KPI" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Template" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPI!$A$1:$E$53</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPI!$A$1:$E$53</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">KPI!$A$1:$E$53</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">KPI!$A$1:$E$53</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">KPI!$A$1:$E$53</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">KPI!$A$1:$E$53</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">KPI!$A$1:$E$53</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">KPI!$A$1:$E$53</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">KPI!$A$1:$E$53</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">KPI!$A$1:$E$53</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPI!$A$1:$E$53</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPI!$A$1:$E$54</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPI!$A$1:$E$54</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">KPI!$A$1:$E$54</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">KPI!$A$1:$E$54</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">KPI!$A$1:$E$54</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">KPI!$A$1:$E$54</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">KPI!$A$1:$E$54</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">KPI!$A$1:$E$54</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">KPI!$A$1:$E$54</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">KPI!$A$1:$E$54</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPI!$A$1:$E$54</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPI!$A$1:$E$54</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPI!$A$1:$E$54</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPI!$A$1:$E$54</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPI!$A$1:$E$54</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -34,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="63">
   <si>
     <t xml:space="preserve">Kpi Display Text (SKU Name)</t>
   </si>
@@ -49,6 +53,15 @@
   </si>
   <si>
     <t xml:space="preserve">Kpi Weight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">try</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8801056002749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kpi_roule</t>
   </si>
   <si>
     <r>
@@ -1900,21 +1913,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E65536"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2:B54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="48.2024291497976"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="49.8097165991903"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1931,18 +1944,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3" t="n">
-        <v>8801094561208</v>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E2" s="5" t="n">
         <v>1</v>
@@ -1950,16 +1963,16 @@
     </row>
     <row r="3" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>8801094862602</v>
+        <v>8801094561208</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E3" s="5" t="n">
         <v>1</v>
@@ -1967,16 +1980,16 @@
     </row>
     <row r="4" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>8801094432409</v>
+        <v>8801094862602</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>1</v>
@@ -1984,16 +1997,16 @@
     </row>
     <row r="5" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>8801094266400</v>
+        <v>8801094432409</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E5" s="5" t="n">
         <v>1</v>
@@ -2001,16 +2014,16 @@
     </row>
     <row r="6" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>8801094265205</v>
+        <v>8801094266400</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E6" s="5" t="n">
         <v>1</v>
@@ -2018,16 +2031,16 @@
     </row>
     <row r="7" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>8801094332402</v>
+        <v>8801094265205</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>1</v>
@@ -2035,16 +2048,16 @@
     </row>
     <row r="8" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>8801094642402</v>
+        <v>8801094332402</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E8" s="5" t="n">
         <v>1</v>
@@ -2052,16 +2065,16 @@
     </row>
     <row r="9" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B9" s="3" t="n">
-        <v>8801094626402</v>
+        <v>8801094642402</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E9" s="5" t="n">
         <v>1</v>
@@ -2069,16 +2082,16 @@
     </row>
     <row r="10" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>8801094743307</v>
+        <v>8801094626402</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>1</v>
@@ -2086,16 +2099,16 @@
     </row>
     <row r="11" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>8801094202408</v>
+        <v>8801094743307</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E11" s="5" t="n">
         <v>1</v>
@@ -2103,16 +2116,16 @@
     </row>
     <row r="12" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>8801094203009</v>
+        <v>8801094202408</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E12" s="5" t="n">
         <v>1</v>
@@ -2120,16 +2133,16 @@
     </row>
     <row r="13" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>8801094202606</v>
+        <v>8801094203009</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>1</v>
@@ -2137,16 +2150,16 @@
     </row>
     <row r="14" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>8801094989200</v>
+        <v>8801094202606</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E14" s="5" t="n">
         <v>1</v>
@@ -2154,16 +2167,16 @@
     </row>
     <row r="15" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>8801094985202</v>
+        <v>8801094989200</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E15" s="5" t="n">
         <v>1</v>
@@ -2171,16 +2184,16 @@
     </row>
     <row r="16" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>8801094984205</v>
+        <v>8801094985202</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>1</v>
@@ -2188,16 +2201,16 @@
     </row>
     <row r="17" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>8801094252403</v>
+        <v>8801094984205</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E17" s="5" t="n">
         <v>1</v>
@@ -2205,16 +2218,16 @@
     </row>
     <row r="18" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>8801094253004</v>
+        <v>8801094252403</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E18" s="5" t="n">
         <v>1</v>
@@ -2222,33 +2235,33 @@
     </row>
     <row r="19" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B19" s="3" t="n">
+        <v>8801094253004</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="3" t="n">
         <v>8801094252601</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="3" t="n">
-        <v>8801094577100</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>24</v>
+      <c r="C20" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E20" s="5" t="n">
         <v>1</v>
@@ -2256,16 +2269,16 @@
     </row>
     <row r="21" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>8801094547103</v>
+        <v>8801094577100</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E21" s="5" t="n">
         <v>1</v>
@@ -2273,33 +2286,33 @@
     </row>
     <row r="22" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B22" s="3" t="n">
+        <v>8801094547103</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="3" t="n">
         <v>8801094589103</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" s="5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="3" t="n">
-        <v>8801094503000</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>27</v>
+      <c r="C23" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E23" s="5" t="n">
         <v>1</v>
@@ -2307,16 +2320,16 @@
     </row>
     <row r="24" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>8801094746506</v>
+        <v>8801094503000</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E24" s="5" t="n">
         <v>1</v>
@@ -2324,16 +2337,16 @@
     </row>
     <row r="25" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>8801094513009</v>
+        <v>8801094746506</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E25" s="5" t="n">
         <v>1</v>
@@ -2341,16 +2354,16 @@
     </row>
     <row r="26" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>8801094082406</v>
+        <v>8801094513009</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E26" s="5" t="n">
         <v>1</v>
@@ -2358,16 +2371,16 @@
     </row>
     <row r="27" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>8801094083007</v>
+        <v>8801094082406</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E27" s="5" t="n">
         <v>1</v>
@@ -2375,16 +2388,16 @@
     </row>
     <row r="28" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>8801094082604</v>
+        <v>8801094083007</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E28" s="5" t="n">
         <v>1</v>
@@ -2392,16 +2405,16 @@
     </row>
     <row r="29" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>8801094342609</v>
+        <v>8801094082604</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E29" s="5" t="n">
         <v>1</v>
@@ -2409,16 +2422,16 @@
     </row>
     <row r="30" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>8801094362409</v>
+        <v>8801094342609</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E30" s="5" t="n">
         <v>1</v>
@@ -2426,16 +2439,16 @@
     </row>
     <row r="31" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>8801094363000</v>
+        <v>8801094362409</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E31" s="5" t="n">
         <v>1</v>
@@ -2443,16 +2456,16 @@
     </row>
     <row r="32" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>8801094362706</v>
+        <v>8801094363000</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E32" s="5" t="n">
         <v>1</v>
@@ -2460,16 +2473,16 @@
     </row>
     <row r="33" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>8801094112400</v>
+        <v>8801094362706</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E33" s="5" t="n">
         <v>1</v>
@@ -2477,16 +2490,16 @@
     </row>
     <row r="34" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>8801094113001</v>
+        <v>8801094112400</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E34" s="5" t="n">
         <v>1</v>
@@ -2494,16 +2507,16 @@
     </row>
     <row r="35" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>8801094112707</v>
+        <v>8801094113001</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E35" s="5" t="n">
         <v>1</v>
@@ -2511,16 +2524,16 @@
     </row>
     <row r="36" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>8801094132408</v>
+        <v>8801094112707</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E36" s="5" t="n">
         <v>1</v>
@@ -2528,16 +2541,16 @@
     </row>
     <row r="37" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>8801094133009</v>
+        <v>8801094132408</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E37" s="5" t="n">
         <v>1</v>
@@ -2545,16 +2558,16 @@
     </row>
     <row r="38" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>8801094132705</v>
+        <v>8801094133009</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E38" s="5" t="n">
         <v>1</v>
@@ -2562,16 +2575,16 @@
     </row>
     <row r="39" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>8801094462505</v>
+        <v>8801094132705</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E39" s="5" t="n">
         <v>1</v>
@@ -2579,16 +2592,16 @@
     </row>
     <row r="40" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>8801094462604</v>
+        <v>8801094462505</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E40" s="5" t="n">
         <v>1</v>
@@ -2596,16 +2609,16 @@
     </row>
     <row r="41" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>8801094413705</v>
+        <v>8801094462604</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E41" s="5" t="n">
         <v>1</v>
@@ -2613,16 +2626,16 @@
     </row>
     <row r="42" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>8801094412005</v>
+        <v>8801094413705</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E42" s="5" t="n">
         <v>1</v>
@@ -2630,16 +2643,16 @@
     </row>
     <row r="43" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>8801094412906</v>
+        <v>8801094412005</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E43" s="5" t="n">
         <v>1</v>
@@ -2647,16 +2660,16 @@
     </row>
     <row r="44" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>4897036691007</v>
+        <v>8801094412906</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E44" s="5" t="n">
         <v>1</v>
@@ -2664,16 +2677,16 @@
     </row>
     <row r="45" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>4897036691120</v>
+        <v>4897036691007</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E45" s="5" t="n">
         <v>1</v>
@@ -2681,16 +2694,16 @@
     </row>
     <row r="46" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>8801094013202</v>
+        <v>4897036691120</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E46" s="5" t="n">
         <v>1</v>
@@ -2698,16 +2711,16 @@
     </row>
     <row r="47" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>8801094762100</v>
+        <v>8801094013202</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E47" s="5" t="n">
         <v>1</v>
@@ -2715,16 +2728,16 @@
     </row>
     <row r="48" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>8801094783105</v>
+        <v>8801094762100</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E48" s="5" t="n">
         <v>1</v>
@@ -2732,16 +2745,16 @@
     </row>
     <row r="49" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>8801094793104</v>
+        <v>8801094783105</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E49" s="5" t="n">
         <v>1</v>
@@ -2749,16 +2762,16 @@
     </row>
     <row r="50" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>8801094562106</v>
+        <v>8801094793104</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E50" s="5" t="n">
         <v>1</v>
@@ -2766,16 +2779,16 @@
     </row>
     <row r="51" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>8801094582203</v>
+        <v>8801094562106</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E51" s="5" t="n">
         <v>1</v>
@@ -2783,16 +2796,16 @@
     </row>
     <row r="52" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>8801094603601</v>
+        <v>8801094582203</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E52" s="5" t="n">
         <v>1</v>
@@ -2800,25 +2813,40 @@
     </row>
     <row r="53" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B53" s="3" t="n">
+        <v>8801094603601</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E53" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B54" s="3" t="n">
         <v>8801094432201</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E53" s="5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="C54" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E54" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E53"/>
+  <autoFilter ref="A1:E54"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -2837,8 +2865,8 @@
   </sheetPr>
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B2:B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2848,12 +2876,12 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/CCKR_SAND/Data/CC Korea - Availability KPI_120718.xlsx
+++ b/Projects/CCKR_SAND/Data/CC Korea - Availability KPI_120718.xlsx
@@ -5,28 +5,29 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="KPI" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Template" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPI!$A$1:$E$54</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPI!$A$1:$E$54</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">KPI!$A$1:$E$54</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">KPI!$A$1:$E$54</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">KPI!$A$1:$E$54</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">KPI!$A$1:$E$54</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">KPI!$A$1:$E$54</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">KPI!$A$1:$E$54</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">KPI!$A$1:$E$54</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">KPI!$A$1:$E$54</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPI!$A$1:$E$54</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPI!$A$1:$E$54</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPI!$A$1:$E$54</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPI!$A$1:$E$54</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPI!$A$1:$E$54</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPI!$A$1:$E$53</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPI!$A$1:$E$53</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">KPI!$A$1:$E$53</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">KPI!$A$1:$E$53</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">KPI!$A$1:$E$53</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">KPI!$A$1:$E$53</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">KPI!$A$1:$E$53</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">KPI!$A$1:$E$53</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">KPI!$A$1:$E$53</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">KPI!$A$1:$E$53</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPI!$A$1:$E$53</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPI!$A$1:$E$53</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPI!$A$1:$E$53</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPI!$A$1:$E$53</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPI!$A$1:$E$53</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPI!$A$1:$E$53</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="60">
   <si>
     <t xml:space="preserve">Kpi Display Text (SKU Name)</t>
   </si>
@@ -53,15 +54,6 @@
   </si>
   <si>
     <t xml:space="preserve">Kpi Weight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">try</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8801056002749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kpi_roule</t>
   </si>
   <si>
     <r>
@@ -1913,15 +1905,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:E65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2:B54"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="49.8097165991903"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="50.2388663967611"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
@@ -1944,18 +1936,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>6</v>
+      <c r="B2" s="3" t="n">
+        <v>8801094561208</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E2" s="5" t="n">
         <v>1</v>
@@ -1963,16 +1955,16 @@
     </row>
     <row r="3" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>8801094561208</v>
+        <v>8801094862602</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E3" s="5" t="n">
         <v>1</v>
@@ -1980,16 +1972,16 @@
     </row>
     <row r="4" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>8801094862602</v>
+        <v>8801094432409</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>1</v>
@@ -1997,16 +1989,16 @@
     </row>
     <row r="5" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>8801094432409</v>
+        <v>8801094266400</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E5" s="5" t="n">
         <v>1</v>
@@ -2014,16 +2006,16 @@
     </row>
     <row r="6" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>8801094266400</v>
+        <v>8801094265205</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E6" s="5" t="n">
         <v>1</v>
@@ -2031,16 +2023,16 @@
     </row>
     <row r="7" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>8801094265205</v>
+        <v>8801094332402</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>1</v>
@@ -2048,16 +2040,16 @@
     </row>
     <row r="8" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>8801094332402</v>
+        <v>8801094642402</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E8" s="5" t="n">
         <v>1</v>
@@ -2065,16 +2057,16 @@
     </row>
     <row r="9" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B9" s="3" t="n">
-        <v>8801094642402</v>
+        <v>8801094626402</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E9" s="5" t="n">
         <v>1</v>
@@ -2082,16 +2074,16 @@
     </row>
     <row r="10" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>8801094626402</v>
+        <v>8801094743307</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>1</v>
@@ -2099,16 +2091,16 @@
     </row>
     <row r="11" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>8801094743307</v>
+        <v>8801094202408</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E11" s="5" t="n">
         <v>1</v>
@@ -2116,16 +2108,16 @@
     </row>
     <row r="12" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>8801094202408</v>
+        <v>8801094203009</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E12" s="5" t="n">
         <v>1</v>
@@ -2133,16 +2125,16 @@
     </row>
     <row r="13" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>8801094203009</v>
+        <v>8801094202606</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>1</v>
@@ -2150,16 +2142,16 @@
     </row>
     <row r="14" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>8801094202606</v>
+        <v>8801094989200</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E14" s="5" t="n">
         <v>1</v>
@@ -2167,16 +2159,16 @@
     </row>
     <row r="15" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>8801094989200</v>
+        <v>8801094985202</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E15" s="5" t="n">
         <v>1</v>
@@ -2184,16 +2176,16 @@
     </row>
     <row r="16" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>8801094985202</v>
+        <v>8801094984205</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>1</v>
@@ -2201,16 +2193,16 @@
     </row>
     <row r="17" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>8801094984205</v>
+        <v>8801094252403</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E17" s="5" t="n">
         <v>1</v>
@@ -2218,16 +2210,16 @@
     </row>
     <row r="18" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>8801094252403</v>
+        <v>8801094253004</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E18" s="5" t="n">
         <v>1</v>
@@ -2235,33 +2227,33 @@
     </row>
     <row r="19" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>8801094253004</v>
+        <v>8801094252601</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E19" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="s">
-        <v>26</v>
+      <c r="A20" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>8801094252601</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>26</v>
+        <v>8801094577100</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E20" s="5" t="n">
         <v>1</v>
@@ -2269,16 +2261,16 @@
     </row>
     <row r="21" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>8801094577100</v>
+        <v>8801094547103</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E21" s="5" t="n">
         <v>1</v>
@@ -2286,33 +2278,33 @@
     </row>
     <row r="22" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>8801094547103</v>
+        <v>8801094589103</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E22" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="6" t="s">
-        <v>29</v>
+      <c r="A23" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>8801094589103</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>29</v>
+        <v>8801094503000</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E23" s="5" t="n">
         <v>1</v>
@@ -2320,16 +2312,16 @@
     </row>
     <row r="24" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>8801094503000</v>
+        <v>8801094746506</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E24" s="5" t="n">
         <v>1</v>
@@ -2337,16 +2329,16 @@
     </row>
     <row r="25" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>8801094746506</v>
+        <v>8801094513009</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E25" s="5" t="n">
         <v>1</v>
@@ -2354,16 +2346,16 @@
     </row>
     <row r="26" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>8801094513009</v>
+        <v>8801094082406</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E26" s="5" t="n">
         <v>1</v>
@@ -2371,16 +2363,16 @@
     </row>
     <row r="27" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>8801094082406</v>
+        <v>8801094083007</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E27" s="5" t="n">
         <v>1</v>
@@ -2388,16 +2380,16 @@
     </row>
     <row r="28" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>8801094083007</v>
+        <v>8801094082604</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E28" s="5" t="n">
         <v>1</v>
@@ -2405,16 +2397,16 @@
     </row>
     <row r="29" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>8801094082604</v>
+        <v>8801094342609</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E29" s="5" t="n">
         <v>1</v>
@@ -2422,16 +2414,16 @@
     </row>
     <row r="30" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>8801094342609</v>
+        <v>8801094362409</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E30" s="5" t="n">
         <v>1</v>
@@ -2439,16 +2431,16 @@
     </row>
     <row r="31" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>8801094362409</v>
+        <v>8801094363000</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E31" s="5" t="n">
         <v>1</v>
@@ -2456,16 +2448,16 @@
     </row>
     <row r="32" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>8801094363000</v>
+        <v>8801094362706</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E32" s="5" t="n">
         <v>1</v>
@@ -2473,16 +2465,16 @@
     </row>
     <row r="33" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>8801094362706</v>
+        <v>8801094112400</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E33" s="5" t="n">
         <v>1</v>
@@ -2490,16 +2482,16 @@
     </row>
     <row r="34" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>8801094112400</v>
+        <v>8801094113001</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E34" s="5" t="n">
         <v>1</v>
@@ -2507,16 +2499,16 @@
     </row>
     <row r="35" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>8801094113001</v>
+        <v>8801094112707</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E35" s="5" t="n">
         <v>1</v>
@@ -2524,16 +2516,16 @@
     </row>
     <row r="36" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>8801094112707</v>
+        <v>8801094132408</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E36" s="5" t="n">
         <v>1</v>
@@ -2541,16 +2533,16 @@
     </row>
     <row r="37" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>8801094132408</v>
+        <v>8801094133009</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E37" s="5" t="n">
         <v>1</v>
@@ -2558,16 +2550,16 @@
     </row>
     <row r="38" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>8801094133009</v>
+        <v>8801094132705</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E38" s="5" t="n">
         <v>1</v>
@@ -2575,16 +2567,16 @@
     </row>
     <row r="39" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>8801094132705</v>
+        <v>8801094462505</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E39" s="5" t="n">
         <v>1</v>
@@ -2592,16 +2584,16 @@
     </row>
     <row r="40" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>8801094462505</v>
+        <v>8801094462604</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E40" s="5" t="n">
         <v>1</v>
@@ -2609,16 +2601,16 @@
     </row>
     <row r="41" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>8801094462604</v>
+        <v>8801094413705</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E41" s="5" t="n">
         <v>1</v>
@@ -2626,16 +2618,16 @@
     </row>
     <row r="42" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>8801094413705</v>
+        <v>8801094412005</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E42" s="5" t="n">
         <v>1</v>
@@ -2643,16 +2635,16 @@
     </row>
     <row r="43" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>8801094412005</v>
+        <v>8801094412906</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E43" s="5" t="n">
         <v>1</v>
@@ -2660,16 +2652,16 @@
     </row>
     <row r="44" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>8801094412906</v>
+        <v>4897036691007</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E44" s="5" t="n">
         <v>1</v>
@@ -2677,16 +2669,16 @@
     </row>
     <row r="45" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>4897036691007</v>
+        <v>4897036691120</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E45" s="5" t="n">
         <v>1</v>
@@ -2694,16 +2686,16 @@
     </row>
     <row r="46" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>4897036691120</v>
+        <v>8801094013202</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E46" s="5" t="n">
         <v>1</v>
@@ -2711,16 +2703,16 @@
     </row>
     <row r="47" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>8801094013202</v>
+        <v>8801094762100</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E47" s="5" t="n">
         <v>1</v>
@@ -2728,16 +2720,16 @@
     </row>
     <row r="48" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>8801094762100</v>
+        <v>8801094783105</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E48" s="5" t="n">
         <v>1</v>
@@ -2745,16 +2737,16 @@
     </row>
     <row r="49" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>8801094783105</v>
+        <v>8801094793104</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E49" s="5" t="n">
         <v>1</v>
@@ -2762,16 +2754,16 @@
     </row>
     <row r="50" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>8801094793104</v>
+        <v>8801094562106</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E50" s="5" t="n">
         <v>1</v>
@@ -2779,16 +2771,16 @@
     </row>
     <row r="51" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>8801094562106</v>
+        <v>8801094582203</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E51" s="5" t="n">
         <v>1</v>
@@ -2796,16 +2788,16 @@
     </row>
     <row r="52" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>8801094582203</v>
+        <v>8801094603601</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E52" s="5" t="n">
         <v>1</v>
@@ -2813,40 +2805,24 @@
     </row>
     <row r="53" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>8801094603601</v>
+        <v>8801094432201</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E53" s="5" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B54" s="3" t="n">
-        <v>8801094432201</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E54" s="5" t="n">
-        <v>1</v>
-      </c>
-    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:E54"/>
+  <autoFilter ref="A1:E53"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -2866,7 +2842,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B2:B54"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2876,12 +2852,12 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
